--- a/BackTest/2019-10-16 BackTest BTG.xlsx
+++ b/BackTest/2019-10-16 BackTest BTG.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>400</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-12.82051282051282</v>
+      </c>
       <c r="L12" t="n">
         <v>9469</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>465</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-26.66666666666667</v>
+      </c>
       <c r="L13" t="n">
         <v>9457.5</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>480</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-10</v>
+      </c>
       <c r="L14" t="n">
         <v>9447</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>485</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-2.702702702702703</v>
+      </c>
       <c r="L15" t="n">
         <v>9442.5</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>495</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-45.45454545454545</v>
+      </c>
       <c r="L16" t="n">
         <v>9440.5</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>545</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>13.63636363636363</v>
+      </c>
       <c r="L17" t="n">
         <v>9433</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>610</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-9.090909090909092</v>
+      </c>
       <c r="L18" t="n">
         <v>9429.5</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>690</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>17.14285714285714</v>
+      </c>
       <c r="L19" t="n">
         <v>9435</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>710</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>21.62162162162162</v>
+      </c>
       <c r="L20" t="n">
         <v>9443</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>720</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>9.375</v>
+      </c>
       <c r="L21" t="n">
         <v>9452</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>720</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>37.25490196078432</v>
+      </c>
       <c r="L22" t="n">
         <v>9455</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>735</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.6896551724137931</v>
+        <v>37.25490196078432</v>
       </c>
       <c r="L23" t="n">
         <v>9466</v>
@@ -1466,7 +1488,7 @@
         <v>735</v>
       </c>
       <c r="K24" t="n">
-        <v>-1.388888888888889</v>
+        <v>40</v>
       </c>
       <c r="L24" t="n">
         <v>9475.5</v>
@@ -1515,7 +1537,7 @@
         <v>760</v>
       </c>
       <c r="K25" t="n">
-        <v>4.411764705882353</v>
+        <v>32.0754716981132</v>
       </c>
       <c r="L25" t="n">
         <v>9483</v>
@@ -1564,7 +1586,7 @@
         <v>760</v>
       </c>
       <c r="K26" t="n">
-        <v>10.07751937984496</v>
+        <v>16.27906976744186</v>
       </c>
       <c r="L26" t="n">
         <v>9491.5</v>
@@ -1613,7 +1635,7 @@
         <v>770</v>
       </c>
       <c r="K27" t="n">
-        <v>-9.090909090909092</v>
+        <v>56.25</v>
       </c>
       <c r="L27" t="n">
         <v>9494</v>
@@ -1662,7 +1684,7 @@
         <v>770</v>
       </c>
       <c r="K28" t="n">
-        <v>12.35955056179775</v>
+        <v>12.5</v>
       </c>
       <c r="L28" t="n">
         <v>9503</v>
@@ -1711,7 +1733,7 @@
         <v>780</v>
       </c>
       <c r="K29" t="n">
-        <v>16.85393258426966</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>9505</v>
@@ -1760,7 +1782,7 @@
         <v>780</v>
       </c>
       <c r="K30" t="n">
-        <v>18.18181818181818</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L30" t="n">
         <v>9505</v>
@@ -1809,7 +1831,7 @@
         <v>780</v>
       </c>
       <c r="K31" t="n">
-        <v>18.18181818181818</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L31" t="n">
         <v>9504</v>
@@ -1860,7 +1882,7 @@
         <v>800</v>
       </c>
       <c r="K32" t="n">
-        <v>10</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L32" t="n">
         <v>9505</v>
@@ -1911,7 +1933,7 @@
         <v>800</v>
       </c>
       <c r="K33" t="n">
-        <v>31.34328358208955</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L33" t="n">
         <v>9504.5</v>
@@ -1962,7 +1984,7 @@
         <v>825</v>
       </c>
       <c r="K34" t="n">
-        <v>33.33333333333333</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L34" t="n">
         <v>9506.5</v>
@@ -2013,7 +2035,7 @@
         <v>825</v>
       </c>
       <c r="K35" t="n">
-        <v>35.29411764705883</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L35" t="n">
         <v>9511</v>
@@ -2064,7 +2086,7 @@
         <v>825</v>
       </c>
       <c r="K36" t="n">
-        <v>39.39393939393939</v>
+        <v>100</v>
       </c>
       <c r="L36" t="n">
         <v>9515.5</v>
@@ -2115,7 +2137,7 @@
         <v>825</v>
       </c>
       <c r="K37" t="n">
-        <v>28.57142857142857</v>
+        <v>100</v>
       </c>
       <c r="L37" t="n">
         <v>9521</v>
@@ -2166,7 +2188,7 @@
         <v>830</v>
       </c>
       <c r="K38" t="n">
-        <v>63.63636363636363</v>
+        <v>80</v>
       </c>
       <c r="L38" t="n">
         <v>9526</v>
@@ -2217,7 +2239,7 @@
         <v>830</v>
       </c>
       <c r="K39" t="n">
-        <v>42.85714285714285</v>
+        <v>80</v>
       </c>
       <c r="L39" t="n">
         <v>9530</v>
@@ -2268,7 +2290,7 @@
         <v>830</v>
       </c>
       <c r="K40" t="n">
-        <v>33.33333333333333</v>
+        <v>80</v>
       </c>
       <c r="L40" t="n">
         <v>9534</v>
@@ -2319,7 +2341,7 @@
         <v>835</v>
       </c>
       <c r="K41" t="n">
-        <v>30.43478260869566</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L41" t="n">
         <v>9538.5</v>
@@ -2370,7 +2392,7 @@
         <v>835</v>
       </c>
       <c r="K42" t="n">
-        <v>30.43478260869566</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L42" t="n">
         <v>9541</v>
@@ -2421,7 +2443,7 @@
         <v>840</v>
       </c>
       <c r="K43" t="n">
-        <v>23.80952380952381</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L43" t="n">
         <v>9544</v>
@@ -2472,7 +2494,7 @@
         <v>840</v>
       </c>
       <c r="K44" t="n">
-        <v>23.80952380952381</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L44" t="n">
         <v>9544.5</v>
@@ -2523,7 +2545,7 @@
         <v>840</v>
       </c>
       <c r="K45" t="n">
-        <v>62.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L45" t="n">
         <v>9545</v>
@@ -2574,7 +2596,7 @@
         <v>840</v>
       </c>
       <c r="K46" t="n">
-        <v>62.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L46" t="n">
         <v>9545.5</v>
@@ -2625,7 +2647,7 @@
         <v>840</v>
       </c>
       <c r="K47" t="n">
-        <v>85.71428571428571</v>
+        <v>100</v>
       </c>
       <c r="L47" t="n">
         <v>9546</v>
@@ -2676,7 +2698,7 @@
         <v>840</v>
       </c>
       <c r="K48" t="n">
-        <v>85.71428571428571</v>
+        <v>100</v>
       </c>
       <c r="L48" t="n">
         <v>9547</v>
@@ -2727,7 +2749,7 @@
         <v>840</v>
       </c>
       <c r="K49" t="n">
-        <v>83.33333333333334</v>
+        <v>100</v>
       </c>
       <c r="L49" t="n">
         <v>9548</v>
@@ -2778,7 +2800,7 @@
         <v>840</v>
       </c>
       <c r="K50" t="n">
-        <v>83.33333333333334</v>
+        <v>100</v>
       </c>
       <c r="L50" t="n">
         <v>9549</v>
@@ -2829,7 +2851,7 @@
         <v>840</v>
       </c>
       <c r="K51" t="n">
-        <v>83.33333333333334</v>
+        <v>100</v>
       </c>
       <c r="L51" t="n">
         <v>9549.5</v>
@@ -2879,9 +2901,7 @@
       <c r="J52" t="n">
         <v>840</v>
       </c>
-      <c r="K52" t="n">
-        <v>75</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>9550</v>
       </c>
@@ -2930,9 +2950,7 @@
       <c r="J53" t="n">
         <v>840</v>
       </c>
-      <c r="K53" t="n">
-        <v>75</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>9550</v>
       </c>
@@ -2981,9 +2999,7 @@
       <c r="J54" t="n">
         <v>840</v>
       </c>
-      <c r="K54" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>9550</v>
       </c>
@@ -3032,9 +3048,7 @@
       <c r="J55" t="n">
         <v>840</v>
       </c>
-      <c r="K55" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>9550</v>
       </c>
@@ -3084,7 +3098,7 @@
         <v>875</v>
       </c>
       <c r="K56" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L56" t="n">
         <v>9553.5</v>
@@ -3135,7 +3149,7 @@
         <v>880</v>
       </c>
       <c r="K57" t="n">
-        <v>63.63636363636363</v>
+        <v>75</v>
       </c>
       <c r="L57" t="n">
         <v>9556.5</v>
@@ -3186,7 +3200,7 @@
         <v>890</v>
       </c>
       <c r="K58" t="n">
-        <v>83.33333333333334</v>
+        <v>80</v>
       </c>
       <c r="L58" t="n">
         <v>9560.5</v>
@@ -3237,7 +3251,7 @@
         <v>890</v>
       </c>
       <c r="K59" t="n">
-        <v>83.33333333333334</v>
+        <v>80</v>
       </c>
       <c r="L59" t="n">
         <v>9564.5</v>
@@ -3288,7 +3302,7 @@
         <v>920</v>
       </c>
       <c r="K60" t="n">
-        <v>22.22222222222222</v>
+        <v>12.5</v>
       </c>
       <c r="L60" t="n">
         <v>9565.5</v>
@@ -3339,7 +3353,7 @@
         <v>920</v>
       </c>
       <c r="K61" t="n">
-        <v>17.64705882352941</v>
+        <v>12.5</v>
       </c>
       <c r="L61" t="n">
         <v>9566.5</v>
@@ -3390,7 +3404,7 @@
         <v>950</v>
       </c>
       <c r="K62" t="n">
-        <v>39.1304347826087</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L62" t="n">
         <v>9570.5</v>
@@ -3543,7 +3557,7 @@
         <v>1005</v>
       </c>
       <c r="K65" t="n">
-        <v>3.03030303030303</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L65" t="n">
         <v>9580</v>
@@ -3594,7 +3608,7 @@
         <v>1045</v>
       </c>
       <c r="K66" t="n">
-        <v>21.95121951219512</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L66" t="n">
         <v>9581</v>
@@ -3645,7 +3659,7 @@
         <v>1045</v>
       </c>
       <c r="K67" t="n">
-        <v>21.95121951219512</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L67" t="n">
         <v>9582.5</v>
@@ -3696,7 +3710,7 @@
         <v>1045</v>
       </c>
       <c r="K68" t="n">
-        <v>21.95121951219512</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L68" t="n">
         <v>9583</v>
@@ -3747,7 +3761,7 @@
         <v>1050</v>
       </c>
       <c r="K69" t="n">
-        <v>23.80952380952381</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L69" t="n">
         <v>9584</v>
@@ -3798,7 +3812,7 @@
         <v>1050</v>
       </c>
       <c r="K70" t="n">
-        <v>23.80952380952381</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L70" t="n">
         <v>9588</v>
@@ -3849,7 +3863,7 @@
         <v>1095</v>
       </c>
       <c r="K71" t="n">
-        <v>1.96078431372549</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L71" t="n">
         <v>9587.5</v>
@@ -3900,7 +3914,7 @@
         <v>1175</v>
       </c>
       <c r="K72" t="n">
-        <v>25.37313432835821</v>
+        <v>20</v>
       </c>
       <c r="L72" t="n">
         <v>9592</v>
@@ -3951,7 +3965,7 @@
         <v>1180</v>
       </c>
       <c r="K73" t="n">
-        <v>26.47058823529412</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L73" t="n">
         <v>9597</v>
@@ -4002,7 +4016,7 @@
         <v>1180</v>
       </c>
       <c r="K74" t="n">
-        <v>26.47058823529412</v>
+        <v>48.57142857142857</v>
       </c>
       <c r="L74" t="n">
         <v>9601</v>
@@ -4053,7 +4067,7 @@
         <v>1180</v>
       </c>
       <c r="K75" t="n">
-        <v>26.47058823529412</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L75" t="n">
         <v>9609.5</v>
@@ -4104,7 +4118,7 @@
         <v>1190</v>
       </c>
       <c r="K76" t="n">
-        <v>20.63492063492063</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="L76" t="n">
         <v>9615</v>
@@ -4155,7 +4169,7 @@
         <v>1210</v>
       </c>
       <c r="K77" t="n">
-        <v>27.27272727272727</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L77" t="n">
         <v>9622.5</v>
@@ -4206,7 +4220,7 @@
         <v>1255</v>
       </c>
       <c r="K78" t="n">
-        <v>9.58904109589041</v>
+        <v>12.19512195121951</v>
       </c>
       <c r="L78" t="n">
         <v>9625.5</v>
@@ -4257,7 +4271,7 @@
         <v>1305</v>
       </c>
       <c r="K79" t="n">
-        <v>20.48192771084337</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L79" t="n">
         <v>9633</v>
@@ -4308,7 +4322,7 @@
         <v>1315</v>
       </c>
       <c r="K80" t="n">
-        <v>26.58227848101265</v>
+        <v>50</v>
       </c>
       <c r="L80" t="n">
         <v>9639.5</v>
@@ -4359,7 +4373,7 @@
         <v>1390</v>
       </c>
       <c r="K81" t="n">
-        <v>6.382978723404255</v>
+        <v>-20.93023255813954</v>
       </c>
       <c r="L81" t="n">
         <v>9643</v>
@@ -4410,7 +4424,7 @@
         <v>1460</v>
       </c>
       <c r="K82" t="n">
-        <v>13.72549019607843</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L82" t="n">
         <v>9645.5</v>
@@ -4461,7 +4475,7 @@
         <v>1535</v>
       </c>
       <c r="K83" t="n">
-        <v>-0.8547008547008548</v>
+        <v>-15.49295774647887</v>
       </c>
       <c r="L83" t="n">
         <v>9640</v>
@@ -4512,7 +4526,7 @@
         <v>1650</v>
       </c>
       <c r="K84" t="n">
-        <v>14.49275362318841</v>
+        <v>12.76595744680851</v>
       </c>
       <c r="L84" t="n">
         <v>9646</v>
@@ -4563,7 +4577,7 @@
         <v>1735</v>
       </c>
       <c r="K85" t="n">
-        <v>8.21917808219178</v>
+        <v>-6.422018348623854</v>
       </c>
       <c r="L85" t="n">
         <v>9643.5</v>
@@ -4614,7 +4628,7 @@
         <v>1910</v>
       </c>
       <c r="K86" t="n">
-        <v>22.54335260115607</v>
+        <v>17.14285714285714</v>
       </c>
       <c r="L86" t="n">
         <v>9657.5</v>
@@ -4665,7 +4679,7 @@
         <v>1920</v>
       </c>
       <c r="K87" t="n">
-        <v>23.42857142857143</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L87" t="n">
         <v>9670.5</v>
@@ -4716,7 +4730,7 @@
         <v>1955</v>
       </c>
       <c r="K88" t="n">
-        <v>26.37362637362638</v>
+        <v>24.61538461538462</v>
       </c>
       <c r="L88" t="n">
         <v>9691.5</v>
@@ -4767,7 +4781,7 @@
         <v>2045</v>
       </c>
       <c r="K89" t="n">
-        <v>14.57286432160804</v>
+        <v>10.95890410958904</v>
       </c>
       <c r="L89" t="n">
         <v>9698.5</v>
@@ -4818,7 +4832,7 @@
         <v>2195</v>
       </c>
       <c r="K90" t="n">
-        <v>25.76419213973799</v>
+        <v>37.88819875776397</v>
       </c>
       <c r="L90" t="n">
         <v>9721.5</v>
@@ -4869,7 +4883,7 @@
         <v>2195</v>
       </c>
       <c r="K91" t="n">
-        <v>30.90909090909091</v>
+        <v>31.97278911564626</v>
       </c>
       <c r="L91" t="n">
         <v>9752</v>
@@ -4920,7 +4934,7 @@
         <v>2200</v>
       </c>
       <c r="K92" t="n">
-        <v>24.87804878048781</v>
+        <v>45.86466165413533</v>
       </c>
       <c r="L92" t="n">
         <v>9775</v>
@@ -4971,7 +4985,7 @@
         <v>2200</v>
       </c>
       <c r="K93" t="n">
-        <v>24.50980392156863</v>
+        <v>34.54545454545455</v>
       </c>
       <c r="L93" t="n">
         <v>9805.5</v>
@@ -5022,7 +5036,7 @@
         <v>2210</v>
       </c>
       <c r="K94" t="n">
-        <v>25.24271844660194</v>
+        <v>60</v>
       </c>
       <c r="L94" t="n">
         <v>9825.5</v>
@@ -5073,7 +5087,7 @@
         <v>2210</v>
       </c>
       <c r="K95" t="n">
-        <v>25.24271844660194</v>
+        <v>36.66666666666666</v>
       </c>
       <c r="L95" t="n">
         <v>9854</v>
@@ -5124,7 +5138,7 @@
         <v>2300</v>
       </c>
       <c r="K96" t="n">
-        <v>14.41441441441441</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="L96" t="n">
         <v>9856</v>
@@ -5175,7 +5189,7 @@
         <v>2305</v>
       </c>
       <c r="K97" t="n">
-        <v>12.32876712328767</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L97" t="n">
         <v>9856.5</v>
@@ -5226,7 +5240,7 @@
         <v>2385</v>
       </c>
       <c r="K98" t="n">
-        <v>23.00884955752212</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L98" t="n">
         <v>9861.5</v>
@@ -5277,7 +5291,7 @@
         <v>2455</v>
       </c>
       <c r="K99" t="n">
-        <v>12.17391304347826</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L99" t="n">
         <v>9868.5</v>
@@ -5328,7 +5342,7 @@
         <v>2455</v>
       </c>
       <c r="K100" t="n">
-        <v>13.1578947368421</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L100" t="n">
         <v>9860.5</v>
@@ -5379,7 +5393,7 @@
         <v>2535</v>
       </c>
       <c r="K101" t="n">
-        <v>26.63755458515284</v>
+        <v>1.492537313432836</v>
       </c>
       <c r="L101" t="n">
         <v>9860.5</v>
@@ -5430,7 +5444,7 @@
         <v>2540</v>
       </c>
       <c r="K102" t="n">
-        <v>21.2962962962963</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>9860.5</v>
@@ -5481,7 +5495,7 @@
         <v>2555</v>
       </c>
       <c r="K103" t="n">
-        <v>28.43137254901961</v>
+        <v>-7.246376811594203</v>
       </c>
       <c r="L103" t="n">
         <v>9859</v>
@@ -5532,7 +5546,7 @@
         <v>2575</v>
       </c>
       <c r="K104" t="n">
-        <v>16.75675675675676</v>
+        <v>-12.32876712328767</v>
       </c>
       <c r="L104" t="n">
         <v>9854.5</v>
@@ -5583,7 +5597,7 @@
         <v>2600</v>
       </c>
       <c r="K105" t="n">
-        <v>30.63583815028902</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="L105" t="n">
         <v>9852.5</v>
@@ -5634,7 +5648,7 @@
         <v>2610</v>
       </c>
       <c r="K106" t="n">
-        <v>14.28571428571428</v>
+        <v>27.86885245901639</v>
       </c>
       <c r="L106" t="n">
         <v>9860.5</v>
@@ -5685,7 +5699,7 @@
         <v>2705</v>
       </c>
       <c r="K107" t="n">
-        <v>-0.6369426751592357</v>
+        <v>-28.125</v>
       </c>
       <c r="L107" t="n">
         <v>9859.5</v>
@@ -5736,7 +5750,7 @@
         <v>2790</v>
       </c>
       <c r="K108" t="n">
-        <v>5.389221556886228</v>
+        <v>19.40298507462687</v>
       </c>
       <c r="L108" t="n">
         <v>9859</v>
@@ -5787,7 +5801,7 @@
         <v>2860</v>
       </c>
       <c r="K109" t="n">
-        <v>7.975460122699387</v>
+        <v>-1.234567901234568</v>
       </c>
       <c r="L109" t="n">
         <v>9858.5</v>
@@ -5838,7 +5852,7 @@
         <v>2900</v>
       </c>
       <c r="K110" t="n">
-        <v>-6.382978723404255</v>
+        <v>-12.32876712328767</v>
       </c>
       <c r="L110" t="n">
         <v>9862</v>
@@ -5889,7 +5903,7 @@
         <v>2940</v>
       </c>
       <c r="K111" t="n">
-        <v>-11.40939597315436</v>
+        <v>-20</v>
       </c>
       <c r="L111" t="n">
         <v>9853.5</v>
@@ -5940,7 +5954,7 @@
         <v>2940</v>
       </c>
       <c r="K112" t="n">
-        <v>-10.81081081081081</v>
+        <v>-16.88311688311688</v>
       </c>
       <c r="L112" t="n">
         <v>9845.5</v>
@@ -5991,7 +6005,7 @@
         <v>2970</v>
       </c>
       <c r="K113" t="n">
-        <v>-6.493506493506493</v>
+        <v>-3.79746835443038</v>
       </c>
       <c r="L113" t="n">
         <v>9842</v>
@@ -6042,7 +6056,7 @@
         <v>3000</v>
       </c>
       <c r="K114" t="n">
-        <v>-11.39240506329114</v>
+        <v>-17.5</v>
       </c>
       <c r="L114" t="n">
         <v>9837.5</v>
@@ -6093,7 +6107,7 @@
         <v>3000</v>
       </c>
       <c r="K115" t="n">
-        <v>-11.39240506329114</v>
+        <v>-20.51282051282051</v>
       </c>
       <c r="L115" t="n">
         <v>9830.5</v>
@@ -6144,7 +6158,7 @@
         <v>3000</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>5.084745762711865</v>
       </c>
       <c r="L116" t="n">
         <v>9822.5</v>
@@ -6195,7 +6209,7 @@
         <v>3070</v>
       </c>
       <c r="K117" t="n">
-        <v>-8.496732026143791</v>
+        <v>-50</v>
       </c>
       <c r="L117" t="n">
         <v>9817</v>
@@ -6246,7 +6260,7 @@
         <v>3120</v>
       </c>
       <c r="K118" t="n">
-        <v>-12.92517006802721</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L118" t="n">
         <v>9808</v>
@@ -6297,7 +6311,7 @@
         <v>3185</v>
       </c>
       <c r="K119" t="n">
-        <v>-12.32876712328767</v>
+        <v>-43.85964912280701</v>
       </c>
       <c r="L119" t="n">
         <v>9799.5</v>
@@ -6348,7 +6362,7 @@
         <v>3205</v>
       </c>
       <c r="K120" t="n">
-        <v>-14.66666666666667</v>
+        <v>-39.62264150943396</v>
       </c>
       <c r="L120" t="n">
         <v>9785</v>
@@ -6399,7 +6413,7 @@
         <v>3285</v>
       </c>
       <c r="K121" t="n">
-        <v>-14.66666666666667</v>
+        <v>-7.246376811594203</v>
       </c>
       <c r="L121" t="n">
         <v>9782.5</v>
@@ -6450,7 +6464,7 @@
         <v>3325</v>
       </c>
       <c r="K122" t="n">
-        <v>-18.47133757961783</v>
+        <v>-26.76056338028169</v>
       </c>
       <c r="L122" t="n">
         <v>9776</v>
@@ -6501,7 +6515,7 @@
         <v>3375</v>
       </c>
       <c r="K123" t="n">
-        <v>-9.75609756097561</v>
+        <v>-4</v>
       </c>
       <c r="L123" t="n">
         <v>9771.5</v>
@@ -6552,7 +6566,7 @@
         <v>3385</v>
       </c>
       <c r="K124" t="n">
-        <v>-8.641975308641975</v>
+        <v>-6.493506493506493</v>
       </c>
       <c r="L124" t="n">
         <v>9769</v>
@@ -6603,7 +6617,7 @@
         <v>3490</v>
       </c>
       <c r="K125" t="n">
-        <v>1.123595505617978</v>
+        <v>16.3265306122449</v>
       </c>
       <c r="L125" t="n">
         <v>9777</v>
@@ -6654,7 +6668,7 @@
         <v>3495</v>
       </c>
       <c r="K126" t="n">
-        <v>0.5649717514124294</v>
+        <v>36.47058823529412</v>
       </c>
       <c r="L126" t="n">
         <v>9785.5</v>
@@ -6705,7 +6719,7 @@
         <v>3530</v>
       </c>
       <c r="K127" t="n">
-        <v>16.36363636363636</v>
+        <v>34.14634146341464</v>
       </c>
       <c r="L127" t="n">
         <v>9804.5</v>
@@ -6756,7 +6770,7 @@
         <v>3620</v>
       </c>
       <c r="K128" t="n">
-        <v>-4.819277108433735</v>
+        <v>26.4367816091954</v>
       </c>
       <c r="L128" t="n">
         <v>9809.5</v>
@@ -6807,7 +6821,7 @@
         <v>3750</v>
       </c>
       <c r="K129" t="n">
-        <v>-11.23595505617977</v>
+        <v>0.9174311926605505</v>
       </c>
       <c r="L129" t="n">
         <v>9808</v>
@@ -6858,7 +6872,7 @@
         <v>3755</v>
       </c>
       <c r="K130" t="n">
-        <v>-16.95906432748538</v>
+        <v>-17.02127659574468</v>
       </c>
       <c r="L130" t="n">
         <v>9808</v>
@@ -6909,7 +6923,7 @@
         <v>3755</v>
       </c>
       <c r="K131" t="n">
-        <v>-12.88343558282209</v>
+        <v>-9.302325581395349</v>
       </c>
       <c r="L131" t="n">
         <v>9800</v>
@@ -6960,7 +6974,7 @@
         <v>3760</v>
       </c>
       <c r="K132" t="n">
-        <v>-13.41463414634146</v>
+        <v>-24.67532467532467</v>
       </c>
       <c r="L132" t="n">
         <v>9795.5</v>
@@ -7011,7 +7025,7 @@
         <v>3840</v>
       </c>
       <c r="K133" t="n">
-        <v>-25.28735632183908</v>
+        <v>-36.26373626373626</v>
       </c>
       <c r="L133" t="n">
         <v>9778</v>
@@ -7062,7 +7076,7 @@
         <v>3840</v>
       </c>
       <c r="K134" t="n">
-        <v>-22.61904761904762</v>
+        <v>-77.14285714285715</v>
       </c>
       <c r="L134" t="n">
         <v>9761.5</v>
@@ -7113,7 +7127,7 @@
         <v>3845</v>
       </c>
       <c r="K135" t="n">
-        <v>-23.07692307692308</v>
+        <v>-80</v>
       </c>
       <c r="L135" t="n">
         <v>9734</v>
@@ -7164,7 +7178,7 @@
         <v>3845</v>
       </c>
       <c r="K136" t="n">
-        <v>-23.07692307692308</v>
+        <v>-100</v>
       </c>
       <c r="L136" t="n">
         <v>9706</v>
@@ -7215,7 +7229,7 @@
         <v>3845</v>
       </c>
       <c r="K137" t="n">
-        <v>-16.12903225806452</v>
+        <v>-100</v>
       </c>
       <c r="L137" t="n">
         <v>9674.5</v>
@@ -7266,7 +7280,7 @@
         <v>3850</v>
       </c>
       <c r="K138" t="n">
-        <v>-23.28767123287671</v>
+        <v>-90</v>
       </c>
       <c r="L138" t="n">
         <v>9652.5</v>
@@ -7317,7 +7331,7 @@
         <v>3870</v>
       </c>
       <c r="K139" t="n">
-        <v>-12.40875912408759</v>
+        <v>-56.52173913043478</v>
       </c>
       <c r="L139" t="n">
         <v>9645.5</v>
@@ -7368,7 +7382,7 @@
         <v>3930</v>
       </c>
       <c r="K140" t="n">
-        <v>-0.6896551724137931</v>
+        <v>-2.857142857142857</v>
       </c>
       <c r="L140" t="n">
         <v>9645</v>
@@ -7419,7 +7433,7 @@
         <v>3950</v>
       </c>
       <c r="K141" t="n">
-        <v>-9.774436090225564</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="L141" t="n">
         <v>9646.5</v>
@@ -7470,7 +7484,7 @@
         <v>4015</v>
       </c>
       <c r="K142" t="n">
-        <v>-13.04347826086956</v>
+        <v>20</v>
       </c>
       <c r="L142" t="n">
         <v>9642</v>
@@ -7521,7 +7535,7 @@
         <v>4015</v>
       </c>
       <c r="K143" t="n">
-        <v>-21.875</v>
+        <v>20</v>
       </c>
       <c r="L143" t="n">
         <v>9645.5</v>
@@ -7572,7 +7586,7 @@
         <v>4035</v>
       </c>
       <c r="K144" t="n">
-        <v>-23.07692307692308</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="L144" t="n">
         <v>9647</v>
@@ -7623,7 +7637,7 @@
         <v>4040</v>
       </c>
       <c r="K145" t="n">
-        <v>-47.27272727272727</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L145" t="n">
         <v>9648.5</v>
@@ -7674,7 +7688,7 @@
         <v>4045</v>
       </c>
       <c r="K146" t="n">
-        <v>-47.27272727272727</v>
+        <v>10</v>
       </c>
       <c r="L146" t="n">
         <v>9650.5</v>
@@ -7725,7 +7739,7 @@
         <v>4050</v>
       </c>
       <c r="K147" t="n">
-        <v>-57.69230769230769</v>
+        <v>5</v>
       </c>
       <c r="L147" t="n">
         <v>9652</v>
@@ -7776,7 +7790,7 @@
         <v>4100</v>
       </c>
       <c r="K148" t="n">
-        <v>-33.33333333333333</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="L148" t="n">
         <v>9658</v>
@@ -7827,7 +7841,7 @@
         <v>4100</v>
       </c>
       <c r="K149" t="n">
-        <v>-8.571428571428571</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L149" t="n">
         <v>9662</v>
@@ -7878,7 +7892,7 @@
         <v>4110</v>
       </c>
       <c r="K150" t="n">
-        <v>-4.225352112676056</v>
+        <v>-18.75</v>
       </c>
       <c r="L150" t="n">
         <v>9661</v>
@@ -7929,7 +7943,7 @@
         <v>4155</v>
       </c>
       <c r="K151" t="n">
-        <v>-15</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L151" t="n">
         <v>9653.5</v>
@@ -7980,7 +7994,7 @@
         <v>4160</v>
       </c>
       <c r="K152" t="n">
-        <v>-15</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L152" t="n">
         <v>9652</v>
@@ -8031,7 +8045,7 @@
         <v>4215</v>
       </c>
       <c r="K153" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L153" t="n">
         <v>9656</v>
@@ -8082,7 +8096,7 @@
         <v>4275</v>
       </c>
       <c r="K154" t="n">
-        <v>3.448275862068965</v>
+        <v>2.127659574468085</v>
       </c>
       <c r="L154" t="n">
         <v>9656</v>
@@ -8133,7 +8147,7 @@
         <v>4275</v>
       </c>
       <c r="K155" t="n">
-        <v>4.651162790697675</v>
+        <v>0</v>
       </c>
       <c r="L155" t="n">
         <v>9656.5</v>
@@ -8184,7 +8198,7 @@
         <v>4280</v>
       </c>
       <c r="K156" t="n">
-        <v>3.448275862068965</v>
+        <v>0</v>
       </c>
       <c r="L156" t="n">
         <v>9656</v>
@@ -8235,7 +8249,7 @@
         <v>4325</v>
       </c>
       <c r="K157" t="n">
-        <v>12.5</v>
+        <v>-2.222222222222222</v>
       </c>
       <c r="L157" t="n">
         <v>9660.5</v>
@@ -8286,7 +8300,7 @@
         <v>4330</v>
       </c>
       <c r="K158" t="n">
-        <v>10.41666666666667</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L158" t="n">
         <v>9659.5</v>
@@ -8337,7 +8351,7 @@
         <v>4340</v>
       </c>
       <c r="K159" t="n">
-        <v>8.51063829787234</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L159" t="n">
         <v>9659.5</v>
@@ -8388,7 +8402,7 @@
         <v>4420</v>
       </c>
       <c r="K160" t="n">
-        <v>-20.40816326530612</v>
+        <v>-16.9811320754717</v>
       </c>
       <c r="L160" t="n">
         <v>9650.5</v>
@@ -8439,7 +8453,7 @@
         <v>4500</v>
       </c>
       <c r="K161" t="n">
-        <v>-7.272727272727272</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L161" t="n">
         <v>9654</v>
@@ -8490,7 +8504,7 @@
         <v>4505</v>
       </c>
       <c r="K162" t="n">
-        <v>4.081632653061225</v>
+        <v>-6.896551724137931</v>
       </c>
       <c r="L162" t="n">
         <v>9657.5</v>
@@ -8541,7 +8555,7 @@
         <v>4505</v>
       </c>
       <c r="K163" t="n">
-        <v>4.081632653061225</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="L163" t="n">
         <v>9655.5</v>
@@ -8592,7 +8606,7 @@
         <v>4505</v>
       </c>
       <c r="K164" t="n">
-        <v>8.51063829787234</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="L164" t="n">
         <v>9659.5</v>
@@ -8643,7 +8657,7 @@
         <v>4505</v>
       </c>
       <c r="K165" t="n">
-        <v>9.67741935483871</v>
+        <v>20</v>
       </c>
       <c r="L165" t="n">
         <v>9663.5</v>
@@ -8694,7 +8708,7 @@
         <v>4515</v>
       </c>
       <c r="K166" t="n">
-        <v>10.63829787234043</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L166" t="n">
         <v>9669</v>
@@ -8745,7 +8759,7 @@
         <v>4515</v>
       </c>
       <c r="K167" t="n">
-        <v>11.82795698924731</v>
+        <v>8.108108108108109</v>
       </c>
       <c r="L167" t="n">
         <v>9670</v>
@@ -8796,7 +8810,7 @@
         <v>4590</v>
       </c>
       <c r="K168" t="n">
-        <v>-14.28571428571428</v>
+        <v>-28</v>
       </c>
       <c r="L168" t="n">
         <v>9664</v>
@@ -8847,7 +8861,7 @@
         <v>4595</v>
       </c>
       <c r="K169" t="n">
-        <v>-13.13131313131313</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="L169" t="n">
         <v>9657.5</v>
@@ -8898,7 +8912,7 @@
         <v>4595</v>
       </c>
       <c r="K170" t="n">
-        <v>-15.4639175257732</v>
+        <v>-68.42105263157895</v>
       </c>
       <c r="L170" t="n">
         <v>9659</v>
@@ -8949,7 +8963,7 @@
         <v>4595</v>
       </c>
       <c r="K171" t="n">
-        <v>-6.818181818181817</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L171" t="n">
         <v>9652.5</v>
@@ -9000,7 +9014,7 @@
         <v>4650</v>
       </c>
       <c r="K172" t="n">
-        <v>6.122448979591836</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L172" t="n">
         <v>9652</v>
@@ -9051,7 +9065,7 @@
         <v>4720</v>
       </c>
       <c r="K173" t="n">
-        <v>-18.81188118811881</v>
+        <v>-34.88372093023256</v>
       </c>
       <c r="L173" t="n">
         <v>9644.5</v>
@@ -9102,7 +9116,7 @@
         <v>4785</v>
       </c>
       <c r="K174" t="n">
-        <v>5.88235294117647</v>
+        <v>-3.571428571428571</v>
       </c>
       <c r="L174" t="n">
         <v>9643.5</v>
@@ -9153,7 +9167,7 @@
         <v>4820</v>
       </c>
       <c r="K175" t="n">
-        <v>11.92660550458716</v>
+        <v>4.918032786885246</v>
       </c>
       <c r="L175" t="n">
         <v>9646</v>

--- a/BackTest/2019-10-16 BackTest BTG.xlsx
+++ b/BackTest/2019-10-16 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S175"/>
+  <dimension ref="A1:M154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-70</v>
-      </c>
-      <c r="J5" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-105</v>
-      </c>
-      <c r="J6" t="n">
-        <v>115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -697,18 +631,10 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>220</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-105</v>
-      </c>
-      <c r="J8" t="n">
-        <v>325</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-115</v>
-      </c>
-      <c r="J9" t="n">
-        <v>335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-120</v>
-      </c>
-      <c r="J10" t="n">
-        <v>340</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-120</v>
-      </c>
-      <c r="J11" t="n">
-        <v>340</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>9475</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -909,27 +801,19 @@
         <v>9512.666666666666</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>400</v>
+        <v>9480</v>
       </c>
       <c r="K12" t="n">
-        <v>-12.82051282051282</v>
-      </c>
-      <c r="L12" t="n">
-        <v>9469</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>9480</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -956,27 +840,23 @@
         <v>9511.333333333334</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>-125</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>465</v>
+        <v>9415</v>
       </c>
       <c r="K13" t="n">
-        <v>-26.66666666666667</v>
-      </c>
-      <c r="L13" t="n">
-        <v>9457.5</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>9480</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1003,27 +883,23 @@
         <v>9510.25</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>-110</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>480</v>
+        <v>9430</v>
       </c>
       <c r="K14" t="n">
-        <v>-10</v>
-      </c>
-      <c r="L14" t="n">
-        <v>9447</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>9480</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1050,27 +926,19 @@
         <v>9509.083333333334</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>-115</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>485</v>
+        <v>9425</v>
       </c>
       <c r="K15" t="n">
-        <v>-2.702702702702703</v>
-      </c>
-      <c r="L15" t="n">
-        <v>9442.5</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>9425</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1097,27 +965,23 @@
         <v>9506.916666666666</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>-125</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>495</v>
+        <v>9455</v>
       </c>
       <c r="K16" t="n">
-        <v>-45.45454545454545</v>
-      </c>
-      <c r="L16" t="n">
-        <v>9440.5</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>9425</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1144,27 +1008,23 @@
         <v>9506.583333333334</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>545</v>
+        <v>9410</v>
       </c>
       <c r="K17" t="n">
-        <v>13.63636363636363</v>
-      </c>
-      <c r="L17" t="n">
-        <v>9433</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>9425</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1191,27 +1051,23 @@
         <v>9505.166666666666</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>-140</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>610</v>
+        <v>9400</v>
       </c>
       <c r="K18" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L18" t="n">
-        <v>9429.5</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>9425</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,27 +1094,23 @@
         <v>9505.166666666666</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>690</v>
+        <v>9400</v>
       </c>
       <c r="K19" t="n">
-        <v>17.14285714285714</v>
-      </c>
-      <c r="L19" t="n">
-        <v>9435</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>9425</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1285,27 +1137,23 @@
         <v>9504.583333333334</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>710</v>
+        <v>9480</v>
       </c>
       <c r="K20" t="n">
-        <v>21.62162162162162</v>
-      </c>
-      <c r="L20" t="n">
-        <v>9443</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>9425</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1332,29 +1180,23 @@
         <v>9504</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>720</v>
+        <v>9510</v>
       </c>
       <c r="K21" t="n">
-        <v>9.375</v>
-      </c>
-      <c r="L21" t="n">
-        <v>9452</v>
+        <v>9425</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>9463.5</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1381,29 +1223,23 @@
         <v>9503.416666666666</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>720</v>
+        <v>9510</v>
       </c>
       <c r="K22" t="n">
-        <v>37.25490196078432</v>
-      </c>
-      <c r="L22" t="n">
-        <v>9455</v>
+        <v>9425</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>9462</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1430,29 +1266,23 @@
         <v>9504.666666666666</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>735</v>
+        <v>9525</v>
       </c>
       <c r="K23" t="n">
-        <v>37.25490196078432</v>
-      </c>
-      <c r="L23" t="n">
-        <v>9466</v>
+        <v>9425</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>9461.75</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,29 +1309,23 @@
         <v>9504.5</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>735</v>
+        <v>9525</v>
       </c>
       <c r="K24" t="n">
-        <v>40</v>
-      </c>
-      <c r="L24" t="n">
-        <v>9475.5</v>
+        <v>9425</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>9461.25</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1355,18 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-40</v>
-      </c>
-      <c r="J25" t="n">
-        <v>760</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>32.0754716981132</v>
-      </c>
-      <c r="L25" t="n">
-        <v>9483</v>
+        <v>9425</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>9462.75</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1396,18 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-40</v>
-      </c>
-      <c r="J26" t="n">
-        <v>760</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>16.27906976744186</v>
-      </c>
-      <c r="L26" t="n">
-        <v>9491.5</v>
+        <v>9425</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>9466</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1437,18 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J27" t="n">
-        <v>770</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>56.25</v>
-      </c>
-      <c r="L27" t="n">
-        <v>9494</v>
+        <v>9425</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>9463.5</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1478,18 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J28" t="n">
-        <v>770</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L28" t="n">
-        <v>9503</v>
+        <v>9425</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>9466.25</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,29 +1516,23 @@
         <v>9501.083333333334</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>780</v>
+        <v>9490</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>9505</v>
+        <v>9425</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>9470</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1773,29 +1559,23 @@
         <v>9500.416666666666</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>780</v>
+        <v>9500</v>
       </c>
       <c r="K30" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L30" t="n">
-        <v>9505</v>
+        <v>9425</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>9474</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1822,31 +1602,23 @@
         <v>9499.583333333334</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>780</v>
+        <v>9500</v>
       </c>
       <c r="K31" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L31" t="n">
-        <v>9504</v>
+        <v>9425</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>9478</v>
-      </c>
-      <c r="N31" t="n">
-        <v>9477</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1873,31 +1645,23 @@
         <v>9499.083333333334</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>800</v>
+        <v>9500</v>
       </c>
       <c r="K32" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L32" t="n">
-        <v>9505</v>
+        <v>9425</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>9480</v>
-      </c>
-      <c r="N32" t="n">
-        <v>9476.333333333334</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1924,31 +1688,23 @@
         <v>9498.583333333334</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>800</v>
+        <v>9520</v>
       </c>
       <c r="K33" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L33" t="n">
-        <v>9504.5</v>
+        <v>9425</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>9485.25</v>
-      </c>
-      <c r="N33" t="n">
-        <v>9476</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1734,18 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
-      </c>
-      <c r="J34" t="n">
-        <v>825</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>69.23076923076923</v>
-      </c>
-      <c r="L34" t="n">
-        <v>9506.5</v>
+        <v>9425</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>9491</v>
-      </c>
-      <c r="N34" t="n">
-        <v>9476.333333333334</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1775,18 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>825</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>69.23076923076923</v>
-      </c>
-      <c r="L35" t="n">
-        <v>9511</v>
+        <v>9425</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>9497</v>
-      </c>
-      <c r="N35" t="n">
-        <v>9478.833333333334</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1816,18 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>825</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>100</v>
-      </c>
-      <c r="L36" t="n">
-        <v>9515.5</v>
+        <v>9425</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>9503.5</v>
-      </c>
-      <c r="N36" t="n">
-        <v>9482.5</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1857,18 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>5</v>
-      </c>
-      <c r="J37" t="n">
-        <v>825</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>100</v>
-      </c>
-      <c r="L37" t="n">
-        <v>9521</v>
+        <v>9425</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>9507.5</v>
-      </c>
-      <c r="N37" t="n">
-        <v>9482.666666666666</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2184,26 +1900,16 @@
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>830</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>80</v>
-      </c>
-      <c r="L38" t="n">
-        <v>9526</v>
+        <v>9425</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>9514.5</v>
-      </c>
-      <c r="N38" t="n">
-        <v>9486.166666666666</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2235,26 +1941,16 @@
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>830</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>80</v>
-      </c>
-      <c r="L39" t="n">
-        <v>9530</v>
+        <v>9425</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>9517.5</v>
-      </c>
-      <c r="N39" t="n">
-        <v>9490</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2286,26 +1982,16 @@
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>830</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>80</v>
-      </c>
-      <c r="L40" t="n">
-        <v>9534</v>
+        <v>9425</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>9519.5</v>
-      </c>
-      <c r="N40" t="n">
-        <v>9494</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +2021,18 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>835</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L41" t="n">
-        <v>9538.5</v>
+        <v>9425</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>9521.25</v>
-      </c>
-      <c r="N41" t="n">
-        <v>9498.166666666666</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +2062,18 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>5</v>
-      </c>
-      <c r="J42" t="n">
-        <v>835</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L42" t="n">
-        <v>9541</v>
+        <v>9425</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>9523</v>
-      </c>
-      <c r="N42" t="n">
-        <v>9500.333333333334</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +2103,18 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>10</v>
-      </c>
-      <c r="J43" t="n">
-        <v>840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L43" t="n">
-        <v>9544</v>
+        <v>9425</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>9524.25</v>
-      </c>
-      <c r="N43" t="n">
-        <v>9504.833333333334</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +2144,18 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>10</v>
-      </c>
-      <c r="J44" t="n">
-        <v>840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L44" t="n">
-        <v>9544.5</v>
+        <v>9425</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>9525.5</v>
-      </c>
-      <c r="N44" t="n">
-        <v>9508.833333333334</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +2185,18 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>10</v>
-      </c>
-      <c r="J45" t="n">
-        <v>840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L45" t="n">
-        <v>9545</v>
+        <v>9425</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>9528</v>
-      </c>
-      <c r="N45" t="n">
-        <v>9513</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +2226,18 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>10</v>
-      </c>
-      <c r="J46" t="n">
-        <v>840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L46" t="n">
-        <v>9545.5</v>
+        <v>9425</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>9530.5</v>
-      </c>
-      <c r="N46" t="n">
-        <v>9517.5</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2267,18 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>10</v>
-      </c>
-      <c r="J47" t="n">
-        <v>840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>100</v>
-      </c>
-      <c r="L47" t="n">
-        <v>9546</v>
+        <v>9425</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>9533.5</v>
-      </c>
-      <c r="N47" t="n">
-        <v>9520.333333333334</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2308,18 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>10</v>
-      </c>
-      <c r="J48" t="n">
-        <v>840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>100</v>
-      </c>
-      <c r="L48" t="n">
-        <v>9547</v>
+        <v>9425</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>9536.5</v>
-      </c>
-      <c r="N48" t="n">
-        <v>9525.333333333334</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2349,18 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>10</v>
-      </c>
-      <c r="J49" t="n">
-        <v>840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>100</v>
-      </c>
-      <c r="L49" t="n">
-        <v>9548</v>
+        <v>9425</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>9539</v>
-      </c>
-      <c r="N49" t="n">
-        <v>9527.666666666666</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2390,18 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>10</v>
-      </c>
-      <c r="J50" t="n">
-        <v>840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>100</v>
-      </c>
-      <c r="L50" t="n">
-        <v>9549</v>
+        <v>9425</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>9541.5</v>
-      </c>
-      <c r="N50" t="n">
-        <v>9529.333333333334</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2431,18 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>10</v>
-      </c>
-      <c r="J51" t="n">
-        <v>840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>100</v>
-      </c>
-      <c r="L51" t="n">
-        <v>9549.5</v>
+        <v>9425</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>9544</v>
-      </c>
-      <c r="N51" t="n">
-        <v>9530.666666666666</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,26 +2472,18 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>10</v>
-      </c>
-      <c r="J52" t="n">
-        <v>840</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>9550</v>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>9425</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>9545.5</v>
-      </c>
-      <c r="N52" t="n">
-        <v>9532</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2945,26 +2513,18 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>10</v>
-      </c>
-      <c r="J53" t="n">
-        <v>840</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>9550</v>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>9425</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>9547</v>
-      </c>
-      <c r="N53" t="n">
-        <v>9532.833333333334</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2994,26 +2554,18 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>10</v>
-      </c>
-      <c r="J54" t="n">
-        <v>840</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>9550</v>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>9425</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>9547.25</v>
-      </c>
-      <c r="N54" t="n">
-        <v>9533.666666666666</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3043,26 +2595,18 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>10</v>
-      </c>
-      <c r="J55" t="n">
-        <v>840</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>9550</v>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>9425</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>9547.5</v>
-      </c>
-      <c r="N55" t="n">
-        <v>9535.333333333334</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3092,28 +2636,18 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>45</v>
-      </c>
-      <c r="J56" t="n">
-        <v>875</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>100</v>
-      </c>
-      <c r="L56" t="n">
-        <v>9553.5</v>
+        <v>9425</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>9549.5</v>
-      </c>
-      <c r="N56" t="n">
-        <v>9538.166666666666</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,28 +2677,18 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>40</v>
-      </c>
-      <c r="J57" t="n">
-        <v>880</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>75</v>
-      </c>
-      <c r="L57" t="n">
-        <v>9556.5</v>
+        <v>9425</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>9551.25</v>
-      </c>
-      <c r="N57" t="n">
-        <v>9541.166666666666</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3194,28 +2718,18 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>50</v>
-      </c>
-      <c r="J58" t="n">
-        <v>890</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>80</v>
-      </c>
-      <c r="L58" t="n">
-        <v>9560.5</v>
+        <v>9425</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>9553.75</v>
-      </c>
-      <c r="N58" t="n">
-        <v>9544.5</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3245,28 +2759,18 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>50</v>
-      </c>
-      <c r="J59" t="n">
-        <v>890</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>80</v>
-      </c>
-      <c r="L59" t="n">
-        <v>9564.5</v>
+        <v>9425</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>9556.25</v>
-      </c>
-      <c r="N59" t="n">
-        <v>9547.5</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3296,28 +2800,18 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>20</v>
-      </c>
-      <c r="J60" t="n">
-        <v>920</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L60" t="n">
-        <v>9565.5</v>
+        <v>9425</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>9557.25</v>
-      </c>
-      <c r="N60" t="n">
-        <v>9549.5</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3347,28 +2841,18 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>20</v>
-      </c>
-      <c r="J61" t="n">
-        <v>920</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L61" t="n">
-        <v>9566.5</v>
+        <v>9425</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>9558</v>
-      </c>
-      <c r="N61" t="n">
-        <v>9551.5</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3398,28 +2882,18 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>50</v>
-      </c>
-      <c r="J62" t="n">
-        <v>950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>36.36363636363637</v>
-      </c>
-      <c r="L62" t="n">
-        <v>9570.5</v>
+        <v>9425</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>9560.25</v>
-      </c>
-      <c r="N62" t="n">
-        <v>9553.833333333334</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3449,28 +2923,18 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>50</v>
-      </c>
-      <c r="J63" t="n">
-        <v>950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>36.36363636363637</v>
-      </c>
-      <c r="L63" t="n">
-        <v>9574.5</v>
+        <v>9425</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>9562.25</v>
-      </c>
-      <c r="N63" t="n">
-        <v>9556.166666666666</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3500,28 +2964,18 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>60</v>
-      </c>
-      <c r="J64" t="n">
-        <v>960</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>41.66666666666667</v>
-      </c>
-      <c r="L64" t="n">
-        <v>9579.5</v>
+        <v>9425</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>9564.75</v>
-      </c>
-      <c r="N64" t="n">
-        <v>9558</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3551,28 +3005,18 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>15</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L65" t="n">
-        <v>9580</v>
+        <v>9425</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>9565</v>
-      </c>
-      <c r="N65" t="n">
-        <v>9558.333333333334</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3602,28 +3046,18 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>55</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1045</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L66" t="n">
-        <v>9581</v>
+        <v>9425</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>9567.25</v>
-      </c>
-      <c r="N66" t="n">
-        <v>9560</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3653,28 +3087,18 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>55</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1045</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>3.225806451612903</v>
-      </c>
-      <c r="L67" t="n">
-        <v>9582.5</v>
+        <v>9425</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>9569.5</v>
-      </c>
-      <c r="N67" t="n">
-        <v>9561.666666666666</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3704,28 +3128,18 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>55</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1045</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>3.225806451612903</v>
-      </c>
-      <c r="L68" t="n">
-        <v>9583</v>
+        <v>9425</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>9571.75</v>
-      </c>
-      <c r="N68" t="n">
-        <v>9563.5</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3755,28 +3169,18 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>60</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>30.76923076923077</v>
-      </c>
-      <c r="L69" t="n">
-        <v>9584</v>
+        <v>9425</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>9574.25</v>
-      </c>
-      <c r="N69" t="n">
-        <v>9565.5</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3806,28 +3210,18 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>60</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>30.76923076923077</v>
-      </c>
-      <c r="L70" t="n">
-        <v>9588</v>
+        <v>9425</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>9576.75</v>
-      </c>
-      <c r="N70" t="n">
-        <v>9567.5</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3857,28 +3251,18 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>15</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1095</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>-24.13793103448276</v>
-      </c>
-      <c r="L71" t="n">
-        <v>9587.5</v>
+        <v>9425</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>9577</v>
-      </c>
-      <c r="N71" t="n">
-        <v>9567.833333333334</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3908,28 +3292,18 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>95</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1175</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>20</v>
-      </c>
-      <c r="L72" t="n">
-        <v>9592</v>
+        <v>9425</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>9581.25</v>
-      </c>
-      <c r="N72" t="n">
-        <v>9570.833333333334</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3959,28 +3333,18 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>100</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>18.18181818181818</v>
-      </c>
-      <c r="L73" t="n">
-        <v>9597</v>
+        <v>9425</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>9585.75</v>
-      </c>
-      <c r="N73" t="n">
-        <v>9573.833333333334</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,28 +3374,18 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>100</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>48.57142857142857</v>
-      </c>
-      <c r="L74" t="n">
-        <v>9601</v>
+        <v>9425</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>9590.25</v>
-      </c>
-      <c r="N74" t="n">
-        <v>9576.833333333334</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4061,28 +3415,18 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>100</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L75" t="n">
-        <v>9609.5</v>
+        <v>9425</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>9594.75</v>
-      </c>
-      <c r="N75" t="n">
-        <v>9579.833333333334</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4112,28 +3456,18 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>110</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>37.93103448275862</v>
-      </c>
-      <c r="L76" t="n">
-        <v>9615</v>
+        <v>9425</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>9598</v>
-      </c>
-      <c r="N76" t="n">
-        <v>9583.166666666666</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4163,28 +3497,18 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>130</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>45.45454545454545</v>
-      </c>
-      <c r="L77" t="n">
-        <v>9622.5</v>
+        <v>9425</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>9602.5</v>
-      </c>
-      <c r="N77" t="n">
-        <v>9587.166666666666</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4214,28 +3538,18 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>85</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>12.19512195121951</v>
-      </c>
-      <c r="L78" t="n">
-        <v>9625.5</v>
+        <v>9425</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>9604.25</v>
-      </c>
-      <c r="N78" t="n">
-        <v>9589.666666666666</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4265,28 +3579,18 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>135</v>
-      </c>
-      <c r="J79" t="n">
-        <v>1305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>29.41176470588236</v>
-      </c>
-      <c r="L79" t="n">
-        <v>9633</v>
+        <v>9425</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>9608.5</v>
-      </c>
-      <c r="N79" t="n">
-        <v>9593.833333333334</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4316,28 +3620,18 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>125</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>50</v>
-      </c>
-      <c r="L80" t="n">
-        <v>9639.5</v>
+        <v>9425</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>9613.75</v>
-      </c>
-      <c r="N80" t="n">
-        <v>9597.666666666666</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4367,28 +3661,18 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>50</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>-20.93023255813954</v>
-      </c>
-      <c r="L81" t="n">
-        <v>9643</v>
+        <v>9425</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>9615.25</v>
-      </c>
-      <c r="N81" t="n">
-        <v>9599</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4418,28 +3702,18 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>120</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>7.142857142857142</v>
-      </c>
-      <c r="L82" t="n">
-        <v>9645.5</v>
+        <v>9425</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>9618.75</v>
-      </c>
-      <c r="N82" t="n">
-        <v>9602.666666666666</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4469,29 +3743,19 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>45</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1535</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>-15.49295774647887</v>
-      </c>
-      <c r="L83" t="n">
-        <v>9640</v>
+        <v>9425</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>9618.5</v>
-      </c>
-      <c r="N83" t="n">
-        <v>9603.833333333334</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
-        <v>1</v>
+        <v>1.011976127320955</v>
       </c>
     </row>
     <row r="84">
@@ -4520,28 +3784,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>160</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1650</v>
-      </c>
-      <c r="K84" t="n">
-        <v>12.76595744680851</v>
-      </c>
-      <c r="L84" t="n">
-        <v>9646</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>9623.5</v>
-      </c>
-      <c r="N84" t="n">
-        <v>9608.833333333334</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4571,28 +3819,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>75</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1735</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-6.422018348623854</v>
-      </c>
-      <c r="L85" t="n">
-        <v>9643.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>9626.5</v>
-      </c>
-      <c r="N85" t="n">
-        <v>9611</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4622,28 +3854,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>250</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1910</v>
-      </c>
-      <c r="K86" t="n">
-        <v>17.14285714285714</v>
-      </c>
-      <c r="L86" t="n">
-        <v>9657.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>9636.25</v>
-      </c>
-      <c r="N86" t="n">
-        <v>9617.833333333334</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4673,28 +3889,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>260</v>
-      </c>
-      <c r="J87" t="n">
-        <v>1920</v>
-      </c>
-      <c r="K87" t="n">
-        <v>26.31578947368421</v>
-      </c>
-      <c r="L87" t="n">
-        <v>9670.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>9646.5</v>
-      </c>
-      <c r="N87" t="n">
-        <v>9625.166666666666</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4724,28 +3924,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>295</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1955</v>
-      </c>
-      <c r="K88" t="n">
-        <v>24.61538461538462</v>
-      </c>
-      <c r="L88" t="n">
-        <v>9691.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>9658.5</v>
-      </c>
-      <c r="N88" t="n">
-        <v>9633.333333333334</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4775,28 +3959,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>205</v>
-      </c>
-      <c r="J89" t="n">
-        <v>2045</v>
-      </c>
-      <c r="K89" t="n">
-        <v>10.95890410958904</v>
-      </c>
-      <c r="L89" t="n">
-        <v>9698.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>9665.75</v>
-      </c>
-      <c r="N89" t="n">
-        <v>9638.5</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4826,28 +3994,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>355</v>
-      </c>
-      <c r="J90" t="n">
-        <v>2195</v>
-      </c>
-      <c r="K90" t="n">
-        <v>37.88819875776397</v>
-      </c>
-      <c r="L90" t="n">
-        <v>9721.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>9680.5</v>
-      </c>
-      <c r="N90" t="n">
-        <v>9649.666666666666</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4877,28 +4029,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>355</v>
-      </c>
-      <c r="J91" t="n">
-        <v>2195</v>
-      </c>
-      <c r="K91" t="n">
-        <v>31.97278911564626</v>
-      </c>
-      <c r="L91" t="n">
-        <v>9752</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>9697.5</v>
-      </c>
-      <c r="N91" t="n">
-        <v>9660.833333333334</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,28 +4064,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>350</v>
-      </c>
-      <c r="J92" t="n">
-        <v>2200</v>
-      </c>
-      <c r="K92" t="n">
-        <v>45.86466165413533</v>
-      </c>
-      <c r="L92" t="n">
-        <v>9775</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>9710.25</v>
-      </c>
-      <c r="N92" t="n">
-        <v>9670.833333333334</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4979,28 +4099,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>350</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2200</v>
-      </c>
-      <c r="K93" t="n">
-        <v>34.54545454545455</v>
-      </c>
-      <c r="L93" t="n">
-        <v>9805.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>9722.75</v>
-      </c>
-      <c r="N93" t="n">
-        <v>9680.833333333334</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5030,28 +4134,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>360</v>
-      </c>
-      <c r="J94" t="n">
-        <v>2210</v>
-      </c>
-      <c r="K94" t="n">
-        <v>60</v>
-      </c>
-      <c r="L94" t="n">
-        <v>9825.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>9735.75</v>
-      </c>
-      <c r="N94" t="n">
-        <v>9690.833333333334</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5081,28 +4169,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>360</v>
-      </c>
-      <c r="J95" t="n">
-        <v>2210</v>
-      </c>
-      <c r="K95" t="n">
-        <v>36.66666666666666</v>
-      </c>
-      <c r="L95" t="n">
-        <v>9854</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>9748.75</v>
-      </c>
-      <c r="N95" t="n">
-        <v>9702.333333333334</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5132,28 +4204,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>270</v>
-      </c>
-      <c r="J96" t="n">
-        <v>2300</v>
-      </c>
-      <c r="K96" t="n">
-        <v>2.631578947368421</v>
-      </c>
-      <c r="L96" t="n">
-        <v>9856</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>9756.75</v>
-      </c>
-      <c r="N96" t="n">
-        <v>9709.5</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5183,28 +4239,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>265</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2305</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-8.571428571428571</v>
-      </c>
-      <c r="L97" t="n">
-        <v>9856.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>9763.5</v>
-      </c>
-      <c r="N97" t="n">
-        <v>9716.5</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5234,28 +4274,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>345</v>
-      </c>
-      <c r="J98" t="n">
-        <v>2385</v>
-      </c>
-      <c r="K98" t="n">
-        <v>41.17647058823529</v>
-      </c>
-      <c r="L98" t="n">
-        <v>9861.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>9776.5</v>
-      </c>
-      <c r="N98" t="n">
-        <v>9726.166666666666</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5285,28 +4309,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>275</v>
-      </c>
-      <c r="J99" t="n">
-        <v>2455</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-30.76923076923077</v>
-      </c>
-      <c r="L99" t="n">
-        <v>9868.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>9783.5</v>
-      </c>
-      <c r="N99" t="n">
-        <v>9733.333333333334</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5336,28 +4344,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>275</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2455</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-30.76923076923077</v>
-      </c>
-      <c r="L100" t="n">
-        <v>9860.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>9791</v>
-      </c>
-      <c r="N100" t="n">
-        <v>9740.5</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5387,28 +4379,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>355</v>
-      </c>
-      <c r="J101" t="n">
-        <v>2535</v>
-      </c>
-      <c r="K101" t="n">
-        <v>1.492537313432836</v>
-      </c>
-      <c r="L101" t="n">
-        <v>9860.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>9806.25</v>
-      </c>
-      <c r="N101" t="n">
-        <v>9751.833333333334</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5438,28 +4414,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>350</v>
-      </c>
-      <c r="J102" t="n">
-        <v>2540</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0</v>
-      </c>
-      <c r="L102" t="n">
-        <v>9860.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>9817.75</v>
-      </c>
-      <c r="N102" t="n">
-        <v>9760.333333333334</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5489,28 +4449,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>335</v>
-      </c>
-      <c r="J103" t="n">
-        <v>2555</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-7.246376811594203</v>
-      </c>
-      <c r="L103" t="n">
-        <v>9859</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>9832.25</v>
-      </c>
-      <c r="N103" t="n">
-        <v>9768.166666666666</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5540,28 +4484,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>315</v>
-      </c>
-      <c r="J104" t="n">
-        <v>2575</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-12.32876712328767</v>
-      </c>
-      <c r="L104" t="n">
-        <v>9854.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>9840</v>
-      </c>
-      <c r="N104" t="n">
-        <v>9775.333333333334</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5591,28 +4519,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>340</v>
-      </c>
-      <c r="J105" t="n">
-        <v>2600</v>
-      </c>
-      <c r="K105" t="n">
-        <v>23.33333333333333</v>
-      </c>
-      <c r="L105" t="n">
-        <v>9852.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>9853.25</v>
-      </c>
-      <c r="N105" t="n">
-        <v>9783.333333333334</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5642,28 +4554,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>350</v>
-      </c>
-      <c r="J106" t="n">
-        <v>2610</v>
-      </c>
-      <c r="K106" t="n">
-        <v>27.86885245901639</v>
-      </c>
-      <c r="L106" t="n">
-        <v>9860.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>9858.25</v>
-      </c>
-      <c r="N106" t="n">
-        <v>9791.333333333334</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5693,28 +4589,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>255</v>
-      </c>
-      <c r="J107" t="n">
-        <v>2705</v>
-      </c>
-      <c r="K107" t="n">
-        <v>-28.125</v>
-      </c>
-      <c r="L107" t="n">
-        <v>9859.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>9858</v>
-      </c>
-      <c r="N107" t="n">
-        <v>9795.5</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5744,28 +4624,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>340</v>
-      </c>
-      <c r="J108" t="n">
-        <v>2790</v>
-      </c>
-      <c r="K108" t="n">
-        <v>19.40298507462687</v>
-      </c>
-      <c r="L108" t="n">
-        <v>9859</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>9860.25</v>
-      </c>
-      <c r="N108" t="n">
-        <v>9804</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5795,28 +4659,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>270</v>
-      </c>
-      <c r="J109" t="n">
-        <v>2860</v>
-      </c>
-      <c r="K109" t="n">
-        <v>-1.234567901234568</v>
-      </c>
-      <c r="L109" t="n">
-        <v>9858.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>9863.5</v>
-      </c>
-      <c r="N109" t="n">
-        <v>9808.5</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5846,28 +4694,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>310</v>
-      </c>
-      <c r="J110" t="n">
-        <v>2900</v>
-      </c>
-      <c r="K110" t="n">
-        <v>-12.32876712328767</v>
-      </c>
-      <c r="L110" t="n">
-        <v>9862</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>9861.25</v>
-      </c>
-      <c r="N110" t="n">
-        <v>9814.666666666666</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5897,28 +4729,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>270</v>
-      </c>
-      <c r="J111" t="n">
-        <v>2940</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L111" t="n">
-        <v>9853.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>9857</v>
-      </c>
-      <c r="N111" t="n">
-        <v>9822</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5948,28 +4764,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>270</v>
-      </c>
-      <c r="J112" t="n">
-        <v>2940</v>
-      </c>
-      <c r="K112" t="n">
-        <v>-16.88311688311688</v>
-      </c>
-      <c r="L112" t="n">
-        <v>9845.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>9853</v>
-      </c>
-      <c r="N112" t="n">
-        <v>9827</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5999,28 +4799,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>300</v>
-      </c>
-      <c r="J113" t="n">
-        <v>2970</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-3.79746835443038</v>
-      </c>
-      <c r="L113" t="n">
-        <v>9842</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>9850.5</v>
-      </c>
-      <c r="N113" t="n">
-        <v>9835.5</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6050,28 +4834,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>270</v>
-      </c>
-      <c r="J114" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-17.5</v>
-      </c>
-      <c r="L114" t="n">
-        <v>9837.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>9846</v>
-      </c>
-      <c r="N114" t="n">
-        <v>9839.166666666666</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6101,28 +4869,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>270</v>
-      </c>
-      <c r="J115" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-20.51282051282051</v>
-      </c>
-      <c r="L115" t="n">
-        <v>9830.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>9841.5</v>
-      </c>
-      <c r="N115" t="n">
-        <v>9845.666666666666</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6152,28 +4904,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>270</v>
-      </c>
-      <c r="J116" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K116" t="n">
-        <v>5.084745762711865</v>
-      </c>
-      <c r="L116" t="n">
-        <v>9822.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>9841.5</v>
-      </c>
-      <c r="N116" t="n">
-        <v>9846.333333333334</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6203,28 +4939,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>200</v>
-      </c>
-      <c r="J117" t="n">
-        <v>3070</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L117" t="n">
-        <v>9817</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>9838.25</v>
-      </c>
-      <c r="N117" t="n">
-        <v>9844.333333333334</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6254,28 +4974,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>250</v>
-      </c>
-      <c r="J118" t="n">
-        <v>3120</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L118" t="n">
-        <v>9808</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>9833.5</v>
-      </c>
-      <c r="N118" t="n">
-        <v>9842.833333333334</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6305,28 +5009,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>185</v>
-      </c>
-      <c r="J119" t="n">
-        <v>3185</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-43.85964912280701</v>
-      </c>
-      <c r="L119" t="n">
-        <v>9799.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>9829</v>
-      </c>
-      <c r="N119" t="n">
-        <v>9842.166666666666</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6356,28 +5044,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>165</v>
-      </c>
-      <c r="J120" t="n">
-        <v>3205</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-39.62264150943396</v>
-      </c>
-      <c r="L120" t="n">
-        <v>9785</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>9823.5</v>
-      </c>
-      <c r="N120" t="n">
-        <v>9835.833333333334</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6407,28 +5079,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>245</v>
-      </c>
-      <c r="J121" t="n">
-        <v>3285</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-7.246376811594203</v>
-      </c>
-      <c r="L121" t="n">
-        <v>9782.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>9818</v>
-      </c>
-      <c r="N121" t="n">
-        <v>9832.166666666666</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6458,28 +5114,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>205</v>
-      </c>
-      <c r="J122" t="n">
-        <v>3325</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-26.76056338028169</v>
-      </c>
-      <c r="L122" t="n">
-        <v>9776</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>9810.75</v>
-      </c>
-      <c r="N122" t="n">
-        <v>9827.333333333334</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6509,28 +5149,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>255</v>
-      </c>
-      <c r="J123" t="n">
-        <v>3375</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-4</v>
-      </c>
-      <c r="L123" t="n">
-        <v>9771.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>9806.75</v>
-      </c>
-      <c r="N123" t="n">
-        <v>9824.166666666666</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6560,28 +5184,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>245</v>
-      </c>
-      <c r="J124" t="n">
-        <v>3385</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-6.493506493506493</v>
-      </c>
-      <c r="L124" t="n">
-        <v>9769</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>9803.25</v>
-      </c>
-      <c r="N124" t="n">
-        <v>9820.333333333334</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6611,28 +5219,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>350</v>
-      </c>
-      <c r="J125" t="n">
-        <v>3490</v>
-      </c>
-      <c r="K125" t="n">
-        <v>16.3265306122449</v>
-      </c>
-      <c r="L125" t="n">
-        <v>9777</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>9803.75</v>
-      </c>
-      <c r="N125" t="n">
-        <v>9820</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6662,28 +5254,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>355</v>
-      </c>
-      <c r="J126" t="n">
-        <v>3495</v>
-      </c>
-      <c r="K126" t="n">
-        <v>36.47058823529412</v>
-      </c>
-      <c r="L126" t="n">
-        <v>9785.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>9804</v>
-      </c>
-      <c r="N126" t="n">
-        <v>9822.833333333334</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,28 +5289,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>390</v>
-      </c>
-      <c r="J127" t="n">
-        <v>3530</v>
-      </c>
-      <c r="K127" t="n">
-        <v>34.14634146341464</v>
-      </c>
-      <c r="L127" t="n">
-        <v>9804.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>9810.75</v>
-      </c>
-      <c r="N127" t="n">
-        <v>9827</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6764,28 +5324,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>300</v>
-      </c>
-      <c r="J128" t="n">
-        <v>3620</v>
-      </c>
-      <c r="K128" t="n">
-        <v>26.4367816091954</v>
-      </c>
-      <c r="L128" t="n">
-        <v>9809.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>9808.75</v>
-      </c>
-      <c r="N128" t="n">
-        <v>9825.5</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6815,28 +5359,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>170</v>
-      </c>
-      <c r="J129" t="n">
-        <v>3750</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.9174311926605505</v>
-      </c>
-      <c r="L129" t="n">
-        <v>9808</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>9803.75</v>
-      </c>
-      <c r="N129" t="n">
-        <v>9822</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6866,28 +5394,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>165</v>
-      </c>
-      <c r="J130" t="n">
-        <v>3755</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-17.02127659574468</v>
-      </c>
-      <c r="L130" t="n">
-        <v>9808</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
-        <v>9796.5</v>
-      </c>
-      <c r="N130" t="n">
-        <v>9818.333333333334</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6917,28 +5429,12 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>165</v>
-      </c>
-      <c r="J131" t="n">
-        <v>3755</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-9.302325581395349</v>
-      </c>
-      <c r="L131" t="n">
-        <v>9800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>9791.25</v>
-      </c>
-      <c r="N131" t="n">
-        <v>9812</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6968,28 +5464,12 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>160</v>
-      </c>
-      <c r="J132" t="n">
-        <v>3760</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-24.67532467532467</v>
-      </c>
-      <c r="L132" t="n">
-        <v>9795.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
-        <v>9785.75</v>
-      </c>
-      <c r="N132" t="n">
-        <v>9805.666666666666</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7019,28 +5499,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>80</v>
-      </c>
-      <c r="J133" t="n">
-        <v>3840</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-36.26373626373626</v>
-      </c>
-      <c r="L133" t="n">
-        <v>9778</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>9774.75</v>
-      </c>
-      <c r="N133" t="n">
-        <v>9797.166666666666</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7070,28 +5534,12 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>80</v>
-      </c>
-      <c r="J134" t="n">
-        <v>3840</v>
-      </c>
-      <c r="K134" t="n">
-        <v>-77.14285714285715</v>
-      </c>
-      <c r="L134" t="n">
-        <v>9761.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
-        <v>9765.25</v>
-      </c>
-      <c r="N134" t="n">
-        <v>9789.333333333334</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7121,28 +5569,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>75</v>
-      </c>
-      <c r="J135" t="n">
-        <v>3845</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-80</v>
-      </c>
-      <c r="L135" t="n">
-        <v>9734</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
-        <v>9755.5</v>
-      </c>
-      <c r="N135" t="n">
-        <v>9780.5</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7172,28 +5604,12 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>75</v>
-      </c>
-      <c r="J136" t="n">
-        <v>3845</v>
-      </c>
-      <c r="K136" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L136" t="n">
-        <v>9706</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>9745.75</v>
-      </c>
-      <c r="N136" t="n">
-        <v>9771.333333333334</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7223,28 +5639,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>75</v>
-      </c>
-      <c r="J137" t="n">
-        <v>3845</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L137" t="n">
-        <v>9674.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
-        <v>9739.5</v>
-      </c>
-      <c r="N137" t="n">
-        <v>9765.333333333334</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7274,28 +5674,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>80</v>
-      </c>
-      <c r="J138" t="n">
-        <v>3850</v>
-      </c>
-      <c r="K138" t="n">
-        <v>-90</v>
-      </c>
-      <c r="L138" t="n">
-        <v>9652.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
-        <v>9731</v>
-      </c>
-      <c r="N138" t="n">
-        <v>9756.666666666666</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7325,28 +5709,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>100</v>
-      </c>
-      <c r="J139" t="n">
-        <v>3870</v>
-      </c>
-      <c r="K139" t="n">
-        <v>-56.52173913043478</v>
-      </c>
-      <c r="L139" t="n">
-        <v>9645.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
-        <v>9726.75</v>
-      </c>
-      <c r="N139" t="n">
-        <v>9751</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7376,28 +5744,12 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>160</v>
-      </c>
-      <c r="J140" t="n">
-        <v>3930</v>
-      </c>
-      <c r="K140" t="n">
-        <v>-2.857142857142857</v>
-      </c>
-      <c r="L140" t="n">
-        <v>9645</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>9726.5</v>
-      </c>
-      <c r="N140" t="n">
-        <v>9746</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7427,28 +5779,12 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>180</v>
-      </c>
-      <c r="J141" t="n">
-        <v>3950</v>
-      </c>
-      <c r="K141" t="n">
-        <v>10.52631578947368</v>
-      </c>
-      <c r="L141" t="n">
-        <v>9646.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
-        <v>9723.25</v>
-      </c>
-      <c r="N141" t="n">
-        <v>9743</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7478,28 +5814,12 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>115</v>
-      </c>
-      <c r="J142" t="n">
-        <v>4015</v>
-      </c>
-      <c r="K142" t="n">
-        <v>20</v>
-      </c>
-      <c r="L142" t="n">
-        <v>9642</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
-        <v>9718.75</v>
-      </c>
-      <c r="N142" t="n">
-        <v>9737.833333333334</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7529,28 +5849,12 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>115</v>
-      </c>
-      <c r="J143" t="n">
-        <v>4015</v>
-      </c>
-      <c r="K143" t="n">
-        <v>20</v>
-      </c>
-      <c r="L143" t="n">
-        <v>9645.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>9711.75</v>
-      </c>
-      <c r="N143" t="n">
-        <v>9731.666666666666</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7580,28 +5884,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>95</v>
-      </c>
-      <c r="J144" t="n">
-        <v>4035</v>
-      </c>
-      <c r="K144" t="n">
-        <v>10.52631578947368</v>
-      </c>
-      <c r="L144" t="n">
-        <v>9647</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
-        <v>9704.25</v>
-      </c>
-      <c r="N144" t="n">
-        <v>9725.833333333334</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7631,28 +5919,12 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>90</v>
-      </c>
-      <c r="J145" t="n">
-        <v>4040</v>
-      </c>
-      <c r="K145" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L145" t="n">
-        <v>9648.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>9691.25</v>
-      </c>
-      <c r="N145" t="n">
-        <v>9719.833333333334</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7682,28 +5954,12 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>95</v>
-      </c>
-      <c r="J146" t="n">
-        <v>4045</v>
-      </c>
-      <c r="K146" t="n">
-        <v>10</v>
-      </c>
-      <c r="L146" t="n">
-        <v>9650.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
-        <v>9678.25</v>
-      </c>
-      <c r="N146" t="n">
-        <v>9714</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7733,28 +5989,12 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>90</v>
-      </c>
-      <c r="J147" t="n">
-        <v>4050</v>
-      </c>
-      <c r="K147" t="n">
-        <v>5</v>
-      </c>
-      <c r="L147" t="n">
-        <v>9652</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
-        <v>9663.25</v>
-      </c>
-      <c r="N147" t="n">
-        <v>9710.333333333334</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7784,28 +6024,12 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>140</v>
-      </c>
-      <c r="J148" t="n">
-        <v>4100</v>
-      </c>
-      <c r="K148" t="n">
-        <v>17.39130434782609</v>
-      </c>
-      <c r="L148" t="n">
-        <v>9658</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
-        <v>9655.25</v>
-      </c>
-      <c r="N148" t="n">
-        <v>9706.666666666666</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7835,28 +6059,12 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>140</v>
-      </c>
-      <c r="J149" t="n">
-        <v>4100</v>
-      </c>
-      <c r="K149" t="n">
-        <v>-11.76470588235294</v>
-      </c>
-      <c r="L149" t="n">
-        <v>9662</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
-        <v>9653.75</v>
-      </c>
-      <c r="N149" t="n">
-        <v>9705.166666666666</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7886,28 +6094,12 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>150</v>
-      </c>
-      <c r="J150" t="n">
-        <v>4110</v>
-      </c>
-      <c r="K150" t="n">
-        <v>-18.75</v>
-      </c>
-      <c r="L150" t="n">
-        <v>9661</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
-        <v>9653</v>
-      </c>
-      <c r="N150" t="n">
-        <v>9704.666666666666</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7937,28 +6129,12 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>105</v>
-      </c>
-      <c r="J151" t="n">
-        <v>4155</v>
-      </c>
-      <c r="K151" t="n">
-        <v>-7.142857142857142</v>
-      </c>
-      <c r="L151" t="n">
-        <v>9653.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
-        <v>9650</v>
-      </c>
-      <c r="N151" t="n">
-        <v>9700</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7988,28 +6164,12 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>100</v>
-      </c>
-      <c r="J152" t="n">
-        <v>4160</v>
-      </c>
-      <c r="K152" t="n">
-        <v>-10.3448275862069</v>
-      </c>
-      <c r="L152" t="n">
-        <v>9652</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
-        <v>9647</v>
-      </c>
-      <c r="N152" t="n">
-        <v>9696.5</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8039,28 +6199,12 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>155</v>
-      </c>
-      <c r="J153" t="n">
-        <v>4215</v>
-      </c>
-      <c r="K153" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L153" t="n">
-        <v>9656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
-        <v>9650.75</v>
-      </c>
-      <c r="N153" t="n">
-        <v>9693.166666666666</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8090,1099 +6234,12 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>95</v>
-      </c>
-      <c r="J154" t="n">
-        <v>4275</v>
-      </c>
-      <c r="K154" t="n">
-        <v>2.127659574468085</v>
-      </c>
-      <c r="L154" t="n">
-        <v>9656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
-        <v>9651.5</v>
-      </c>
-      <c r="N154" t="n">
-        <v>9688.166666666666</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>9635</v>
-      </c>
-      <c r="C155" t="n">
-        <v>9635</v>
-      </c>
-      <c r="D155" t="n">
-        <v>9635</v>
-      </c>
-      <c r="E155" t="n">
-        <v>9635</v>
-      </c>
-      <c r="F155" t="n">
-        <v>3.9785</v>
-      </c>
-      <c r="G155" t="n">
-        <v>9749.833333333334</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>95</v>
-      </c>
-      <c r="J155" t="n">
-        <v>4275</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0</v>
-      </c>
-      <c r="L155" t="n">
-        <v>9656.5</v>
-      </c>
-      <c r="M155" t="n">
-        <v>9652.5</v>
-      </c>
-      <c r="N155" t="n">
-        <v>9679.666666666666</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>9630</v>
-      </c>
-      <c r="C156" t="n">
-        <v>9630</v>
-      </c>
-      <c r="D156" t="n">
-        <v>9630</v>
-      </c>
-      <c r="E156" t="n">
-        <v>9630</v>
-      </c>
-      <c r="F156" t="n">
-        <v>20.0058</v>
-      </c>
-      <c r="G156" t="n">
-        <v>9746.833333333334</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>90</v>
-      </c>
-      <c r="J156" t="n">
-        <v>4280</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0</v>
-      </c>
-      <c r="L156" t="n">
-        <v>9656</v>
-      </c>
-      <c r="M156" t="n">
-        <v>9653.25</v>
-      </c>
-      <c r="N156" t="n">
-        <v>9670.833333333334</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>9630</v>
-      </c>
-      <c r="C157" t="n">
-        <v>9675</v>
-      </c>
-      <c r="D157" t="n">
-        <v>9675</v>
-      </c>
-      <c r="E157" t="n">
-        <v>9630</v>
-      </c>
-      <c r="F157" t="n">
-        <v>49.4141</v>
-      </c>
-      <c r="G157" t="n">
-        <v>9744.666666666666</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>135</v>
-      </c>
-      <c r="J157" t="n">
-        <v>4325</v>
-      </c>
-      <c r="K157" t="n">
-        <v>-2.222222222222222</v>
-      </c>
-      <c r="L157" t="n">
-        <v>9660.5</v>
-      </c>
-      <c r="M157" t="n">
-        <v>9656.25</v>
-      </c>
-      <c r="N157" t="n">
-        <v>9662.333333333334</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>9660</v>
-      </c>
-      <c r="C158" t="n">
-        <v>9670</v>
-      </c>
-      <c r="D158" t="n">
-        <v>9670</v>
-      </c>
-      <c r="E158" t="n">
-        <v>9660</v>
-      </c>
-      <c r="F158" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="G158" t="n">
-        <v>9741.083333333334</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>130</v>
-      </c>
-      <c r="J158" t="n">
-        <v>4330</v>
-      </c>
-      <c r="K158" t="n">
-        <v>-4.347826086956522</v>
-      </c>
-      <c r="L158" t="n">
-        <v>9659.5</v>
-      </c>
-      <c r="M158" t="n">
-        <v>9658.75</v>
-      </c>
-      <c r="N158" t="n">
-        <v>9656.666666666666</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>9670</v>
-      </c>
-      <c r="C159" t="n">
-        <v>9680</v>
-      </c>
-      <c r="D159" t="n">
-        <v>9680</v>
-      </c>
-      <c r="E159" t="n">
-        <v>9670</v>
-      </c>
-      <c r="F159" t="n">
-        <v>39</v>
-      </c>
-      <c r="G159" t="n">
-        <v>9738.833333333334</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>140</v>
-      </c>
-      <c r="J159" t="n">
-        <v>4340</v>
-      </c>
-      <c r="K159" t="n">
-        <v>-4.347826086956522</v>
-      </c>
-      <c r="L159" t="n">
-        <v>9659.5</v>
-      </c>
-      <c r="M159" t="n">
-        <v>9660.75</v>
-      </c>
-      <c r="N159" t="n">
-        <v>9655.666666666666</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>9620</v>
-      </c>
-      <c r="C160" t="n">
-        <v>9600</v>
-      </c>
-      <c r="D160" t="n">
-        <v>9620</v>
-      </c>
-      <c r="E160" t="n">
-        <v>9600</v>
-      </c>
-      <c r="F160" t="n">
-        <v>79.0686</v>
-      </c>
-      <c r="G160" t="n">
-        <v>9735.25</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>60</v>
-      </c>
-      <c r="J160" t="n">
-        <v>4420</v>
-      </c>
-      <c r="K160" t="n">
-        <v>-16.9811320754717</v>
-      </c>
-      <c r="L160" t="n">
-        <v>9650.5</v>
-      </c>
-      <c r="M160" t="n">
-        <v>9655.75</v>
-      </c>
-      <c r="N160" t="n">
-        <v>9652.166666666666</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>9680</v>
-      </c>
-      <c r="C161" t="n">
-        <v>9680</v>
-      </c>
-      <c r="D161" t="n">
-        <v>9680</v>
-      </c>
-      <c r="E161" t="n">
-        <v>9680</v>
-      </c>
-      <c r="F161" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="G161" t="n">
-        <v>9731.666666666666</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>140</v>
-      </c>
-      <c r="J161" t="n">
-        <v>4500</v>
-      </c>
-      <c r="K161" t="n">
-        <v>11.76470588235294</v>
-      </c>
-      <c r="L161" t="n">
-        <v>9654</v>
-      </c>
-      <c r="M161" t="n">
-        <v>9653.75</v>
-      </c>
-      <c r="N161" t="n">
-        <v>9651.333333333334</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>9670</v>
-      </c>
-      <c r="C162" t="n">
-        <v>9675</v>
-      </c>
-      <c r="D162" t="n">
-        <v>9675</v>
-      </c>
-      <c r="E162" t="n">
-        <v>9670</v>
-      </c>
-      <c r="F162" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="G162" t="n">
-        <v>9728.083333333334</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>135</v>
-      </c>
-      <c r="J162" t="n">
-        <v>4505</v>
-      </c>
-      <c r="K162" t="n">
-        <v>-6.896551724137931</v>
-      </c>
-      <c r="L162" t="n">
-        <v>9657.5</v>
-      </c>
-      <c r="M162" t="n">
-        <v>9654.75</v>
-      </c>
-      <c r="N162" t="n">
-        <v>9650.5</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>9675</v>
-      </c>
-      <c r="C163" t="n">
-        <v>9675</v>
-      </c>
-      <c r="D163" t="n">
-        <v>9675</v>
-      </c>
-      <c r="E163" t="n">
-        <v>9675</v>
-      </c>
-      <c r="F163" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="G163" t="n">
-        <v>9724.75</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>135</v>
-      </c>
-      <c r="J163" t="n">
-        <v>4505</v>
-      </c>
-      <c r="K163" t="n">
-        <v>17.39130434782609</v>
-      </c>
-      <c r="L163" t="n">
-        <v>9655.5</v>
-      </c>
-      <c r="M163" t="n">
-        <v>9655.75</v>
-      </c>
-      <c r="N163" t="n">
-        <v>9652.333333333334</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>9675</v>
-      </c>
-      <c r="C164" t="n">
-        <v>9675</v>
-      </c>
-      <c r="D164" t="n">
-        <v>9675</v>
-      </c>
-      <c r="E164" t="n">
-        <v>9675</v>
-      </c>
-      <c r="F164" t="n">
-        <v>29</v>
-      </c>
-      <c r="G164" t="n">
-        <v>9721.75</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>135</v>
-      </c>
-      <c r="J164" t="n">
-        <v>4505</v>
-      </c>
-      <c r="K164" t="n">
-        <v>17.39130434782609</v>
-      </c>
-      <c r="L164" t="n">
-        <v>9659.5</v>
-      </c>
-      <c r="M164" t="n">
-        <v>9657.75</v>
-      </c>
-      <c r="N164" t="n">
-        <v>9654.166666666666</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>9675</v>
-      </c>
-      <c r="C165" t="n">
-        <v>9675</v>
-      </c>
-      <c r="D165" t="n">
-        <v>9675</v>
-      </c>
-      <c r="E165" t="n">
-        <v>9675</v>
-      </c>
-      <c r="F165" t="n">
-        <v>20.5545</v>
-      </c>
-      <c r="G165" t="n">
-        <v>9718.333333333334</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>135</v>
-      </c>
-      <c r="J165" t="n">
-        <v>4505</v>
-      </c>
-      <c r="K165" t="n">
-        <v>20</v>
-      </c>
-      <c r="L165" t="n">
-        <v>9663.5</v>
-      </c>
-      <c r="M165" t="n">
-        <v>9660</v>
-      </c>
-      <c r="N165" t="n">
-        <v>9656.166666666666</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>9675</v>
-      </c>
-      <c r="C166" t="n">
-        <v>9685</v>
-      </c>
-      <c r="D166" t="n">
-        <v>9685</v>
-      </c>
-      <c r="E166" t="n">
-        <v>9675</v>
-      </c>
-      <c r="F166" t="n">
-        <v>17.749</v>
-      </c>
-      <c r="G166" t="n">
-        <v>9714.916666666666</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>145</v>
-      </c>
-      <c r="J166" t="n">
-        <v>4515</v>
-      </c>
-      <c r="K166" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L166" t="n">
-        <v>9669</v>
-      </c>
-      <c r="M166" t="n">
-        <v>9662.5</v>
-      </c>
-      <c r="N166" t="n">
-        <v>9658.5</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>9685</v>
-      </c>
-      <c r="C167" t="n">
-        <v>9685</v>
-      </c>
-      <c r="D167" t="n">
-        <v>9685</v>
-      </c>
-      <c r="E167" t="n">
-        <v>9685</v>
-      </c>
-      <c r="F167" t="n">
-        <v>10.8564</v>
-      </c>
-      <c r="G167" t="n">
-        <v>9713.083333333334</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>145</v>
-      </c>
-      <c r="J167" t="n">
-        <v>4515</v>
-      </c>
-      <c r="K167" t="n">
-        <v>8.108108108108109</v>
-      </c>
-      <c r="L167" t="n">
-        <v>9670</v>
-      </c>
-      <c r="M167" t="n">
-        <v>9665.25</v>
-      </c>
-      <c r="N167" t="n">
-        <v>9660.833333333334</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>9615</v>
-      </c>
-      <c r="C168" t="n">
-        <v>9610</v>
-      </c>
-      <c r="D168" t="n">
-        <v>9685</v>
-      </c>
-      <c r="E168" t="n">
-        <v>9610</v>
-      </c>
-      <c r="F168" t="n">
-        <v>100.8642</v>
-      </c>
-      <c r="G168" t="n">
-        <v>9708.583333333334</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>70</v>
-      </c>
-      <c r="J168" t="n">
-        <v>4590</v>
-      </c>
-      <c r="K168" t="n">
-        <v>-28</v>
-      </c>
-      <c r="L168" t="n">
-        <v>9664</v>
-      </c>
-      <c r="M168" t="n">
-        <v>9661.75</v>
-      </c>
-      <c r="N168" t="n">
-        <v>9660.5</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>9615</v>
-      </c>
-      <c r="C169" t="n">
-        <v>9615</v>
-      </c>
-      <c r="D169" t="n">
-        <v>9615</v>
-      </c>
-      <c r="E169" t="n">
-        <v>9615</v>
-      </c>
-      <c r="F169" t="n">
-        <v>27.8827</v>
-      </c>
-      <c r="G169" t="n">
-        <v>9705.333333333334</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>75</v>
-      </c>
-      <c r="J169" t="n">
-        <v>4595</v>
-      </c>
-      <c r="K169" t="n">
-        <v>8.571428571428571</v>
-      </c>
-      <c r="L169" t="n">
-        <v>9657.5</v>
-      </c>
-      <c r="M169" t="n">
-        <v>9658.5</v>
-      </c>
-      <c r="N169" t="n">
-        <v>9659.666666666666</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>9615</v>
-      </c>
-      <c r="C170" t="n">
-        <v>9615</v>
-      </c>
-      <c r="D170" t="n">
-        <v>9615</v>
-      </c>
-      <c r="E170" t="n">
-        <v>9615</v>
-      </c>
-      <c r="F170" t="n">
-        <v>16</v>
-      </c>
-      <c r="G170" t="n">
-        <v>9701.416666666666</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>75</v>
-      </c>
-      <c r="J170" t="n">
-        <v>4595</v>
-      </c>
-      <c r="K170" t="n">
-        <v>-68.42105263157895</v>
-      </c>
-      <c r="L170" t="n">
-        <v>9659</v>
-      </c>
-      <c r="M170" t="n">
-        <v>9654.75</v>
-      </c>
-      <c r="N170" t="n">
-        <v>9656.833333333334</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>9615</v>
-      </c>
-      <c r="C171" t="n">
-        <v>9615</v>
-      </c>
-      <c r="D171" t="n">
-        <v>9615</v>
-      </c>
-      <c r="E171" t="n">
-        <v>9615</v>
-      </c>
-      <c r="F171" t="n">
-        <v>12.4002</v>
-      </c>
-      <c r="G171" t="n">
-        <v>9698.166666666666</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>75</v>
-      </c>
-      <c r="J171" t="n">
-        <v>4595</v>
-      </c>
-      <c r="K171" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L171" t="n">
-        <v>9652.5</v>
-      </c>
-      <c r="M171" t="n">
-        <v>9653.25</v>
-      </c>
-      <c r="N171" t="n">
-        <v>9653.333333333334</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>9670</v>
-      </c>
-      <c r="C172" t="n">
-        <v>9670</v>
-      </c>
-      <c r="D172" t="n">
-        <v>9670</v>
-      </c>
-      <c r="E172" t="n">
-        <v>9670</v>
-      </c>
-      <c r="F172" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="G172" t="n">
-        <v>9695.833333333334</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>130</v>
-      </c>
-      <c r="J172" t="n">
-        <v>4650</v>
-      </c>
-      <c r="K172" t="n">
-        <v>-3.448275862068965</v>
-      </c>
-      <c r="L172" t="n">
-        <v>9652</v>
-      </c>
-      <c r="M172" t="n">
-        <v>9654.75</v>
-      </c>
-      <c r="N172" t="n">
-        <v>9653.833333333334</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>9615</v>
-      </c>
-      <c r="C173" t="n">
-        <v>9600</v>
-      </c>
-      <c r="D173" t="n">
-        <v>9615</v>
-      </c>
-      <c r="E173" t="n">
-        <v>9600</v>
-      </c>
-      <c r="F173" t="n">
-        <v>153.7606</v>
-      </c>
-      <c r="G173" t="n">
-        <v>9691.833333333334</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>60</v>
-      </c>
-      <c r="J173" t="n">
-        <v>4720</v>
-      </c>
-      <c r="K173" t="n">
-        <v>-34.88372093023256</v>
-      </c>
-      <c r="L173" t="n">
-        <v>9644.5</v>
-      </c>
-      <c r="M173" t="n">
-        <v>9650</v>
-      </c>
-      <c r="N173" t="n">
-        <v>9652</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>9600</v>
-      </c>
-      <c r="C174" t="n">
-        <v>9665</v>
-      </c>
-      <c r="D174" t="n">
-        <v>9665</v>
-      </c>
-      <c r="E174" t="n">
-        <v>9600</v>
-      </c>
-      <c r="F174" t="n">
-        <v>63</v>
-      </c>
-      <c r="G174" t="n">
-        <v>9689.416666666666</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>125</v>
-      </c>
-      <c r="J174" t="n">
-        <v>4785</v>
-      </c>
-      <c r="K174" t="n">
-        <v>-3.571428571428571</v>
-      </c>
-      <c r="L174" t="n">
-        <v>9643.5</v>
-      </c>
-      <c r="M174" t="n">
-        <v>9651.5</v>
-      </c>
-      <c r="N174" t="n">
-        <v>9653</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>9680</v>
-      </c>
-      <c r="C175" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D175" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E175" t="n">
-        <v>9680</v>
-      </c>
-      <c r="F175" t="n">
-        <v>99.15720091999999</v>
-      </c>
-      <c r="G175" t="n">
-        <v>9687.583333333334</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>160</v>
-      </c>
-      <c r="J175" t="n">
-        <v>4820</v>
-      </c>
-      <c r="K175" t="n">
-        <v>4.918032786885246</v>
-      </c>
-      <c r="L175" t="n">
-        <v>9646</v>
-      </c>
-      <c r="M175" t="n">
-        <v>9654.75</v>
-      </c>
-      <c r="N175" t="n">
-        <v>9655.333333333334</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-16 BackTest BTG.xlsx
+++ b/BackTest/2019-10-16 BackTest BTG.xlsx
@@ -801,17 +801,13 @@
         <v>9512.666666666666</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>9480</v>
-      </c>
-      <c r="K12" t="n">
-        <v>9480</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
@@ -840,22 +836,14 @@
         <v>9511.333333333334</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>9415</v>
-      </c>
-      <c r="K13" t="n">
-        <v>9480</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -883,22 +871,14 @@
         <v>9510.25</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>9430</v>
-      </c>
-      <c r="K14" t="n">
-        <v>9480</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -926,17 +906,13 @@
         <v>9509.083333333334</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>9425</v>
-      </c>
-      <c r="K15" t="n">
-        <v>9425</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
@@ -965,22 +941,14 @@
         <v>9506.916666666666</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>9455</v>
-      </c>
-      <c r="K16" t="n">
-        <v>9425</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1008,22 +976,14 @@
         <v>9506.583333333334</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>9410</v>
-      </c>
-      <c r="K17" t="n">
-        <v>9425</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1051,22 +1011,14 @@
         <v>9505.166666666666</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>9400</v>
-      </c>
-      <c r="K18" t="n">
-        <v>9425</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1102,12 +1054,10 @@
       <c r="J19" t="n">
         <v>9400</v>
       </c>
-      <c r="K19" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M19" t="n">
@@ -1145,9 +1095,7 @@
       <c r="J20" t="n">
         <v>9480</v>
       </c>
-      <c r="K20" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1186,11 +1134,9 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>9510</v>
-      </c>
-      <c r="K21" t="n">
-        <v>9425</v>
-      </c>
+        <v>9500</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1223,17 +1169,13 @@
         <v>9503.416666666666</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>9510</v>
-      </c>
-      <c r="K22" t="n">
-        <v>9425</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1266,17 +1208,13 @@
         <v>9504.666666666666</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>9525</v>
-      </c>
-      <c r="K23" t="n">
-        <v>9425</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1309,17 +1247,13 @@
         <v>9504.5</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>9525</v>
-      </c>
-      <c r="K24" t="n">
-        <v>9425</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1358,9 +1292,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1399,9 +1331,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1440,9 +1370,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1481,9 +1409,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1516,17 +1442,13 @@
         <v>9501.083333333334</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>9490</v>
-      </c>
-      <c r="K29" t="n">
-        <v>9425</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1559,17 +1481,13 @@
         <v>9500.416666666666</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>9500</v>
-      </c>
-      <c r="K30" t="n">
-        <v>9425</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1602,17 +1520,13 @@
         <v>9499.583333333334</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>9500</v>
-      </c>
-      <c r="K31" t="n">
-        <v>9425</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1645,17 +1559,13 @@
         <v>9499.083333333334</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>9500</v>
-      </c>
-      <c r="K32" t="n">
-        <v>9425</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1688,17 +1598,13 @@
         <v>9498.583333333334</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>9520</v>
-      </c>
-      <c r="K33" t="n">
-        <v>9425</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1737,9 +1643,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1778,9 +1682,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1819,9 +1721,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1860,9 +1760,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1901,9 +1799,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1942,9 +1838,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1983,9 +1877,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2024,9 +1916,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2065,9 +1955,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2106,9 +1994,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2147,9 +2033,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2188,9 +2072,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2229,9 +2111,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2270,9 +2150,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2311,9 +2189,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2352,9 +2228,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2393,9 +2267,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2434,9 +2306,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2475,9 +2345,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2516,9 +2384,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2557,9 +2423,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2598,9 +2462,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2639,9 +2501,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2680,9 +2540,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2721,9 +2579,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2762,9 +2618,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2803,9 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2844,9 +2696,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2885,9 +2735,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2926,9 +2774,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2967,9 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3008,9 +2852,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3049,9 +2891,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3090,9 +2930,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3131,9 +2969,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3172,9 +3008,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3213,9 +3047,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3254,9 +3086,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3295,9 +3125,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3336,9 +3164,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3377,9 +3203,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3418,9 +3242,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3459,9 +3281,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3500,9 +3320,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3541,9 +3359,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3582,9 +3398,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3623,9 +3437,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3664,9 +3476,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3705,9 +3515,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3743,19 +3551,17 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>9425</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>1.011976127320955</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3784,11 +3590,15 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3819,11 +3629,15 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3854,11 +3668,15 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3893,7 +3711,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3924,11 +3746,15 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3963,10 +3789,12 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4029,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -4064,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -4099,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>

--- a/BackTest/2019-10-16 BackTest BTG.xlsx
+++ b/BackTest/2019-10-16 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M154"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
         <v>9450</v>
       </c>
       <c r="C2" t="n">
-        <v>9540</v>
+        <v>9500</v>
       </c>
       <c r="D2" t="n">
-        <v>9540</v>
+        <v>9500</v>
       </c>
       <c r="E2" t="n">
         <v>9450</v>
       </c>
       <c r="F2" t="n">
-        <v>72.59439999999999</v>
+        <v>56</v>
       </c>
       <c r="G2" t="n">
-        <v>9521.666666666666</v>
+        <v>9521.166666666666</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9445</v>
+        <v>9450</v>
       </c>
       <c r="C3" t="n">
-        <v>9530</v>
+        <v>9540</v>
       </c>
       <c r="D3" t="n">
-        <v>9530</v>
+        <v>9540</v>
       </c>
       <c r="E3" t="n">
-        <v>9445</v>
+        <v>9450</v>
       </c>
       <c r="F3" t="n">
-        <v>55.6342</v>
+        <v>72.59439999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>9521.833333333334</v>
+        <v>9521.666666666666</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>9445</v>
+      </c>
+      <c r="C4" t="n">
         <v>9530</v>
       </c>
-      <c r="C4" t="n">
-        <v>9535</v>
-      </c>
       <c r="D4" t="n">
-        <v>9535</v>
+        <v>9530</v>
       </c>
       <c r="E4" t="n">
-        <v>9530</v>
+        <v>9445</v>
       </c>
       <c r="F4" t="n">
-        <v>94.41459999999999</v>
+        <v>55.6342</v>
       </c>
       <c r="G4" t="n">
-        <v>9522</v>
+        <v>9521.833333333334</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,32 +538,38 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9470</v>
+        <v>9530</v>
       </c>
       <c r="C5" t="n">
-        <v>9470</v>
+        <v>9535</v>
       </c>
       <c r="D5" t="n">
-        <v>9470</v>
+        <v>9535</v>
       </c>
       <c r="E5" t="n">
-        <v>9470</v>
+        <v>9530</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>94.41459999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>9521.75</v>
+        <v>9522</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>9530</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -573,32 +579,38 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9435</v>
+        <v>9470</v>
       </c>
       <c r="C6" t="n">
-        <v>9435</v>
+        <v>9470</v>
       </c>
       <c r="D6" t="n">
-        <v>9435</v>
+        <v>9470</v>
       </c>
       <c r="E6" t="n">
-        <v>9435</v>
+        <v>9470</v>
       </c>
       <c r="F6" t="n">
-        <v>682</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>9520.25</v>
+        <v>9521.75</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>9535</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -608,22 +620,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9490</v>
+        <v>9435</v>
       </c>
       <c r="C7" t="n">
-        <v>9540</v>
+        <v>9435</v>
       </c>
       <c r="D7" t="n">
-        <v>9540</v>
+        <v>9435</v>
       </c>
       <c r="E7" t="n">
-        <v>9490</v>
+        <v>9435</v>
       </c>
       <c r="F7" t="n">
-        <v>187</v>
+        <v>682</v>
       </c>
       <c r="G7" t="n">
-        <v>9520.5</v>
+        <v>9520.25</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -633,7 +645,11 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -643,22 +659,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>9490</v>
+      </c>
+      <c r="C8" t="n">
         <v>9540</v>
-      </c>
-      <c r="C8" t="n">
-        <v>9435</v>
       </c>
       <c r="D8" t="n">
         <v>9540</v>
       </c>
       <c r="E8" t="n">
-        <v>9435</v>
+        <v>9490</v>
       </c>
       <c r="F8" t="n">
-        <v>15.8651</v>
+        <v>187</v>
       </c>
       <c r="G8" t="n">
-        <v>9518.916666666666</v>
+        <v>9520.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -668,7 +684,11 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -678,22 +698,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9425</v>
+        <v>9540</v>
       </c>
       <c r="C9" t="n">
-        <v>9425</v>
+        <v>9435</v>
       </c>
       <c r="D9" t="n">
-        <v>9425</v>
+        <v>9540</v>
       </c>
       <c r="E9" t="n">
-        <v>9425</v>
+        <v>9435</v>
       </c>
       <c r="F9" t="n">
-        <v>22.3678</v>
+        <v>15.8651</v>
       </c>
       <c r="G9" t="n">
-        <v>9517.166666666666</v>
+        <v>9518.916666666666</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -703,7 +723,11 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -713,22 +737,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9420</v>
+        <v>9425</v>
       </c>
       <c r="C10" t="n">
-        <v>9420</v>
+        <v>9425</v>
       </c>
       <c r="D10" t="n">
-        <v>9420</v>
+        <v>9425</v>
       </c>
       <c r="E10" t="n">
-        <v>9420</v>
+        <v>9425</v>
       </c>
       <c r="F10" t="n">
-        <v>4.8893</v>
+        <v>22.3678</v>
       </c>
       <c r="G10" t="n">
-        <v>9515.083333333334</v>
+        <v>9517.166666666666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -738,7 +762,11 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -760,10 +788,10 @@
         <v>9420</v>
       </c>
       <c r="F11" t="n">
-        <v>220.1467</v>
+        <v>4.8893</v>
       </c>
       <c r="G11" t="n">
-        <v>9513.833333333334</v>
+        <v>9515.083333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -773,7 +801,11 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -783,22 +815,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9480</v>
+        <v>9420</v>
       </c>
       <c r="C12" t="n">
-        <v>9480</v>
+        <v>9420</v>
       </c>
       <c r="D12" t="n">
-        <v>9480</v>
+        <v>9420</v>
       </c>
       <c r="E12" t="n">
-        <v>9480</v>
+        <v>9420</v>
       </c>
       <c r="F12" t="n">
-        <v>4.8893</v>
+        <v>220.1467</v>
       </c>
       <c r="G12" t="n">
-        <v>9512.666666666666</v>
+        <v>9513.833333333334</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -808,7 +840,11 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -818,32 +854,38 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9415</v>
+        <v>9480</v>
       </c>
       <c r="C13" t="n">
-        <v>9415</v>
+        <v>9480</v>
       </c>
       <c r="D13" t="n">
-        <v>9415</v>
+        <v>9480</v>
       </c>
       <c r="E13" t="n">
-        <v>9415</v>
+        <v>9480</v>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>4.8893</v>
       </c>
       <c r="G13" t="n">
-        <v>9511.333333333334</v>
+        <v>9512.666666666666</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>9420</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -853,22 +895,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9430</v>
+        <v>9415</v>
       </c>
       <c r="C14" t="n">
-        <v>9430</v>
+        <v>9415</v>
       </c>
       <c r="D14" t="n">
-        <v>9430</v>
+        <v>9415</v>
       </c>
       <c r="E14" t="n">
-        <v>9430</v>
+        <v>9415</v>
       </c>
       <c r="F14" t="n">
-        <v>4.2019</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>9510.25</v>
+        <v>9511.333333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -878,7 +920,11 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -888,22 +934,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9425</v>
+        <v>9430</v>
       </c>
       <c r="C15" t="n">
-        <v>9425</v>
+        <v>9430</v>
       </c>
       <c r="D15" t="n">
-        <v>9425</v>
+        <v>9430</v>
       </c>
       <c r="E15" t="n">
-        <v>9425</v>
+        <v>9430</v>
       </c>
       <c r="F15" t="n">
-        <v>16.7987</v>
+        <v>4.2019</v>
       </c>
       <c r="G15" t="n">
-        <v>9509.083333333334</v>
+        <v>9510.25</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -913,7 +959,11 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -923,22 +973,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9455</v>
+        <v>9425</v>
       </c>
       <c r="C16" t="n">
-        <v>9415</v>
+        <v>9425</v>
       </c>
       <c r="D16" t="n">
-        <v>9455</v>
+        <v>9425</v>
       </c>
       <c r="E16" t="n">
-        <v>9415</v>
+        <v>9425</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3231</v>
+        <v>16.7987</v>
       </c>
       <c r="G16" t="n">
-        <v>9506.916666666666</v>
+        <v>9509.083333333334</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -948,7 +998,11 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -958,22 +1012,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9410</v>
+        <v>9455</v>
       </c>
       <c r="C17" t="n">
-        <v>9465</v>
+        <v>9415</v>
       </c>
       <c r="D17" t="n">
-        <v>9465</v>
+        <v>9455</v>
       </c>
       <c r="E17" t="n">
-        <v>9400</v>
+        <v>9415</v>
       </c>
       <c r="F17" t="n">
-        <v>214.4752</v>
+        <v>0.3231</v>
       </c>
       <c r="G17" t="n">
-        <v>9506.583333333334</v>
+        <v>9506.916666666666</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -983,7 +1037,11 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -993,22 +1051,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9400</v>
+        <v>9410</v>
       </c>
       <c r="C18" t="n">
-        <v>9400</v>
+        <v>9465</v>
       </c>
       <c r="D18" t="n">
-        <v>9400</v>
+        <v>9465</v>
       </c>
       <c r="E18" t="n">
         <v>9400</v>
       </c>
       <c r="F18" t="n">
-        <v>27.8</v>
+        <v>214.4752</v>
       </c>
       <c r="G18" t="n">
-        <v>9505.166666666666</v>
+        <v>9506.583333333334</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1018,7 +1076,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1031,33 +1093,31 @@
         <v>9400</v>
       </c>
       <c r="C19" t="n">
-        <v>9480</v>
+        <v>9400</v>
       </c>
       <c r="D19" t="n">
-        <v>9480</v>
+        <v>9400</v>
       </c>
       <c r="E19" t="n">
         <v>9400</v>
       </c>
       <c r="F19" t="n">
-        <v>611.9446</v>
+        <v>27.8</v>
       </c>
       <c r="G19" t="n">
         <v>9505.166666666666</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>9400</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M19" t="n">
@@ -1069,32 +1129,30 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>9400</v>
+      </c>
+      <c r="C20" t="n">
         <v>9480</v>
       </c>
-      <c r="C20" t="n">
-        <v>9500</v>
-      </c>
       <c r="D20" t="n">
-        <v>9500</v>
+        <v>9480</v>
       </c>
       <c r="E20" t="n">
-        <v>9480</v>
+        <v>9400</v>
       </c>
       <c r="F20" t="n">
-        <v>1.3258</v>
+        <v>611.9446</v>
       </c>
       <c r="G20" t="n">
-        <v>9504.583333333334</v>
+        <v>9505.166666666666</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>9480</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
@@ -1110,32 +1168,30 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9510</v>
+        <v>9480</v>
       </c>
       <c r="C21" t="n">
-        <v>9510</v>
+        <v>9500</v>
       </c>
       <c r="D21" t="n">
-        <v>9510</v>
+        <v>9500</v>
       </c>
       <c r="E21" t="n">
-        <v>9510</v>
+        <v>9480</v>
       </c>
       <c r="F21" t="n">
-        <v>6.49</v>
+        <v>1.3258</v>
       </c>
       <c r="G21" t="n">
-        <v>9504</v>
+        <v>9504.583333333334</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>9500</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
@@ -1163,49 +1219,47 @@
         <v>9510</v>
       </c>
       <c r="F22" t="n">
-        <v>6.22</v>
+        <v>6.49</v>
       </c>
       <c r="G22" t="n">
-        <v>9503.416666666666</v>
+        <v>9504</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9525</v>
+        <v>9510</v>
       </c>
       <c r="C23" t="n">
-        <v>9525</v>
+        <v>9510</v>
       </c>
       <c r="D23" t="n">
-        <v>9525</v>
+        <v>9510</v>
       </c>
       <c r="E23" t="n">
-        <v>9525</v>
+        <v>9510</v>
       </c>
       <c r="F23" t="n">
-        <v>6.39</v>
+        <v>6.22</v>
       </c>
       <c r="G23" t="n">
-        <v>9504.666666666666</v>
+        <v>9503.416666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,11 +1269,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1241,10 +1291,10 @@
         <v>9525</v>
       </c>
       <c r="F24" t="n">
-        <v>6.2</v>
+        <v>6.39</v>
       </c>
       <c r="G24" t="n">
-        <v>9504.5</v>
+        <v>9504.666666666666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1254,11 +1304,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1268,22 +1314,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9500</v>
+        <v>9525</v>
       </c>
       <c r="C25" t="n">
-        <v>9500</v>
+        <v>9525</v>
       </c>
       <c r="D25" t="n">
-        <v>9500</v>
+        <v>9525</v>
       </c>
       <c r="E25" t="n">
-        <v>9500</v>
+        <v>9525</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>6.2</v>
       </c>
       <c r="G25" t="n">
-        <v>9503.75</v>
+        <v>9504.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1293,11 +1339,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1307,7 +1349,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9490</v>
+        <v>9500</v>
       </c>
       <c r="C26" t="n">
         <v>9500</v>
@@ -1316,13 +1358,13 @@
         <v>9500</v>
       </c>
       <c r="E26" t="n">
-        <v>9490</v>
+        <v>9500</v>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>9502.916666666666</v>
+        <v>9503.75</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1332,11 +1374,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1349,19 +1387,19 @@
         <v>9490</v>
       </c>
       <c r="C27" t="n">
-        <v>9490</v>
+        <v>9500</v>
       </c>
       <c r="D27" t="n">
-        <v>9490</v>
+        <v>9500</v>
       </c>
       <c r="E27" t="n">
         <v>9490</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G27" t="n">
-        <v>9501.916666666666</v>
+        <v>9502.916666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1371,11 +1409,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1397,10 +1431,10 @@
         <v>9490</v>
       </c>
       <c r="F28" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>9501.416666666666</v>
+        <v>9501.916666666666</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,11 +1444,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1427,19 +1457,19 @@
         <v>9490</v>
       </c>
       <c r="C29" t="n">
-        <v>9500</v>
+        <v>9490</v>
       </c>
       <c r="D29" t="n">
-        <v>9500</v>
+        <v>9490</v>
       </c>
       <c r="E29" t="n">
         <v>9490</v>
       </c>
       <c r="F29" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G29" t="n">
-        <v>9501.083333333334</v>
+        <v>9501.416666666666</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1449,11 +1479,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1463,7 +1489,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9500</v>
+        <v>9490</v>
       </c>
       <c r="C30" t="n">
         <v>9500</v>
@@ -1472,13 +1498,13 @@
         <v>9500</v>
       </c>
       <c r="E30" t="n">
-        <v>9500</v>
+        <v>9490</v>
       </c>
       <c r="F30" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G30" t="n">
-        <v>9500.416666666666</v>
+        <v>9501.083333333334</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1488,11 +1514,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1514,10 +1536,10 @@
         <v>9500</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="G31" t="n">
-        <v>9499.583333333334</v>
+        <v>9500.416666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1527,11 +1549,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1544,19 +1562,19 @@
         <v>9500</v>
       </c>
       <c r="C32" t="n">
-        <v>9520</v>
+        <v>9500</v>
       </c>
       <c r="D32" t="n">
-        <v>9520</v>
+        <v>9500</v>
       </c>
       <c r="E32" t="n">
         <v>9500</v>
       </c>
       <c r="F32" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>9499.083333333334</v>
+        <v>9499.583333333334</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1566,11 +1584,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1580,7 +1594,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9520</v>
+        <v>9500</v>
       </c>
       <c r="C33" t="n">
         <v>9520</v>
@@ -1589,13 +1603,13 @@
         <v>9520</v>
       </c>
       <c r="E33" t="n">
-        <v>9520</v>
+        <v>9500</v>
       </c>
       <c r="F33" t="n">
-        <v>6.52</v>
+        <v>40</v>
       </c>
       <c r="G33" t="n">
-        <v>9498.583333333334</v>
+        <v>9499.083333333334</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1605,11 +1619,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1622,19 +1632,19 @@
         <v>9520</v>
       </c>
       <c r="C34" t="n">
-        <v>9545</v>
+        <v>9520</v>
       </c>
       <c r="D34" t="n">
-        <v>9545</v>
+        <v>9520</v>
       </c>
       <c r="E34" t="n">
         <v>9520</v>
       </c>
       <c r="F34" t="n">
-        <v>186</v>
+        <v>6.52</v>
       </c>
       <c r="G34" t="n">
-        <v>9498.5</v>
+        <v>9498.583333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1644,11 +1654,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1658,7 +1664,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9545</v>
+        <v>9520</v>
       </c>
       <c r="C35" t="n">
         <v>9545</v>
@@ -1667,13 +1673,13 @@
         <v>9545</v>
       </c>
       <c r="E35" t="n">
-        <v>9545</v>
+        <v>9520</v>
       </c>
       <c r="F35" t="n">
-        <v>6.41</v>
+        <v>186</v>
       </c>
       <c r="G35" t="n">
-        <v>9498.416666666666</v>
+        <v>9498.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1683,11 +1689,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1709,10 +1711,10 @@
         <v>9545</v>
       </c>
       <c r="F36" t="n">
-        <v>6.34</v>
+        <v>6.41</v>
       </c>
       <c r="G36" t="n">
-        <v>9498.333333333334</v>
+        <v>9498.416666666666</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1722,11 +1724,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1748,10 +1746,10 @@
         <v>9545</v>
       </c>
       <c r="F37" t="n">
-        <v>13.97</v>
+        <v>6.34</v>
       </c>
       <c r="G37" t="n">
-        <v>9498.5</v>
+        <v>9498.333333333334</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1761,11 +1759,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1775,22 +1769,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9540</v>
+        <v>9545</v>
       </c>
       <c r="C38" t="n">
-        <v>9540</v>
+        <v>9545</v>
       </c>
       <c r="D38" t="n">
-        <v>9540</v>
+        <v>9545</v>
       </c>
       <c r="E38" t="n">
-        <v>9540</v>
+        <v>9545</v>
       </c>
       <c r="F38" t="n">
-        <v>13.24</v>
+        <v>13.97</v>
       </c>
       <c r="G38" t="n">
-        <v>9499</v>
+        <v>9498.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1800,11 +1794,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1826,10 +1816,10 @@
         <v>9540</v>
       </c>
       <c r="F39" t="n">
-        <v>6.27</v>
+        <v>13.24</v>
       </c>
       <c r="G39" t="n">
-        <v>9498.666666666666</v>
+        <v>9499</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1839,11 +1829,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1865,10 +1851,10 @@
         <v>9540</v>
       </c>
       <c r="F40" t="n">
-        <v>6.64</v>
+        <v>6.27</v>
       </c>
       <c r="G40" t="n">
-        <v>9499.166666666666</v>
+        <v>9498.666666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1878,11 +1864,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1892,22 +1874,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9545</v>
+        <v>9540</v>
       </c>
       <c r="C41" t="n">
-        <v>9545</v>
+        <v>9540</v>
       </c>
       <c r="D41" t="n">
-        <v>9545</v>
+        <v>9540</v>
       </c>
       <c r="E41" t="n">
-        <v>9545</v>
+        <v>9540</v>
       </c>
       <c r="F41" t="n">
-        <v>3.31</v>
+        <v>6.64</v>
       </c>
       <c r="G41" t="n">
-        <v>9499.916666666666</v>
+        <v>9499.166666666666</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1917,11 +1899,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1943,10 +1921,10 @@
         <v>9545</v>
       </c>
       <c r="F42" t="n">
-        <v>70.02679999999999</v>
+        <v>3.31</v>
       </c>
       <c r="G42" t="n">
-        <v>9499.833333333334</v>
+        <v>9499.916666666666</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1956,11 +1934,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1973,16 +1947,16 @@
         <v>9545</v>
       </c>
       <c r="C43" t="n">
-        <v>9550</v>
+        <v>9545</v>
       </c>
       <c r="D43" t="n">
-        <v>9550</v>
+        <v>9545</v>
       </c>
       <c r="E43" t="n">
         <v>9545</v>
       </c>
       <c r="F43" t="n">
-        <v>62</v>
+        <v>70.02679999999999</v>
       </c>
       <c r="G43" t="n">
         <v>9499.833333333334</v>
@@ -1995,11 +1969,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2009,7 +1979,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9550</v>
+        <v>9545</v>
       </c>
       <c r="C44" t="n">
         <v>9550</v>
@@ -2018,13 +1988,13 @@
         <v>9550</v>
       </c>
       <c r="E44" t="n">
-        <v>9550</v>
+        <v>9545</v>
       </c>
       <c r="F44" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="G44" t="n">
-        <v>9500.583333333334</v>
+        <v>9499.833333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2034,11 +2004,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2060,7 +2026,7 @@
         <v>9550</v>
       </c>
       <c r="F45" t="n">
-        <v>103.5</v>
+        <v>30</v>
       </c>
       <c r="G45" t="n">
         <v>9500.583333333334</v>
@@ -2073,11 +2039,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2099,10 +2061,10 @@
         <v>9550</v>
       </c>
       <c r="F46" t="n">
-        <v>34.5</v>
+        <v>103.5</v>
       </c>
       <c r="G46" t="n">
-        <v>9501.416666666666</v>
+        <v>9500.583333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2112,11 +2074,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2138,10 +2096,10 @@
         <v>9550</v>
       </c>
       <c r="F47" t="n">
-        <v>6</v>
+        <v>34.5</v>
       </c>
       <c r="G47" t="n">
-        <v>9502.25</v>
+        <v>9501.416666666666</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2151,11 +2109,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2177,7 +2131,7 @@
         <v>9550</v>
       </c>
       <c r="F48" t="n">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="G48" t="n">
         <v>9502.25</v>
@@ -2190,11 +2144,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2216,10 +2166,10 @@
         <v>9550</v>
       </c>
       <c r="F49" t="n">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="G49" t="n">
-        <v>9502.5</v>
+        <v>9502.25</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2229,11 +2179,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2255,10 +2201,10 @@
         <v>9550</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="G50" t="n">
-        <v>9502.333333333334</v>
+        <v>9502.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2268,11 +2214,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2282,7 +2224,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9540</v>
+        <v>9550</v>
       </c>
       <c r="C51" t="n">
         <v>9550</v>
@@ -2291,13 +2233,13 @@
         <v>9550</v>
       </c>
       <c r="E51" t="n">
-        <v>9540</v>
+        <v>9550</v>
       </c>
       <c r="F51" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="G51" t="n">
-        <v>9504.416666666666</v>
+        <v>9502.333333333334</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2307,11 +2249,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2321,7 +2259,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9550</v>
+        <v>9540</v>
       </c>
       <c r="C52" t="n">
         <v>9550</v>
@@ -2330,13 +2268,13 @@
         <v>9550</v>
       </c>
       <c r="E52" t="n">
-        <v>9550</v>
+        <v>9540</v>
       </c>
       <c r="F52" t="n">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="G52" t="n">
-        <v>9505.916666666666</v>
+        <v>9504.416666666666</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2346,11 +2284,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2372,10 +2306,10 @@
         <v>9550</v>
       </c>
       <c r="F53" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G53" t="n">
-        <v>9506.166666666666</v>
+        <v>9505.916666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2385,11 +2319,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2411,10 +2341,10 @@
         <v>9550</v>
       </c>
       <c r="F54" t="n">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="G54" t="n">
-        <v>9506.666666666666</v>
+        <v>9506.166666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2424,11 +2354,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2450,10 +2376,10 @@
         <v>9550</v>
       </c>
       <c r="F55" t="n">
-        <v>67.92400000000001</v>
+        <v>131</v>
       </c>
       <c r="G55" t="n">
-        <v>9506.916666666666</v>
+        <v>9506.666666666666</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2463,11 +2389,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2480,19 +2402,19 @@
         <v>9550</v>
       </c>
       <c r="C56" t="n">
-        <v>9585</v>
+        <v>9550</v>
       </c>
       <c r="D56" t="n">
-        <v>9585</v>
+        <v>9550</v>
       </c>
       <c r="E56" t="n">
         <v>9550</v>
       </c>
       <c r="F56" t="n">
-        <v>34.5</v>
+        <v>67.92400000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>9509.75</v>
+        <v>9506.916666666666</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2502,11 +2424,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2516,22 +2434,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9580</v>
+        <v>9550</v>
       </c>
       <c r="C57" t="n">
-        <v>9580</v>
+        <v>9585</v>
       </c>
       <c r="D57" t="n">
-        <v>9580</v>
+        <v>9585</v>
       </c>
       <c r="E57" t="n">
-        <v>9580</v>
+        <v>9550</v>
       </c>
       <c r="F57" t="n">
-        <v>3.6073</v>
+        <v>34.5</v>
       </c>
       <c r="G57" t="n">
-        <v>9510.583333333334</v>
+        <v>9509.75</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2541,11 +2459,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2555,22 +2469,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9590</v>
+        <v>9580</v>
       </c>
       <c r="C58" t="n">
-        <v>9590</v>
+        <v>9580</v>
       </c>
       <c r="D58" t="n">
-        <v>9590</v>
+        <v>9580</v>
       </c>
       <c r="E58" t="n">
-        <v>9590</v>
+        <v>9580</v>
       </c>
       <c r="F58" t="n">
-        <v>32</v>
+        <v>3.6073</v>
       </c>
       <c r="G58" t="n">
-        <v>9511.25</v>
+        <v>9510.583333333334</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2580,11 +2494,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2606,10 +2516,10 @@
         <v>9590</v>
       </c>
       <c r="F59" t="n">
-        <v>38.5</v>
+        <v>32</v>
       </c>
       <c r="G59" t="n">
-        <v>9512.916666666666</v>
+        <v>9511.25</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2619,11 +2529,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2633,22 +2539,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9560</v>
+        <v>9590</v>
       </c>
       <c r="C60" t="n">
-        <v>9560</v>
+        <v>9590</v>
       </c>
       <c r="D60" t="n">
-        <v>9560</v>
+        <v>9590</v>
       </c>
       <c r="E60" t="n">
-        <v>9560</v>
+        <v>9590</v>
       </c>
       <c r="F60" t="n">
-        <v>5</v>
+        <v>38.5</v>
       </c>
       <c r="G60" t="n">
-        <v>9513.25</v>
+        <v>9512.916666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2658,11 +2564,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2684,10 +2586,10 @@
         <v>9560</v>
       </c>
       <c r="F61" t="n">
-        <v>11.7954</v>
+        <v>5</v>
       </c>
       <c r="G61" t="n">
-        <v>9514.25</v>
+        <v>9513.25</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2697,11 +2599,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2711,22 +2609,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9585</v>
+        <v>9560</v>
       </c>
       <c r="C62" t="n">
-        <v>9590</v>
+        <v>9560</v>
       </c>
       <c r="D62" t="n">
-        <v>9590</v>
+        <v>9560</v>
       </c>
       <c r="E62" t="n">
-        <v>9585</v>
+        <v>9560</v>
       </c>
       <c r="F62" t="n">
-        <v>95</v>
+        <v>11.7954</v>
       </c>
       <c r="G62" t="n">
-        <v>9515.083333333334</v>
+        <v>9514.25</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2736,11 +2634,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2750,7 +2644,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9590</v>
+        <v>9585</v>
       </c>
       <c r="C63" t="n">
         <v>9590</v>
@@ -2759,13 +2653,13 @@
         <v>9590</v>
       </c>
       <c r="E63" t="n">
-        <v>9590</v>
+        <v>9585</v>
       </c>
       <c r="F63" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="G63" t="n">
-        <v>9516.083333333334</v>
+        <v>9515.083333333334</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2775,11 +2669,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2792,19 +2682,19 @@
         <v>9590</v>
       </c>
       <c r="C64" t="n">
-        <v>9600</v>
+        <v>9590</v>
       </c>
       <c r="D64" t="n">
-        <v>9600</v>
+        <v>9590</v>
       </c>
       <c r="E64" t="n">
         <v>9590</v>
       </c>
       <c r="F64" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G64" t="n">
-        <v>9517.166666666666</v>
+        <v>9516.083333333334</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2814,11 +2704,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2828,36 +2714,32 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9555</v>
+        <v>9590</v>
       </c>
       <c r="C65" t="n">
-        <v>9555</v>
+        <v>9600</v>
       </c>
       <c r="D65" t="n">
-        <v>9555</v>
+        <v>9600</v>
       </c>
       <c r="E65" t="n">
-        <v>9555</v>
+        <v>9590</v>
       </c>
       <c r="F65" t="n">
-        <v>34.6288</v>
+        <v>34</v>
       </c>
       <c r="G65" t="n">
-        <v>9518.583333333334</v>
+        <v>9517.166666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2867,22 +2749,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9595</v>
+        <v>9555</v>
       </c>
       <c r="C66" t="n">
-        <v>9595</v>
+        <v>9555</v>
       </c>
       <c r="D66" t="n">
-        <v>9595</v>
+        <v>9555</v>
       </c>
       <c r="E66" t="n">
-        <v>9595</v>
+        <v>9555</v>
       </c>
       <c r="F66" t="n">
-        <v>6</v>
+        <v>34.6288</v>
       </c>
       <c r="G66" t="n">
-        <v>9521.25</v>
+        <v>9518.583333333334</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2892,11 +2774,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2918,10 +2796,10 @@
         <v>9595</v>
       </c>
       <c r="F67" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G67" t="n">
-        <v>9522.166666666666</v>
+        <v>9521.25</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2931,11 +2809,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2960,7 +2834,7 @@
         <v>4</v>
       </c>
       <c r="G68" t="n">
-        <v>9524.833333333334</v>
+        <v>9522.166666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2970,11 +2844,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2987,19 +2857,19 @@
         <v>9595</v>
       </c>
       <c r="C69" t="n">
-        <v>9600</v>
+        <v>9595</v>
       </c>
       <c r="D69" t="n">
-        <v>9600</v>
+        <v>9595</v>
       </c>
       <c r="E69" t="n">
         <v>9595</v>
       </c>
       <c r="F69" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G69" t="n">
-        <v>9527.75</v>
+        <v>9524.833333333334</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3009,11 +2879,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3023,7 +2889,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9600</v>
+        <v>9595</v>
       </c>
       <c r="C70" t="n">
         <v>9600</v>
@@ -3032,13 +2898,13 @@
         <v>9600</v>
       </c>
       <c r="E70" t="n">
-        <v>9600</v>
+        <v>9595</v>
       </c>
       <c r="F70" t="n">
-        <v>190.3934</v>
+        <v>6</v>
       </c>
       <c r="G70" t="n">
-        <v>9530.75</v>
+        <v>9527.75</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3048,11 +2914,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3062,22 +2924,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9570</v>
+        <v>9600</v>
       </c>
       <c r="C71" t="n">
-        <v>9555</v>
+        <v>9600</v>
       </c>
       <c r="D71" t="n">
-        <v>9570</v>
+        <v>9600</v>
       </c>
       <c r="E71" t="n">
-        <v>9555</v>
+        <v>9600</v>
       </c>
       <c r="F71" t="n">
         <v>190.3934</v>
       </c>
       <c r="G71" t="n">
-        <v>9533</v>
+        <v>9530.75</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3087,11 +2949,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3101,22 +2959,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9635</v>
+        <v>9570</v>
       </c>
       <c r="C72" t="n">
-        <v>9635</v>
+        <v>9555</v>
       </c>
       <c r="D72" t="n">
-        <v>9635</v>
+        <v>9570</v>
       </c>
       <c r="E72" t="n">
-        <v>9635</v>
+        <v>9555</v>
       </c>
       <c r="F72" t="n">
-        <v>20</v>
+        <v>190.3934</v>
       </c>
       <c r="G72" t="n">
-        <v>9535.583333333334</v>
+        <v>9533</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3126,11 +2984,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3143,19 +2997,19 @@
         <v>9635</v>
       </c>
       <c r="C73" t="n">
-        <v>9640</v>
+        <v>9635</v>
       </c>
       <c r="D73" t="n">
-        <v>9640</v>
+        <v>9635</v>
       </c>
       <c r="E73" t="n">
         <v>9635</v>
       </c>
       <c r="F73" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G73" t="n">
-        <v>9539.333333333334</v>
+        <v>9535.583333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3165,11 +3019,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3179,7 +3029,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9640</v>
+        <v>9635</v>
       </c>
       <c r="C74" t="n">
         <v>9640</v>
@@ -3188,27 +3038,23 @@
         <v>9640</v>
       </c>
       <c r="E74" t="n">
-        <v>9640</v>
+        <v>9635</v>
       </c>
       <c r="F74" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G74" t="n">
-        <v>9542.833333333334</v>
+        <v>9539.333333333334</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3230,24 +3076,20 @@
         <v>9640</v>
       </c>
       <c r="F75" t="n">
-        <v>11.5</v>
+        <v>22</v>
       </c>
       <c r="G75" t="n">
-        <v>9546.416666666666</v>
+        <v>9542.833333333334</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3260,33 +3102,29 @@
         <v>9640</v>
       </c>
       <c r="C76" t="n">
-        <v>9650</v>
+        <v>9640</v>
       </c>
       <c r="D76" t="n">
-        <v>9650</v>
+        <v>9640</v>
       </c>
       <c r="E76" t="n">
         <v>9640</v>
       </c>
       <c r="F76" t="n">
-        <v>0.99899896</v>
+        <v>11.5</v>
       </c>
       <c r="G76" t="n">
-        <v>9550.333333333334</v>
+        <v>9546.416666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3296,36 +3134,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>9640</v>
+      </c>
+      <c r="C77" t="n">
         <v>9650</v>
       </c>
-      <c r="C77" t="n">
-        <v>9670</v>
-      </c>
       <c r="D77" t="n">
-        <v>9670</v>
+        <v>9650</v>
       </c>
       <c r="E77" t="n">
-        <v>9650</v>
+        <v>9640</v>
       </c>
       <c r="F77" t="n">
-        <v>103.50315532</v>
+        <v>0.99899896</v>
       </c>
       <c r="G77" t="n">
-        <v>9553.75</v>
+        <v>9550.333333333334</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3335,36 +3169,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9625</v>
+        <v>9650</v>
       </c>
       <c r="C78" t="n">
-        <v>9625</v>
+        <v>9670</v>
       </c>
       <c r="D78" t="n">
-        <v>9625</v>
+        <v>9670</v>
       </c>
       <c r="E78" t="n">
-        <v>9625</v>
+        <v>9650</v>
       </c>
       <c r="F78" t="n">
-        <v>4.5253</v>
+        <v>103.50315532</v>
       </c>
       <c r="G78" t="n">
-        <v>9557.5</v>
+        <v>9553.75</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3374,22 +3204,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9660</v>
+        <v>9625</v>
       </c>
       <c r="C79" t="n">
-        <v>9675</v>
+        <v>9625</v>
       </c>
       <c r="D79" t="n">
-        <v>9675</v>
+        <v>9625</v>
       </c>
       <c r="E79" t="n">
-        <v>9660</v>
+        <v>9625</v>
       </c>
       <c r="F79" t="n">
-        <v>4.99926403</v>
+        <v>4.5253</v>
       </c>
       <c r="G79" t="n">
-        <v>9560.75</v>
+        <v>9557.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3399,11 +3229,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3413,36 +3239,32 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9665</v>
+        <v>9660</v>
       </c>
       <c r="C80" t="n">
-        <v>9665</v>
+        <v>9675</v>
       </c>
       <c r="D80" t="n">
-        <v>9665</v>
+        <v>9675</v>
       </c>
       <c r="E80" t="n">
-        <v>9665</v>
+        <v>9660</v>
       </c>
       <c r="F80" t="n">
-        <v>62.2009</v>
+        <v>4.99926403</v>
       </c>
       <c r="G80" t="n">
-        <v>9563.5</v>
+        <v>9560.75</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3452,22 +3274,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9590</v>
+        <v>9665</v>
       </c>
       <c r="C81" t="n">
-        <v>9590</v>
+        <v>9665</v>
       </c>
       <c r="D81" t="n">
-        <v>9590</v>
+        <v>9665</v>
       </c>
       <c r="E81" t="n">
-        <v>9590</v>
+        <v>9665</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>62.2009</v>
       </c>
       <c r="G81" t="n">
-        <v>9564.833333333334</v>
+        <v>9563.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3477,11 +3299,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3491,22 +3309,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9655</v>
+        <v>9590</v>
       </c>
       <c r="C82" t="n">
-        <v>9660</v>
+        <v>9590</v>
       </c>
       <c r="D82" t="n">
-        <v>9660</v>
+        <v>9590</v>
       </c>
       <c r="E82" t="n">
-        <v>9655</v>
+        <v>9590</v>
       </c>
       <c r="F82" t="n">
-        <v>6.22</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>9567.333333333334</v>
+        <v>9564.833333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3516,11 +3334,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3530,22 +3344,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9595</v>
+        <v>9655</v>
       </c>
       <c r="C83" t="n">
-        <v>9585</v>
+        <v>9660</v>
       </c>
       <c r="D83" t="n">
-        <v>9595</v>
+        <v>9660</v>
       </c>
       <c r="E83" t="n">
-        <v>9585</v>
+        <v>9655</v>
       </c>
       <c r="F83" t="n">
-        <v>41.9022</v>
+        <v>6.22</v>
       </c>
       <c r="G83" t="n">
-        <v>9568.333333333334</v>
+        <v>9567.333333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3555,11 +3369,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3569,22 +3379,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9625</v>
+        <v>9595</v>
       </c>
       <c r="C84" t="n">
-        <v>9700</v>
+        <v>9585</v>
       </c>
       <c r="D84" t="n">
-        <v>9700</v>
+        <v>9595</v>
       </c>
       <c r="E84" t="n">
-        <v>9625</v>
+        <v>9585</v>
       </c>
       <c r="F84" t="n">
-        <v>69</v>
+        <v>41.9022</v>
       </c>
       <c r="G84" t="n">
-        <v>9571.25</v>
+        <v>9568.333333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3594,11 +3404,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3608,22 +3414,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9640</v>
+        <v>9625</v>
       </c>
       <c r="C85" t="n">
-        <v>9615</v>
+        <v>9700</v>
       </c>
       <c r="D85" t="n">
-        <v>9685</v>
+        <v>9700</v>
       </c>
       <c r="E85" t="n">
-        <v>9615</v>
+        <v>9625</v>
       </c>
       <c r="F85" t="n">
-        <v>184.4201</v>
+        <v>69</v>
       </c>
       <c r="G85" t="n">
-        <v>9573.166666666666</v>
+        <v>9571.25</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3633,11 +3439,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3647,22 +3449,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9690</v>
+        <v>9640</v>
       </c>
       <c r="C86" t="n">
-        <v>9790</v>
+        <v>9615</v>
       </c>
       <c r="D86" t="n">
-        <v>9790</v>
+        <v>9685</v>
       </c>
       <c r="E86" t="n">
-        <v>9690</v>
+        <v>9615</v>
       </c>
       <c r="F86" t="n">
-        <v>414.98</v>
+        <v>184.4201</v>
       </c>
       <c r="G86" t="n">
-        <v>9578</v>
+        <v>9573.166666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3672,11 +3474,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3686,22 +3484,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9725</v>
+        <v>9690</v>
       </c>
       <c r="C87" t="n">
-        <v>9800</v>
+        <v>9790</v>
       </c>
       <c r="D87" t="n">
-        <v>9800</v>
+        <v>9790</v>
       </c>
       <c r="E87" t="n">
-        <v>9725</v>
+        <v>9690</v>
       </c>
       <c r="F87" t="n">
-        <v>85.6605</v>
+        <v>414.98</v>
       </c>
       <c r="G87" t="n">
-        <v>9583.166666666666</v>
+        <v>9578</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3711,11 +3509,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3725,22 +3519,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9830</v>
+        <v>9725</v>
       </c>
       <c r="C88" t="n">
-        <v>9835</v>
+        <v>9800</v>
       </c>
       <c r="D88" t="n">
-        <v>9835</v>
+        <v>9800</v>
       </c>
       <c r="E88" t="n">
-        <v>9830</v>
+        <v>9725</v>
       </c>
       <c r="F88" t="n">
-        <v>90.54142323000001</v>
+        <v>85.6605</v>
       </c>
       <c r="G88" t="n">
-        <v>9588.916666666666</v>
+        <v>9583.166666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3750,11 +3544,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3764,37 +3554,35 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9745</v>
+        <v>9830</v>
       </c>
       <c r="C89" t="n">
-        <v>9745</v>
+        <v>9835</v>
       </c>
       <c r="D89" t="n">
-        <v>9745</v>
+        <v>9835</v>
       </c>
       <c r="E89" t="n">
-        <v>9745</v>
+        <v>9830</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1193</v>
+        <v>90.54142323000001</v>
       </c>
       <c r="G89" t="n">
-        <v>9593</v>
+        <v>9588.916666666666</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3804,19 +3592,19 @@
         <v>9745</v>
       </c>
       <c r="C90" t="n">
-        <v>9895</v>
+        <v>9745</v>
       </c>
       <c r="D90" t="n">
-        <v>9895</v>
+        <v>9745</v>
       </c>
       <c r="E90" t="n">
         <v>9745</v>
       </c>
       <c r="F90" t="n">
-        <v>110.0033</v>
+        <v>0.1193</v>
       </c>
       <c r="G90" t="n">
-        <v>9599.583333333334</v>
+        <v>9593</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3836,7 +3624,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9895</v>
+        <v>9745</v>
       </c>
       <c r="C91" t="n">
         <v>9895</v>
@@ -3845,13 +3633,13 @@
         <v>9895</v>
       </c>
       <c r="E91" t="n">
-        <v>9810</v>
+        <v>9745</v>
       </c>
       <c r="F91" t="n">
-        <v>62.2084</v>
+        <v>110.0033</v>
       </c>
       <c r="G91" t="n">
-        <v>9606.166666666666</v>
+        <v>9599.583333333334</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3871,22 +3659,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9890</v>
+        <v>9895</v>
       </c>
       <c r="C92" t="n">
-        <v>9890</v>
+        <v>9895</v>
       </c>
       <c r="D92" t="n">
-        <v>9890</v>
+        <v>9895</v>
       </c>
       <c r="E92" t="n">
-        <v>9890</v>
+        <v>9810</v>
       </c>
       <c r="F92" t="n">
-        <v>19.4627</v>
+        <v>62.2084</v>
       </c>
       <c r="G92" t="n">
-        <v>9612.333333333334</v>
+        <v>9606.166666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3918,10 +3706,10 @@
         <v>9890</v>
       </c>
       <c r="F93" t="n">
-        <v>250.8275</v>
+        <v>19.4627</v>
       </c>
       <c r="G93" t="n">
-        <v>9618.5</v>
+        <v>9612.333333333334</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3941,22 +3729,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9870</v>
+        <v>9890</v>
       </c>
       <c r="C94" t="n">
-        <v>9900</v>
+        <v>9890</v>
       </c>
       <c r="D94" t="n">
-        <v>9900</v>
+        <v>9890</v>
       </c>
       <c r="E94" t="n">
-        <v>9830</v>
+        <v>9890</v>
       </c>
       <c r="F94" t="n">
-        <v>193</v>
+        <v>250.8275</v>
       </c>
       <c r="G94" t="n">
-        <v>9624.416666666666</v>
+        <v>9618.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3976,7 +3764,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9900</v>
+        <v>9870</v>
       </c>
       <c r="C95" t="n">
         <v>9900</v>
@@ -3985,13 +3773,13 @@
         <v>9900</v>
       </c>
       <c r="E95" t="n">
-        <v>9900</v>
+        <v>9830</v>
       </c>
       <c r="F95" t="n">
-        <v>64.96680000000001</v>
+        <v>193</v>
       </c>
       <c r="G95" t="n">
-        <v>9630.333333333334</v>
+        <v>9624.416666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4011,22 +3799,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9845</v>
+        <v>9900</v>
       </c>
       <c r="C96" t="n">
-        <v>9810</v>
+        <v>9900</v>
       </c>
       <c r="D96" t="n">
-        <v>9845</v>
+        <v>9900</v>
       </c>
       <c r="E96" t="n">
-        <v>9810</v>
+        <v>9900</v>
       </c>
       <c r="F96" t="n">
-        <v>3.9785</v>
+        <v>64.96680000000001</v>
       </c>
       <c r="G96" t="n">
-        <v>9634.75</v>
+        <v>9630.333333333334</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4046,22 +3834,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>9845</v>
+      </c>
+      <c r="C97" t="n">
         <v>9810</v>
       </c>
-      <c r="C97" t="n">
-        <v>9805</v>
-      </c>
       <c r="D97" t="n">
+        <v>9845</v>
+      </c>
+      <c r="E97" t="n">
         <v>9810</v>
       </c>
-      <c r="E97" t="n">
-        <v>9805</v>
-      </c>
       <c r="F97" t="n">
-        <v>11.1135</v>
+        <v>3.9785</v>
       </c>
       <c r="G97" t="n">
-        <v>9639.083333333334</v>
+        <v>9634.75</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4081,22 +3869,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9800</v>
+        <v>9810</v>
       </c>
       <c r="C98" t="n">
-        <v>9885</v>
+        <v>9805</v>
       </c>
       <c r="D98" t="n">
-        <v>9900</v>
+        <v>9810</v>
       </c>
       <c r="E98" t="n">
-        <v>9770</v>
+        <v>9805</v>
       </c>
       <c r="F98" t="n">
-        <v>333.7241</v>
+        <v>11.1135</v>
       </c>
       <c r="G98" t="n">
-        <v>9644.833333333334</v>
+        <v>9639.083333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4116,22 +3904,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9820</v>
+        <v>9800</v>
       </c>
       <c r="C99" t="n">
-        <v>9815</v>
+        <v>9885</v>
       </c>
       <c r="D99" t="n">
-        <v>9820</v>
+        <v>9900</v>
       </c>
       <c r="E99" t="n">
-        <v>9810</v>
+        <v>9770</v>
       </c>
       <c r="F99" t="n">
-        <v>14</v>
+        <v>333.7241</v>
       </c>
       <c r="G99" t="n">
-        <v>9649.416666666666</v>
+        <v>9644.833333333334</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4151,22 +3939,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9815</v>
+        <v>9820</v>
       </c>
       <c r="C100" t="n">
         <v>9815</v>
       </c>
       <c r="D100" t="n">
-        <v>9815</v>
+        <v>9820</v>
       </c>
       <c r="E100" t="n">
-        <v>9815</v>
+        <v>9810</v>
       </c>
       <c r="F100" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G100" t="n">
-        <v>9654</v>
+        <v>9649.416666666666</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4186,22 +3974,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9895</v>
+        <v>9815</v>
       </c>
       <c r="C101" t="n">
-        <v>9895</v>
+        <v>9815</v>
       </c>
       <c r="D101" t="n">
-        <v>9895</v>
+        <v>9815</v>
       </c>
       <c r="E101" t="n">
-        <v>9895</v>
+        <v>9815</v>
       </c>
       <c r="F101" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>9659.833333333334</v>
+        <v>9654</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4224,19 +4012,19 @@
         <v>9895</v>
       </c>
       <c r="C102" t="n">
-        <v>9890</v>
+        <v>9895</v>
       </c>
       <c r="D102" t="n">
-        <v>9900</v>
+        <v>9895</v>
       </c>
       <c r="E102" t="n">
-        <v>9890</v>
+        <v>9895</v>
       </c>
       <c r="F102" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G102" t="n">
-        <v>9665.583333333334</v>
+        <v>9659.833333333334</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4256,22 +4044,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9875</v>
+        <v>9895</v>
       </c>
       <c r="C103" t="n">
-        <v>9875</v>
+        <v>9890</v>
       </c>
       <c r="D103" t="n">
-        <v>9875</v>
+        <v>9900</v>
       </c>
       <c r="E103" t="n">
-        <v>9875</v>
+        <v>9890</v>
       </c>
       <c r="F103" t="n">
-        <v>9.07</v>
+        <v>4</v>
       </c>
       <c r="G103" t="n">
-        <v>9671</v>
+        <v>9665.583333333334</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4291,22 +4079,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9890</v>
+        <v>9875</v>
       </c>
       <c r="C104" t="n">
-        <v>9855</v>
+        <v>9875</v>
       </c>
       <c r="D104" t="n">
-        <v>9890</v>
+        <v>9875</v>
       </c>
       <c r="E104" t="n">
-        <v>9855</v>
+        <v>9875</v>
       </c>
       <c r="F104" t="n">
-        <v>70.327</v>
+        <v>9.07</v>
       </c>
       <c r="G104" t="n">
-        <v>9676.083333333334</v>
+        <v>9671</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4326,22 +4114,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9815</v>
+        <v>9890</v>
       </c>
       <c r="C105" t="n">
-        <v>9880</v>
+        <v>9855</v>
       </c>
       <c r="D105" t="n">
-        <v>9885</v>
+        <v>9890</v>
       </c>
       <c r="E105" t="n">
-        <v>9800</v>
+        <v>9855</v>
       </c>
       <c r="F105" t="n">
-        <v>218.7908</v>
+        <v>70.327</v>
       </c>
       <c r="G105" t="n">
-        <v>9681.583333333334</v>
+        <v>9676.083333333334</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4361,22 +4149,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9890</v>
+        <v>9815</v>
       </c>
       <c r="C106" t="n">
-        <v>9890</v>
+        <v>9880</v>
       </c>
       <c r="D106" t="n">
-        <v>9890</v>
+        <v>9885</v>
       </c>
       <c r="E106" t="n">
-        <v>9890</v>
+        <v>9800</v>
       </c>
       <c r="F106" t="n">
-        <v>6.23</v>
+        <v>218.7908</v>
       </c>
       <c r="G106" t="n">
-        <v>9687.25</v>
+        <v>9681.583333333334</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4396,22 +4184,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9800</v>
+        <v>9890</v>
       </c>
       <c r="C107" t="n">
-        <v>9795</v>
+        <v>9890</v>
       </c>
       <c r="D107" t="n">
-        <v>9800</v>
+        <v>9890</v>
       </c>
       <c r="E107" t="n">
-        <v>9790</v>
+        <v>9890</v>
       </c>
       <c r="F107" t="n">
-        <v>41.0923</v>
+        <v>6.23</v>
       </c>
       <c r="G107" t="n">
-        <v>9691.333333333334</v>
+        <v>9687.25</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4431,22 +4219,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9785</v>
+        <v>9800</v>
       </c>
       <c r="C108" t="n">
-        <v>9880</v>
+        <v>9795</v>
       </c>
       <c r="D108" t="n">
-        <v>9880</v>
+        <v>9800</v>
       </c>
       <c r="E108" t="n">
-        <v>9785</v>
+        <v>9790</v>
       </c>
       <c r="F108" t="n">
-        <v>56.212</v>
+        <v>41.0923</v>
       </c>
       <c r="G108" t="n">
-        <v>9696.833333333334</v>
+        <v>9691.333333333334</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4466,22 +4254,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>9785</v>
+      </c>
+      <c r="C109" t="n">
         <v>9880</v>
       </c>
-      <c r="C109" t="n">
-        <v>9810</v>
-      </c>
       <c r="D109" t="n">
-        <v>9915</v>
+        <v>9880</v>
       </c>
       <c r="E109" t="n">
-        <v>9790</v>
+        <v>9785</v>
       </c>
       <c r="F109" t="n">
-        <v>187.4873</v>
+        <v>56.212</v>
       </c>
       <c r="G109" t="n">
-        <v>9701.166666666666</v>
+        <v>9696.833333333334</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4501,22 +4289,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9825</v>
+        <v>9880</v>
       </c>
       <c r="C110" t="n">
-        <v>9850</v>
+        <v>9810</v>
       </c>
       <c r="D110" t="n">
-        <v>9850</v>
+        <v>9915</v>
       </c>
       <c r="E110" t="n">
-        <v>9815</v>
+        <v>9790</v>
       </c>
       <c r="F110" t="n">
-        <v>54.9597</v>
+        <v>187.4873</v>
       </c>
       <c r="G110" t="n">
-        <v>9706.166666666666</v>
+        <v>9701.166666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4536,22 +4324,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>9825</v>
+      </c>
+      <c r="C111" t="n">
+        <v>9850</v>
+      </c>
+      <c r="D111" t="n">
+        <v>9850</v>
+      </c>
+      <c r="E111" t="n">
         <v>9815</v>
       </c>
-      <c r="C111" t="n">
-        <v>9810</v>
-      </c>
-      <c r="D111" t="n">
-        <v>9815</v>
-      </c>
-      <c r="E111" t="n">
-        <v>9810</v>
-      </c>
       <c r="F111" t="n">
-        <v>58.7614</v>
+        <v>54.9597</v>
       </c>
       <c r="G111" t="n">
-        <v>9710.5</v>
+        <v>9706.166666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4571,22 +4359,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9810</v>
+        <v>9815</v>
       </c>
       <c r="C112" t="n">
         <v>9810</v>
       </c>
       <c r="D112" t="n">
-        <v>9810</v>
+        <v>9815</v>
       </c>
       <c r="E112" t="n">
         <v>9810</v>
       </c>
       <c r="F112" t="n">
-        <v>36.2618</v>
+        <v>58.7614</v>
       </c>
       <c r="G112" t="n">
-        <v>9714.833333333334</v>
+        <v>9710.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4606,22 +4394,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>9840</v>
+        <v>9810</v>
       </c>
       <c r="C113" t="n">
-        <v>9840</v>
+        <v>9810</v>
       </c>
       <c r="D113" t="n">
-        <v>9840</v>
+        <v>9810</v>
       </c>
       <c r="E113" t="n">
-        <v>9840</v>
+        <v>9810</v>
       </c>
       <c r="F113" t="n">
-        <v>4.7867</v>
+        <v>36.2618</v>
       </c>
       <c r="G113" t="n">
-        <v>9719.666666666666</v>
+        <v>9714.833333333334</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4641,22 +4429,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>9810</v>
+        <v>9840</v>
       </c>
       <c r="C114" t="n">
-        <v>9810</v>
+        <v>9840</v>
       </c>
       <c r="D114" t="n">
-        <v>9810</v>
+        <v>9840</v>
       </c>
       <c r="E114" t="n">
-        <v>9810</v>
+        <v>9840</v>
       </c>
       <c r="F114" t="n">
-        <v>33.6515</v>
+        <v>4.7867</v>
       </c>
       <c r="G114" t="n">
-        <v>9724</v>
+        <v>9719.666666666666</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4676,22 +4464,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>9815</v>
+        <v>9810</v>
       </c>
       <c r="C115" t="n">
         <v>9810</v>
       </c>
       <c r="D115" t="n">
-        <v>9815</v>
+        <v>9810</v>
       </c>
       <c r="E115" t="n">
         <v>9810</v>
       </c>
       <c r="F115" t="n">
-        <v>51.6381</v>
+        <v>33.6515</v>
       </c>
       <c r="G115" t="n">
-        <v>9728.333333333334</v>
+        <v>9724</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4711,22 +4499,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>9810</v>
+        <v>9815</v>
       </c>
       <c r="C116" t="n">
         <v>9810</v>
       </c>
       <c r="D116" t="n">
-        <v>9810</v>
+        <v>9815</v>
       </c>
       <c r="E116" t="n">
         <v>9810</v>
       </c>
       <c r="F116" t="n">
-        <v>11</v>
+        <v>51.6381</v>
       </c>
       <c r="G116" t="n">
-        <v>9732.083333333334</v>
+        <v>9728.333333333334</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4746,22 +4534,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>9775</v>
+        <v>9810</v>
       </c>
       <c r="C117" t="n">
-        <v>9740</v>
+        <v>9810</v>
       </c>
       <c r="D117" t="n">
-        <v>9775</v>
+        <v>9810</v>
       </c>
       <c r="E117" t="n">
-        <v>9740</v>
+        <v>9810</v>
       </c>
       <c r="F117" t="n">
-        <v>158.3999</v>
+        <v>11</v>
       </c>
       <c r="G117" t="n">
-        <v>9734.75</v>
+        <v>9732.083333333334</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4781,22 +4569,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>9795</v>
+        <v>9775</v>
       </c>
       <c r="C118" t="n">
-        <v>9790</v>
+        <v>9740</v>
       </c>
       <c r="D118" t="n">
-        <v>9795</v>
+        <v>9775</v>
       </c>
       <c r="E118" t="n">
-        <v>9790</v>
+        <v>9740</v>
       </c>
       <c r="F118" t="n">
-        <v>4</v>
+        <v>158.3999</v>
       </c>
       <c r="G118" t="n">
-        <v>9738.083333333334</v>
+        <v>9734.75</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4816,22 +4604,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>9725</v>
+        <v>9795</v>
       </c>
       <c r="C119" t="n">
-        <v>9725</v>
+        <v>9790</v>
       </c>
       <c r="D119" t="n">
-        <v>9725</v>
+        <v>9795</v>
       </c>
       <c r="E119" t="n">
-        <v>9725</v>
+        <v>9790</v>
       </c>
       <c r="F119" t="n">
-        <v>8.539999999999999</v>
+        <v>4</v>
       </c>
       <c r="G119" t="n">
-        <v>9740.333333333334</v>
+        <v>9738.083333333334</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4851,22 +4639,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9755</v>
+        <v>9725</v>
       </c>
       <c r="C120" t="n">
-        <v>9705</v>
+        <v>9725</v>
       </c>
       <c r="D120" t="n">
-        <v>9755</v>
+        <v>9725</v>
       </c>
       <c r="E120" t="n">
-        <v>9705</v>
+        <v>9725</v>
       </c>
       <c r="F120" t="n">
-        <v>81.5493</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="G120" t="n">
-        <v>9742.75</v>
+        <v>9740.333333333334</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4886,22 +4674,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>9785</v>
+        <v>9755</v>
       </c>
       <c r="C121" t="n">
-        <v>9785</v>
+        <v>9705</v>
       </c>
       <c r="D121" t="n">
-        <v>9785</v>
+        <v>9755</v>
       </c>
       <c r="E121" t="n">
-        <v>9785</v>
+        <v>9705</v>
       </c>
       <c r="F121" t="n">
-        <v>13.19</v>
+        <v>81.5493</v>
       </c>
       <c r="G121" t="n">
-        <v>9746.5</v>
+        <v>9742.75</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4921,31 +4709,35 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>9745</v>
+        <v>9785</v>
       </c>
       <c r="C122" t="n">
-        <v>9745</v>
+        <v>9785</v>
       </c>
       <c r="D122" t="n">
-        <v>9745</v>
+        <v>9785</v>
       </c>
       <c r="E122" t="n">
-        <v>9745</v>
+        <v>9785</v>
       </c>
       <c r="F122" t="n">
-        <v>10</v>
+        <v>13.19</v>
       </c>
       <c r="G122" t="n">
-        <v>9749.083333333334</v>
+        <v>9746.5</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K122" t="n">
+        <v>9705</v>
+      </c>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
@@ -4956,22 +4748,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>9795</v>
+        <v>9745</v>
       </c>
       <c r="C123" t="n">
-        <v>9795</v>
+        <v>9745</v>
       </c>
       <c r="D123" t="n">
-        <v>9795</v>
+        <v>9745</v>
       </c>
       <c r="E123" t="n">
-        <v>9795</v>
+        <v>9745</v>
       </c>
       <c r="F123" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G123" t="n">
-        <v>9752.5</v>
+        <v>9749.083333333334</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4980,8 +4772,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>9705</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4991,22 +4789,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>9775</v>
+        <v>9795</v>
       </c>
       <c r="C124" t="n">
-        <v>9785</v>
+        <v>9795</v>
       </c>
       <c r="D124" t="n">
-        <v>9785</v>
+        <v>9795</v>
       </c>
       <c r="E124" t="n">
-        <v>9775</v>
+        <v>9795</v>
       </c>
       <c r="F124" t="n">
-        <v>40.1</v>
+        <v>14</v>
       </c>
       <c r="G124" t="n">
-        <v>9755.583333333334</v>
+        <v>9752.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5015,8 +4813,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>9705</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5026,22 +4830,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9810</v>
+        <v>9775</v>
       </c>
       <c r="C125" t="n">
-        <v>9890</v>
+        <v>9785</v>
       </c>
       <c r="D125" t="n">
-        <v>9890</v>
+        <v>9785</v>
       </c>
       <c r="E125" t="n">
-        <v>9810</v>
+        <v>9775</v>
       </c>
       <c r="F125" t="n">
-        <v>68.5</v>
+        <v>40.1</v>
       </c>
       <c r="G125" t="n">
-        <v>9761.166666666666</v>
+        <v>9755.583333333334</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5061,22 +4865,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>9885</v>
+        <v>9810</v>
       </c>
       <c r="C126" t="n">
-        <v>9895</v>
+        <v>9890</v>
       </c>
       <c r="D126" t="n">
-        <v>9895</v>
+        <v>9890</v>
       </c>
       <c r="E126" t="n">
-        <v>9885</v>
+        <v>9810</v>
       </c>
       <c r="F126" t="n">
-        <v>157.74</v>
+        <v>68.5</v>
       </c>
       <c r="G126" t="n">
-        <v>9766.166666666666</v>
+        <v>9761.166666666666</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5096,22 +4900,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
+        <v>9885</v>
+      </c>
+      <c r="C127" t="n">
         <v>9895</v>
       </c>
-      <c r="C127" t="n">
-        <v>9930</v>
-      </c>
       <c r="D127" t="n">
-        <v>9930</v>
+        <v>9895</v>
       </c>
       <c r="E127" t="n">
-        <v>9895</v>
+        <v>9885</v>
       </c>
       <c r="F127" t="n">
-        <v>40.5902</v>
+        <v>157.74</v>
       </c>
       <c r="G127" t="n">
-        <v>9771.75</v>
+        <v>9766.166666666666</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5131,22 +4935,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>9840</v>
+        <v>9895</v>
       </c>
       <c r="C128" t="n">
-        <v>9840</v>
+        <v>9930</v>
       </c>
       <c r="D128" t="n">
-        <v>9840</v>
+        <v>9930</v>
       </c>
       <c r="E128" t="n">
-        <v>9840</v>
+        <v>9895</v>
       </c>
       <c r="F128" t="n">
-        <v>83.3954</v>
+        <v>40.5902</v>
       </c>
       <c r="G128" t="n">
-        <v>9775.833333333334</v>
+        <v>9771.75</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5166,22 +4970,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>9710</v>
+        <v>9840</v>
       </c>
       <c r="C129" t="n">
-        <v>9710</v>
+        <v>9840</v>
       </c>
       <c r="D129" t="n">
-        <v>9710</v>
+        <v>9840</v>
       </c>
       <c r="E129" t="n">
-        <v>9710</v>
+        <v>9840</v>
       </c>
       <c r="F129" t="n">
-        <v>9.7081</v>
+        <v>83.3954</v>
       </c>
       <c r="G129" t="n">
-        <v>9777.666666666666</v>
+        <v>9775.833333333334</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5201,22 +5005,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>9715</v>
+        <v>9710</v>
       </c>
       <c r="C130" t="n">
-        <v>9705</v>
+        <v>9710</v>
       </c>
       <c r="D130" t="n">
-        <v>9715</v>
+        <v>9710</v>
       </c>
       <c r="E130" t="n">
-        <v>9705</v>
+        <v>9710</v>
       </c>
       <c r="F130" t="n">
-        <v>364.1607</v>
+        <v>9.7081</v>
       </c>
       <c r="G130" t="n">
-        <v>9779.416666666666</v>
+        <v>9777.666666666666</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5236,22 +5040,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>9700</v>
+        <v>9715</v>
       </c>
       <c r="C131" t="n">
         <v>9705</v>
       </c>
       <c r="D131" t="n">
+        <v>9715</v>
+      </c>
+      <c r="E131" t="n">
         <v>9705</v>
       </c>
-      <c r="E131" t="n">
-        <v>9700</v>
-      </c>
       <c r="F131" t="n">
-        <v>32.44</v>
+        <v>364.1607</v>
       </c>
       <c r="G131" t="n">
-        <v>9781.916666666666</v>
+        <v>9779.416666666666</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5271,22 +5075,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>9645</v>
+        <v>9700</v>
       </c>
       <c r="C132" t="n">
+        <v>9705</v>
+      </c>
+      <c r="D132" t="n">
+        <v>9705</v>
+      </c>
+      <c r="E132" t="n">
         <v>9700</v>
       </c>
-      <c r="D132" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E132" t="n">
-        <v>9645</v>
-      </c>
       <c r="F132" t="n">
-        <v>132.8689</v>
+        <v>32.44</v>
       </c>
       <c r="G132" t="n">
-        <v>9783</v>
+        <v>9781.916666666666</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5306,22 +5110,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>9630</v>
+        <v>9645</v>
       </c>
       <c r="C133" t="n">
-        <v>9620</v>
+        <v>9700</v>
       </c>
       <c r="D133" t="n">
-        <v>9630</v>
+        <v>9700</v>
       </c>
       <c r="E133" t="n">
-        <v>9620</v>
+        <v>9645</v>
       </c>
       <c r="F133" t="n">
-        <v>370</v>
+        <v>132.8689</v>
       </c>
       <c r="G133" t="n">
-        <v>9782.666666666666</v>
+        <v>9783</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5341,22 +5145,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>9620</v>
+        <v>9630</v>
       </c>
       <c r="C134" t="n">
         <v>9620</v>
       </c>
       <c r="D134" t="n">
-        <v>9620</v>
+        <v>9630</v>
       </c>
       <c r="E134" t="n">
         <v>9620</v>
       </c>
       <c r="F134" t="n">
-        <v>0.1</v>
+        <v>370</v>
       </c>
       <c r="G134" t="n">
-        <v>9782.333333333334</v>
+        <v>9782.666666666666</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5376,22 +5180,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>9615</v>
+        <v>9620</v>
       </c>
       <c r="C135" t="n">
-        <v>9615</v>
+        <v>9620</v>
       </c>
       <c r="D135" t="n">
-        <v>9615</v>
+        <v>9620</v>
       </c>
       <c r="E135" t="n">
-        <v>9615</v>
+        <v>9620</v>
       </c>
       <c r="F135" t="n">
-        <v>11.11</v>
+        <v>0.1</v>
       </c>
       <c r="G135" t="n">
-        <v>9781.916666666666</v>
+        <v>9782.333333333334</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5423,10 +5227,10 @@
         <v>9615</v>
       </c>
       <c r="F136" t="n">
-        <v>59.7469</v>
+        <v>11.11</v>
       </c>
       <c r="G136" t="n">
-        <v>9781.333333333334</v>
+        <v>9781.916666666666</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5458,10 +5262,10 @@
         <v>9615</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9307</v>
+        <v>59.7469</v>
       </c>
       <c r="G137" t="n">
-        <v>9780.416666666666</v>
+        <v>9781.333333333334</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5481,31 +5285,35 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>9645</v>
+        <v>9615</v>
       </c>
       <c r="C138" t="n">
-        <v>9620</v>
+        <v>9615</v>
       </c>
       <c r="D138" t="n">
-        <v>9645</v>
+        <v>9615</v>
       </c>
       <c r="E138" t="n">
-        <v>9620</v>
+        <v>9615</v>
       </c>
       <c r="F138" t="n">
-        <v>50</v>
+        <v>0.9307</v>
       </c>
       <c r="G138" t="n">
-        <v>9780.333333333334</v>
+        <v>9780.416666666666</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>9615</v>
+      </c>
+      <c r="K138" t="n">
+        <v>9615</v>
+      </c>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
@@ -5516,32 +5324,40 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>9640</v>
+        <v>9645</v>
       </c>
       <c r="C139" t="n">
-        <v>9640</v>
+        <v>9620</v>
       </c>
       <c r="D139" t="n">
-        <v>9640</v>
+        <v>9645</v>
       </c>
       <c r="E139" t="n">
-        <v>9640</v>
+        <v>9620</v>
       </c>
       <c r="F139" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G139" t="n">
-        <v>9779.75</v>
+        <v>9780.333333333334</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>9615</v>
+      </c>
+      <c r="K139" t="n">
+        <v>9615</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5554,29 +5370,37 @@
         <v>9640</v>
       </c>
       <c r="C140" t="n">
-        <v>9700</v>
+        <v>9640</v>
       </c>
       <c r="D140" t="n">
-        <v>9700</v>
+        <v>9640</v>
       </c>
       <c r="E140" t="n">
         <v>9640</v>
       </c>
       <c r="F140" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G140" t="n">
-        <v>9780.333333333334</v>
+        <v>9779.75</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>9620</v>
+      </c>
+      <c r="K140" t="n">
+        <v>9615</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5586,22 +5410,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>9720</v>
+        <v>9640</v>
       </c>
       <c r="C141" t="n">
-        <v>9720</v>
+        <v>9700</v>
       </c>
       <c r="D141" t="n">
-        <v>9720</v>
+        <v>9700</v>
       </c>
       <c r="E141" t="n">
-        <v>9720</v>
+        <v>9640</v>
       </c>
       <c r="F141" t="n">
-        <v>4.7219</v>
+        <v>40</v>
       </c>
       <c r="G141" t="n">
-        <v>9782.5</v>
+        <v>9780.333333333334</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5621,22 +5445,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>9655</v>
+        <v>9720</v>
       </c>
       <c r="C142" t="n">
-        <v>9655</v>
+        <v>9720</v>
       </c>
       <c r="D142" t="n">
-        <v>9655</v>
+        <v>9720</v>
       </c>
       <c r="E142" t="n">
-        <v>9655</v>
+        <v>9720</v>
       </c>
       <c r="F142" t="n">
-        <v>5.56</v>
+        <v>4.7219</v>
       </c>
       <c r="G142" t="n">
-        <v>9782.416666666666</v>
+        <v>9782.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5668,10 +5492,10 @@
         <v>9655</v>
       </c>
       <c r="F143" t="n">
-        <v>346.88</v>
+        <v>5.56</v>
       </c>
       <c r="G143" t="n">
-        <v>9783.583333333334</v>
+        <v>9782.416666666666</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5691,22 +5515,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>9675</v>
+        <v>9655</v>
       </c>
       <c r="C144" t="n">
-        <v>9635</v>
+        <v>9655</v>
       </c>
       <c r="D144" t="n">
-        <v>9675</v>
+        <v>9655</v>
       </c>
       <c r="E144" t="n">
-        <v>9635</v>
+        <v>9655</v>
       </c>
       <c r="F144" t="n">
-        <v>18.5761</v>
+        <v>346.88</v>
       </c>
       <c r="G144" t="n">
-        <v>9782.5</v>
+        <v>9783.583333333334</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5726,32 +5550,38 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
+        <v>9675</v>
+      </c>
+      <c r="C145" t="n">
         <v>9635</v>
       </c>
-      <c r="C145" t="n">
-        <v>9630</v>
-      </c>
       <c r="D145" t="n">
+        <v>9675</v>
+      </c>
+      <c r="E145" t="n">
         <v>9635</v>
       </c>
-      <c r="E145" t="n">
-        <v>9630</v>
-      </c>
       <c r="F145" t="n">
-        <v>69.496</v>
+        <v>18.5761</v>
       </c>
       <c r="G145" t="n">
-        <v>9782.75</v>
+        <v>9782.5</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>9655</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5764,29 +5594,35 @@
         <v>9635</v>
       </c>
       <c r="C146" t="n">
-        <v>9635</v>
+        <v>9630</v>
       </c>
       <c r="D146" t="n">
         <v>9635</v>
       </c>
       <c r="E146" t="n">
+        <v>9630</v>
+      </c>
+      <c r="F146" t="n">
+        <v>69.496</v>
+      </c>
+      <c r="G146" t="n">
+        <v>9782.75</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
         <v>9635</v>
       </c>
-      <c r="F146" t="n">
-        <v>4.9012</v>
-      </c>
-      <c r="G146" t="n">
-        <v>9780.166666666666</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5796,32 +5632,38 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
+        <v>9635</v>
+      </c>
+      <c r="C147" t="n">
+        <v>9635</v>
+      </c>
+      <c r="D147" t="n">
+        <v>9635</v>
+      </c>
+      <c r="E147" t="n">
+        <v>9635</v>
+      </c>
+      <c r="F147" t="n">
+        <v>4.9012</v>
+      </c>
+      <c r="G147" t="n">
+        <v>9780.166666666666</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
         <v>9630</v>
       </c>
-      <c r="C147" t="n">
-        <v>9630</v>
-      </c>
-      <c r="D147" t="n">
-        <v>9630</v>
-      </c>
-      <c r="E147" t="n">
-        <v>9630</v>
-      </c>
-      <c r="F147" t="n">
-        <v>33.6793</v>
-      </c>
-      <c r="G147" t="n">
-        <v>9777.333333333334</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5831,32 +5673,38 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>9620</v>
+        <v>9630</v>
       </c>
       <c r="C148" t="n">
-        <v>9680</v>
+        <v>9630</v>
       </c>
       <c r="D148" t="n">
-        <v>9680</v>
+        <v>9630</v>
       </c>
       <c r="E148" t="n">
-        <v>9620</v>
+        <v>9630</v>
       </c>
       <c r="F148" t="n">
-        <v>203.4293</v>
+        <v>33.6793</v>
       </c>
       <c r="G148" t="n">
-        <v>9774.75</v>
+        <v>9777.333333333334</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>9635</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5866,7 +5714,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>9680</v>
+        <v>9620</v>
       </c>
       <c r="C149" t="n">
         <v>9680</v>
@@ -5875,13 +5723,13 @@
         <v>9680</v>
       </c>
       <c r="E149" t="n">
-        <v>9680</v>
+        <v>9620</v>
       </c>
       <c r="F149" t="n">
-        <v>33.0393</v>
+        <v>203.4293</v>
       </c>
       <c r="G149" t="n">
-        <v>9773.666666666666</v>
+        <v>9774.75</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5891,7 +5739,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5901,22 +5753,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>9690</v>
+        <v>9680</v>
       </c>
       <c r="C150" t="n">
-        <v>9690</v>
+        <v>9680</v>
       </c>
       <c r="D150" t="n">
-        <v>9690</v>
+        <v>9680</v>
       </c>
       <c r="E150" t="n">
-        <v>9690</v>
+        <v>9680</v>
       </c>
       <c r="F150" t="n">
-        <v>108.0756</v>
+        <v>33.0393</v>
       </c>
       <c r="G150" t="n">
-        <v>9770.25</v>
+        <v>9773.666666666666</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5926,7 +5778,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5936,22 +5792,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>9645</v>
+        <v>9690</v>
       </c>
       <c r="C151" t="n">
-        <v>9645</v>
+        <v>9690</v>
       </c>
       <c r="D151" t="n">
-        <v>9645</v>
+        <v>9690</v>
       </c>
       <c r="E151" t="n">
-        <v>9645</v>
+        <v>9690</v>
       </c>
       <c r="F151" t="n">
-        <v>7.8446</v>
+        <v>108.0756</v>
       </c>
       <c r="G151" t="n">
-        <v>9766.083333333334</v>
+        <v>9770.25</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5961,7 +5817,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5971,22 +5831,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>9640</v>
+        <v>9645</v>
       </c>
       <c r="C152" t="n">
-        <v>9640</v>
+        <v>9645</v>
       </c>
       <c r="D152" t="n">
-        <v>9640</v>
+        <v>9645</v>
       </c>
       <c r="E152" t="n">
-        <v>9640</v>
+        <v>9645</v>
       </c>
       <c r="F152" t="n">
-        <v>18.6525</v>
+        <v>7.8446</v>
       </c>
       <c r="G152" t="n">
-        <v>9761.916666666666</v>
+        <v>9766.083333333334</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5996,7 +5856,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6009,19 +5873,19 @@
         <v>9640</v>
       </c>
       <c r="C153" t="n">
-        <v>9695</v>
+        <v>9640</v>
       </c>
       <c r="D153" t="n">
-        <v>9695</v>
+        <v>9640</v>
       </c>
       <c r="E153" t="n">
         <v>9640</v>
       </c>
       <c r="F153" t="n">
-        <v>150.8901</v>
+        <v>18.6525</v>
       </c>
       <c r="G153" t="n">
-        <v>9758.666666666666</v>
+        <v>9761.916666666666</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6031,7 +5895,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6041,22 +5909,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>9635</v>
+        <v>9640</v>
       </c>
       <c r="C154" t="n">
-        <v>9635</v>
+        <v>9695</v>
       </c>
       <c r="D154" t="n">
-        <v>9635</v>
+        <v>9695</v>
       </c>
       <c r="E154" t="n">
-        <v>9635</v>
+        <v>9640</v>
       </c>
       <c r="F154" t="n">
-        <v>1.0411</v>
+        <v>150.8901</v>
       </c>
       <c r="G154" t="n">
-        <v>9754.25</v>
+        <v>9758.666666666666</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6066,8 +5934,51 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>9635</v>
+      </c>
+      <c r="C155" t="n">
+        <v>9635</v>
+      </c>
+      <c r="D155" t="n">
+        <v>9635</v>
+      </c>
+      <c r="E155" t="n">
+        <v>9635</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1.0411</v>
+      </c>
+      <c r="G155" t="n">
+        <v>9754.25</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-16 BackTest BTG.xlsx
+++ b/BackTest/2019-10-16 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M155"/>
+  <dimension ref="A1:N165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>56</v>
       </c>
       <c r="G2" t="n">
+        <v>9509.666666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>9521.166666666666</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>72.59439999999999</v>
       </c>
       <c r="G3" t="n">
+        <v>9512.333333333334</v>
+      </c>
+      <c r="H3" t="n">
         <v>9521.666666666666</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>55.6342</v>
       </c>
       <c r="G4" t="n">
+        <v>9511</v>
+      </c>
+      <c r="H4" t="n">
         <v>9521.833333333334</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,24 +567,21 @@
         <v>94.41459999999999</v>
       </c>
       <c r="G5" t="n">
+        <v>9511</v>
+      </c>
+      <c r="H5" t="n">
         <v>9522</v>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>9530</v>
+        <v>0</v>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -594,24 +605,21 @@
         <v>6</v>
       </c>
       <c r="G6" t="n">
+        <v>9505</v>
+      </c>
+      <c r="H6" t="n">
         <v>9521.75</v>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>9535</v>
+        <v>0</v>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -635,22 +643,21 @@
         <v>682</v>
       </c>
       <c r="G7" t="n">
+        <v>9505.666666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>9520.25</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -674,22 +681,21 @@
         <v>187</v>
       </c>
       <c r="G8" t="n">
+        <v>9511</v>
+      </c>
+      <c r="H8" t="n">
         <v>9520.5</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -713,22 +719,21 @@
         <v>15.8651</v>
       </c>
       <c r="G9" t="n">
+        <v>9504.333333333334</v>
+      </c>
+      <c r="H9" t="n">
         <v>9518.916666666666</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -752,22 +757,21 @@
         <v>22.3678</v>
       </c>
       <c r="G10" t="n">
+        <v>9498</v>
+      </c>
+      <c r="H10" t="n">
         <v>9517.166666666666</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -791,22 +795,21 @@
         <v>4.8893</v>
       </c>
       <c r="G11" t="n">
+        <v>9490.333333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>9515.083333333334</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -830,22 +833,21 @@
         <v>220.1467</v>
       </c>
       <c r="G12" t="n">
+        <v>9490.666666666666</v>
+      </c>
+      <c r="H12" t="n">
         <v>9513.833333333334</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -869,24 +871,21 @@
         <v>4.8893</v>
       </c>
       <c r="G13" t="n">
+        <v>9487.333333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>9512.666666666666</v>
       </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>9420</v>
+        <v>0</v>
       </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -910,22 +909,21 @@
         <v>5</v>
       </c>
       <c r="G14" t="n">
+        <v>9478.333333333334</v>
+      </c>
+      <c r="H14" t="n">
         <v>9511.333333333334</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -949,22 +947,21 @@
         <v>4.2019</v>
       </c>
       <c r="G15" t="n">
+        <v>9474.333333333334</v>
+      </c>
+      <c r="H15" t="n">
         <v>9510.25</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -988,22 +985,21 @@
         <v>16.7987</v>
       </c>
       <c r="G16" t="n">
+        <v>9466.666666666666</v>
+      </c>
+      <c r="H16" t="n">
         <v>9509.083333333334</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1027,22 +1023,21 @@
         <v>0.3231</v>
       </c>
       <c r="G17" t="n">
+        <v>9461</v>
+      </c>
+      <c r="H17" t="n">
         <v>9506.916666666666</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1066,22 +1061,27 @@
         <v>214.4752</v>
       </c>
       <c r="G18" t="n">
+        <v>9456</v>
+      </c>
+      <c r="H18" t="n">
         <v>9506.583333333334</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>9415</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1105,22 +1105,25 @@
         <v>27.8</v>
       </c>
       <c r="G19" t="n">
+        <v>9447.333333333334</v>
+      </c>
+      <c r="H19" t="n">
         <v>9505.166666666666</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1144,22 +1147,25 @@
         <v>611.9446</v>
       </c>
       <c r="G20" t="n">
+        <v>9443.666666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>9505.166666666666</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,22 +1189,25 @@
         <v>1.3258</v>
       </c>
       <c r="G21" t="n">
+        <v>9445.666666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>9504.583333333334</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1222,22 +1231,27 @@
         <v>6.49</v>
       </c>
       <c r="G22" t="n">
+        <v>9450.666666666666</v>
+      </c>
+      <c r="H22" t="n">
         <v>9504</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1259,18 +1273,25 @@
         <v>6.22</v>
       </c>
       <c r="G23" t="n">
+        <v>9448.666666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>9503.416666666666</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1294,18 +1315,25 @@
         <v>6.39</v>
       </c>
       <c r="G24" t="n">
+        <v>9454.666666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>9504.666666666666</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1329,18 +1357,25 @@
         <v>6.2</v>
       </c>
       <c r="G25" t="n">
+        <v>9461.333333333334</v>
+      </c>
+      <c r="H25" t="n">
         <v>9504.5</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1364,18 +1399,25 @@
         <v>2</v>
       </c>
       <c r="G26" t="n">
+        <v>9466.666666666666</v>
+      </c>
+      <c r="H26" t="n">
         <v>9503.75</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1399,18 +1441,25 @@
         <v>11</v>
       </c>
       <c r="G27" t="n">
+        <v>9472</v>
+      </c>
+      <c r="H27" t="n">
         <v>9502.916666666666</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1434,18 +1483,25 @@
         <v>10</v>
       </c>
       <c r="G28" t="n">
+        <v>9472.666666666666</v>
+      </c>
+      <c r="H28" t="n">
         <v>9501.916666666666</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1469,18 +1525,25 @@
         <v>42</v>
       </c>
       <c r="G29" t="n">
+        <v>9477.666666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>9501.416666666666</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1504,18 +1567,25 @@
         <v>34</v>
       </c>
       <c r="G30" t="n">
+        <v>9482.333333333334</v>
+      </c>
+      <c r="H30" t="n">
         <v>9501.083333333334</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1539,18 +1609,25 @@
         <v>32</v>
       </c>
       <c r="G31" t="n">
+        <v>9487.333333333334</v>
+      </c>
+      <c r="H31" t="n">
         <v>9500.416666666666</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1574,18 +1651,25 @@
         <v>2</v>
       </c>
       <c r="G32" t="n">
+        <v>9493</v>
+      </c>
+      <c r="H32" t="n">
         <v>9499.583333333334</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1609,18 +1693,25 @@
         <v>40</v>
       </c>
       <c r="G33" t="n">
+        <v>9496.666666666666</v>
+      </c>
+      <c r="H33" t="n">
         <v>9499.083333333334</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1644,18 +1735,25 @@
         <v>6.52</v>
       </c>
       <c r="G34" t="n">
+        <v>9504.666666666666</v>
+      </c>
+      <c r="H34" t="n">
         <v>9498.583333333334</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1679,18 +1777,25 @@
         <v>186</v>
       </c>
       <c r="G35" t="n">
+        <v>9509</v>
+      </c>
+      <c r="H35" t="n">
         <v>9498.5</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1714,18 +1819,25 @@
         <v>6.41</v>
       </c>
       <c r="G36" t="n">
+        <v>9512</v>
+      </c>
+      <c r="H36" t="n">
         <v>9498.416666666666</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1749,18 +1861,25 @@
         <v>6.34</v>
       </c>
       <c r="G37" t="n">
+        <v>9514.333333333334</v>
+      </c>
+      <c r="H37" t="n">
         <v>9498.333333333334</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1784,18 +1903,25 @@
         <v>13.97</v>
       </c>
       <c r="G38" t="n">
+        <v>9516.666666666666</v>
+      </c>
+      <c r="H38" t="n">
         <v>9498.5</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1819,18 +1945,25 @@
         <v>13.24</v>
       </c>
       <c r="G39" t="n">
+        <v>9517.666666666666</v>
+      </c>
+      <c r="H39" t="n">
         <v>9499</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1854,18 +1987,25 @@
         <v>6.27</v>
       </c>
       <c r="G40" t="n">
+        <v>9518.666666666666</v>
+      </c>
+      <c r="H40" t="n">
         <v>9498.666666666666</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1889,18 +2029,25 @@
         <v>6.64</v>
       </c>
       <c r="G41" t="n">
+        <v>9521.333333333334</v>
+      </c>
+      <c r="H41" t="n">
         <v>9499.166666666666</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1924,18 +2071,25 @@
         <v>3.31</v>
       </c>
       <c r="G42" t="n">
+        <v>9524.333333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>9499.916666666666</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1959,18 +2113,25 @@
         <v>70.02679999999999</v>
       </c>
       <c r="G43" t="n">
+        <v>9528</v>
+      </c>
+      <c r="H43" t="n">
         <v>9499.833333333334</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1994,18 +2155,25 @@
         <v>62</v>
       </c>
       <c r="G44" t="n">
+        <v>9532</v>
+      </c>
+      <c r="H44" t="n">
         <v>9499.833333333334</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,18 +2197,25 @@
         <v>30</v>
       </c>
       <c r="G45" t="n">
+        <v>9535.333333333334</v>
+      </c>
+      <c r="H45" t="n">
         <v>9500.583333333334</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2064,18 +2239,25 @@
         <v>103.5</v>
       </c>
       <c r="G46" t="n">
+        <v>9538.666666666666</v>
+      </c>
+      <c r="H46" t="n">
         <v>9500.583333333334</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2099,18 +2281,25 @@
         <v>34.5</v>
       </c>
       <c r="G47" t="n">
+        <v>9542</v>
+      </c>
+      <c r="H47" t="n">
         <v>9501.416666666666</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2134,18 +2323,25 @@
         <v>6</v>
       </c>
       <c r="G48" t="n">
+        <v>9544</v>
+      </c>
+      <c r="H48" t="n">
         <v>9502.25</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2169,18 +2365,25 @@
         <v>62</v>
       </c>
       <c r="G49" t="n">
+        <v>9546</v>
+      </c>
+      <c r="H49" t="n">
         <v>9502.25</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2204,18 +2407,25 @@
         <v>42</v>
       </c>
       <c r="G50" t="n">
+        <v>9546.333333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>9502.5</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2239,18 +2449,25 @@
         <v>3</v>
       </c>
       <c r="G51" t="n">
+        <v>9546.666666666666</v>
+      </c>
+      <c r="H51" t="n">
         <v>9502.333333333334</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2274,18 +2491,25 @@
         <v>53</v>
       </c>
       <c r="G52" t="n">
+        <v>9547</v>
+      </c>
+      <c r="H52" t="n">
         <v>9504.416666666666</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2309,18 +2533,25 @@
         <v>32</v>
       </c>
       <c r="G53" t="n">
+        <v>9547.333333333334</v>
+      </c>
+      <c r="H53" t="n">
         <v>9505.916666666666</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2344,18 +2575,27 @@
         <v>33</v>
       </c>
       <c r="G54" t="n">
+        <v>9548</v>
+      </c>
+      <c r="H54" t="n">
         <v>9506.166666666666</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>9550</v>
+      </c>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2379,18 +2619,25 @@
         <v>131</v>
       </c>
       <c r="G55" t="n">
+        <v>9548.666666666666</v>
+      </c>
+      <c r="H55" t="n">
         <v>9506.666666666666</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,18 +2661,27 @@
         <v>67.92400000000001</v>
       </c>
       <c r="G56" t="n">
+        <v>9549.333333333334</v>
+      </c>
+      <c r="H56" t="n">
         <v>9506.916666666666</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>9550</v>
+      </c>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2449,18 +2705,27 @@
         <v>34.5</v>
       </c>
       <c r="G57" t="n">
+        <v>9552</v>
+      </c>
+      <c r="H57" t="n">
         <v>9509.75</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>9550</v>
+      </c>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2484,18 +2749,25 @@
         <v>3.6073</v>
       </c>
       <c r="G58" t="n">
+        <v>9554.333333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>9510.583333333334</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2519,18 +2791,25 @@
         <v>32</v>
       </c>
       <c r="G59" t="n">
+        <v>9557</v>
+      </c>
+      <c r="H59" t="n">
         <v>9511.25</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2554,18 +2833,25 @@
         <v>38.5</v>
       </c>
       <c r="G60" t="n">
+        <v>9559.666666666666</v>
+      </c>
+      <c r="H60" t="n">
         <v>9512.916666666666</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2589,18 +2875,25 @@
         <v>5</v>
       </c>
       <c r="G61" t="n">
+        <v>9560.333333333334</v>
+      </c>
+      <c r="H61" t="n">
         <v>9513.25</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2624,18 +2917,27 @@
         <v>11.7954</v>
       </c>
       <c r="G62" t="n">
+        <v>9561</v>
+      </c>
+      <c r="H62" t="n">
         <v>9514.25</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>9560</v>
+      </c>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2659,18 +2961,27 @@
         <v>95</v>
       </c>
       <c r="G63" t="n">
+        <v>9563.666666666666</v>
+      </c>
+      <c r="H63" t="n">
         <v>9515.083333333334</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>9560</v>
+      </c>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2694,18 +3005,27 @@
         <v>32</v>
       </c>
       <c r="G64" t="n">
+        <v>9566.333333333334</v>
+      </c>
+      <c r="H64" t="n">
         <v>9516.083333333334</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>9590</v>
+      </c>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2729,18 +3049,27 @@
         <v>34</v>
       </c>
       <c r="G65" t="n">
+        <v>9569.666666666666</v>
+      </c>
+      <c r="H65" t="n">
         <v>9517.166666666666</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>9590</v>
+      </c>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2764,18 +3093,27 @@
         <v>34.6288</v>
       </c>
       <c r="G66" t="n">
+        <v>9570</v>
+      </c>
+      <c r="H66" t="n">
         <v>9518.583333333334</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>9600</v>
+      </c>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2799,18 +3137,27 @@
         <v>6</v>
       </c>
       <c r="G67" t="n">
+        <v>9573</v>
+      </c>
+      <c r="H67" t="n">
         <v>9521.25</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>9555</v>
+      </c>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2834,18 +3181,27 @@
         <v>4</v>
       </c>
       <c r="G68" t="n">
+        <v>9576</v>
+      </c>
+      <c r="H68" t="n">
         <v>9522.166666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>9595</v>
+      </c>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2869,18 +3225,25 @@
         <v>4</v>
       </c>
       <c r="G69" t="n">
+        <v>9579</v>
+      </c>
+      <c r="H69" t="n">
         <v>9524.833333333334</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2904,18 +3267,25 @@
         <v>6</v>
       </c>
       <c r="G70" t="n">
+        <v>9582.333333333334</v>
+      </c>
+      <c r="H70" t="n">
         <v>9527.75</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2939,18 +3309,25 @@
         <v>190.3934</v>
       </c>
       <c r="G71" t="n">
+        <v>9585.666666666666</v>
+      </c>
+      <c r="H71" t="n">
         <v>9530.75</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2974,18 +3351,25 @@
         <v>190.3934</v>
       </c>
       <c r="G72" t="n">
+        <v>9583.666666666666</v>
+      </c>
+      <c r="H72" t="n">
         <v>9533</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3009,18 +3393,27 @@
         <v>20</v>
       </c>
       <c r="G73" t="n">
+        <v>9587.333333333334</v>
+      </c>
+      <c r="H73" t="n">
         <v>9535.583333333334</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>9555</v>
+      </c>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3044,18 +3437,25 @@
         <v>4</v>
       </c>
       <c r="G74" t="n">
+        <v>9590.666666666666</v>
+      </c>
+      <c r="H74" t="n">
         <v>9539.333333333334</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3079,18 +3479,25 @@
         <v>22</v>
       </c>
       <c r="G75" t="n">
+        <v>9594</v>
+      </c>
+      <c r="H75" t="n">
         <v>9542.833333333334</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3114,18 +3521,25 @@
         <v>11.5</v>
       </c>
       <c r="G76" t="n">
+        <v>9599.333333333334</v>
+      </c>
+      <c r="H76" t="n">
         <v>9546.416666666666</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3149,18 +3563,25 @@
         <v>0.99899896</v>
       </c>
       <c r="G77" t="n">
+        <v>9605.333333333334</v>
+      </c>
+      <c r="H77" t="n">
         <v>9550.333333333334</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3184,18 +3605,25 @@
         <v>103.50315532</v>
       </c>
       <c r="G78" t="n">
+        <v>9610.666666666666</v>
+      </c>
+      <c r="H78" t="n">
         <v>9553.75</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3219,18 +3647,25 @@
         <v>4.5253</v>
       </c>
       <c r="G79" t="n">
+        <v>9613</v>
+      </c>
+      <c r="H79" t="n">
         <v>9557.5</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3254,18 +3689,25 @@
         <v>4.99926403</v>
       </c>
       <c r="G80" t="n">
+        <v>9618</v>
+      </c>
+      <c r="H80" t="n">
         <v>9560.75</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3289,18 +3731,25 @@
         <v>62.2009</v>
       </c>
       <c r="G81" t="n">
+        <v>9625.333333333334</v>
+      </c>
+      <c r="H81" t="n">
         <v>9563.5</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3324,18 +3773,25 @@
         <v>1</v>
       </c>
       <c r="G82" t="n">
+        <v>9625</v>
+      </c>
+      <c r="H82" t="n">
         <v>9564.833333333334</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3359,18 +3815,25 @@
         <v>6.22</v>
       </c>
       <c r="G83" t="n">
+        <v>9629.333333333334</v>
+      </c>
+      <c r="H83" t="n">
         <v>9567.333333333334</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3394,18 +3857,25 @@
         <v>41.9022</v>
       </c>
       <c r="G84" t="n">
+        <v>9628.666666666666</v>
+      </c>
+      <c r="H84" t="n">
         <v>9568.333333333334</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3429,18 +3899,25 @@
         <v>69</v>
       </c>
       <c r="G85" t="n">
+        <v>9635.333333333334</v>
+      </c>
+      <c r="H85" t="n">
         <v>9571.25</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3464,18 +3941,25 @@
         <v>184.4201</v>
       </c>
       <c r="G86" t="n">
+        <v>9636.333333333334</v>
+      </c>
+      <c r="H86" t="n">
         <v>9573.166666666666</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3499,18 +3983,25 @@
         <v>414.98</v>
       </c>
       <c r="G87" t="n">
+        <v>9652</v>
+      </c>
+      <c r="H87" t="n">
         <v>9578</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3534,18 +4025,25 @@
         <v>85.6605</v>
       </c>
       <c r="G88" t="n">
+        <v>9663</v>
+      </c>
+      <c r="H88" t="n">
         <v>9583.166666666666</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3569,18 +4067,25 @@
         <v>90.54142323000001</v>
       </c>
       <c r="G89" t="n">
+        <v>9676</v>
+      </c>
+      <c r="H89" t="n">
         <v>9588.916666666666</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3604,18 +4109,25 @@
         <v>0.1193</v>
       </c>
       <c r="G90" t="n">
+        <v>9683</v>
+      </c>
+      <c r="H90" t="n">
         <v>9593</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3639,18 +4151,25 @@
         <v>110.0033</v>
       </c>
       <c r="G91" t="n">
+        <v>9700</v>
+      </c>
+      <c r="H91" t="n">
         <v>9599.583333333334</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3674,18 +4193,25 @@
         <v>62.2084</v>
       </c>
       <c r="G92" t="n">
+        <v>9716.333333333334</v>
+      </c>
+      <c r="H92" t="n">
         <v>9606.166666666666</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3709,18 +4235,25 @@
         <v>19.4627</v>
       </c>
       <c r="G93" t="n">
+        <v>9731</v>
+      </c>
+      <c r="H93" t="n">
         <v>9612.333333333334</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,18 +4277,25 @@
         <v>250.8275</v>
       </c>
       <c r="G94" t="n">
+        <v>9748.666666666666</v>
+      </c>
+      <c r="H94" t="n">
         <v>9618.5</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3779,18 +4319,25 @@
         <v>193</v>
       </c>
       <c r="G95" t="n">
+        <v>9763.666666666666</v>
+      </c>
+      <c r="H95" t="n">
         <v>9624.416666666666</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,18 +4361,25 @@
         <v>64.96680000000001</v>
       </c>
       <c r="G96" t="n">
+        <v>9779.333333333334</v>
+      </c>
+      <c r="H96" t="n">
         <v>9630.333333333334</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3849,20 +4403,25 @@
         <v>3.9785</v>
       </c>
       <c r="G97" t="n">
+        <v>9794</v>
+      </c>
+      <c r="H97" t="n">
         <v>9634.75</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3884,18 +4443,21 @@
         <v>11.1135</v>
       </c>
       <c r="G98" t="n">
+        <v>9803.666666666666</v>
+      </c>
+      <c r="H98" t="n">
         <v>9639.083333333334</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3919,18 +4481,21 @@
         <v>333.7241</v>
       </c>
       <c r="G99" t="n">
+        <v>9823.666666666666</v>
+      </c>
+      <c r="H99" t="n">
         <v>9644.833333333334</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3954,18 +4519,21 @@
         <v>14</v>
       </c>
       <c r="G100" t="n">
+        <v>9831.333333333334</v>
+      </c>
+      <c r="H100" t="n">
         <v>9649.416666666666</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3989,18 +4557,21 @@
         <v>10</v>
       </c>
       <c r="G101" t="n">
+        <v>9844.666666666666</v>
+      </c>
+      <c r="H101" t="n">
         <v>9654</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4024,18 +4595,21 @@
         <v>2</v>
       </c>
       <c r="G102" t="n">
+        <v>9851.666666666666</v>
+      </c>
+      <c r="H102" t="n">
         <v>9659.833333333334</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4059,18 +4633,21 @@
         <v>4</v>
       </c>
       <c r="G103" t="n">
+        <v>9857.666666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>9665.583333333334</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4094,18 +4671,21 @@
         <v>9.07</v>
       </c>
       <c r="G104" t="n">
+        <v>9860.333333333334</v>
+      </c>
+      <c r="H104" t="n">
         <v>9671</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4129,18 +4709,21 @@
         <v>70.327</v>
       </c>
       <c r="G105" t="n">
+        <v>9867.666666666666</v>
+      </c>
+      <c r="H105" t="n">
         <v>9676.083333333334</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4164,18 +4747,21 @@
         <v>218.7908</v>
       </c>
       <c r="G106" t="n">
+        <v>9866.666666666666</v>
+      </c>
+      <c r="H106" t="n">
         <v>9681.583333333334</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4199,18 +4785,21 @@
         <v>6.23</v>
       </c>
       <c r="G107" t="n">
+        <v>9866.333333333334</v>
+      </c>
+      <c r="H107" t="n">
         <v>9687.25</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4234,18 +4823,21 @@
         <v>41.0923</v>
       </c>
       <c r="G108" t="n">
+        <v>9860</v>
+      </c>
+      <c r="H108" t="n">
         <v>9691.333333333334</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4269,18 +4861,21 @@
         <v>56.212</v>
       </c>
       <c r="G109" t="n">
+        <v>9859.333333333334</v>
+      </c>
+      <c r="H109" t="n">
         <v>9696.833333333334</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4304,18 +4899,21 @@
         <v>187.4873</v>
       </c>
       <c r="G110" t="n">
+        <v>9853.333333333334</v>
+      </c>
+      <c r="H110" t="n">
         <v>9701.166666666666</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4339,18 +4937,21 @@
         <v>54.9597</v>
       </c>
       <c r="G111" t="n">
+        <v>9850</v>
+      </c>
+      <c r="H111" t="n">
         <v>9706.166666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4374,18 +4975,21 @@
         <v>58.7614</v>
       </c>
       <c r="G112" t="n">
+        <v>9850</v>
+      </c>
+      <c r="H112" t="n">
         <v>9710.5</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4409,18 +5013,21 @@
         <v>36.2618</v>
       </c>
       <c r="G113" t="n">
+        <v>9850.333333333334</v>
+      </c>
+      <c r="H113" t="n">
         <v>9714.833333333334</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4444,18 +5051,21 @@
         <v>4.7867</v>
       </c>
       <c r="G114" t="n">
+        <v>9847.333333333334</v>
+      </c>
+      <c r="H114" t="n">
         <v>9719.666666666666</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4479,18 +5089,21 @@
         <v>33.6515</v>
       </c>
       <c r="G115" t="n">
+        <v>9847</v>
+      </c>
+      <c r="H115" t="n">
         <v>9724</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4514,18 +5127,21 @@
         <v>51.6381</v>
       </c>
       <c r="G116" t="n">
+        <v>9846.666666666666</v>
+      </c>
+      <c r="H116" t="n">
         <v>9728.333333333334</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4549,18 +5165,21 @@
         <v>11</v>
       </c>
       <c r="G117" t="n">
+        <v>9841</v>
+      </c>
+      <c r="H117" t="n">
         <v>9732.083333333334</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4584,18 +5203,21 @@
         <v>158.3999</v>
       </c>
       <c r="G118" t="n">
+        <v>9831</v>
+      </c>
+      <c r="H118" t="n">
         <v>9734.75</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4619,18 +5241,21 @@
         <v>4</v>
       </c>
       <c r="G119" t="n">
+        <v>9825.333333333334</v>
+      </c>
+      <c r="H119" t="n">
         <v>9738.083333333334</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4654,18 +5279,21 @@
         <v>8.539999999999999</v>
       </c>
       <c r="G120" t="n">
+        <v>9816.666666666666</v>
+      </c>
+      <c r="H120" t="n">
         <v>9740.333333333334</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4689,18 +5317,21 @@
         <v>81.5493</v>
       </c>
       <c r="G121" t="n">
+        <v>9805</v>
+      </c>
+      <c r="H121" t="n">
         <v>9742.75</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4724,22 +5355,21 @@
         <v>13.19</v>
       </c>
       <c r="G122" t="n">
+        <v>9798</v>
+      </c>
+      <c r="H122" t="n">
         <v>9746.5</v>
       </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K122" t="n">
-        <v>9705</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4763,24 +5393,21 @@
         <v>10</v>
       </c>
       <c r="G123" t="n">
+        <v>9794.666666666666</v>
+      </c>
+      <c r="H123" t="n">
         <v>9749.083333333334</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>9705</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4804,24 +5431,21 @@
         <v>14</v>
       </c>
       <c r="G124" t="n">
+        <v>9789</v>
+      </c>
+      <c r="H124" t="n">
         <v>9752.5</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>9705</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4845,18 +5469,21 @@
         <v>40.1</v>
       </c>
       <c r="G125" t="n">
+        <v>9787.333333333334</v>
+      </c>
+      <c r="H125" t="n">
         <v>9755.583333333334</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4880,18 +5507,21 @@
         <v>68.5</v>
       </c>
       <c r="G126" t="n">
+        <v>9790</v>
+      </c>
+      <c r="H126" t="n">
         <v>9761.166666666666</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4915,18 +5545,21 @@
         <v>157.74</v>
       </c>
       <c r="G127" t="n">
+        <v>9795.666666666666</v>
+      </c>
+      <c r="H127" t="n">
         <v>9766.166666666666</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4950,18 +5583,21 @@
         <v>40.5902</v>
       </c>
       <c r="G128" t="n">
+        <v>9803.666666666666</v>
+      </c>
+      <c r="H128" t="n">
         <v>9771.75</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4985,18 +5621,21 @@
         <v>83.3954</v>
       </c>
       <c r="G129" t="n">
+        <v>9803.666666666666</v>
+      </c>
+      <c r="H129" t="n">
         <v>9775.833333333334</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5020,18 +5659,21 @@
         <v>9.7081</v>
       </c>
       <c r="G130" t="n">
+        <v>9797</v>
+      </c>
+      <c r="H130" t="n">
         <v>9777.666666666666</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5055,18 +5697,21 @@
         <v>364.1607</v>
       </c>
       <c r="G131" t="n">
+        <v>9790</v>
+      </c>
+      <c r="H131" t="n">
         <v>9779.416666666666</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5090,18 +5735,21 @@
         <v>32.44</v>
       </c>
       <c r="G132" t="n">
+        <v>9783</v>
+      </c>
+      <c r="H132" t="n">
         <v>9781.916666666666</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5125,18 +5773,21 @@
         <v>132.8689</v>
       </c>
       <c r="G133" t="n">
+        <v>9780.333333333334</v>
+      </c>
+      <c r="H133" t="n">
         <v>9783</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5160,18 +5811,21 @@
         <v>370</v>
       </c>
       <c r="G134" t="n">
+        <v>9769</v>
+      </c>
+      <c r="H134" t="n">
         <v>9782.666666666666</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5195,18 +5849,21 @@
         <v>0.1</v>
       </c>
       <c r="G135" t="n">
+        <v>9762</v>
+      </c>
+      <c r="H135" t="n">
         <v>9782.333333333334</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5230,18 +5887,21 @@
         <v>11.11</v>
       </c>
       <c r="G136" t="n">
+        <v>9756</v>
+      </c>
+      <c r="H136" t="n">
         <v>9781.916666666666</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5265,18 +5925,21 @@
         <v>59.7469</v>
       </c>
       <c r="G137" t="n">
+        <v>9744.666666666666</v>
+      </c>
+      <c r="H137" t="n">
         <v>9781.333333333334</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5300,22 +5963,21 @@
         <v>0.9307</v>
       </c>
       <c r="G138" t="n">
+        <v>9736</v>
+      </c>
+      <c r="H138" t="n">
         <v>9780.416666666666</v>
       </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>9615</v>
-      </c>
-      <c r="K138" t="n">
-        <v>9615</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5339,26 +6001,21 @@
         <v>50</v>
       </c>
       <c r="G139" t="n">
+        <v>9724.333333333334</v>
+      </c>
+      <c r="H139" t="n">
         <v>9780.333333333334</v>
       </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>9615</v>
-      </c>
-      <c r="K139" t="n">
-        <v>9615</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5382,26 +6039,21 @@
         <v>44</v>
       </c>
       <c r="G140" t="n">
+        <v>9714.666666666666</v>
+      </c>
+      <c r="H140" t="n">
         <v>9779.75</v>
       </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>9620</v>
-      </c>
-      <c r="K140" t="n">
-        <v>9615</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5425,18 +6077,21 @@
         <v>40</v>
       </c>
       <c r="G141" t="n">
+        <v>9702</v>
+      </c>
+      <c r="H141" t="n">
         <v>9780.333333333334</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5460,18 +6115,21 @@
         <v>4.7219</v>
       </c>
       <c r="G142" t="n">
+        <v>9690.333333333334</v>
+      </c>
+      <c r="H142" t="n">
         <v>9782.5</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5495,18 +6153,21 @@
         <v>5.56</v>
       </c>
       <c r="G143" t="n">
+        <v>9672</v>
+      </c>
+      <c r="H143" t="n">
         <v>9782.416666666666</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5530,18 +6191,21 @@
         <v>346.88</v>
       </c>
       <c r="G144" t="n">
+        <v>9659.666666666666</v>
+      </c>
+      <c r="H144" t="n">
         <v>9783.583333333334</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5565,24 +6229,21 @@
         <v>18.5761</v>
       </c>
       <c r="G145" t="n">
+        <v>9654.666666666666</v>
+      </c>
+      <c r="H145" t="n">
         <v>9782.5</v>
       </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>9655</v>
+        <v>0</v>
       </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5606,24 +6267,21 @@
         <v>69.496</v>
       </c>
       <c r="G146" t="n">
+        <v>9649.666666666666</v>
+      </c>
+      <c r="H146" t="n">
         <v>9782.75</v>
       </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>9635</v>
+        <v>0</v>
       </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5647,24 +6305,21 @@
         <v>4.9012</v>
       </c>
       <c r="G147" t="n">
+        <v>9645</v>
+      </c>
+      <c r="H147" t="n">
         <v>9780.166666666666</v>
       </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>9630</v>
+        <v>0</v>
       </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5688,24 +6343,21 @@
         <v>33.6793</v>
       </c>
       <c r="G148" t="n">
+        <v>9640.333333333334</v>
+      </c>
+      <c r="H148" t="n">
         <v>9777.333333333334</v>
       </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>9635</v>
+        <v>0</v>
       </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5729,22 +6381,21 @@
         <v>203.4293</v>
       </c>
       <c r="G149" t="n">
+        <v>9644.333333333334</v>
+      </c>
+      <c r="H149" t="n">
         <v>9774.75</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,22 +6419,21 @@
         <v>33.0393</v>
       </c>
       <c r="G150" t="n">
+        <v>9648.333333333334</v>
+      </c>
+      <c r="H150" t="n">
         <v>9773.666666666666</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5807,22 +6457,21 @@
         <v>108.0756</v>
       </c>
       <c r="G151" t="n">
+        <v>9653.333333333334</v>
+      </c>
+      <c r="H151" t="n">
         <v>9770.25</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5846,22 +6495,21 @@
         <v>7.8446</v>
       </c>
       <c r="G152" t="n">
+        <v>9655.333333333334</v>
+      </c>
+      <c r="H152" t="n">
         <v>9766.083333333334</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5885,22 +6533,21 @@
         <v>18.6525</v>
       </c>
       <c r="G153" t="n">
+        <v>9657</v>
+      </c>
+      <c r="H153" t="n">
         <v>9761.916666666666</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5924,22 +6571,21 @@
         <v>150.8901</v>
       </c>
       <c r="G154" t="n">
+        <v>9662</v>
+      </c>
+      <c r="H154" t="n">
         <v>9758.666666666666</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5963,22 +6609,401 @@
         <v>1.0411</v>
       </c>
       <c r="G155" t="n">
+        <v>9661.666666666666</v>
+      </c>
+      <c r="H155" t="n">
         <v>9754.25</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>9635</v>
+      </c>
+      <c r="C156" t="n">
+        <v>9635</v>
+      </c>
+      <c r="D156" t="n">
+        <v>9635</v>
+      </c>
+      <c r="E156" t="n">
+        <v>9635</v>
+      </c>
+      <c r="F156" t="n">
+        <v>3.9785</v>
+      </c>
+      <c r="G156" t="n">
+        <v>9657.333333333334</v>
+      </c>
+      <c r="H156" t="n">
+        <v>9749.833333333334</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>9630</v>
+      </c>
+      <c r="C157" t="n">
+        <v>9630</v>
+      </c>
+      <c r="D157" t="n">
+        <v>9630</v>
+      </c>
+      <c r="E157" t="n">
+        <v>9630</v>
+      </c>
+      <c r="F157" t="n">
+        <v>20.0058</v>
+      </c>
+      <c r="G157" t="n">
+        <v>9651.333333333334</v>
+      </c>
+      <c r="H157" t="n">
+        <v>9746.833333333334</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>9630</v>
+      </c>
+      <c r="C158" t="n">
+        <v>9675</v>
+      </c>
+      <c r="D158" t="n">
+        <v>9675</v>
+      </c>
+      <c r="E158" t="n">
+        <v>9630</v>
+      </c>
+      <c r="F158" t="n">
+        <v>49.4141</v>
+      </c>
+      <c r="G158" t="n">
+        <v>9652.666666666666</v>
+      </c>
+      <c r="H158" t="n">
+        <v>9744.666666666666</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>9660</v>
+      </c>
+      <c r="C159" t="n">
+        <v>9670</v>
+      </c>
+      <c r="D159" t="n">
+        <v>9670</v>
+      </c>
+      <c r="E159" t="n">
+        <v>9660</v>
+      </c>
+      <c r="F159" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="G159" t="n">
+        <v>9653.666666666666</v>
+      </c>
+      <c r="H159" t="n">
+        <v>9741.083333333334</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>9670</v>
+      </c>
+      <c r="C160" t="n">
+        <v>9680</v>
+      </c>
+      <c r="D160" t="n">
+        <v>9680</v>
+      </c>
+      <c r="E160" t="n">
+        <v>9670</v>
+      </c>
+      <c r="F160" t="n">
+        <v>39</v>
+      </c>
+      <c r="G160" t="n">
+        <v>9656.666666666666</v>
+      </c>
+      <c r="H160" t="n">
+        <v>9738.833333333334</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>9620</v>
+      </c>
+      <c r="C161" t="n">
+        <v>9600</v>
+      </c>
+      <c r="D161" t="n">
+        <v>9620</v>
+      </c>
+      <c r="E161" t="n">
+        <v>9600</v>
+      </c>
+      <c r="F161" t="n">
+        <v>79.0686</v>
+      </c>
+      <c r="G161" t="n">
+        <v>9654.666666666666</v>
+      </c>
+      <c r="H161" t="n">
+        <v>9735.25</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>9680</v>
+      </c>
+      <c r="C162" t="n">
+        <v>9680</v>
+      </c>
+      <c r="D162" t="n">
+        <v>9680</v>
+      </c>
+      <c r="E162" t="n">
+        <v>9680</v>
+      </c>
+      <c r="F162" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="G162" t="n">
+        <v>9657.666666666666</v>
+      </c>
+      <c r="H162" t="n">
+        <v>9731.666666666666</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>9670</v>
+      </c>
+      <c r="C163" t="n">
+        <v>9675</v>
+      </c>
+      <c r="D163" t="n">
+        <v>9675</v>
+      </c>
+      <c r="E163" t="n">
+        <v>9670</v>
+      </c>
+      <c r="F163" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="G163" t="n">
+        <v>9660.666666666666</v>
+      </c>
+      <c r="H163" t="n">
+        <v>9728.083333333334</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>9675</v>
+      </c>
+      <c r="C164" t="n">
+        <v>9675</v>
+      </c>
+      <c r="D164" t="n">
+        <v>9675</v>
+      </c>
+      <c r="E164" t="n">
+        <v>9675</v>
+      </c>
+      <c r="F164" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="G164" t="n">
+        <v>9660.333333333334</v>
+      </c>
+      <c r="H164" t="n">
+        <v>9724.75</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>9675</v>
+      </c>
+      <c r="C165" t="n">
+        <v>9675</v>
+      </c>
+      <c r="D165" t="n">
+        <v>9675</v>
+      </c>
+      <c r="E165" t="n">
+        <v>9675</v>
+      </c>
+      <c r="F165" t="n">
+        <v>29</v>
+      </c>
+      <c r="G165" t="n">
+        <v>9660</v>
+      </c>
+      <c r="H165" t="n">
+        <v>9721.75</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-16 BackTest BTG.xlsx
+++ b/BackTest/2019-10-16 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M194"/>
+  <dimension ref="A1:N152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -425,6 +425,11 @@
       <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -433,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="C2" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="D2" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="E2" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="F2" t="n">
-        <v>8.880000000000001</v>
+        <v>4.2019</v>
       </c>
       <c r="G2" t="n">
-        <v>62.5</v>
+        <v>2685.48287791</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,165 +467,169 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9550</v>
+        <v>9425</v>
       </c>
       <c r="C3" t="n">
-        <v>9550</v>
+        <v>9425</v>
       </c>
       <c r="D3" t="n">
-        <v>9550</v>
+        <v>9425</v>
       </c>
       <c r="E3" t="n">
-        <v>9550</v>
+        <v>9425</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>16.7987</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>2668.68417791</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="K3" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9550</v>
+        <v>9455</v>
       </c>
       <c r="C4" t="n">
-        <v>9550</v>
+        <v>9415</v>
       </c>
       <c r="D4" t="n">
-        <v>9550</v>
+        <v>9455</v>
       </c>
       <c r="E4" t="n">
-        <v>9550</v>
+        <v>9415</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>0.3231</v>
       </c>
       <c r="G4" t="n">
-        <v>7.692307692307693</v>
+        <v>2668.36107791</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>9550</v>
+        <v>9425</v>
       </c>
       <c r="K4" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9500</v>
+        <v>9410</v>
       </c>
       <c r="C5" t="n">
-        <v>9550</v>
+        <v>9465</v>
       </c>
       <c r="D5" t="n">
-        <v>9550</v>
+        <v>9465</v>
       </c>
       <c r="E5" t="n">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="F5" t="n">
-        <v>22.7494</v>
+        <v>214.4752</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2882.83627791</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>9550</v>
+        <v>9415</v>
       </c>
       <c r="K5" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9550</v>
+        <v>9400</v>
       </c>
       <c r="C6" t="n">
-        <v>9550</v>
+        <v>9400</v>
       </c>
       <c r="D6" t="n">
-        <v>9550</v>
+        <v>9400</v>
       </c>
       <c r="E6" t="n">
-        <v>9550</v>
+        <v>9400</v>
       </c>
       <c r="F6" t="n">
-        <v>32</v>
+        <v>27.8</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2855.03627791</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>9550</v>
+        <v>9465</v>
       </c>
       <c r="K6" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -630,40 +639,41 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9550</v>
+        <v>9400</v>
       </c>
       <c r="C7" t="n">
-        <v>9535</v>
+        <v>9480</v>
       </c>
       <c r="D7" t="n">
-        <v>9580</v>
+        <v>9480</v>
       </c>
       <c r="E7" t="n">
-        <v>9535</v>
+        <v>9400</v>
       </c>
       <c r="F7" t="n">
-        <v>199.4047</v>
+        <v>611.9446</v>
       </c>
       <c r="G7" t="n">
-        <v>33.33333333333333</v>
+        <v>3466.980877909999</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>9550</v>
+        <v>9400</v>
       </c>
       <c r="K7" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -673,40 +683,41 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9510</v>
+        <v>9480</v>
       </c>
       <c r="C8" t="n">
-        <v>9510</v>
+        <v>9500</v>
       </c>
       <c r="D8" t="n">
-        <v>9510</v>
+        <v>9500</v>
       </c>
       <c r="E8" t="n">
-        <v>9510</v>
+        <v>9480</v>
       </c>
       <c r="F8" t="n">
-        <v>50.2011</v>
+        <v>1.3258</v>
       </c>
       <c r="G8" t="n">
-        <v>-14.28571428571428</v>
+        <v>3468.30667791</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>9535</v>
+        <v>9480</v>
       </c>
       <c r="K8" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -716,40 +727,39 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9535</v>
+        <v>9510</v>
       </c>
       <c r="C9" t="n">
-        <v>9560</v>
+        <v>9510</v>
       </c>
       <c r="D9" t="n">
-        <v>9560</v>
+        <v>9510</v>
       </c>
       <c r="E9" t="n">
-        <v>9535</v>
+        <v>9510</v>
       </c>
       <c r="F9" t="n">
-        <v>31.5</v>
+        <v>6.49</v>
       </c>
       <c r="G9" t="n">
-        <v>20</v>
+        <v>3474.796677909999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>9510</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -759,6 +769,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -777,22 +788,20 @@
         <v>9510</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>6.22</v>
       </c>
       <c r="G10" t="n">
-        <v>-28.57142857142857</v>
+        <v>3474.796677909999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>9560</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -802,40 +811,39 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9510</v>
+        <v>9525</v>
       </c>
       <c r="C11" t="n">
-        <v>9500</v>
+        <v>9525</v>
       </c>
       <c r="D11" t="n">
-        <v>9510</v>
+        <v>9525</v>
       </c>
       <c r="E11" t="n">
-        <v>9500</v>
+        <v>9525</v>
       </c>
       <c r="F11" t="n">
-        <v>245.9735</v>
+        <v>6.39</v>
       </c>
       <c r="G11" t="n">
-        <v>-33.33333333333333</v>
+        <v>3481.186677909999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>9510</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -845,40 +853,39 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9545</v>
+        <v>9525</v>
       </c>
       <c r="C12" t="n">
-        <v>9550</v>
+        <v>9525</v>
       </c>
       <c r="D12" t="n">
-        <v>9550</v>
+        <v>9525</v>
       </c>
       <c r="E12" t="n">
-        <v>9545</v>
+        <v>9525</v>
       </c>
       <c r="F12" t="n">
-        <v>6.29</v>
+        <v>6.2</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3481.186677909999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>9500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -888,40 +895,39 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9550</v>
+        <v>9500</v>
       </c>
       <c r="C13" t="n">
-        <v>9550</v>
+        <v>9500</v>
       </c>
       <c r="D13" t="n">
-        <v>9550</v>
+        <v>9500</v>
       </c>
       <c r="E13" t="n">
-        <v>9550</v>
+        <v>9500</v>
       </c>
       <c r="F13" t="n">
-        <v>9.6342</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3479.186677909999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>9550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -931,40 +937,39 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9505</v>
+        <v>9490</v>
       </c>
       <c r="C14" t="n">
-        <v>9505</v>
+        <v>9500</v>
       </c>
       <c r="D14" t="n">
-        <v>9505</v>
+        <v>9500</v>
       </c>
       <c r="E14" t="n">
-        <v>9505</v>
+        <v>9490</v>
       </c>
       <c r="F14" t="n">
-        <v>23.4681</v>
+        <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>-18.36734693877551</v>
+        <v>3479.186677909999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>9550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -974,40 +979,39 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9505</v>
+        <v>9490</v>
       </c>
       <c r="C15" t="n">
-        <v>9550</v>
+        <v>9490</v>
       </c>
       <c r="D15" t="n">
-        <v>9550</v>
+        <v>9490</v>
       </c>
       <c r="E15" t="n">
-        <v>9505</v>
+        <v>9490</v>
       </c>
       <c r="F15" t="n">
-        <v>75.1276</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3469.186677909999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>9505</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1017,56 +1021,56 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9505</v>
+        <v>9490</v>
       </c>
       <c r="C16" t="n">
-        <v>9500</v>
+        <v>9490</v>
       </c>
       <c r="D16" t="n">
-        <v>9505</v>
+        <v>9490</v>
       </c>
       <c r="E16" t="n">
-        <v>9500</v>
+        <v>9490</v>
       </c>
       <c r="F16" t="n">
-        <v>31.0912</v>
+        <v>42</v>
       </c>
       <c r="G16" t="n">
-        <v>-10.76923076923077</v>
+        <v>3469.186677909999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>9550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>0.9897643979057592</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9500</v>
+        <v>9490</v>
       </c>
       <c r="C17" t="n">
         <v>9500</v>
@@ -1075,107 +1079,107 @@
         <v>9500</v>
       </c>
       <c r="E17" t="n">
-        <v>9500</v>
+        <v>9490</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9088000000000001</v>
+        <v>34</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.333333333333333</v>
+        <v>3503.186677909999</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>9500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>9500</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
+        <v>9430</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9495</v>
+        <v>9500</v>
       </c>
       <c r="C18" t="n">
-        <v>9550</v>
+        <v>9500</v>
       </c>
       <c r="D18" t="n">
-        <v>9565</v>
+        <v>9500</v>
       </c>
       <c r="E18" t="n">
-        <v>9480</v>
+        <v>9500</v>
       </c>
       <c r="F18" t="n">
-        <v>992.0471</v>
+        <v>32</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.333333333333333</v>
+        <v>3503.186677909999</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>9500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>9500</v>
+        <v>9430</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9540</v>
+        <v>9500</v>
       </c>
       <c r="C19" t="n">
-        <v>9535</v>
+        <v>9500</v>
       </c>
       <c r="D19" t="n">
-        <v>9540</v>
+        <v>9500</v>
       </c>
       <c r="E19" t="n">
-        <v>9535</v>
+        <v>9500</v>
       </c>
       <c r="F19" t="n">
-        <v>32.2283</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>9.433962264150944</v>
+        <v>3503.186677909999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>9550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>9500</v>
+        <v>9430</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1185,40 +1189,39 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9480</v>
+        <v>9500</v>
       </c>
       <c r="C20" t="n">
-        <v>9560</v>
+        <v>9520</v>
       </c>
       <c r="D20" t="n">
-        <v>9560</v>
+        <v>9520</v>
       </c>
       <c r="E20" t="n">
-        <v>9480</v>
+        <v>9500</v>
       </c>
       <c r="F20" t="n">
-        <v>871.4606</v>
+        <v>40</v>
       </c>
       <c r="G20" t="n">
-        <v>21.42857142857143</v>
+        <v>3543.186677909999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>9535</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>9500</v>
+        <v>9430</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1228,40 +1231,39 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9475</v>
+        <v>9520</v>
       </c>
       <c r="C21" t="n">
-        <v>9425</v>
+        <v>9520</v>
       </c>
       <c r="D21" t="n">
-        <v>9475</v>
+        <v>9520</v>
       </c>
       <c r="E21" t="n">
-        <v>9425</v>
+        <v>9520</v>
       </c>
       <c r="F21" t="n">
-        <v>114.6687</v>
+        <v>6.52</v>
       </c>
       <c r="G21" t="n">
-        <v>-34.24657534246575</v>
+        <v>3543.186677909999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>9560</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>9500</v>
+        <v>9430</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1271,40 +1273,39 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9460</v>
+        <v>9520</v>
       </c>
       <c r="C22" t="n">
-        <v>9460</v>
+        <v>9545</v>
       </c>
       <c r="D22" t="n">
-        <v>9460</v>
+        <v>9545</v>
       </c>
       <c r="E22" t="n">
-        <v>9460</v>
+        <v>9520</v>
       </c>
       <c r="F22" t="n">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="G22" t="n">
-        <v>-22.5</v>
+        <v>3729.186677909999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>9425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>9500</v>
+        <v>9430</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1314,40 +1315,39 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9530</v>
+        <v>9545</v>
       </c>
       <c r="C23" t="n">
-        <v>9535</v>
+        <v>9545</v>
       </c>
       <c r="D23" t="n">
-        <v>9535</v>
+        <v>9545</v>
       </c>
       <c r="E23" t="n">
-        <v>9530</v>
+        <v>9545</v>
       </c>
       <c r="F23" t="n">
-        <v>11.1779</v>
+        <v>6.41</v>
       </c>
       <c r="G23" t="n">
-        <v>6.976744186046512</v>
+        <v>3729.186677909999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>9460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>9500</v>
+        <v>9430</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1357,40 +1357,39 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9535</v>
+        <v>9545</v>
       </c>
       <c r="C24" t="n">
-        <v>9520</v>
+        <v>9545</v>
       </c>
       <c r="D24" t="n">
-        <v>9535</v>
+        <v>9545</v>
       </c>
       <c r="E24" t="n">
-        <v>9520</v>
+        <v>9545</v>
       </c>
       <c r="F24" t="n">
-        <v>13.0967</v>
+        <v>6.34</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.5</v>
+        <v>3729.186677909999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>9535</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>9500</v>
+        <v>9430</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1400,40 +1399,39 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9530</v>
+        <v>9545</v>
       </c>
       <c r="C25" t="n">
-        <v>9535</v>
+        <v>9545</v>
       </c>
       <c r="D25" t="n">
-        <v>9535</v>
+        <v>9545</v>
       </c>
       <c r="E25" t="n">
-        <v>9530</v>
+        <v>9545</v>
       </c>
       <c r="F25" t="n">
-        <v>38</v>
+        <v>13.97</v>
       </c>
       <c r="G25" t="n">
-        <v>9.58904109589041</v>
+        <v>3729.186677909999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>9520</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>9500</v>
+        <v>9430</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1443,40 +1441,39 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9425</v>
+        <v>9540</v>
       </c>
       <c r="C26" t="n">
-        <v>9415</v>
+        <v>9540</v>
       </c>
       <c r="D26" t="n">
-        <v>9425</v>
+        <v>9540</v>
       </c>
       <c r="E26" t="n">
-        <v>9415</v>
+        <v>9540</v>
       </c>
       <c r="F26" t="n">
-        <v>50</v>
+        <v>13.24</v>
       </c>
       <c r="G26" t="n">
-        <v>-17.52577319587629</v>
+        <v>3715.946677909999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>9535</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>9500</v>
+        <v>9430</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1486,40 +1483,39 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9510</v>
+        <v>9540</v>
       </c>
       <c r="C27" t="n">
-        <v>9530</v>
+        <v>9540</v>
       </c>
       <c r="D27" t="n">
-        <v>9530</v>
+        <v>9540</v>
       </c>
       <c r="E27" t="n">
-        <v>9510</v>
+        <v>9540</v>
       </c>
       <c r="F27" t="n">
-        <v>12.86</v>
+        <v>6.27</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.636363636363636</v>
+        <v>3715.946677909999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>9415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>9500</v>
+        <v>9430</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1529,40 +1525,39 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9525</v>
+        <v>9540</v>
       </c>
       <c r="C28" t="n">
-        <v>9550</v>
+        <v>9540</v>
       </c>
       <c r="D28" t="n">
-        <v>9550</v>
+        <v>9540</v>
       </c>
       <c r="E28" t="n">
-        <v>9430</v>
+        <v>9540</v>
       </c>
       <c r="F28" t="n">
-        <v>536.3916</v>
+        <v>6.64</v>
       </c>
       <c r="G28" t="n">
-        <v>2.702702702702703</v>
+        <v>3715.946677909999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>9530</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>9500</v>
+        <v>9430</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1572,126 +1567,123 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9490</v>
+        <v>9545</v>
       </c>
       <c r="C29" t="n">
-        <v>9490</v>
+        <v>9545</v>
       </c>
       <c r="D29" t="n">
-        <v>9490</v>
+        <v>9545</v>
       </c>
       <c r="E29" t="n">
-        <v>9490</v>
+        <v>9545</v>
       </c>
       <c r="F29" t="n">
-        <v>6</v>
+        <v>3.31</v>
       </c>
       <c r="G29" t="n">
-        <v>-11.86440677966102</v>
+        <v>3719.256677909999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>9550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>9500</v>
+        <v>9430</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>0.9939473684210526</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9490</v>
+        <v>9545</v>
       </c>
       <c r="C30" t="n">
-        <v>9540</v>
+        <v>9545</v>
       </c>
       <c r="D30" t="n">
-        <v>9540</v>
+        <v>9545</v>
       </c>
       <c r="E30" t="n">
-        <v>9490</v>
+        <v>9545</v>
       </c>
       <c r="F30" t="n">
-        <v>46</v>
+        <v>70.02679999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>22.77227722772277</v>
+        <v>3719.256677909999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>9490</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>9415</v>
+        <v>9430</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9450</v>
+        <v>9545</v>
       </c>
       <c r="C31" t="n">
-        <v>9500</v>
+        <v>9550</v>
       </c>
       <c r="D31" t="n">
-        <v>9500</v>
+        <v>9550</v>
       </c>
       <c r="E31" t="n">
-        <v>9450</v>
+        <v>9545</v>
       </c>
       <c r="F31" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G31" t="n">
-        <v>7.84313725490196</v>
+        <v>3781.256677909999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>9540</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>9415</v>
+        <v>9430</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1701,40 +1693,39 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9450</v>
+        <v>9550</v>
       </c>
       <c r="C32" t="n">
-        <v>9540</v>
+        <v>9550</v>
       </c>
       <c r="D32" t="n">
-        <v>9540</v>
+        <v>9550</v>
       </c>
       <c r="E32" t="n">
-        <v>9450</v>
+        <v>9550</v>
       </c>
       <c r="F32" t="n">
-        <v>72.59439999999999</v>
+        <v>30</v>
       </c>
       <c r="G32" t="n">
-        <v>1.052631578947368</v>
+        <v>3781.256677909999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="n">
-        <v>9500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>9415</v>
+        <v>9430</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1744,40 +1735,39 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9445</v>
+        <v>9550</v>
       </c>
       <c r="C33" t="n">
-        <v>9530</v>
+        <v>9550</v>
       </c>
       <c r="D33" t="n">
-        <v>9530</v>
+        <v>9550</v>
       </c>
       <c r="E33" t="n">
-        <v>9445</v>
+        <v>9550</v>
       </c>
       <c r="F33" t="n">
-        <v>55.6342</v>
+        <v>103.5</v>
       </c>
       <c r="G33" t="n">
-        <v>2.127659574468085</v>
+        <v>3781.256677909999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>9540</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>9415</v>
+        <v>9430</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1787,40 +1777,39 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9530</v>
+        <v>9550</v>
       </c>
       <c r="C34" t="n">
-        <v>9535</v>
+        <v>9550</v>
       </c>
       <c r="D34" t="n">
-        <v>9535</v>
+        <v>9550</v>
       </c>
       <c r="E34" t="n">
-        <v>9530</v>
+        <v>9550</v>
       </c>
       <c r="F34" t="n">
-        <v>94.41459999999999</v>
+        <v>34.5</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3781.256677909999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>9530</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>9415</v>
+        <v>9430</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1830,40 +1819,39 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9470</v>
+        <v>9550</v>
       </c>
       <c r="C35" t="n">
-        <v>9470</v>
+        <v>9550</v>
       </c>
       <c r="D35" t="n">
-        <v>9470</v>
+        <v>9550</v>
       </c>
       <c r="E35" t="n">
-        <v>9470</v>
+        <v>9550</v>
       </c>
       <c r="F35" t="n">
         <v>6</v>
       </c>
       <c r="G35" t="n">
-        <v>13.58024691358025</v>
+        <v>3781.256677909999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>9535</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>9415</v>
+        <v>9430</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1873,40 +1861,39 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9435</v>
+        <v>9550</v>
       </c>
       <c r="C36" t="n">
-        <v>9435</v>
+        <v>9550</v>
       </c>
       <c r="D36" t="n">
-        <v>9435</v>
+        <v>9550</v>
       </c>
       <c r="E36" t="n">
-        <v>9435</v>
+        <v>9550</v>
       </c>
       <c r="F36" t="n">
-        <v>682</v>
+        <v>62</v>
       </c>
       <c r="G36" t="n">
-        <v>-29.23076923076923</v>
+        <v>3781.256677909999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>9470</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>9415</v>
+        <v>9430</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1916,40 +1903,39 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9490</v>
+        <v>9550</v>
       </c>
       <c r="C37" t="n">
-        <v>9540</v>
+        <v>9550</v>
       </c>
       <c r="D37" t="n">
-        <v>9540</v>
+        <v>9550</v>
       </c>
       <c r="E37" t="n">
-        <v>9490</v>
+        <v>9550</v>
       </c>
       <c r="F37" t="n">
-        <v>187</v>
+        <v>42</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.439024390243902</v>
+        <v>3781.256677909999</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>9435</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>9415</v>
+        <v>9430</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1959,40 +1945,39 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9540</v>
+        <v>9550</v>
       </c>
       <c r="C38" t="n">
-        <v>9435</v>
+        <v>9550</v>
       </c>
       <c r="D38" t="n">
-        <v>9540</v>
+        <v>9550</v>
       </c>
       <c r="E38" t="n">
-        <v>9435</v>
+        <v>9550</v>
       </c>
       <c r="F38" t="n">
-        <v>15.8651</v>
+        <v>3</v>
       </c>
       <c r="G38" t="n">
-        <v>-12.08791208791209</v>
+        <v>3781.256677909999</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>9540</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>9415</v>
+        <v>9430</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2002,40 +1987,39 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9425</v>
+        <v>9540</v>
       </c>
       <c r="C39" t="n">
-        <v>9425</v>
+        <v>9550</v>
       </c>
       <c r="D39" t="n">
-        <v>9425</v>
+        <v>9550</v>
       </c>
       <c r="E39" t="n">
-        <v>9425</v>
+        <v>9540</v>
       </c>
       <c r="F39" t="n">
-        <v>22.3678</v>
+        <v>53</v>
       </c>
       <c r="G39" t="n">
-        <v>-27.71084337349398</v>
+        <v>3781.256677909999</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>9435</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>9415</v>
+        <v>9430</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2045,40 +2029,39 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9420</v>
+        <v>9550</v>
       </c>
       <c r="C40" t="n">
-        <v>9420</v>
+        <v>9550</v>
       </c>
       <c r="D40" t="n">
-        <v>9420</v>
+        <v>9550</v>
       </c>
       <c r="E40" t="n">
-        <v>9420</v>
+        <v>9550</v>
       </c>
       <c r="F40" t="n">
-        <v>4.8893</v>
+        <v>32</v>
       </c>
       <c r="G40" t="n">
-        <v>-21.05263157894737</v>
+        <v>3781.256677909999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>9425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>9415</v>
+        <v>9430</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2088,288 +2071,289 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9420</v>
+        <v>9550</v>
       </c>
       <c r="C41" t="n">
-        <v>9420</v>
+        <v>9550</v>
       </c>
       <c r="D41" t="n">
-        <v>9420</v>
+        <v>9550</v>
       </c>
       <c r="E41" t="n">
-        <v>9420</v>
+        <v>9550</v>
       </c>
       <c r="F41" t="n">
-        <v>220.1467</v>
+        <v>33</v>
       </c>
       <c r="G41" t="n">
-        <v>-35.29411764705883</v>
+        <v>3781.256677909999</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>9420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>9415</v>
+        <v>9430</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>0.9955310674455656</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9480</v>
+        <v>9550</v>
       </c>
       <c r="C42" t="n">
-        <v>9480</v>
+        <v>9550</v>
       </c>
       <c r="D42" t="n">
-        <v>9480</v>
+        <v>9550</v>
       </c>
       <c r="E42" t="n">
-        <v>9480</v>
+        <v>9550</v>
       </c>
       <c r="F42" t="n">
-        <v>4.8893</v>
+        <v>131</v>
       </c>
       <c r="G42" t="n">
-        <v>-12.82051282051282</v>
+        <v>3781.256677909999</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>9420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>9420</v>
-      </c>
-      <c r="L42" t="inlineStr"/>
+        <v>9430</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9415</v>
+        <v>9550</v>
       </c>
       <c r="C43" t="n">
-        <v>9415</v>
+        <v>9550</v>
       </c>
       <c r="D43" t="n">
-        <v>9415</v>
+        <v>9550</v>
       </c>
       <c r="E43" t="n">
-        <v>9415</v>
+        <v>9550</v>
       </c>
       <c r="F43" t="n">
-        <v>5</v>
+        <v>67.92400000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>-26.66666666666667</v>
+        <v>3781.256677909999</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>9480</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>9420</v>
+        <v>9430</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9430</v>
+        <v>9550</v>
       </c>
       <c r="C44" t="n">
-        <v>9430</v>
+        <v>9585</v>
       </c>
       <c r="D44" t="n">
-        <v>9430</v>
+        <v>9585</v>
       </c>
       <c r="E44" t="n">
-        <v>9430</v>
+        <v>9550</v>
       </c>
       <c r="F44" t="n">
-        <v>4.2019</v>
+        <v>34.5</v>
       </c>
       <c r="G44" t="n">
-        <v>-10</v>
+        <v>3815.756677909999</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>9415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>9420</v>
+        <v>9430</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9425</v>
+        <v>9580</v>
       </c>
       <c r="C45" t="n">
-        <v>9425</v>
+        <v>9580</v>
       </c>
       <c r="D45" t="n">
-        <v>9425</v>
+        <v>9580</v>
       </c>
       <c r="E45" t="n">
-        <v>9425</v>
+        <v>9580</v>
       </c>
       <c r="F45" t="n">
-        <v>16.7987</v>
+        <v>3.6073</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.702702702702703</v>
+        <v>3812.149377909999</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>9430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
         <v>9430</v>
       </c>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9455</v>
+        <v>9590</v>
       </c>
       <c r="C46" t="n">
-        <v>9415</v>
+        <v>9590</v>
       </c>
       <c r="D46" t="n">
-        <v>9455</v>
+        <v>9590</v>
       </c>
       <c r="E46" t="n">
-        <v>9415</v>
+        <v>9590</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3231</v>
+        <v>32</v>
       </c>
       <c r="G46" t="n">
-        <v>-45.45454545454545</v>
+        <v>3844.149377909999</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>9425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
         <v>9430</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9410</v>
+        <v>9590</v>
       </c>
       <c r="C47" t="n">
-        <v>9465</v>
+        <v>9590</v>
       </c>
       <c r="D47" t="n">
-        <v>9465</v>
+        <v>9590</v>
       </c>
       <c r="E47" t="n">
-        <v>9400</v>
+        <v>9590</v>
       </c>
       <c r="F47" t="n">
-        <v>214.4752</v>
+        <v>38.5</v>
       </c>
       <c r="G47" t="n">
-        <v>13.63636363636363</v>
+        <v>3844.149377909999</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>9415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
         <v>9430</v>
       </c>
@@ -2381,38 +2365,37 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9400</v>
+        <v>9560</v>
       </c>
       <c r="C48" t="n">
-        <v>9400</v>
+        <v>9560</v>
       </c>
       <c r="D48" t="n">
-        <v>9400</v>
+        <v>9560</v>
       </c>
       <c r="E48" t="n">
-        <v>9400</v>
+        <v>9560</v>
       </c>
       <c r="F48" t="n">
-        <v>27.8</v>
+        <v>5</v>
       </c>
       <c r="G48" t="n">
-        <v>-9.090909090909092</v>
+        <v>3839.149377909999</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>9465</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
         <v>9430</v>
       </c>
@@ -2424,38 +2407,37 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9400</v>
+        <v>9560</v>
       </c>
       <c r="C49" t="n">
-        <v>9480</v>
+        <v>9560</v>
       </c>
       <c r="D49" t="n">
-        <v>9480</v>
+        <v>9560</v>
       </c>
       <c r="E49" t="n">
-        <v>9400</v>
+        <v>9560</v>
       </c>
       <c r="F49" t="n">
-        <v>611.9446</v>
+        <v>11.7954</v>
       </c>
       <c r="G49" t="n">
-        <v>17.14285714285714</v>
+        <v>3839.149377909999</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="n">
-        <v>9400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
         <v>9430</v>
       </c>
@@ -2467,38 +2449,37 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9480</v>
+        <v>9585</v>
       </c>
       <c r="C50" t="n">
-        <v>9500</v>
+        <v>9590</v>
       </c>
       <c r="D50" t="n">
-        <v>9500</v>
+        <v>9590</v>
       </c>
       <c r="E50" t="n">
-        <v>9480</v>
+        <v>9585</v>
       </c>
       <c r="F50" t="n">
-        <v>1.3258</v>
+        <v>95</v>
       </c>
       <c r="G50" t="n">
-        <v>21.62162162162162</v>
+        <v>3934.149377909999</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>9480</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
         <v>9430</v>
       </c>
@@ -2510,38 +2491,37 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9510</v>
+        <v>9590</v>
       </c>
       <c r="C51" t="n">
-        <v>9510</v>
+        <v>9590</v>
       </c>
       <c r="D51" t="n">
-        <v>9510</v>
+        <v>9590</v>
       </c>
       <c r="E51" t="n">
-        <v>9510</v>
+        <v>9590</v>
       </c>
       <c r="F51" t="n">
-        <v>6.49</v>
+        <v>32</v>
       </c>
       <c r="G51" t="n">
-        <v>9.375</v>
+        <v>3934.149377909999</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>9500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
         <v>9430</v>
       </c>
@@ -2553,38 +2533,37 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9510</v>
+        <v>9590</v>
       </c>
       <c r="C52" t="n">
-        <v>9510</v>
+        <v>9600</v>
       </c>
       <c r="D52" t="n">
-        <v>9510</v>
+        <v>9600</v>
       </c>
       <c r="E52" t="n">
-        <v>9510</v>
+        <v>9590</v>
       </c>
       <c r="F52" t="n">
-        <v>6.22</v>
+        <v>34</v>
       </c>
       <c r="G52" t="n">
-        <v>37.25490196078432</v>
+        <v>3968.149377909999</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>9510</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
         <v>9430</v>
       </c>
@@ -2596,38 +2575,37 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9525</v>
+        <v>9555</v>
       </c>
       <c r="C53" t="n">
-        <v>9525</v>
+        <v>9555</v>
       </c>
       <c r="D53" t="n">
-        <v>9525</v>
+        <v>9555</v>
       </c>
       <c r="E53" t="n">
-        <v>9525</v>
+        <v>9555</v>
       </c>
       <c r="F53" t="n">
-        <v>6.39</v>
+        <v>34.6288</v>
       </c>
       <c r="G53" t="n">
-        <v>37.25490196078432</v>
+        <v>3933.520577909999</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>9510</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
         <v>9430</v>
       </c>
@@ -2639,38 +2617,37 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9525</v>
+        <v>9595</v>
       </c>
       <c r="C54" t="n">
-        <v>9525</v>
+        <v>9595</v>
       </c>
       <c r="D54" t="n">
-        <v>9525</v>
+        <v>9595</v>
       </c>
       <c r="E54" t="n">
-        <v>9525</v>
+        <v>9595</v>
       </c>
       <c r="F54" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="G54" t="n">
-        <v>40</v>
+        <v>3939.520577909999</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>9525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
         <v>9430</v>
       </c>
@@ -2682,38 +2659,37 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9500</v>
+        <v>9595</v>
       </c>
       <c r="C55" t="n">
-        <v>9500</v>
+        <v>9595</v>
       </c>
       <c r="D55" t="n">
-        <v>9500</v>
+        <v>9595</v>
       </c>
       <c r="E55" t="n">
-        <v>9500</v>
+        <v>9595</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G55" t="n">
-        <v>32.0754716981132</v>
+        <v>3939.520577909999</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>9525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
         <v>9430</v>
       </c>
@@ -2725,38 +2701,37 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9490</v>
+        <v>9595</v>
       </c>
       <c r="C56" t="n">
-        <v>9500</v>
+        <v>9595</v>
       </c>
       <c r="D56" t="n">
-        <v>9500</v>
+        <v>9595</v>
       </c>
       <c r="E56" t="n">
-        <v>9490</v>
+        <v>9595</v>
       </c>
       <c r="F56" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G56" t="n">
-        <v>16.27906976744186</v>
+        <v>3939.520577909999</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>9500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
         <v>9430</v>
       </c>
@@ -2768,169 +2743,165 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9490</v>
+        <v>9595</v>
       </c>
       <c r="C57" t="n">
-        <v>9490</v>
+        <v>9600</v>
       </c>
       <c r="D57" t="n">
-        <v>9490</v>
+        <v>9600</v>
       </c>
       <c r="E57" t="n">
-        <v>9490</v>
+        <v>9595</v>
       </c>
       <c r="F57" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G57" t="n">
-        <v>56.25</v>
+        <v>3945.520577909999</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>9500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
         <v>9430</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>1.001362672322375</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9490</v>
+        <v>9600</v>
       </c>
       <c r="C58" t="n">
-        <v>9490</v>
+        <v>9600</v>
       </c>
       <c r="D58" t="n">
-        <v>9490</v>
+        <v>9600</v>
       </c>
       <c r="E58" t="n">
-        <v>9490</v>
+        <v>9600</v>
       </c>
       <c r="F58" t="n">
-        <v>42</v>
+        <v>190.3934</v>
       </c>
       <c r="G58" t="n">
-        <v>12.5</v>
+        <v>3945.520577909999</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="n">
-        <v>9490</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>9500</v>
+        <v>9430</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9490</v>
+        <v>9570</v>
       </c>
       <c r="C59" t="n">
-        <v>9500</v>
+        <v>9555</v>
       </c>
       <c r="D59" t="n">
-        <v>9500</v>
+        <v>9570</v>
       </c>
       <c r="E59" t="n">
-        <v>9490</v>
+        <v>9555</v>
       </c>
       <c r="F59" t="n">
-        <v>34</v>
+        <v>190.3934</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>3755.127177909999</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="n">
-        <v>9490</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>9500</v>
+        <v>9430</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9500</v>
+        <v>9635</v>
       </c>
       <c r="C60" t="n">
-        <v>9500</v>
+        <v>9635</v>
       </c>
       <c r="D60" t="n">
-        <v>9500</v>
+        <v>9635</v>
       </c>
       <c r="E60" t="n">
-        <v>9500</v>
+        <v>9635</v>
       </c>
       <c r="F60" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G60" t="n">
-        <v>-16.66666666666666</v>
+        <v>3775.127177909999</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>9500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>9500</v>
+        <v>9430</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2940,40 +2911,39 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9500</v>
+        <v>9635</v>
       </c>
       <c r="C61" t="n">
-        <v>9500</v>
+        <v>9640</v>
       </c>
       <c r="D61" t="n">
-        <v>9500</v>
+        <v>9640</v>
       </c>
       <c r="E61" t="n">
-        <v>9500</v>
+        <v>9635</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G61" t="n">
-        <v>-16.66666666666666</v>
+        <v>3779.127177909999</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="n">
-        <v>9500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>9500</v>
+        <v>9430</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2983,40 +2953,39 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9500</v>
+        <v>9640</v>
       </c>
       <c r="C62" t="n">
-        <v>9520</v>
+        <v>9640</v>
       </c>
       <c r="D62" t="n">
-        <v>9520</v>
+        <v>9640</v>
       </c>
       <c r="E62" t="n">
-        <v>9500</v>
+        <v>9640</v>
       </c>
       <c r="F62" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.692307692307693</v>
+        <v>3779.127177909999</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="n">
-        <v>9500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>9500</v>
+        <v>9430</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -3026,40 +2995,39 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9520</v>
+        <v>9640</v>
       </c>
       <c r="C63" t="n">
-        <v>9520</v>
+        <v>9640</v>
       </c>
       <c r="D63" t="n">
-        <v>9520</v>
+        <v>9640</v>
       </c>
       <c r="E63" t="n">
-        <v>9520</v>
+        <v>9640</v>
       </c>
       <c r="F63" t="n">
-        <v>6.52</v>
+        <v>11.5</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.692307692307693</v>
+        <v>3779.127177909999</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>9520</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>9500</v>
+        <v>9430</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3069,40 +3037,39 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9520</v>
+        <v>9640</v>
       </c>
       <c r="C64" t="n">
-        <v>9545</v>
+        <v>9650</v>
       </c>
       <c r="D64" t="n">
-        <v>9545</v>
+        <v>9650</v>
       </c>
       <c r="E64" t="n">
-        <v>9520</v>
+        <v>9640</v>
       </c>
       <c r="F64" t="n">
-        <v>186</v>
+        <v>0.99899896</v>
       </c>
       <c r="G64" t="n">
-        <v>69.23076923076923</v>
+        <v>3780.126176869999</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>9520</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>9500</v>
+        <v>9430</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3112,40 +3079,39 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9545</v>
+        <v>9650</v>
       </c>
       <c r="C65" t="n">
-        <v>9545</v>
+        <v>9670</v>
       </c>
       <c r="D65" t="n">
-        <v>9545</v>
+        <v>9670</v>
       </c>
       <c r="E65" t="n">
-        <v>9545</v>
+        <v>9650</v>
       </c>
       <c r="F65" t="n">
-        <v>6.41</v>
+        <v>103.50315532</v>
       </c>
       <c r="G65" t="n">
-        <v>69.23076923076923</v>
+        <v>3883.629332189999</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>9545</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>9500</v>
+        <v>9430</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3155,40 +3121,39 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9545</v>
+        <v>9625</v>
       </c>
       <c r="C66" t="n">
-        <v>9545</v>
+        <v>9625</v>
       </c>
       <c r="D66" t="n">
-        <v>9545</v>
+        <v>9625</v>
       </c>
       <c r="E66" t="n">
-        <v>9545</v>
+        <v>9625</v>
       </c>
       <c r="F66" t="n">
-        <v>6.34</v>
+        <v>4.5253</v>
       </c>
       <c r="G66" t="n">
-        <v>100</v>
+        <v>3879.10403219</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>9545</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>9500</v>
+        <v>9430</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3198,40 +3163,39 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9545</v>
+        <v>9660</v>
       </c>
       <c r="C67" t="n">
-        <v>9545</v>
+        <v>9675</v>
       </c>
       <c r="D67" t="n">
-        <v>9545</v>
+        <v>9675</v>
       </c>
       <c r="E67" t="n">
-        <v>9545</v>
+        <v>9660</v>
       </c>
       <c r="F67" t="n">
-        <v>13.97</v>
+        <v>4.99926403</v>
       </c>
       <c r="G67" t="n">
-        <v>100</v>
+        <v>3884.10329622</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>9545</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>9500</v>
+        <v>9430</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3241,40 +3205,39 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9540</v>
+        <v>9665</v>
       </c>
       <c r="C68" t="n">
-        <v>9540</v>
+        <v>9665</v>
       </c>
       <c r="D68" t="n">
-        <v>9540</v>
+        <v>9665</v>
       </c>
       <c r="E68" t="n">
-        <v>9540</v>
+        <v>9665</v>
       </c>
       <c r="F68" t="n">
-        <v>13.24</v>
+        <v>62.2009</v>
       </c>
       <c r="G68" t="n">
-        <v>80</v>
+        <v>3821.90239622</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>9545</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>9500</v>
+        <v>9430</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3284,40 +3247,39 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9540</v>
+        <v>9590</v>
       </c>
       <c r="C69" t="n">
-        <v>9540</v>
+        <v>9590</v>
       </c>
       <c r="D69" t="n">
-        <v>9540</v>
+        <v>9590</v>
       </c>
       <c r="E69" t="n">
-        <v>9540</v>
+        <v>9590</v>
       </c>
       <c r="F69" t="n">
-        <v>6.27</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>80</v>
+        <v>3820.90239622</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>9540</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>9500</v>
+        <v>9430</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3327,538 +3289,543 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9540</v>
+        <v>9655</v>
       </c>
       <c r="C70" t="n">
-        <v>9540</v>
+        <v>9660</v>
       </c>
       <c r="D70" t="n">
-        <v>9540</v>
+        <v>9660</v>
       </c>
       <c r="E70" t="n">
-        <v>9540</v>
+        <v>9655</v>
       </c>
       <c r="F70" t="n">
-        <v>6.64</v>
+        <v>6.22</v>
       </c>
       <c r="G70" t="n">
-        <v>80</v>
+        <v>3827.12239622</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>9540</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>9500</v>
+        <v>9430</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>0.9992105263157894</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9545</v>
+        <v>9595</v>
       </c>
       <c r="C71" t="n">
-        <v>9545</v>
+        <v>9585</v>
       </c>
       <c r="D71" t="n">
-        <v>9545</v>
+        <v>9595</v>
       </c>
       <c r="E71" t="n">
-        <v>9545</v>
+        <v>9585</v>
       </c>
       <c r="F71" t="n">
-        <v>3.31</v>
+        <v>41.9022</v>
       </c>
       <c r="G71" t="n">
-        <v>71.42857142857143</v>
+        <v>3785.22019622</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>9540</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>9540</v>
-      </c>
-      <c r="L71" t="inlineStr"/>
+        <v>9430</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9545</v>
+        <v>9625</v>
       </c>
       <c r="C72" t="n">
-        <v>9545</v>
+        <v>9700</v>
       </c>
       <c r="D72" t="n">
-        <v>9545</v>
+        <v>9700</v>
       </c>
       <c r="E72" t="n">
-        <v>9545</v>
+        <v>9625</v>
       </c>
       <c r="F72" t="n">
-        <v>70.02679999999999</v>
+        <v>69</v>
       </c>
       <c r="G72" t="n">
-        <v>71.42857142857143</v>
+        <v>3854.22019622</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>9545</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>9540</v>
+        <v>9430</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9545</v>
+        <v>9640</v>
       </c>
       <c r="C73" t="n">
-        <v>9550</v>
+        <v>9615</v>
       </c>
       <c r="D73" t="n">
-        <v>9550</v>
+        <v>9685</v>
       </c>
       <c r="E73" t="n">
-        <v>9545</v>
+        <v>9615</v>
       </c>
       <c r="F73" t="n">
-        <v>62</v>
+        <v>184.4201</v>
       </c>
       <c r="G73" t="n">
-        <v>33.33333333333333</v>
+        <v>3669.80009622</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>9545</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>9540</v>
+        <v>9430</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9550</v>
+        <v>9690</v>
       </c>
       <c r="C74" t="n">
-        <v>9550</v>
+        <v>9790</v>
       </c>
       <c r="D74" t="n">
-        <v>9550</v>
+        <v>9790</v>
       </c>
       <c r="E74" t="n">
-        <v>9550</v>
+        <v>9690</v>
       </c>
       <c r="F74" t="n">
-        <v>30</v>
+        <v>414.98</v>
       </c>
       <c r="G74" t="n">
-        <v>33.33333333333333</v>
+        <v>4084.78009622</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>9550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L74" t="inlineStr"/>
+        <v>9430</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9550</v>
+        <v>9725</v>
       </c>
       <c r="C75" t="n">
-        <v>9550</v>
+        <v>9800</v>
       </c>
       <c r="D75" t="n">
-        <v>9550</v>
+        <v>9800</v>
       </c>
       <c r="E75" t="n">
-        <v>9550</v>
+        <v>9725</v>
       </c>
       <c r="F75" t="n">
-        <v>103.5</v>
+        <v>85.6605</v>
       </c>
       <c r="G75" t="n">
-        <v>33.33333333333333</v>
+        <v>4170.44059622</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>9550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9550</v>
+        <v>9830</v>
       </c>
       <c r="C76" t="n">
-        <v>9550</v>
+        <v>9835</v>
       </c>
       <c r="D76" t="n">
-        <v>9550</v>
+        <v>9835</v>
       </c>
       <c r="E76" t="n">
-        <v>9550</v>
+        <v>9830</v>
       </c>
       <c r="F76" t="n">
-        <v>34.5</v>
+        <v>90.54142323000001</v>
       </c>
       <c r="G76" t="n">
-        <v>33.33333333333333</v>
+        <v>4260.98201945</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>9550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9550</v>
+        <v>9745</v>
       </c>
       <c r="C77" t="n">
-        <v>9550</v>
+        <v>9745</v>
       </c>
       <c r="D77" t="n">
-        <v>9550</v>
+        <v>9745</v>
       </c>
       <c r="E77" t="n">
-        <v>9550</v>
+        <v>9745</v>
       </c>
       <c r="F77" t="n">
-        <v>6</v>
+        <v>0.1193</v>
       </c>
       <c r="G77" t="n">
-        <v>100</v>
+        <v>4260.86271945</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>9550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L77" t="inlineStr"/>
+        <v>9430</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9550</v>
+        <v>9745</v>
       </c>
       <c r="C78" t="n">
-        <v>9550</v>
+        <v>9895</v>
       </c>
       <c r="D78" t="n">
-        <v>9550</v>
+        <v>9895</v>
       </c>
       <c r="E78" t="n">
-        <v>9550</v>
+        <v>9745</v>
       </c>
       <c r="F78" t="n">
-        <v>62</v>
+        <v>110.0033</v>
       </c>
       <c r="G78" t="n">
-        <v>100</v>
+        <v>4370.86601945</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>9550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9550</v>
+        <v>9895</v>
       </c>
       <c r="C79" t="n">
-        <v>9550</v>
+        <v>9895</v>
       </c>
       <c r="D79" t="n">
-        <v>9550</v>
+        <v>9895</v>
       </c>
       <c r="E79" t="n">
-        <v>9550</v>
+        <v>9810</v>
       </c>
       <c r="F79" t="n">
-        <v>42</v>
+        <v>62.2084</v>
       </c>
       <c r="G79" t="n">
-        <v>100</v>
+        <v>4370.86601945</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>9550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9550</v>
+        <v>9890</v>
       </c>
       <c r="C80" t="n">
-        <v>9550</v>
+        <v>9890</v>
       </c>
       <c r="D80" t="n">
-        <v>9550</v>
+        <v>9890</v>
       </c>
       <c r="E80" t="n">
-        <v>9550</v>
+        <v>9890</v>
       </c>
       <c r="F80" t="n">
-        <v>3</v>
+        <v>19.4627</v>
       </c>
       <c r="G80" t="n">
-        <v>100</v>
+        <v>4351.40331945</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>9550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>9550</v>
-      </c>
-      <c r="L80" t="inlineStr"/>
+        <v>9430</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9540</v>
+        <v>9890</v>
       </c>
       <c r="C81" t="n">
-        <v>9550</v>
+        <v>9890</v>
       </c>
       <c r="D81" t="n">
-        <v>9550</v>
+        <v>9890</v>
       </c>
       <c r="E81" t="n">
-        <v>9540</v>
+        <v>9890</v>
       </c>
       <c r="F81" t="n">
-        <v>53</v>
+        <v>250.8275</v>
       </c>
       <c r="G81" t="n">
-        <v>100</v>
+        <v>4351.40331945</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>9550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9550</v>
+        <v>9870</v>
       </c>
       <c r="C82" t="n">
-        <v>9550</v>
+        <v>9900</v>
       </c>
       <c r="D82" t="n">
-        <v>9550</v>
+        <v>9900</v>
       </c>
       <c r="E82" t="n">
-        <v>9550</v>
+        <v>9830</v>
       </c>
       <c r="F82" t="n">
-        <v>32</v>
-      </c>
-      <c r="G82" t="inlineStr"/>
+        <v>193</v>
+      </c>
+      <c r="G82" t="n">
+        <v>4544.40331945</v>
+      </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>9550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3868,38 +3835,39 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9550</v>
+        <v>9900</v>
       </c>
       <c r="C83" t="n">
-        <v>9550</v>
+        <v>9900</v>
       </c>
       <c r="D83" t="n">
-        <v>9550</v>
+        <v>9900</v>
       </c>
       <c r="E83" t="n">
-        <v>9550</v>
+        <v>9900</v>
       </c>
       <c r="F83" t="n">
-        <v>33</v>
-      </c>
-      <c r="G83" t="inlineStr"/>
+        <v>64.96680000000001</v>
+      </c>
+      <c r="G83" t="n">
+        <v>4544.40331945</v>
+      </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>9550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3909,38 +3877,39 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9550</v>
+        <v>9845</v>
       </c>
       <c r="C84" t="n">
-        <v>9550</v>
+        <v>9810</v>
       </c>
       <c r="D84" t="n">
-        <v>9550</v>
+        <v>9845</v>
       </c>
       <c r="E84" t="n">
-        <v>9550</v>
+        <v>9810</v>
       </c>
       <c r="F84" t="n">
-        <v>131</v>
-      </c>
-      <c r="G84" t="inlineStr"/>
+        <v>3.9785</v>
+      </c>
+      <c r="G84" t="n">
+        <v>4540.42481945</v>
+      </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>9550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3950,38 +3919,39 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9550</v>
+        <v>9810</v>
       </c>
       <c r="C85" t="n">
-        <v>9550</v>
+        <v>9805</v>
       </c>
       <c r="D85" t="n">
-        <v>9550</v>
+        <v>9810</v>
       </c>
       <c r="E85" t="n">
-        <v>9550</v>
+        <v>9805</v>
       </c>
       <c r="F85" t="n">
-        <v>67.92400000000001</v>
-      </c>
-      <c r="G85" t="inlineStr"/>
+        <v>11.1135</v>
+      </c>
+      <c r="G85" t="n">
+        <v>4529.311319449999</v>
+      </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>9550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3991,40 +3961,39 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9550</v>
+        <v>9800</v>
       </c>
       <c r="C86" t="n">
-        <v>9585</v>
+        <v>9885</v>
       </c>
       <c r="D86" t="n">
-        <v>9585</v>
+        <v>9900</v>
       </c>
       <c r="E86" t="n">
-        <v>9550</v>
+        <v>9770</v>
       </c>
       <c r="F86" t="n">
-        <v>34.5</v>
+        <v>333.7241</v>
       </c>
       <c r="G86" t="n">
-        <v>100</v>
+        <v>4863.03541945</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>9550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -4034,40 +4003,39 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9580</v>
+        <v>9820</v>
       </c>
       <c r="C87" t="n">
-        <v>9580</v>
+        <v>9815</v>
       </c>
       <c r="D87" t="n">
-        <v>9580</v>
+        <v>9820</v>
       </c>
       <c r="E87" t="n">
-        <v>9580</v>
+        <v>9810</v>
       </c>
       <c r="F87" t="n">
-        <v>3.6073</v>
+        <v>14</v>
       </c>
       <c r="G87" t="n">
-        <v>75</v>
+        <v>4849.03541945</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="n">
-        <v>9585</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -4077,40 +4045,39 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9590</v>
+        <v>9815</v>
       </c>
       <c r="C88" t="n">
-        <v>9590</v>
+        <v>9815</v>
       </c>
       <c r="D88" t="n">
-        <v>9590</v>
+        <v>9815</v>
       </c>
       <c r="E88" t="n">
-        <v>9590</v>
+        <v>9815</v>
       </c>
       <c r="F88" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>80</v>
+        <v>4849.03541945</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="n">
-        <v>9580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4120,40 +4087,39 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9590</v>
+        <v>9895</v>
       </c>
       <c r="C89" t="n">
-        <v>9590</v>
+        <v>9895</v>
       </c>
       <c r="D89" t="n">
-        <v>9590</v>
+        <v>9895</v>
       </c>
       <c r="E89" t="n">
-        <v>9590</v>
+        <v>9895</v>
       </c>
       <c r="F89" t="n">
-        <v>38.5</v>
+        <v>2</v>
       </c>
       <c r="G89" t="n">
-        <v>80</v>
+        <v>4851.03541945</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="n">
-        <v>9590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4163,40 +4129,39 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9560</v>
+        <v>9895</v>
       </c>
       <c r="C90" t="n">
-        <v>9560</v>
+        <v>9890</v>
       </c>
       <c r="D90" t="n">
-        <v>9560</v>
+        <v>9900</v>
       </c>
       <c r="E90" t="n">
-        <v>9560</v>
+        <v>9890</v>
       </c>
       <c r="F90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G90" t="n">
-        <v>12.5</v>
+        <v>4847.03541945</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="n">
-        <v>9590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4206,40 +4171,39 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9560</v>
+        <v>9875</v>
       </c>
       <c r="C91" t="n">
-        <v>9560</v>
+        <v>9875</v>
       </c>
       <c r="D91" t="n">
-        <v>9560</v>
+        <v>9875</v>
       </c>
       <c r="E91" t="n">
-        <v>9560</v>
+        <v>9875</v>
       </c>
       <c r="F91" t="n">
-        <v>11.7954</v>
+        <v>9.07</v>
       </c>
       <c r="G91" t="n">
-        <v>12.5</v>
+        <v>4837.96541945</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>9560</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4249,165 +4213,165 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9585</v>
+        <v>9890</v>
       </c>
       <c r="C92" t="n">
-        <v>9590</v>
+        <v>9855</v>
       </c>
       <c r="D92" t="n">
-        <v>9590</v>
+        <v>9890</v>
       </c>
       <c r="E92" t="n">
-        <v>9585</v>
+        <v>9855</v>
       </c>
       <c r="F92" t="n">
-        <v>95</v>
+        <v>70.327</v>
       </c>
       <c r="G92" t="n">
-        <v>36.36363636363637</v>
+        <v>4767.63841945</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>9560</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>0.9991884816753928</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9590</v>
+        <v>9815</v>
       </c>
       <c r="C93" t="n">
-        <v>9590</v>
+        <v>9880</v>
       </c>
       <c r="D93" t="n">
-        <v>9590</v>
+        <v>9885</v>
       </c>
       <c r="E93" t="n">
-        <v>9590</v>
+        <v>9800</v>
       </c>
       <c r="F93" t="n">
-        <v>32</v>
+        <v>218.7908</v>
       </c>
       <c r="G93" t="n">
-        <v>36.36363636363637</v>
+        <v>4986.429219449999</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>9590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>9590</v>
-      </c>
-      <c r="L93" t="inlineStr"/>
+        <v>9430</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9590</v>
+        <v>9890</v>
       </c>
       <c r="C94" t="n">
-        <v>9600</v>
+        <v>9890</v>
       </c>
       <c r="D94" t="n">
-        <v>9600</v>
+        <v>9890</v>
       </c>
       <c r="E94" t="n">
-        <v>9590</v>
+        <v>9890</v>
       </c>
       <c r="F94" t="n">
-        <v>34</v>
+        <v>6.23</v>
       </c>
       <c r="G94" t="n">
-        <v>41.66666666666667</v>
+        <v>4992.659219449999</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>9590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>9590</v>
+        <v>9430</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9555</v>
+        <v>9800</v>
       </c>
       <c r="C95" t="n">
-        <v>9555</v>
+        <v>9795</v>
       </c>
       <c r="D95" t="n">
-        <v>9555</v>
+        <v>9800</v>
       </c>
       <c r="E95" t="n">
-        <v>9555</v>
+        <v>9790</v>
       </c>
       <c r="F95" t="n">
-        <v>34.6288</v>
+        <v>41.0923</v>
       </c>
       <c r="G95" t="n">
-        <v>-23.07692307692308</v>
+        <v>4951.566919449999</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>9600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>9590</v>
+        <v>9430</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4417,40 +4381,39 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9595</v>
+        <v>9785</v>
       </c>
       <c r="C96" t="n">
-        <v>9595</v>
+        <v>9880</v>
       </c>
       <c r="D96" t="n">
-        <v>9595</v>
+        <v>9880</v>
       </c>
       <c r="E96" t="n">
-        <v>9595</v>
+        <v>9785</v>
       </c>
       <c r="F96" t="n">
-        <v>6</v>
+        <v>56.212</v>
       </c>
       <c r="G96" t="n">
-        <v>9.090909090909092</v>
+        <v>5007.778919449999</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="n">
-        <v>9555</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>9590</v>
+        <v>9430</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4460,40 +4423,39 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9595</v>
+        <v>9880</v>
       </c>
       <c r="C97" t="n">
-        <v>9595</v>
+        <v>9810</v>
       </c>
       <c r="D97" t="n">
-        <v>9595</v>
+        <v>9915</v>
       </c>
       <c r="E97" t="n">
-        <v>9595</v>
+        <v>9790</v>
       </c>
       <c r="F97" t="n">
-        <v>4</v>
+        <v>187.4873</v>
       </c>
       <c r="G97" t="n">
-        <v>3.225806451612903</v>
+        <v>4820.291619449999</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>9595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>9590</v>
+        <v>9430</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4503,40 +4465,39 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9595</v>
+        <v>9825</v>
       </c>
       <c r="C98" t="n">
-        <v>9595</v>
+        <v>9850</v>
       </c>
       <c r="D98" t="n">
-        <v>9595</v>
+        <v>9850</v>
       </c>
       <c r="E98" t="n">
-        <v>9595</v>
+        <v>9815</v>
       </c>
       <c r="F98" t="n">
-        <v>4</v>
+        <v>54.9597</v>
       </c>
       <c r="G98" t="n">
-        <v>3.225806451612903</v>
+        <v>4875.25131945</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>9595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>9590</v>
+        <v>9430</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4546,40 +4507,39 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9595</v>
+        <v>9815</v>
       </c>
       <c r="C99" t="n">
-        <v>9600</v>
+        <v>9810</v>
       </c>
       <c r="D99" t="n">
-        <v>9600</v>
+        <v>9815</v>
       </c>
       <c r="E99" t="n">
-        <v>9595</v>
+        <v>9810</v>
       </c>
       <c r="F99" t="n">
-        <v>6</v>
+        <v>58.7614</v>
       </c>
       <c r="G99" t="n">
-        <v>30.76923076923077</v>
+        <v>4816.489919449999</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>9595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>9590</v>
+        <v>9430</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4589,40 +4549,39 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9600</v>
+        <v>9810</v>
       </c>
       <c r="C100" t="n">
-        <v>9600</v>
+        <v>9810</v>
       </c>
       <c r="D100" t="n">
-        <v>9600</v>
+        <v>9810</v>
       </c>
       <c r="E100" t="n">
-        <v>9600</v>
+        <v>9810</v>
       </c>
       <c r="F100" t="n">
-        <v>190.3934</v>
+        <v>36.2618</v>
       </c>
       <c r="G100" t="n">
-        <v>30.76923076923077</v>
+        <v>4816.489919449999</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="n">
-        <v>9600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>9590</v>
+        <v>9430</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4632,40 +4591,39 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9570</v>
+        <v>9840</v>
       </c>
       <c r="C101" t="n">
-        <v>9555</v>
+        <v>9840</v>
       </c>
       <c r="D101" t="n">
-        <v>9570</v>
+        <v>9840</v>
       </c>
       <c r="E101" t="n">
-        <v>9555</v>
+        <v>9840</v>
       </c>
       <c r="F101" t="n">
-        <v>190.3934</v>
+        <v>4.7867</v>
       </c>
       <c r="G101" t="n">
-        <v>-24.13793103448276</v>
+        <v>4821.276619449999</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>9600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>9590</v>
+        <v>9430</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4675,40 +4633,39 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9635</v>
+        <v>9810</v>
       </c>
       <c r="C102" t="n">
-        <v>9635</v>
+        <v>9810</v>
       </c>
       <c r="D102" t="n">
-        <v>9635</v>
+        <v>9810</v>
       </c>
       <c r="E102" t="n">
-        <v>9635</v>
+        <v>9810</v>
       </c>
       <c r="F102" t="n">
-        <v>20</v>
+        <v>33.6515</v>
       </c>
       <c r="G102" t="n">
-        <v>20</v>
+        <v>4787.625119449999</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="n">
-        <v>9555</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>9590</v>
+        <v>9430</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4718,40 +4675,39 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9635</v>
+        <v>9815</v>
       </c>
       <c r="C103" t="n">
-        <v>9640</v>
+        <v>9810</v>
       </c>
       <c r="D103" t="n">
-        <v>9640</v>
+        <v>9815</v>
       </c>
       <c r="E103" t="n">
-        <v>9635</v>
+        <v>9810</v>
       </c>
       <c r="F103" t="n">
-        <v>4</v>
+        <v>51.6381</v>
       </c>
       <c r="G103" t="n">
-        <v>18.18181818181818</v>
+        <v>4787.625119449999</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="n">
-        <v>9635</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>9590</v>
+        <v>9430</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4761,40 +4717,39 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9640</v>
+        <v>9810</v>
       </c>
       <c r="C104" t="n">
-        <v>9640</v>
+        <v>9810</v>
       </c>
       <c r="D104" t="n">
-        <v>9640</v>
+        <v>9810</v>
       </c>
       <c r="E104" t="n">
-        <v>9640</v>
+        <v>9810</v>
       </c>
       <c r="F104" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G104" t="n">
-        <v>48.57142857142857</v>
+        <v>4787.625119449999</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="n">
-        <v>9640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>9590</v>
+        <v>9430</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4804,126 +4759,123 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9640</v>
+        <v>9775</v>
       </c>
       <c r="C105" t="n">
-        <v>9640</v>
+        <v>9740</v>
       </c>
       <c r="D105" t="n">
-        <v>9640</v>
+        <v>9775</v>
       </c>
       <c r="E105" t="n">
-        <v>9640</v>
+        <v>9740</v>
       </c>
       <c r="F105" t="n">
-        <v>11.5</v>
+        <v>158.3999</v>
       </c>
       <c r="G105" t="n">
-        <v>33.33333333333333</v>
+        <v>4629.225219449999</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="n">
-        <v>9640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>9590</v>
+        <v>9430</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>1.000213764337852</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9640</v>
+        <v>9795</v>
       </c>
       <c r="C106" t="n">
-        <v>9650</v>
+        <v>9790</v>
       </c>
       <c r="D106" t="n">
-        <v>9650</v>
+        <v>9795</v>
       </c>
       <c r="E106" t="n">
-        <v>9640</v>
+        <v>9790</v>
       </c>
       <c r="F106" t="n">
-        <v>0.99899896</v>
+        <v>4</v>
       </c>
       <c r="G106" t="n">
-        <v>37.93103448275862</v>
+        <v>4633.225219449999</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="n">
-        <v>9640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>9640</v>
+        <v>9430</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9650</v>
+        <v>9725</v>
       </c>
       <c r="C107" t="n">
-        <v>9670</v>
+        <v>9725</v>
       </c>
       <c r="D107" t="n">
-        <v>9670</v>
+        <v>9725</v>
       </c>
       <c r="E107" t="n">
-        <v>9650</v>
+        <v>9725</v>
       </c>
       <c r="F107" t="n">
-        <v>103.50315532</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="G107" t="n">
-        <v>45.45454545454545</v>
+        <v>4624.685219449999</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="n">
-        <v>9650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>9640</v>
+        <v>9430</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4933,40 +4885,39 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9625</v>
+        <v>9755</v>
       </c>
       <c r="C108" t="n">
-        <v>9625</v>
+        <v>9705</v>
       </c>
       <c r="D108" t="n">
-        <v>9625</v>
+        <v>9755</v>
       </c>
       <c r="E108" t="n">
-        <v>9625</v>
+        <v>9705</v>
       </c>
       <c r="F108" t="n">
-        <v>4.5253</v>
+        <v>81.5493</v>
       </c>
       <c r="G108" t="n">
-        <v>12.19512195121951</v>
+        <v>4543.135919449999</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="n">
-        <v>9670</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>9640</v>
+        <v>9430</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4976,40 +4927,39 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9660</v>
+        <v>9785</v>
       </c>
       <c r="C109" t="n">
-        <v>9675</v>
+        <v>9785</v>
       </c>
       <c r="D109" t="n">
-        <v>9675</v>
+        <v>9785</v>
       </c>
       <c r="E109" t="n">
-        <v>9660</v>
+        <v>9785</v>
       </c>
       <c r="F109" t="n">
-        <v>4.99926403</v>
+        <v>13.19</v>
       </c>
       <c r="G109" t="n">
-        <v>29.41176470588236</v>
+        <v>4556.325919449999</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>9625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>9640</v>
+        <v>9430</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -5019,40 +4969,39 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9665</v>
+        <v>9745</v>
       </c>
       <c r="C110" t="n">
-        <v>9665</v>
+        <v>9745</v>
       </c>
       <c r="D110" t="n">
-        <v>9665</v>
+        <v>9745</v>
       </c>
       <c r="E110" t="n">
-        <v>9665</v>
+        <v>9745</v>
       </c>
       <c r="F110" t="n">
-        <v>62.2009</v>
+        <v>10</v>
       </c>
       <c r="G110" t="n">
-        <v>50</v>
+        <v>4546.325919449999</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="n">
-        <v>9675</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>9640</v>
+        <v>9430</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -5062,40 +5011,39 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9590</v>
+        <v>9795</v>
       </c>
       <c r="C111" t="n">
-        <v>9590</v>
+        <v>9795</v>
       </c>
       <c r="D111" t="n">
-        <v>9590</v>
+        <v>9795</v>
       </c>
       <c r="E111" t="n">
-        <v>9590</v>
+        <v>9795</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G111" t="n">
-        <v>-20.93023255813954</v>
+        <v>4560.325919449999</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="n">
-        <v>9665</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>9640</v>
+        <v>9430</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -5105,40 +5053,39 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9655</v>
+        <v>9775</v>
       </c>
       <c r="C112" t="n">
-        <v>9660</v>
+        <v>9785</v>
       </c>
       <c r="D112" t="n">
-        <v>9660</v>
+        <v>9785</v>
       </c>
       <c r="E112" t="n">
-        <v>9655</v>
+        <v>9775</v>
       </c>
       <c r="F112" t="n">
-        <v>6.22</v>
+        <v>40.1</v>
       </c>
       <c r="G112" t="n">
-        <v>7.142857142857142</v>
+        <v>4520.225919449998</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="n">
-        <v>9590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>9640</v>
+        <v>9430</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -5148,40 +5095,39 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>9595</v>
+        <v>9810</v>
       </c>
       <c r="C113" t="n">
-        <v>9585</v>
+        <v>9890</v>
       </c>
       <c r="D113" t="n">
-        <v>9595</v>
+        <v>9890</v>
       </c>
       <c r="E113" t="n">
-        <v>9585</v>
+        <v>9810</v>
       </c>
       <c r="F113" t="n">
-        <v>41.9022</v>
+        <v>68.5</v>
       </c>
       <c r="G113" t="n">
-        <v>-15.49295774647887</v>
+        <v>4588.725919449998</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="n">
-        <v>9660</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>9640</v>
+        <v>9430</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -5191,40 +5137,39 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>9625</v>
+        <v>9885</v>
       </c>
       <c r="C114" t="n">
-        <v>9700</v>
+        <v>9895</v>
       </c>
       <c r="D114" t="n">
-        <v>9700</v>
+        <v>9895</v>
       </c>
       <c r="E114" t="n">
-        <v>9625</v>
+        <v>9885</v>
       </c>
       <c r="F114" t="n">
-        <v>69</v>
+        <v>157.74</v>
       </c>
       <c r="G114" t="n">
-        <v>12.76595744680851</v>
+        <v>4746.465919449998</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="n">
-        <v>9585</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>9640</v>
+        <v>9430</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -5234,3434 +5179,1381 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>9640</v>
+        <v>9895</v>
       </c>
       <c r="C115" t="n">
-        <v>9615</v>
+        <v>9930</v>
       </c>
       <c r="D115" t="n">
-        <v>9685</v>
+        <v>9930</v>
       </c>
       <c r="E115" t="n">
-        <v>9615</v>
+        <v>9895</v>
       </c>
       <c r="F115" t="n">
-        <v>184.4201</v>
+        <v>40.5902</v>
       </c>
       <c r="G115" t="n">
-        <v>-6.422018348623854</v>
+        <v>4787.056119449998</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
       </c>
-      <c r="J115" t="n">
-        <v>9700</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>9640</v>
+        <v>9430</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>1</v>
-      </c>
+        <v>1.048022269353128</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>9690</v>
+        <v>9840</v>
       </c>
       <c r="C116" t="n">
-        <v>9790</v>
+        <v>9840</v>
       </c>
       <c r="D116" t="n">
-        <v>9790</v>
+        <v>9840</v>
       </c>
       <c r="E116" t="n">
-        <v>9690</v>
+        <v>9840</v>
       </c>
       <c r="F116" t="n">
-        <v>414.98</v>
+        <v>83.3954</v>
       </c>
       <c r="G116" t="n">
-        <v>17.14285714285714</v>
+        <v>4703.660719449997</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
       </c>
-      <c r="J116" t="n">
-        <v>9615</v>
-      </c>
-      <c r="K116" t="n">
-        <v>9640</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>9725</v>
+        <v>9710</v>
       </c>
       <c r="C117" t="n">
-        <v>9800</v>
+        <v>9710</v>
       </c>
       <c r="D117" t="n">
-        <v>9800</v>
+        <v>9710</v>
       </c>
       <c r="E117" t="n">
-        <v>9725</v>
+        <v>9710</v>
       </c>
       <c r="F117" t="n">
-        <v>85.6605</v>
+        <v>9.7081</v>
       </c>
       <c r="G117" t="n">
-        <v>26.31578947368421</v>
+        <v>4693.952619449998</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
       </c>
-      <c r="J117" t="n">
-        <v>9790</v>
-      </c>
-      <c r="K117" t="n">
-        <v>9640</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>1.011597510373444</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>9830</v>
+        <v>9715</v>
       </c>
       <c r="C118" t="n">
-        <v>9835</v>
+        <v>9705</v>
       </c>
       <c r="D118" t="n">
-        <v>9835</v>
+        <v>9715</v>
       </c>
       <c r="E118" t="n">
-        <v>9830</v>
+        <v>9705</v>
       </c>
       <c r="F118" t="n">
-        <v>90.54142323000001</v>
+        <v>364.1607</v>
       </c>
       <c r="G118" t="n">
-        <v>24.61538461538462</v>
+        <v>4329.791919449997</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
       </c>
-      <c r="J118" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K118" t="n">
-        <v>9800</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>9745</v>
+        <v>9700</v>
       </c>
       <c r="C119" t="n">
-        <v>9745</v>
+        <v>9705</v>
       </c>
       <c r="D119" t="n">
-        <v>9745</v>
+        <v>9705</v>
       </c>
       <c r="E119" t="n">
-        <v>9745</v>
+        <v>9700</v>
       </c>
       <c r="F119" t="n">
-        <v>0.1193</v>
+        <v>32.44</v>
       </c>
       <c r="G119" t="n">
-        <v>10.95890410958904</v>
+        <v>4329.791919449997</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
       </c>
-      <c r="J119" t="n">
-        <v>9835</v>
-      </c>
-      <c r="K119" t="n">
-        <v>9800</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9745</v>
+        <v>9645</v>
       </c>
       <c r="C120" t="n">
-        <v>9895</v>
+        <v>9700</v>
       </c>
       <c r="D120" t="n">
-        <v>9895</v>
+        <v>9700</v>
       </c>
       <c r="E120" t="n">
-        <v>9745</v>
+        <v>9645</v>
       </c>
       <c r="F120" t="n">
-        <v>110.0033</v>
+        <v>132.8689</v>
       </c>
       <c r="G120" t="n">
-        <v>37.88819875776397</v>
+        <v>4196.923019449997</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
       </c>
-      <c r="J120" t="n">
-        <v>9745</v>
-      </c>
-      <c r="K120" t="n">
-        <v>9800</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>9895</v>
+        <v>9630</v>
       </c>
       <c r="C121" t="n">
-        <v>9895</v>
+        <v>9620</v>
       </c>
       <c r="D121" t="n">
-        <v>9895</v>
+        <v>9630</v>
       </c>
       <c r="E121" t="n">
-        <v>9810</v>
+        <v>9620</v>
       </c>
       <c r="F121" t="n">
-        <v>62.2084</v>
+        <v>370</v>
       </c>
       <c r="G121" t="n">
-        <v>31.97278911564626</v>
+        <v>3826.923019449997</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="n">
-        <v>9895</v>
-      </c>
-      <c r="K121" t="n">
-        <v>9800</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>9890</v>
+        <v>9620</v>
       </c>
       <c r="C122" t="n">
-        <v>9890</v>
+        <v>9620</v>
       </c>
       <c r="D122" t="n">
-        <v>9890</v>
+        <v>9620</v>
       </c>
       <c r="E122" t="n">
-        <v>9890</v>
+        <v>9620</v>
       </c>
       <c r="F122" t="n">
-        <v>19.4627</v>
+        <v>0.1</v>
       </c>
       <c r="G122" t="n">
-        <v>45.86466165413533</v>
+        <v>3826.923019449997</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="n">
-        <v>9895</v>
-      </c>
-      <c r="K122" t="n">
-        <v>9800</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>9890</v>
+        <v>9615</v>
       </c>
       <c r="C123" t="n">
-        <v>9890</v>
+        <v>9615</v>
       </c>
       <c r="D123" t="n">
-        <v>9890</v>
+        <v>9615</v>
       </c>
       <c r="E123" t="n">
-        <v>9890</v>
+        <v>9615</v>
       </c>
       <c r="F123" t="n">
-        <v>250.8275</v>
+        <v>11.11</v>
       </c>
       <c r="G123" t="n">
-        <v>34.54545454545455</v>
+        <v>3815.813019449997</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="n">
-        <v>9890</v>
-      </c>
-      <c r="K123" t="n">
-        <v>9800</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>9870</v>
+        <v>9615</v>
       </c>
       <c r="C124" t="n">
-        <v>9900</v>
+        <v>9615</v>
       </c>
       <c r="D124" t="n">
-        <v>9900</v>
+        <v>9615</v>
       </c>
       <c r="E124" t="n">
-        <v>9830</v>
+        <v>9615</v>
       </c>
       <c r="F124" t="n">
-        <v>193</v>
+        <v>59.7469</v>
       </c>
       <c r="G124" t="n">
-        <v>60</v>
+        <v>3815.813019449997</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="n">
-        <v>9890</v>
-      </c>
-      <c r="K124" t="n">
-        <v>9800</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9900</v>
+        <v>9615</v>
       </c>
       <c r="C125" t="n">
-        <v>9900</v>
+        <v>9615</v>
       </c>
       <c r="D125" t="n">
-        <v>9900</v>
+        <v>9615</v>
       </c>
       <c r="E125" t="n">
-        <v>9900</v>
+        <v>9615</v>
       </c>
       <c r="F125" t="n">
-        <v>64.96680000000001</v>
+        <v>0.9307</v>
       </c>
       <c r="G125" t="n">
-        <v>36.66666666666666</v>
+        <v>3815.813019449997</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" t="n">
-        <v>9900</v>
-      </c>
-      <c r="K125" t="n">
-        <v>9800</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>9845</v>
+        <v>9645</v>
       </c>
       <c r="C126" t="n">
-        <v>9810</v>
+        <v>9620</v>
       </c>
       <c r="D126" t="n">
-        <v>9845</v>
+        <v>9645</v>
       </c>
       <c r="E126" t="n">
-        <v>9810</v>
+        <v>9620</v>
       </c>
       <c r="F126" t="n">
-        <v>3.9785</v>
+        <v>50</v>
       </c>
       <c r="G126" t="n">
-        <v>2.631578947368421</v>
+        <v>3865.813019449997</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="n">
-        <v>9900</v>
-      </c>
-      <c r="K126" t="n">
-        <v>9800</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>9810</v>
+        <v>9640</v>
       </c>
       <c r="C127" t="n">
-        <v>9805</v>
+        <v>9640</v>
       </c>
       <c r="D127" t="n">
-        <v>9810</v>
+        <v>9640</v>
       </c>
       <c r="E127" t="n">
-        <v>9805</v>
+        <v>9640</v>
       </c>
       <c r="F127" t="n">
-        <v>11.1135</v>
+        <v>44</v>
       </c>
       <c r="G127" t="n">
-        <v>-8.571428571428571</v>
+        <v>3909.813019449997</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="n">
-        <v>9810</v>
-      </c>
-      <c r="K127" t="n">
-        <v>9800</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>9800</v>
+        <v>9640</v>
       </c>
       <c r="C128" t="n">
-        <v>9885</v>
+        <v>9700</v>
       </c>
       <c r="D128" t="n">
-        <v>9900</v>
+        <v>9700</v>
       </c>
       <c r="E128" t="n">
-        <v>9770</v>
+        <v>9640</v>
       </c>
       <c r="F128" t="n">
-        <v>333.7241</v>
+        <v>40</v>
       </c>
       <c r="G128" t="n">
-        <v>41.17647058823529</v>
+        <v>3949.813019449997</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
-      </c>
-      <c r="J128" t="n">
-        <v>9805</v>
-      </c>
-      <c r="K128" t="n">
-        <v>9800</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>9820</v>
+        <v>9720</v>
       </c>
       <c r="C129" t="n">
-        <v>9815</v>
+        <v>9720</v>
       </c>
       <c r="D129" t="n">
-        <v>9820</v>
+        <v>9720</v>
       </c>
       <c r="E129" t="n">
-        <v>9810</v>
+        <v>9720</v>
       </c>
       <c r="F129" t="n">
-        <v>14</v>
+        <v>4.7219</v>
       </c>
       <c r="G129" t="n">
-        <v>-30.76923076923077</v>
+        <v>3954.534919449997</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
-      </c>
-      <c r="J129" t="n">
-        <v>9885</v>
-      </c>
-      <c r="K129" t="n">
-        <v>9800</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>9815</v>
+        <v>9655</v>
       </c>
       <c r="C130" t="n">
-        <v>9815</v>
+        <v>9655</v>
       </c>
       <c r="D130" t="n">
-        <v>9815</v>
+        <v>9655</v>
       </c>
       <c r="E130" t="n">
-        <v>9815</v>
+        <v>9655</v>
       </c>
       <c r="F130" t="n">
-        <v>10</v>
+        <v>5.56</v>
       </c>
       <c r="G130" t="n">
-        <v>-30.76923076923077</v>
+        <v>3948.974919449997</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="n">
-        <v>9815</v>
-      </c>
-      <c r="K130" t="n">
-        <v>9800</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>9895</v>
+        <v>9655</v>
       </c>
       <c r="C131" t="n">
-        <v>9895</v>
+        <v>9655</v>
       </c>
       <c r="D131" t="n">
-        <v>9895</v>
+        <v>9655</v>
       </c>
       <c r="E131" t="n">
-        <v>9895</v>
+        <v>9655</v>
       </c>
       <c r="F131" t="n">
-        <v>2</v>
+        <v>346.88</v>
       </c>
       <c r="G131" t="n">
-        <v>1.492537313432836</v>
+        <v>3948.974919449997</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" t="n">
-        <v>9815</v>
-      </c>
-      <c r="K131" t="n">
-        <v>9800</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>1.004693877551021</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>9895</v>
+        <v>9675</v>
       </c>
       <c r="C132" t="n">
-        <v>9890</v>
+        <v>9635</v>
       </c>
       <c r="D132" t="n">
-        <v>9900</v>
+        <v>9675</v>
       </c>
       <c r="E132" t="n">
-        <v>9890</v>
+        <v>9635</v>
       </c>
       <c r="F132" t="n">
-        <v>4</v>
+        <v>18.5761</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>3930.398819449997</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="n">
-        <v>9895</v>
-      </c>
-      <c r="K132" t="n">
-        <v>9815</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>9875</v>
+        <v>9635</v>
       </c>
       <c r="C133" t="n">
-        <v>9875</v>
+        <v>9630</v>
       </c>
       <c r="D133" t="n">
-        <v>9875</v>
+        <v>9635</v>
       </c>
       <c r="E133" t="n">
-        <v>9875</v>
+        <v>9630</v>
       </c>
       <c r="F133" t="n">
-        <v>9.07</v>
+        <v>69.496</v>
       </c>
       <c r="G133" t="n">
-        <v>-7.246376811594203</v>
+        <v>3860.902819449997</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
-      </c>
-      <c r="J133" t="n">
-        <v>9890</v>
-      </c>
-      <c r="K133" t="n">
-        <v>9890</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>9890</v>
+        <v>9635</v>
       </c>
       <c r="C134" t="n">
-        <v>9855</v>
+        <v>9635</v>
       </c>
       <c r="D134" t="n">
-        <v>9890</v>
+        <v>9635</v>
       </c>
       <c r="E134" t="n">
-        <v>9855</v>
+        <v>9635</v>
       </c>
       <c r="F134" t="n">
-        <v>70.327</v>
+        <v>4.9012</v>
       </c>
       <c r="G134" t="n">
-        <v>-12.32876712328767</v>
+        <v>3865.804019449996</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
-      </c>
-      <c r="J134" t="n">
-        <v>9875</v>
-      </c>
-      <c r="K134" t="n">
-        <v>9890</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>9815</v>
+        <v>9630</v>
       </c>
       <c r="C135" t="n">
-        <v>9880</v>
+        <v>9630</v>
       </c>
       <c r="D135" t="n">
-        <v>9885</v>
+        <v>9630</v>
       </c>
       <c r="E135" t="n">
-        <v>9800</v>
+        <v>9630</v>
       </c>
       <c r="F135" t="n">
-        <v>218.7908</v>
+        <v>33.6793</v>
       </c>
       <c r="G135" t="n">
-        <v>23.33333333333333</v>
+        <v>3832.124719449997</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
-      </c>
-      <c r="J135" t="n">
-        <v>9855</v>
-      </c>
-      <c r="K135" t="n">
-        <v>9890</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>9890</v>
+        <v>9620</v>
       </c>
       <c r="C136" t="n">
-        <v>9890</v>
+        <v>9680</v>
       </c>
       <c r="D136" t="n">
-        <v>9890</v>
+        <v>9680</v>
       </c>
       <c r="E136" t="n">
-        <v>9890</v>
+        <v>9620</v>
       </c>
       <c r="F136" t="n">
-        <v>6.23</v>
+        <v>203.4293</v>
       </c>
       <c r="G136" t="n">
-        <v>27.86885245901639</v>
+        <v>4035.554019449996</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
-      </c>
-      <c r="J136" t="n">
-        <v>9880</v>
-      </c>
-      <c r="K136" t="n">
-        <v>9890</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>9800</v>
+        <v>9680</v>
       </c>
       <c r="C137" t="n">
-        <v>9795</v>
+        <v>9680</v>
       </c>
       <c r="D137" t="n">
-        <v>9800</v>
+        <v>9680</v>
       </c>
       <c r="E137" t="n">
-        <v>9790</v>
+        <v>9680</v>
       </c>
       <c r="F137" t="n">
-        <v>41.0923</v>
+        <v>33.0393</v>
       </c>
       <c r="G137" t="n">
-        <v>-28.125</v>
+        <v>4035.554019449996</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
-      </c>
-      <c r="J137" t="n">
-        <v>9890</v>
-      </c>
-      <c r="K137" t="n">
-        <v>9890</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>9785</v>
+        <v>9690</v>
       </c>
       <c r="C138" t="n">
-        <v>9880</v>
+        <v>9690</v>
       </c>
       <c r="D138" t="n">
-        <v>9880</v>
+        <v>9690</v>
       </c>
       <c r="E138" t="n">
-        <v>9785</v>
+        <v>9690</v>
       </c>
       <c r="F138" t="n">
-        <v>56.212</v>
+        <v>108.0756</v>
       </c>
       <c r="G138" t="n">
-        <v>19.40298507462687</v>
+        <v>4143.629619449996</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
-      </c>
-      <c r="J138" t="n">
-        <v>9795</v>
-      </c>
-      <c r="K138" t="n">
-        <v>9890</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>9880</v>
+        <v>9645</v>
       </c>
       <c r="C139" t="n">
-        <v>9810</v>
+        <v>9645</v>
       </c>
       <c r="D139" t="n">
-        <v>9915</v>
+        <v>9645</v>
       </c>
       <c r="E139" t="n">
-        <v>9790</v>
+        <v>9645</v>
       </c>
       <c r="F139" t="n">
-        <v>187.4873</v>
+        <v>7.8446</v>
       </c>
       <c r="G139" t="n">
-        <v>-1.234567901234568</v>
+        <v>4135.785019449996</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
-      </c>
-      <c r="J139" t="n">
-        <v>9880</v>
-      </c>
-      <c r="K139" t="n">
-        <v>9890</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>9825</v>
+        <v>9640</v>
       </c>
       <c r="C140" t="n">
-        <v>9850</v>
+        <v>9640</v>
       </c>
       <c r="D140" t="n">
-        <v>9850</v>
+        <v>9640</v>
       </c>
       <c r="E140" t="n">
-        <v>9815</v>
+        <v>9640</v>
       </c>
       <c r="F140" t="n">
-        <v>54.9597</v>
+        <v>18.6525</v>
       </c>
       <c r="G140" t="n">
-        <v>-12.32876712328767</v>
+        <v>4117.132519449996</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
-      </c>
-      <c r="J140" t="n">
-        <v>9810</v>
-      </c>
-      <c r="K140" t="n">
-        <v>9890</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>9815</v>
+        <v>9640</v>
       </c>
       <c r="C141" t="n">
-        <v>9810</v>
+        <v>9695</v>
       </c>
       <c r="D141" t="n">
-        <v>9815</v>
+        <v>9695</v>
       </c>
       <c r="E141" t="n">
-        <v>9810</v>
+        <v>9640</v>
       </c>
       <c r="F141" t="n">
-        <v>58.7614</v>
+        <v>150.8901</v>
       </c>
       <c r="G141" t="n">
-        <v>-20</v>
+        <v>4268.022619449996</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
-      </c>
-      <c r="J141" t="n">
-        <v>9850</v>
-      </c>
-      <c r="K141" t="n">
-        <v>9890</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>9810</v>
+        <v>9635</v>
       </c>
       <c r="C142" t="n">
-        <v>9810</v>
+        <v>9635</v>
       </c>
       <c r="D142" t="n">
-        <v>9810</v>
+        <v>9635</v>
       </c>
       <c r="E142" t="n">
-        <v>9810</v>
+        <v>9635</v>
       </c>
       <c r="F142" t="n">
-        <v>36.2618</v>
+        <v>1.0411</v>
       </c>
       <c r="G142" t="n">
-        <v>-16.88311688311688</v>
+        <v>4266.981519449995</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
-      </c>
-      <c r="J142" t="n">
-        <v>9810</v>
-      </c>
-      <c r="K142" t="n">
-        <v>9890</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>9840</v>
+        <v>9635</v>
       </c>
       <c r="C143" t="n">
-        <v>9840</v>
+        <v>9635</v>
       </c>
       <c r="D143" t="n">
-        <v>9840</v>
+        <v>9635</v>
       </c>
       <c r="E143" t="n">
-        <v>9840</v>
+        <v>9635</v>
       </c>
       <c r="F143" t="n">
-        <v>4.7867</v>
+        <v>3.9785</v>
       </c>
       <c r="G143" t="n">
-        <v>-3.79746835443038</v>
+        <v>4266.981519449995</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
-      </c>
-      <c r="J143" t="n">
-        <v>9810</v>
-      </c>
-      <c r="K143" t="n">
-        <v>9890</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>9810</v>
+        <v>9630</v>
       </c>
       <c r="C144" t="n">
-        <v>9810</v>
+        <v>9630</v>
       </c>
       <c r="D144" t="n">
-        <v>9810</v>
+        <v>9630</v>
       </c>
       <c r="E144" t="n">
-        <v>9810</v>
+        <v>9630</v>
       </c>
       <c r="F144" t="n">
-        <v>33.6515</v>
+        <v>20.0058</v>
       </c>
       <c r="G144" t="n">
-        <v>-17.5</v>
+        <v>4246.975719449995</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
-      </c>
-      <c r="J144" t="n">
-        <v>9840</v>
-      </c>
-      <c r="K144" t="n">
-        <v>9890</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>9815</v>
+        <v>9630</v>
       </c>
       <c r="C145" t="n">
-        <v>9810</v>
+        <v>9675</v>
       </c>
       <c r="D145" t="n">
-        <v>9815</v>
+        <v>9675</v>
       </c>
       <c r="E145" t="n">
-        <v>9810</v>
+        <v>9630</v>
       </c>
       <c r="F145" t="n">
-        <v>51.6381</v>
+        <v>49.4141</v>
       </c>
       <c r="G145" t="n">
-        <v>-20.51282051282051</v>
+        <v>4296.389819449995</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
-      </c>
-      <c r="J145" t="n">
-        <v>9810</v>
-      </c>
-      <c r="K145" t="n">
-        <v>9890</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>0.9869110212335692</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>9810</v>
+        <v>9660</v>
       </c>
       <c r="C146" t="n">
-        <v>9810</v>
+        <v>9670</v>
       </c>
       <c r="D146" t="n">
-        <v>9810</v>
+        <v>9670</v>
       </c>
       <c r="E146" t="n">
-        <v>9810</v>
+        <v>9660</v>
       </c>
       <c r="F146" t="n">
-        <v>11</v>
+        <v>34.5</v>
       </c>
       <c r="G146" t="n">
-        <v>5.084745762711865</v>
+        <v>4261.889819449995</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
-      </c>
-      <c r="J146" t="n">
-        <v>9810</v>
-      </c>
-      <c r="K146" t="n">
-        <v>9810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>9775</v>
+        <v>9670</v>
       </c>
       <c r="C147" t="n">
-        <v>9740</v>
+        <v>9680</v>
       </c>
       <c r="D147" t="n">
-        <v>9775</v>
+        <v>9680</v>
       </c>
       <c r="E147" t="n">
-        <v>9740</v>
+        <v>9670</v>
       </c>
       <c r="F147" t="n">
-        <v>158.3999</v>
+        <v>39</v>
       </c>
       <c r="G147" t="n">
-        <v>-50</v>
+        <v>4300.889819449995</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
-      </c>
-      <c r="J147" t="n">
-        <v>9810</v>
-      </c>
-      <c r="K147" t="n">
-        <v>9810</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>9795</v>
+        <v>9620</v>
       </c>
       <c r="C148" t="n">
-        <v>9790</v>
+        <v>9600</v>
       </c>
       <c r="D148" t="n">
-        <v>9795</v>
+        <v>9620</v>
       </c>
       <c r="E148" t="n">
-        <v>9790</v>
+        <v>9600</v>
       </c>
       <c r="F148" t="n">
-        <v>4</v>
+        <v>79.0686</v>
       </c>
       <c r="G148" t="n">
-        <v>-7.692307692307693</v>
+        <v>4221.821219449996</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
-      </c>
-      <c r="J148" t="n">
-        <v>9740</v>
-      </c>
-      <c r="K148" t="n">
-        <v>9810</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>9725</v>
+        <v>9680</v>
       </c>
       <c r="C149" t="n">
-        <v>9725</v>
+        <v>9680</v>
       </c>
       <c r="D149" t="n">
-        <v>9725</v>
+        <v>9680</v>
       </c>
       <c r="E149" t="n">
-        <v>9725</v>
+        <v>9680</v>
       </c>
       <c r="F149" t="n">
-        <v>8.539999999999999</v>
+        <v>31.5</v>
       </c>
       <c r="G149" t="n">
-        <v>-43.85964912280701</v>
+        <v>4253.321219449996</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
-      </c>
-      <c r="J149" t="n">
-        <v>9790</v>
-      </c>
-      <c r="K149" t="n">
-        <v>9810</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>9755</v>
+        <v>9670</v>
       </c>
       <c r="C150" t="n">
-        <v>9705</v>
+        <v>9675</v>
       </c>
       <c r="D150" t="n">
-        <v>9755</v>
+        <v>9675</v>
       </c>
       <c r="E150" t="n">
-        <v>9705</v>
+        <v>9670</v>
       </c>
       <c r="F150" t="n">
-        <v>81.5493</v>
+        <v>32.5</v>
       </c>
       <c r="G150" t="n">
-        <v>-39.62264150943396</v>
+        <v>4220.821219449996</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
-      </c>
-      <c r="J150" t="n">
-        <v>9725</v>
-      </c>
-      <c r="K150" t="n">
-        <v>9810</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>9785</v>
+        <v>9675</v>
       </c>
       <c r="C151" t="n">
-        <v>9785</v>
+        <v>9675</v>
       </c>
       <c r="D151" t="n">
-        <v>9785</v>
+        <v>9675</v>
       </c>
       <c r="E151" t="n">
-        <v>9785</v>
+        <v>9675</v>
       </c>
       <c r="F151" t="n">
-        <v>13.19</v>
+        <v>33.5</v>
       </c>
       <c r="G151" t="n">
-        <v>-7.246376811594203</v>
+        <v>4220.821219449996</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
-      </c>
-      <c r="J151" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K151" t="n">
-        <v>9810</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>9745</v>
+        <v>9675</v>
       </c>
       <c r="C152" t="n">
-        <v>9745</v>
+        <v>9675</v>
       </c>
       <c r="D152" t="n">
-        <v>9745</v>
+        <v>9675</v>
       </c>
       <c r="E152" t="n">
-        <v>9745</v>
+        <v>9675</v>
       </c>
       <c r="F152" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G152" t="n">
-        <v>-26.76056338028169</v>
+        <v>4220.821219449996</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
-      </c>
-      <c r="J152" t="n">
-        <v>9785</v>
-      </c>
-      <c r="K152" t="n">
-        <v>9810</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>9795</v>
-      </c>
-      <c r="C153" t="n">
-        <v>9795</v>
-      </c>
-      <c r="D153" t="n">
-        <v>9795</v>
-      </c>
-      <c r="E153" t="n">
-        <v>9795</v>
-      </c>
-      <c r="F153" t="n">
-        <v>14</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-4</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
-      <c r="J153" t="n">
-        <v>9745</v>
-      </c>
-      <c r="K153" t="n">
-        <v>9810</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>9775</v>
-      </c>
-      <c r="C154" t="n">
-        <v>9785</v>
-      </c>
-      <c r="D154" t="n">
-        <v>9785</v>
-      </c>
-      <c r="E154" t="n">
-        <v>9775</v>
-      </c>
-      <c r="F154" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-6.493506493506493</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
-      <c r="J154" t="n">
-        <v>9795</v>
-      </c>
-      <c r="K154" t="n">
-        <v>9810</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>9810</v>
-      </c>
-      <c r="C155" t="n">
-        <v>9890</v>
-      </c>
-      <c r="D155" t="n">
-        <v>9890</v>
-      </c>
-      <c r="E155" t="n">
-        <v>9810</v>
-      </c>
-      <c r="F155" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="G155" t="n">
-        <v>16.3265306122449</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
-      <c r="J155" t="n">
-        <v>9785</v>
-      </c>
-      <c r="K155" t="n">
-        <v>9810</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>9885</v>
-      </c>
-      <c r="C156" t="n">
-        <v>9895</v>
-      </c>
-      <c r="D156" t="n">
-        <v>9895</v>
-      </c>
-      <c r="E156" t="n">
-        <v>9885</v>
-      </c>
-      <c r="F156" t="n">
-        <v>157.74</v>
-      </c>
-      <c r="G156" t="n">
-        <v>36.47058823529412</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
-      <c r="J156" t="n">
-        <v>9890</v>
-      </c>
-      <c r="K156" t="n">
-        <v>9810</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>9895</v>
-      </c>
-      <c r="C157" t="n">
-        <v>9930</v>
-      </c>
-      <c r="D157" t="n">
-        <v>9930</v>
-      </c>
-      <c r="E157" t="n">
-        <v>9895</v>
-      </c>
-      <c r="F157" t="n">
-        <v>40.5902</v>
-      </c>
-      <c r="G157" t="n">
-        <v>34.14634146341464</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
-      <c r="J157" t="n">
-        <v>9895</v>
-      </c>
-      <c r="K157" t="n">
-        <v>9810</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>9840</v>
-      </c>
-      <c r="C158" t="n">
-        <v>9840</v>
-      </c>
-      <c r="D158" t="n">
-        <v>9840</v>
-      </c>
-      <c r="E158" t="n">
-        <v>9840</v>
-      </c>
-      <c r="F158" t="n">
-        <v>83.3954</v>
-      </c>
-      <c r="G158" t="n">
-        <v>26.4367816091954</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
-      <c r="J158" t="n">
-        <v>9930</v>
-      </c>
-      <c r="K158" t="n">
-        <v>9810</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>0.9980581039755351</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>9710</v>
-      </c>
-      <c r="C159" t="n">
-        <v>9710</v>
-      </c>
-      <c r="D159" t="n">
-        <v>9710</v>
-      </c>
-      <c r="E159" t="n">
-        <v>9710</v>
-      </c>
-      <c r="F159" t="n">
-        <v>9.7081</v>
-      </c>
-      <c r="G159" t="n">
-        <v>0.9174311926605505</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
-      <c r="J159" t="n">
-        <v>9840</v>
-      </c>
-      <c r="K159" t="n">
-        <v>9930</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>9715</v>
-      </c>
-      <c r="C160" t="n">
-        <v>9705</v>
-      </c>
-      <c r="D160" t="n">
-        <v>9715</v>
-      </c>
-      <c r="E160" t="n">
-        <v>9705</v>
-      </c>
-      <c r="F160" t="n">
-        <v>364.1607</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-17.02127659574468</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
-      <c r="J160" t="n">
-        <v>9710</v>
-      </c>
-      <c r="K160" t="n">
-        <v>9930</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C161" t="n">
-        <v>9705</v>
-      </c>
-      <c r="D161" t="n">
-        <v>9705</v>
-      </c>
-      <c r="E161" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F161" t="n">
-        <v>32.44</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-9.302325581395349</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
-      <c r="J161" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K161" t="n">
-        <v>9930</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>9645</v>
-      </c>
-      <c r="C162" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D162" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E162" t="n">
-        <v>9645</v>
-      </c>
-      <c r="F162" t="n">
-        <v>132.8689</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-24.67532467532467</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
-      <c r="J162" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K162" t="n">
-        <v>9930</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>9630</v>
-      </c>
-      <c r="C163" t="n">
-        <v>9620</v>
-      </c>
-      <c r="D163" t="n">
-        <v>9630</v>
-      </c>
-      <c r="E163" t="n">
-        <v>9620</v>
-      </c>
-      <c r="F163" t="n">
-        <v>370</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-36.26373626373626</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
-      <c r="J163" t="n">
-        <v>9700</v>
-      </c>
-      <c r="K163" t="n">
-        <v>9930</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>9620</v>
-      </c>
-      <c r="C164" t="n">
-        <v>9620</v>
-      </c>
-      <c r="D164" t="n">
-        <v>9620</v>
-      </c>
-      <c r="E164" t="n">
-        <v>9620</v>
-      </c>
-      <c r="F164" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-77.14285714285715</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
-      <c r="J164" t="n">
-        <v>9620</v>
-      </c>
-      <c r="K164" t="n">
-        <v>9930</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>9615</v>
-      </c>
-      <c r="C165" t="n">
-        <v>9615</v>
-      </c>
-      <c r="D165" t="n">
-        <v>9615</v>
-      </c>
-      <c r="E165" t="n">
-        <v>9615</v>
-      </c>
-      <c r="F165" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-80</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
-      <c r="J165" t="n">
-        <v>9620</v>
-      </c>
-      <c r="K165" t="n">
-        <v>9930</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>9615</v>
-      </c>
-      <c r="C166" t="n">
-        <v>9615</v>
-      </c>
-      <c r="D166" t="n">
-        <v>9615</v>
-      </c>
-      <c r="E166" t="n">
-        <v>9615</v>
-      </c>
-      <c r="F166" t="n">
-        <v>59.7469</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-100</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
-      <c r="J166" t="n">
-        <v>9615</v>
-      </c>
-      <c r="K166" t="n">
-        <v>9930</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>9615</v>
-      </c>
-      <c r="C167" t="n">
-        <v>9615</v>
-      </c>
-      <c r="D167" t="n">
-        <v>9615</v>
-      </c>
-      <c r="E167" t="n">
-        <v>9615</v>
-      </c>
-      <c r="F167" t="n">
-        <v>0.9307</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-100</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
-      <c r="J167" t="n">
-        <v>9615</v>
-      </c>
-      <c r="K167" t="n">
-        <v>9930</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>9645</v>
-      </c>
-      <c r="C168" t="n">
-        <v>9620</v>
-      </c>
-      <c r="D168" t="n">
-        <v>9645</v>
-      </c>
-      <c r="E168" t="n">
-        <v>9620</v>
-      </c>
-      <c r="F168" t="n">
-        <v>50</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-90</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
-      <c r="J168" t="n">
-        <v>9615</v>
-      </c>
-      <c r="K168" t="n">
-        <v>9930</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>9640</v>
-      </c>
-      <c r="C169" t="n">
-        <v>9640</v>
-      </c>
-      <c r="D169" t="n">
-        <v>9640</v>
-      </c>
-      <c r="E169" t="n">
-        <v>9640</v>
-      </c>
-      <c r="F169" t="n">
-        <v>44</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-56.52173913043478</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
-      <c r="J169" t="n">
-        <v>9620</v>
-      </c>
-      <c r="K169" t="n">
-        <v>9930</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>9640</v>
-      </c>
-      <c r="C170" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D170" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E170" t="n">
-        <v>9640</v>
-      </c>
-      <c r="F170" t="n">
-        <v>40</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-2.857142857142857</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
-      <c r="J170" t="n">
-        <v>9640</v>
-      </c>
-      <c r="K170" t="n">
-        <v>9930</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>9720</v>
-      </c>
-      <c r="C171" t="n">
-        <v>9720</v>
-      </c>
-      <c r="D171" t="n">
-        <v>9720</v>
-      </c>
-      <c r="E171" t="n">
-        <v>9720</v>
-      </c>
-      <c r="F171" t="n">
-        <v>4.7219</v>
-      </c>
-      <c r="G171" t="n">
-        <v>10.52631578947368</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
-      <c r="J171" t="n">
-        <v>9700</v>
-      </c>
-      <c r="K171" t="n">
-        <v>9930</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>0.9738519637462235</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>9655</v>
-      </c>
-      <c r="C172" t="n">
-        <v>9655</v>
-      </c>
-      <c r="D172" t="n">
-        <v>9655</v>
-      </c>
-      <c r="E172" t="n">
-        <v>9655</v>
-      </c>
-      <c r="F172" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="G172" t="n">
-        <v>20</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
-      <c r="J172" t="n">
-        <v>9720</v>
-      </c>
-      <c r="K172" t="n">
-        <v>9700</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>9655</v>
-      </c>
-      <c r="C173" t="n">
-        <v>9655</v>
-      </c>
-      <c r="D173" t="n">
-        <v>9655</v>
-      </c>
-      <c r="E173" t="n">
-        <v>9655</v>
-      </c>
-      <c r="F173" t="n">
-        <v>346.88</v>
-      </c>
-      <c r="G173" t="n">
-        <v>20</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
-      <c r="J173" t="n">
-        <v>9655</v>
-      </c>
-      <c r="K173" t="n">
-        <v>9700</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>9675</v>
-      </c>
-      <c r="C174" t="n">
-        <v>9635</v>
-      </c>
-      <c r="D174" t="n">
-        <v>9675</v>
-      </c>
-      <c r="E174" t="n">
-        <v>9635</v>
-      </c>
-      <c r="F174" t="n">
-        <v>18.5761</v>
-      </c>
-      <c r="G174" t="n">
-        <v>10.52631578947368</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
-      <c r="J174" t="n">
-        <v>9655</v>
-      </c>
-      <c r="K174" t="n">
-        <v>9700</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>9635</v>
-      </c>
-      <c r="C175" t="n">
-        <v>9630</v>
-      </c>
-      <c r="D175" t="n">
-        <v>9635</v>
-      </c>
-      <c r="E175" t="n">
-        <v>9630</v>
-      </c>
-      <c r="F175" t="n">
-        <v>69.496</v>
-      </c>
-      <c r="G175" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
-      <c r="J175" t="n">
-        <v>9635</v>
-      </c>
-      <c r="K175" t="n">
-        <v>9700</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>9635</v>
-      </c>
-      <c r="C176" t="n">
-        <v>9635</v>
-      </c>
-      <c r="D176" t="n">
-        <v>9635</v>
-      </c>
-      <c r="E176" t="n">
-        <v>9635</v>
-      </c>
-      <c r="F176" t="n">
-        <v>4.9012</v>
-      </c>
-      <c r="G176" t="n">
-        <v>10</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
-      <c r="J176" t="n">
-        <v>9630</v>
-      </c>
-      <c r="K176" t="n">
-        <v>9700</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>9630</v>
-      </c>
-      <c r="C177" t="n">
-        <v>9630</v>
-      </c>
-      <c r="D177" t="n">
-        <v>9630</v>
-      </c>
-      <c r="E177" t="n">
-        <v>9630</v>
-      </c>
-      <c r="F177" t="n">
-        <v>33.6793</v>
-      </c>
-      <c r="G177" t="n">
-        <v>5</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
-      <c r="J177" t="n">
-        <v>9635</v>
-      </c>
-      <c r="K177" t="n">
-        <v>9700</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>9620</v>
-      </c>
-      <c r="C178" t="n">
-        <v>9680</v>
-      </c>
-      <c r="D178" t="n">
-        <v>9680</v>
-      </c>
-      <c r="E178" t="n">
-        <v>9620</v>
-      </c>
-      <c r="F178" t="n">
-        <v>203.4293</v>
-      </c>
-      <c r="G178" t="n">
-        <v>17.39130434782609</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
-      <c r="J178" t="n">
-        <v>9630</v>
-      </c>
-      <c r="K178" t="n">
-        <v>9700</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>9680</v>
-      </c>
-      <c r="C179" t="n">
-        <v>9680</v>
-      </c>
-      <c r="D179" t="n">
-        <v>9680</v>
-      </c>
-      <c r="E179" t="n">
-        <v>9680</v>
-      </c>
-      <c r="F179" t="n">
-        <v>33.0393</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-11.76470588235294</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
-      <c r="J179" t="n">
-        <v>9680</v>
-      </c>
-      <c r="K179" t="n">
-        <v>9700</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>9690</v>
-      </c>
-      <c r="C180" t="n">
-        <v>9690</v>
-      </c>
-      <c r="D180" t="n">
-        <v>9690</v>
-      </c>
-      <c r="E180" t="n">
-        <v>9690</v>
-      </c>
-      <c r="F180" t="n">
-        <v>108.0756</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-18.75</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
-      <c r="J180" t="n">
-        <v>9680</v>
-      </c>
-      <c r="K180" t="n">
-        <v>9700</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>9645</v>
-      </c>
-      <c r="C181" t="n">
-        <v>9645</v>
-      </c>
-      <c r="D181" t="n">
-        <v>9645</v>
-      </c>
-      <c r="E181" t="n">
-        <v>9645</v>
-      </c>
-      <c r="F181" t="n">
-        <v>7.8446</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-7.142857142857142</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
-      <c r="J181" t="n">
-        <v>9690</v>
-      </c>
-      <c r="K181" t="n">
-        <v>9700</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>9640</v>
-      </c>
-      <c r="C182" t="n">
-        <v>9640</v>
-      </c>
-      <c r="D182" t="n">
-        <v>9640</v>
-      </c>
-      <c r="E182" t="n">
-        <v>9640</v>
-      </c>
-      <c r="F182" t="n">
-        <v>18.6525</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-10.3448275862069</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
-      <c r="J182" t="n">
-        <v>9645</v>
-      </c>
-      <c r="K182" t="n">
-        <v>9700</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>9640</v>
-      </c>
-      <c r="C183" t="n">
-        <v>9695</v>
-      </c>
-      <c r="D183" t="n">
-        <v>9695</v>
-      </c>
-      <c r="E183" t="n">
-        <v>9640</v>
-      </c>
-      <c r="F183" t="n">
-        <v>150.8901</v>
-      </c>
-      <c r="G183" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
-      <c r="J183" t="n">
-        <v>9640</v>
-      </c>
-      <c r="K183" t="n">
-        <v>9700</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>9635</v>
-      </c>
-      <c r="C184" t="n">
-        <v>9635</v>
-      </c>
-      <c r="D184" t="n">
-        <v>9635</v>
-      </c>
-      <c r="E184" t="n">
-        <v>9635</v>
-      </c>
-      <c r="F184" t="n">
-        <v>1.0411</v>
-      </c>
-      <c r="G184" t="n">
-        <v>2.127659574468085</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
-      <c r="J184" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K184" t="n">
-        <v>9700</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>9635</v>
-      </c>
-      <c r="C185" t="n">
-        <v>9635</v>
-      </c>
-      <c r="D185" t="n">
-        <v>9635</v>
-      </c>
-      <c r="E185" t="n">
-        <v>9635</v>
-      </c>
-      <c r="F185" t="n">
-        <v>3.9785</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>1</v>
-      </c>
-      <c r="J185" t="n">
-        <v>9635</v>
-      </c>
-      <c r="K185" t="n">
-        <v>9700</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>0.988298969072165</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>9630</v>
-      </c>
-      <c r="C186" t="n">
-        <v>9630</v>
-      </c>
-      <c r="D186" t="n">
-        <v>9630</v>
-      </c>
-      <c r="E186" t="n">
-        <v>9630</v>
-      </c>
-      <c r="F186" t="n">
-        <v>20.0058</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>1</v>
-      </c>
-      <c r="J186" t="n">
-        <v>9635</v>
-      </c>
-      <c r="K186" t="n">
-        <v>9695</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>9630</v>
-      </c>
-      <c r="C187" t="n">
-        <v>9675</v>
-      </c>
-      <c r="D187" t="n">
-        <v>9675</v>
-      </c>
-      <c r="E187" t="n">
-        <v>9630</v>
-      </c>
-      <c r="F187" t="n">
-        <v>49.4141</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-2.222222222222222</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
-      <c r="J187" t="n">
-        <v>9630</v>
-      </c>
-      <c r="K187" t="n">
-        <v>9695</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>9660</v>
-      </c>
-      <c r="C188" t="n">
-        <v>9670</v>
-      </c>
-      <c r="D188" t="n">
-        <v>9670</v>
-      </c>
-      <c r="E188" t="n">
-        <v>9660</v>
-      </c>
-      <c r="F188" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-4.347826086956522</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
-      <c r="J188" t="n">
-        <v>9675</v>
-      </c>
-      <c r="K188" t="n">
-        <v>9695</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>9670</v>
-      </c>
-      <c r="C189" t="n">
-        <v>9680</v>
-      </c>
-      <c r="D189" t="n">
-        <v>9680</v>
-      </c>
-      <c r="E189" t="n">
-        <v>9670</v>
-      </c>
-      <c r="F189" t="n">
-        <v>39</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-4.347826086956522</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>1</v>
-      </c>
-      <c r="J189" t="n">
-        <v>9670</v>
-      </c>
-      <c r="K189" t="n">
-        <v>9695</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>9620</v>
-      </c>
-      <c r="C190" t="n">
-        <v>9600</v>
-      </c>
-      <c r="D190" t="n">
-        <v>9620</v>
-      </c>
-      <c r="E190" t="n">
-        <v>9600</v>
-      </c>
-      <c r="F190" t="n">
-        <v>79.0686</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-16.9811320754717</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>1</v>
-      </c>
-      <c r="J190" t="n">
-        <v>9680</v>
-      </c>
-      <c r="K190" t="n">
-        <v>9695</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>9680</v>
-      </c>
-      <c r="C191" t="n">
-        <v>9680</v>
-      </c>
-      <c r="D191" t="n">
-        <v>9680</v>
-      </c>
-      <c r="E191" t="n">
-        <v>9680</v>
-      </c>
-      <c r="F191" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="G191" t="n">
-        <v>11.76470588235294</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1</v>
-      </c>
-      <c r="J191" t="n">
-        <v>9600</v>
-      </c>
-      <c r="K191" t="n">
-        <v>9695</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>9670</v>
-      </c>
-      <c r="C192" t="n">
-        <v>9675</v>
-      </c>
-      <c r="D192" t="n">
-        <v>9675</v>
-      </c>
-      <c r="E192" t="n">
-        <v>9670</v>
-      </c>
-      <c r="F192" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-6.896551724137931</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>1</v>
-      </c>
-      <c r="J192" t="n">
-        <v>9680</v>
-      </c>
-      <c r="K192" t="n">
-        <v>9695</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>9675</v>
-      </c>
-      <c r="C193" t="n">
-        <v>9675</v>
-      </c>
-      <c r="D193" t="n">
-        <v>9675</v>
-      </c>
-      <c r="E193" t="n">
-        <v>9675</v>
-      </c>
-      <c r="F193" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="G193" t="n">
-        <v>17.39130434782609</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>1</v>
-      </c>
-      <c r="J193" t="n">
-        <v>9675</v>
-      </c>
-      <c r="K193" t="n">
-        <v>9695</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>9675</v>
-      </c>
-      <c r="C194" t="n">
-        <v>9675</v>
-      </c>
-      <c r="D194" t="n">
-        <v>9675</v>
-      </c>
-      <c r="E194" t="n">
-        <v>9675</v>
-      </c>
-      <c r="F194" t="n">
-        <v>29</v>
-      </c>
-      <c r="G194" t="n">
-        <v>17.39130434782609</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>1</v>
-      </c>
-      <c r="J194" t="n">
-        <v>9675</v>
-      </c>
-      <c r="K194" t="n">
-        <v>9695</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
+      <c r="N152" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-16 BackTest BTG.xlsx
+++ b/BackTest/2019-10-16 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N152"/>
+  <dimension ref="A1:N223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9430</v>
+        <v>9510</v>
       </c>
       <c r="C2" t="n">
-        <v>9430</v>
+        <v>9520</v>
       </c>
       <c r="D2" t="n">
-        <v>9430</v>
+        <v>9520</v>
       </c>
       <c r="E2" t="n">
-        <v>9430</v>
+        <v>9510</v>
       </c>
       <c r="F2" t="n">
-        <v>4.2019</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>2685.48287791</v>
+        <v>1290.17847791</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9425</v>
+        <v>9520</v>
       </c>
       <c r="C3" t="n">
-        <v>9425</v>
+        <v>9525</v>
       </c>
       <c r="D3" t="n">
-        <v>9425</v>
+        <v>9525</v>
       </c>
       <c r="E3" t="n">
-        <v>9425</v>
+        <v>9520</v>
       </c>
       <c r="F3" t="n">
-        <v>16.7987</v>
+        <v>41.5</v>
       </c>
       <c r="G3" t="n">
-        <v>2668.68417791</v>
+        <v>1331.67847791</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -498,12 +498,14 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9430</v>
-      </c>
-      <c r="K3" t="n">
-        <v>9430</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
+        <v>9520</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -514,22 +516,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9455</v>
+        <v>9525</v>
       </c>
       <c r="C4" t="n">
-        <v>9415</v>
+        <v>9485</v>
       </c>
       <c r="D4" t="n">
-        <v>9455</v>
+        <v>9525</v>
       </c>
       <c r="E4" t="n">
-        <v>9415</v>
+        <v>9485</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3231</v>
+        <v>34.9164</v>
       </c>
       <c r="G4" t="n">
-        <v>2668.36107791</v>
+        <v>1296.76207791</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -538,14 +540,12 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>9425</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9430</v>
-      </c>
+        <v>9525</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -558,22 +558,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9410</v>
+        <v>9525</v>
       </c>
       <c r="C5" t="n">
-        <v>9465</v>
+        <v>9525</v>
       </c>
       <c r="D5" t="n">
-        <v>9465</v>
+        <v>9525</v>
       </c>
       <c r="E5" t="n">
-        <v>9400</v>
+        <v>9525</v>
       </c>
       <c r="F5" t="n">
-        <v>214.4752</v>
+        <v>4.2939</v>
       </c>
       <c r="G5" t="n">
-        <v>2882.83627791</v>
+        <v>1301.05597791</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -582,11 +582,9 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>9415</v>
-      </c>
-      <c r="K5" t="n">
-        <v>9430</v>
-      </c>
+        <v>9485</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -602,22 +600,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9400</v>
+        <v>9525</v>
       </c>
       <c r="C6" t="n">
-        <v>9400</v>
+        <v>9525</v>
       </c>
       <c r="D6" t="n">
-        <v>9400</v>
+        <v>9525</v>
       </c>
       <c r="E6" t="n">
-        <v>9400</v>
+        <v>9525</v>
       </c>
       <c r="F6" t="n">
-        <v>27.8</v>
+        <v>6.38</v>
       </c>
       <c r="G6" t="n">
-        <v>2855.03627791</v>
+        <v>1301.05597791</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -626,11 +624,9 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>9465</v>
-      </c>
-      <c r="K6" t="n">
-        <v>9430</v>
-      </c>
+        <v>9525</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -646,22 +642,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9400</v>
+        <v>9525</v>
       </c>
       <c r="C7" t="n">
-        <v>9480</v>
+        <v>9530</v>
       </c>
       <c r="D7" t="n">
-        <v>9480</v>
+        <v>9530</v>
       </c>
       <c r="E7" t="n">
-        <v>9400</v>
+        <v>9525</v>
       </c>
       <c r="F7" t="n">
-        <v>611.9446</v>
+        <v>34</v>
       </c>
       <c r="G7" t="n">
-        <v>3466.980877909999</v>
+        <v>1335.05597791</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -670,11 +666,9 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>9400</v>
-      </c>
-      <c r="K7" t="n">
-        <v>9430</v>
-      </c>
+        <v>9525</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -690,22 +684,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9480</v>
+        <v>9530</v>
       </c>
       <c r="C8" t="n">
-        <v>9500</v>
+        <v>9530</v>
       </c>
       <c r="D8" t="n">
-        <v>9500</v>
+        <v>9530</v>
       </c>
       <c r="E8" t="n">
-        <v>9480</v>
+        <v>9530</v>
       </c>
       <c r="F8" t="n">
-        <v>1.3258</v>
+        <v>33</v>
       </c>
       <c r="G8" t="n">
-        <v>3468.30667791</v>
+        <v>1335.05597791</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -714,11 +708,9 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>9480</v>
-      </c>
-      <c r="K8" t="n">
-        <v>9430</v>
-      </c>
+        <v>9530</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -734,33 +726,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9510</v>
+        <v>9530</v>
       </c>
       <c r="C9" t="n">
-        <v>9510</v>
+        <v>9545</v>
       </c>
       <c r="D9" t="n">
-        <v>9510</v>
+        <v>9545</v>
       </c>
       <c r="E9" t="n">
-        <v>9510</v>
+        <v>9530</v>
       </c>
       <c r="F9" t="n">
-        <v>6.49</v>
+        <v>29.5</v>
       </c>
       <c r="G9" t="n">
-        <v>3474.796677909999</v>
+        <v>1364.55597791</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>9430</v>
-      </c>
+      <c r="J9" t="n">
+        <v>9530</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -776,22 +768,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9510</v>
+        <v>9495</v>
       </c>
       <c r="C10" t="n">
-        <v>9510</v>
+        <v>9495</v>
       </c>
       <c r="D10" t="n">
-        <v>9510</v>
+        <v>9495</v>
       </c>
       <c r="E10" t="n">
-        <v>9510</v>
+        <v>9495</v>
       </c>
       <c r="F10" t="n">
-        <v>6.22</v>
+        <v>0.1076</v>
       </c>
       <c r="G10" t="n">
-        <v>3474.796677909999</v>
+        <v>1364.44837791</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -800,9 +792,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -818,33 +808,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9525</v>
+        <v>9550</v>
       </c>
       <c r="C11" t="n">
-        <v>9525</v>
+        <v>9550</v>
       </c>
       <c r="D11" t="n">
-        <v>9525</v>
+        <v>9550</v>
       </c>
       <c r="E11" t="n">
-        <v>9525</v>
+        <v>9550</v>
       </c>
       <c r="F11" t="n">
-        <v>6.39</v>
+        <v>6.83</v>
       </c>
       <c r="G11" t="n">
-        <v>3481.186677909999</v>
+        <v>1371.27837791</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>9430</v>
-      </c>
+      <c r="J11" t="n">
+        <v>9495</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -860,22 +850,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9525</v>
+        <v>9495</v>
       </c>
       <c r="C12" t="n">
-        <v>9525</v>
+        <v>9495</v>
       </c>
       <c r="D12" t="n">
-        <v>9525</v>
+        <v>9495</v>
       </c>
       <c r="E12" t="n">
-        <v>9525</v>
+        <v>9495</v>
       </c>
       <c r="F12" t="n">
-        <v>6.2</v>
+        <v>21.9308</v>
       </c>
       <c r="G12" t="n">
-        <v>3481.186677909999</v>
+        <v>1349.347577909999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -884,9 +874,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -902,22 +890,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9500</v>
+        <v>9495</v>
       </c>
       <c r="C13" t="n">
-        <v>9500</v>
+        <v>9495</v>
       </c>
       <c r="D13" t="n">
-        <v>9500</v>
+        <v>9495</v>
       </c>
       <c r="E13" t="n">
-        <v>9500</v>
+        <v>9495</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>3479.186677909999</v>
+        <v>1349.347577909999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -926,9 +914,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -944,22 +930,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9490</v>
+        <v>9495</v>
       </c>
       <c r="C14" t="n">
-        <v>9500</v>
+        <v>9495</v>
       </c>
       <c r="D14" t="n">
-        <v>9500</v>
+        <v>9495</v>
       </c>
       <c r="E14" t="n">
-        <v>9490</v>
+        <v>9495</v>
       </c>
       <c r="F14" t="n">
-        <v>11</v>
+        <v>9.3888</v>
       </c>
       <c r="G14" t="n">
-        <v>3479.186677909999</v>
+        <v>1349.347577909999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -968,9 +954,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -986,22 +970,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9490</v>
+        <v>9500</v>
       </c>
       <c r="C15" t="n">
-        <v>9490</v>
+        <v>9545</v>
       </c>
       <c r="D15" t="n">
-        <v>9490</v>
+        <v>9545</v>
       </c>
       <c r="E15" t="n">
-        <v>9490</v>
+        <v>9500</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>64.6554</v>
       </c>
       <c r="G15" t="n">
-        <v>3469.186677909999</v>
+        <v>1414.00297791</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1010,9 +994,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1028,22 +1010,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9490</v>
+        <v>9485</v>
       </c>
       <c r="C16" t="n">
-        <v>9490</v>
+        <v>9485</v>
       </c>
       <c r="D16" t="n">
-        <v>9490</v>
+        <v>9485</v>
       </c>
       <c r="E16" t="n">
-        <v>9490</v>
+        <v>9485</v>
       </c>
       <c r="F16" t="n">
-        <v>42</v>
+        <v>3.4575</v>
       </c>
       <c r="G16" t="n">
-        <v>3469.186677909999</v>
+        <v>1410.54547791</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1052,9 +1034,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1070,22 +1050,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9490</v>
+        <v>9485</v>
       </c>
       <c r="C17" t="n">
-        <v>9500</v>
+        <v>9485</v>
       </c>
       <c r="D17" t="n">
-        <v>9500</v>
+        <v>9485</v>
       </c>
       <c r="E17" t="n">
-        <v>9490</v>
+        <v>9485</v>
       </c>
       <c r="F17" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>3503.186677909999</v>
+        <v>1410.54547791</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1094,9 +1074,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1112,22 +1090,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9500</v>
+        <v>9480</v>
       </c>
       <c r="C18" t="n">
-        <v>9500</v>
+        <v>9480</v>
       </c>
       <c r="D18" t="n">
-        <v>9500</v>
+        <v>9480</v>
       </c>
       <c r="E18" t="n">
-        <v>9500</v>
+        <v>9480</v>
       </c>
       <c r="F18" t="n">
-        <v>32</v>
+        <v>17.6289</v>
       </c>
       <c r="G18" t="n">
-        <v>3503.186677909999</v>
+        <v>1392.91657791</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1136,9 +1114,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1154,22 +1130,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9500</v>
+        <v>9525</v>
       </c>
       <c r="C19" t="n">
-        <v>9500</v>
+        <v>9535</v>
       </c>
       <c r="D19" t="n">
-        <v>9500</v>
+        <v>9535</v>
       </c>
       <c r="E19" t="n">
-        <v>9500</v>
+        <v>9525</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>68.5</v>
       </c>
       <c r="G19" t="n">
-        <v>3503.186677909999</v>
+        <v>1461.41657791</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1178,9 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1196,22 +1170,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9500</v>
+        <v>9535</v>
       </c>
       <c r="C20" t="n">
-        <v>9520</v>
+        <v>9545</v>
       </c>
       <c r="D20" t="n">
-        <v>9520</v>
+        <v>9545</v>
       </c>
       <c r="E20" t="n">
-        <v>9500</v>
+        <v>9535</v>
       </c>
       <c r="F20" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G20" t="n">
-        <v>3543.186677909999</v>
+        <v>1497.41657791</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1220,9 +1194,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1238,22 +1210,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9520</v>
+        <v>9545</v>
       </c>
       <c r="C21" t="n">
-        <v>9520</v>
+        <v>9545</v>
       </c>
       <c r="D21" t="n">
-        <v>9520</v>
+        <v>9545</v>
       </c>
       <c r="E21" t="n">
-        <v>9520</v>
+        <v>9545</v>
       </c>
       <c r="F21" t="n">
-        <v>6.52</v>
+        <v>30.5</v>
       </c>
       <c r="G21" t="n">
-        <v>3543.186677909999</v>
+        <v>1497.41657791</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1262,9 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1280,22 +1250,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9520</v>
+        <v>9485</v>
       </c>
       <c r="C22" t="n">
-        <v>9545</v>
+        <v>9450</v>
       </c>
       <c r="D22" t="n">
-        <v>9545</v>
+        <v>9485</v>
       </c>
       <c r="E22" t="n">
-        <v>9520</v>
+        <v>9450</v>
       </c>
       <c r="F22" t="n">
-        <v>186</v>
+        <v>369</v>
       </c>
       <c r="G22" t="n">
-        <v>3729.186677909999</v>
+        <v>1128.41657791</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1304,9 +1274,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1322,22 +1290,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9545</v>
+        <v>9535</v>
       </c>
       <c r="C23" t="n">
-        <v>9545</v>
+        <v>9535</v>
       </c>
       <c r="D23" t="n">
-        <v>9545</v>
+        <v>9535</v>
       </c>
       <c r="E23" t="n">
-        <v>9545</v>
+        <v>9535</v>
       </c>
       <c r="F23" t="n">
-        <v>6.41</v>
+        <v>12</v>
       </c>
       <c r="G23" t="n">
-        <v>3729.186677909999</v>
+        <v>1140.41657791</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1346,9 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1364,7 +1330,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9545</v>
+        <v>9535</v>
       </c>
       <c r="C24" t="n">
         <v>9545</v>
@@ -1373,13 +1339,13 @@
         <v>9545</v>
       </c>
       <c r="E24" t="n">
-        <v>9545</v>
+        <v>9530</v>
       </c>
       <c r="F24" t="n">
-        <v>6.34</v>
+        <v>37.5</v>
       </c>
       <c r="G24" t="n">
-        <v>3729.186677909999</v>
+        <v>1177.91657791</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1388,9 +1354,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1409,19 +1373,19 @@
         <v>9545</v>
       </c>
       <c r="C25" t="n">
-        <v>9545</v>
+        <v>9550</v>
       </c>
       <c r="D25" t="n">
-        <v>9545</v>
+        <v>9550</v>
       </c>
       <c r="E25" t="n">
         <v>9545</v>
       </c>
       <c r="F25" t="n">
-        <v>13.97</v>
+        <v>71.5</v>
       </c>
       <c r="G25" t="n">
-        <v>3729.186677909999</v>
+        <v>1249.41657791</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1430,9 +1394,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1451,19 +1413,19 @@
         <v>9540</v>
       </c>
       <c r="C26" t="n">
-        <v>9540</v>
+        <v>9550</v>
       </c>
       <c r="D26" t="n">
-        <v>9540</v>
+        <v>9550</v>
       </c>
       <c r="E26" t="n">
         <v>9540</v>
       </c>
       <c r="F26" t="n">
-        <v>13.24</v>
+        <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>3715.946677909999</v>
+        <v>1249.41657791</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1472,9 +1434,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1493,19 +1453,19 @@
         <v>9540</v>
       </c>
       <c r="C27" t="n">
-        <v>9540</v>
+        <v>9520</v>
       </c>
       <c r="D27" t="n">
         <v>9540</v>
       </c>
       <c r="E27" t="n">
-        <v>9540</v>
+        <v>9520</v>
       </c>
       <c r="F27" t="n">
-        <v>6.27</v>
+        <v>4</v>
       </c>
       <c r="G27" t="n">
-        <v>3715.946677909999</v>
+        <v>1245.41657791</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1514,9 +1474,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1532,22 +1490,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9540</v>
+        <v>9550</v>
       </c>
       <c r="C28" t="n">
-        <v>9540</v>
+        <v>9520</v>
       </c>
       <c r="D28" t="n">
-        <v>9540</v>
+        <v>9550</v>
       </c>
       <c r="E28" t="n">
-        <v>9540</v>
+        <v>9520</v>
       </c>
       <c r="F28" t="n">
-        <v>6.64</v>
+        <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>3715.946677909999</v>
+        <v>1245.41657791</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1556,9 +1514,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1574,22 +1530,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9545</v>
+        <v>9540</v>
       </c>
       <c r="C29" t="n">
-        <v>9545</v>
+        <v>9540</v>
       </c>
       <c r="D29" t="n">
-        <v>9545</v>
+        <v>9540</v>
       </c>
       <c r="E29" t="n">
-        <v>9545</v>
+        <v>9540</v>
       </c>
       <c r="F29" t="n">
-        <v>3.31</v>
+        <v>28</v>
       </c>
       <c r="G29" t="n">
-        <v>3719.256677909999</v>
+        <v>1273.41657791</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1598,9 +1554,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1616,22 +1570,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9545</v>
+        <v>9540</v>
       </c>
       <c r="C30" t="n">
-        <v>9545</v>
+        <v>9550</v>
       </c>
       <c r="D30" t="n">
-        <v>9545</v>
+        <v>9550</v>
       </c>
       <c r="E30" t="n">
-        <v>9545</v>
+        <v>9540</v>
       </c>
       <c r="F30" t="n">
-        <v>70.02679999999999</v>
+        <v>26</v>
       </c>
       <c r="G30" t="n">
-        <v>3719.256677909999</v>
+        <v>1299.41657791</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1640,9 +1594,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1658,7 +1610,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9545</v>
+        <v>9550</v>
       </c>
       <c r="C31" t="n">
         <v>9550</v>
@@ -1667,13 +1619,13 @@
         <v>9550</v>
       </c>
       <c r="E31" t="n">
-        <v>9545</v>
+        <v>9550</v>
       </c>
       <c r="F31" t="n">
-        <v>62</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>3781.256677909999</v>
+        <v>1299.41657791</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1682,9 +1634,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1712,10 +1662,10 @@
         <v>9550</v>
       </c>
       <c r="F32" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G32" t="n">
-        <v>3781.256677909999</v>
+        <v>1299.41657791</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1724,9 +1674,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1754,10 +1702,10 @@
         <v>9550</v>
       </c>
       <c r="F33" t="n">
-        <v>103.5</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>3781.256677909999</v>
+        <v>1299.41657791</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1766,9 +1714,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1784,7 +1730,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9550</v>
+        <v>9500</v>
       </c>
       <c r="C34" t="n">
         <v>9550</v>
@@ -1793,13 +1739,13 @@
         <v>9550</v>
       </c>
       <c r="E34" t="n">
-        <v>9550</v>
+        <v>9500</v>
       </c>
       <c r="F34" t="n">
-        <v>34.5</v>
+        <v>22.7494</v>
       </c>
       <c r="G34" t="n">
-        <v>3781.256677909999</v>
+        <v>1299.41657791</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1808,9 +1754,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1838,10 +1782,10 @@
         <v>9550</v>
       </c>
       <c r="F35" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="G35" t="n">
-        <v>3781.256677909999</v>
+        <v>1299.41657791</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1850,9 +1794,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1871,19 +1813,19 @@
         <v>9550</v>
       </c>
       <c r="C36" t="n">
-        <v>9550</v>
+        <v>9535</v>
       </c>
       <c r="D36" t="n">
-        <v>9550</v>
+        <v>9580</v>
       </c>
       <c r="E36" t="n">
-        <v>9550</v>
+        <v>9535</v>
       </c>
       <c r="F36" t="n">
-        <v>62</v>
+        <v>199.4047</v>
       </c>
       <c r="G36" t="n">
-        <v>3781.256677909999</v>
+        <v>1100.01187791</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1892,9 +1834,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1910,22 +1850,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="C37" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="D37" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="E37" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="F37" t="n">
-        <v>42</v>
+        <v>50.2011</v>
       </c>
       <c r="G37" t="n">
-        <v>3781.256677909999</v>
+        <v>1049.81077791</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1934,9 +1874,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1952,22 +1890,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9550</v>
+        <v>9535</v>
       </c>
       <c r="C38" t="n">
-        <v>9550</v>
+        <v>9560</v>
       </c>
       <c r="D38" t="n">
-        <v>9550</v>
+        <v>9560</v>
       </c>
       <c r="E38" t="n">
-        <v>9550</v>
+        <v>9535</v>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>31.5</v>
       </c>
       <c r="G38" t="n">
-        <v>3781.256677909999</v>
+        <v>1081.31077791</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1976,9 +1914,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1994,22 +1930,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9540</v>
+        <v>9510</v>
       </c>
       <c r="C39" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="D39" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="E39" t="n">
-        <v>9540</v>
+        <v>9510</v>
       </c>
       <c r="F39" t="n">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="G39" t="n">
-        <v>3781.256677909999</v>
+        <v>1077.31077791</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2018,9 +1954,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2036,22 +1970,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="C40" t="n">
-        <v>9550</v>
+        <v>9500</v>
       </c>
       <c r="D40" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="E40" t="n">
-        <v>9550</v>
+        <v>9500</v>
       </c>
       <c r="F40" t="n">
-        <v>32</v>
+        <v>245.9735</v>
       </c>
       <c r="G40" t="n">
-        <v>3781.256677909999</v>
+        <v>831.3372779099996</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2060,9 +1994,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2078,7 +2010,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9550</v>
+        <v>9545</v>
       </c>
       <c r="C41" t="n">
         <v>9550</v>
@@ -2087,13 +2019,13 @@
         <v>9550</v>
       </c>
       <c r="E41" t="n">
-        <v>9550</v>
+        <v>9545</v>
       </c>
       <c r="F41" t="n">
-        <v>33</v>
+        <v>6.29</v>
       </c>
       <c r="G41" t="n">
-        <v>3781.256677909999</v>
+        <v>837.6272779099995</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2102,9 +2034,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2132,10 +2062,10 @@
         <v>9550</v>
       </c>
       <c r="F42" t="n">
-        <v>131</v>
+        <v>9.6342</v>
       </c>
       <c r="G42" t="n">
-        <v>3781.256677909999</v>
+        <v>837.6272779099995</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2144,9 +2074,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2162,22 +2090,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9550</v>
+        <v>9505</v>
       </c>
       <c r="C43" t="n">
-        <v>9550</v>
+        <v>9505</v>
       </c>
       <c r="D43" t="n">
-        <v>9550</v>
+        <v>9505</v>
       </c>
       <c r="E43" t="n">
-        <v>9550</v>
+        <v>9505</v>
       </c>
       <c r="F43" t="n">
-        <v>67.92400000000001</v>
+        <v>23.4681</v>
       </c>
       <c r="G43" t="n">
-        <v>3781.256677909999</v>
+        <v>814.1591779099995</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2186,9 +2114,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2204,22 +2130,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9550</v>
+        <v>9505</v>
       </c>
       <c r="C44" t="n">
-        <v>9585</v>
+        <v>9550</v>
       </c>
       <c r="D44" t="n">
-        <v>9585</v>
+        <v>9550</v>
       </c>
       <c r="E44" t="n">
-        <v>9550</v>
+        <v>9505</v>
       </c>
       <c r="F44" t="n">
-        <v>34.5</v>
+        <v>75.1276</v>
       </c>
       <c r="G44" t="n">
-        <v>3815.756677909999</v>
+        <v>889.2867779099995</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2228,9 +2154,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2246,22 +2170,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9580</v>
+        <v>9505</v>
       </c>
       <c r="C45" t="n">
-        <v>9580</v>
+        <v>9500</v>
       </c>
       <c r="D45" t="n">
-        <v>9580</v>
+        <v>9505</v>
       </c>
       <c r="E45" t="n">
-        <v>9580</v>
+        <v>9500</v>
       </c>
       <c r="F45" t="n">
-        <v>3.6073</v>
+        <v>31.0912</v>
       </c>
       <c r="G45" t="n">
-        <v>3812.149377909999</v>
+        <v>858.1955779099995</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2270,9 +2194,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2288,22 +2210,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9590</v>
+        <v>9500</v>
       </c>
       <c r="C46" t="n">
-        <v>9590</v>
+        <v>9500</v>
       </c>
       <c r="D46" t="n">
-        <v>9590</v>
+        <v>9500</v>
       </c>
       <c r="E46" t="n">
-        <v>9590</v>
+        <v>9500</v>
       </c>
       <c r="F46" t="n">
-        <v>32</v>
+        <v>0.9088000000000001</v>
       </c>
       <c r="G46" t="n">
-        <v>3844.149377909999</v>
+        <v>858.1955779099995</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2312,9 +2234,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2330,22 +2250,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9590</v>
+        <v>9495</v>
       </c>
       <c r="C47" t="n">
-        <v>9590</v>
+        <v>9550</v>
       </c>
       <c r="D47" t="n">
-        <v>9590</v>
+        <v>9565</v>
       </c>
       <c r="E47" t="n">
-        <v>9590</v>
+        <v>9480</v>
       </c>
       <c r="F47" t="n">
-        <v>38.5</v>
+        <v>992.0471</v>
       </c>
       <c r="G47" t="n">
-        <v>3844.149377909999</v>
+        <v>1850.24267791</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2354,9 +2274,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2372,22 +2290,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9560</v>
+        <v>9540</v>
       </c>
       <c r="C48" t="n">
-        <v>9560</v>
+        <v>9535</v>
       </c>
       <c r="D48" t="n">
-        <v>9560</v>
+        <v>9540</v>
       </c>
       <c r="E48" t="n">
-        <v>9560</v>
+        <v>9535</v>
       </c>
       <c r="F48" t="n">
-        <v>5</v>
+        <v>32.2283</v>
       </c>
       <c r="G48" t="n">
-        <v>3839.149377909999</v>
+        <v>1818.01437791</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2396,9 +2314,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2414,7 +2330,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9560</v>
+        <v>9480</v>
       </c>
       <c r="C49" t="n">
         <v>9560</v>
@@ -2423,13 +2339,13 @@
         <v>9560</v>
       </c>
       <c r="E49" t="n">
-        <v>9560</v>
+        <v>9480</v>
       </c>
       <c r="F49" t="n">
-        <v>11.7954</v>
+        <v>871.4606</v>
       </c>
       <c r="G49" t="n">
-        <v>3839.149377909999</v>
+        <v>2689.47497791</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2438,9 +2354,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2456,22 +2370,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9585</v>
+        <v>9475</v>
       </c>
       <c r="C50" t="n">
-        <v>9590</v>
+        <v>9425</v>
       </c>
       <c r="D50" t="n">
-        <v>9590</v>
+        <v>9475</v>
       </c>
       <c r="E50" t="n">
-        <v>9585</v>
+        <v>9425</v>
       </c>
       <c r="F50" t="n">
-        <v>95</v>
+        <v>114.6687</v>
       </c>
       <c r="G50" t="n">
-        <v>3934.149377909999</v>
+        <v>2574.80627791</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2480,9 +2394,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2498,22 +2410,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9590</v>
+        <v>9460</v>
       </c>
       <c r="C51" t="n">
-        <v>9590</v>
+        <v>9460</v>
       </c>
       <c r="D51" t="n">
-        <v>9590</v>
+        <v>9460</v>
       </c>
       <c r="E51" t="n">
-        <v>9590</v>
+        <v>9460</v>
       </c>
       <c r="F51" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G51" t="n">
-        <v>3934.149377909999</v>
+        <v>2594.80627791</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2522,9 +2434,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2540,22 +2450,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9590</v>
+        <v>9530</v>
       </c>
       <c r="C52" t="n">
-        <v>9600</v>
+        <v>9535</v>
       </c>
       <c r="D52" t="n">
-        <v>9600</v>
+        <v>9535</v>
       </c>
       <c r="E52" t="n">
-        <v>9590</v>
+        <v>9530</v>
       </c>
       <c r="F52" t="n">
-        <v>34</v>
+        <v>11.1779</v>
       </c>
       <c r="G52" t="n">
-        <v>3968.149377909999</v>
+        <v>2605.98417791</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2564,9 +2474,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2582,22 +2490,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9555</v>
+        <v>9535</v>
       </c>
       <c r="C53" t="n">
-        <v>9555</v>
+        <v>9520</v>
       </c>
       <c r="D53" t="n">
-        <v>9555</v>
+        <v>9535</v>
       </c>
       <c r="E53" t="n">
-        <v>9555</v>
+        <v>9520</v>
       </c>
       <c r="F53" t="n">
-        <v>34.6288</v>
+        <v>13.0967</v>
       </c>
       <c r="G53" t="n">
-        <v>3933.520577909999</v>
+        <v>2592.88747791</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2606,9 +2514,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2624,22 +2530,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9595</v>
+        <v>9530</v>
       </c>
       <c r="C54" t="n">
-        <v>9595</v>
+        <v>9535</v>
       </c>
       <c r="D54" t="n">
-        <v>9595</v>
+        <v>9535</v>
       </c>
       <c r="E54" t="n">
-        <v>9595</v>
+        <v>9530</v>
       </c>
       <c r="F54" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="G54" t="n">
-        <v>3939.520577909999</v>
+        <v>2630.88747791</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2648,9 +2554,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2666,22 +2570,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9595</v>
+        <v>9425</v>
       </c>
       <c r="C55" t="n">
-        <v>9595</v>
+        <v>9415</v>
       </c>
       <c r="D55" t="n">
-        <v>9595</v>
+        <v>9425</v>
       </c>
       <c r="E55" t="n">
-        <v>9595</v>
+        <v>9415</v>
       </c>
       <c r="F55" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="G55" t="n">
-        <v>3939.520577909999</v>
+        <v>2580.88747791</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2690,9 +2594,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2708,22 +2610,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9595</v>
+        <v>9510</v>
       </c>
       <c r="C56" t="n">
-        <v>9595</v>
+        <v>9530</v>
       </c>
       <c r="D56" t="n">
-        <v>9595</v>
+        <v>9530</v>
       </c>
       <c r="E56" t="n">
-        <v>9595</v>
+        <v>9510</v>
       </c>
       <c r="F56" t="n">
-        <v>4</v>
+        <v>12.86</v>
       </c>
       <c r="G56" t="n">
-        <v>3939.520577909999</v>
+        <v>2593.74747791</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2732,9 +2634,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2750,22 +2650,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9595</v>
+        <v>9525</v>
       </c>
       <c r="C57" t="n">
-        <v>9600</v>
+        <v>9550</v>
       </c>
       <c r="D57" t="n">
-        <v>9600</v>
+        <v>9550</v>
       </c>
       <c r="E57" t="n">
-        <v>9595</v>
+        <v>9430</v>
       </c>
       <c r="F57" t="n">
-        <v>6</v>
+        <v>536.3916</v>
       </c>
       <c r="G57" t="n">
-        <v>3945.520577909999</v>
+        <v>3130.13907791</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2774,9 +2674,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2792,22 +2690,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9600</v>
+        <v>9490</v>
       </c>
       <c r="C58" t="n">
-        <v>9600</v>
+        <v>9490</v>
       </c>
       <c r="D58" t="n">
-        <v>9600</v>
+        <v>9490</v>
       </c>
       <c r="E58" t="n">
-        <v>9600</v>
+        <v>9490</v>
       </c>
       <c r="F58" t="n">
-        <v>190.3934</v>
+        <v>6</v>
       </c>
       <c r="G58" t="n">
-        <v>3945.520577909999</v>
+        <v>3124.13907791</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2816,9 +2714,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2834,22 +2730,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9570</v>
+        <v>9490</v>
       </c>
       <c r="C59" t="n">
-        <v>9555</v>
+        <v>9540</v>
       </c>
       <c r="D59" t="n">
-        <v>9570</v>
+        <v>9540</v>
       </c>
       <c r="E59" t="n">
-        <v>9555</v>
+        <v>9490</v>
       </c>
       <c r="F59" t="n">
-        <v>190.3934</v>
+        <v>46</v>
       </c>
       <c r="G59" t="n">
-        <v>3755.127177909999</v>
+        <v>3170.13907791</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2858,9 +2754,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2876,22 +2770,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9635</v>
+        <v>9450</v>
       </c>
       <c r="C60" t="n">
-        <v>9635</v>
+        <v>9500</v>
       </c>
       <c r="D60" t="n">
-        <v>9635</v>
+        <v>9500</v>
       </c>
       <c r="E60" t="n">
-        <v>9635</v>
+        <v>9450</v>
       </c>
       <c r="F60" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="G60" t="n">
-        <v>3775.127177909999</v>
+        <v>3114.13907791</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2900,9 +2794,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2918,22 +2810,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9635</v>
+        <v>9450</v>
       </c>
       <c r="C61" t="n">
-        <v>9640</v>
+        <v>9540</v>
       </c>
       <c r="D61" t="n">
-        <v>9640</v>
+        <v>9540</v>
       </c>
       <c r="E61" t="n">
-        <v>9635</v>
+        <v>9450</v>
       </c>
       <c r="F61" t="n">
-        <v>4</v>
+        <v>72.59439999999999</v>
       </c>
       <c r="G61" t="n">
-        <v>3779.127177909999</v>
+        <v>3186.73347791</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2942,9 +2834,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2960,22 +2850,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9640</v>
+        <v>9445</v>
       </c>
       <c r="C62" t="n">
-        <v>9640</v>
+        <v>9530</v>
       </c>
       <c r="D62" t="n">
-        <v>9640</v>
+        <v>9530</v>
       </c>
       <c r="E62" t="n">
-        <v>9640</v>
+        <v>9445</v>
       </c>
       <c r="F62" t="n">
-        <v>22</v>
+        <v>55.6342</v>
       </c>
       <c r="G62" t="n">
-        <v>3779.127177909999</v>
+        <v>3131.09927791</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2984,9 +2874,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3002,22 +2890,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9640</v>
+        <v>9530</v>
       </c>
       <c r="C63" t="n">
-        <v>9640</v>
+        <v>9535</v>
       </c>
       <c r="D63" t="n">
-        <v>9640</v>
+        <v>9535</v>
       </c>
       <c r="E63" t="n">
-        <v>9640</v>
+        <v>9530</v>
       </c>
       <c r="F63" t="n">
-        <v>11.5</v>
+        <v>94.41459999999999</v>
       </c>
       <c r="G63" t="n">
-        <v>3779.127177909999</v>
+        <v>3225.51387791</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3026,9 +2914,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3044,22 +2930,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9640</v>
+        <v>9470</v>
       </c>
       <c r="C64" t="n">
-        <v>9650</v>
+        <v>9470</v>
       </c>
       <c r="D64" t="n">
-        <v>9650</v>
+        <v>9470</v>
       </c>
       <c r="E64" t="n">
-        <v>9640</v>
+        <v>9470</v>
       </c>
       <c r="F64" t="n">
-        <v>0.99899896</v>
+        <v>6</v>
       </c>
       <c r="G64" t="n">
-        <v>3780.126176869999</v>
+        <v>3219.51387791</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3068,9 +2954,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3086,22 +2970,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9650</v>
+        <v>9435</v>
       </c>
       <c r="C65" t="n">
-        <v>9670</v>
+        <v>9435</v>
       </c>
       <c r="D65" t="n">
-        <v>9670</v>
+        <v>9435</v>
       </c>
       <c r="E65" t="n">
-        <v>9650</v>
+        <v>9435</v>
       </c>
       <c r="F65" t="n">
-        <v>103.50315532</v>
+        <v>682</v>
       </c>
       <c r="G65" t="n">
-        <v>3883.629332189999</v>
+        <v>2537.51387791</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3110,9 +2994,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3128,22 +3010,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9625</v>
+        <v>9490</v>
       </c>
       <c r="C66" t="n">
-        <v>9625</v>
+        <v>9540</v>
       </c>
       <c r="D66" t="n">
-        <v>9625</v>
+        <v>9540</v>
       </c>
       <c r="E66" t="n">
-        <v>9625</v>
+        <v>9490</v>
       </c>
       <c r="F66" t="n">
-        <v>4.5253</v>
+        <v>187</v>
       </c>
       <c r="G66" t="n">
-        <v>3879.10403219</v>
+        <v>2724.51387791</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3152,9 +3034,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3170,22 +3050,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9660</v>
+        <v>9540</v>
       </c>
       <c r="C67" t="n">
-        <v>9675</v>
+        <v>9435</v>
       </c>
       <c r="D67" t="n">
-        <v>9675</v>
+        <v>9540</v>
       </c>
       <c r="E67" t="n">
-        <v>9660</v>
+        <v>9435</v>
       </c>
       <c r="F67" t="n">
-        <v>4.99926403</v>
+        <v>15.8651</v>
       </c>
       <c r="G67" t="n">
-        <v>3884.10329622</v>
+        <v>2708.64877791</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3194,9 +3074,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3212,22 +3090,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9665</v>
+        <v>9425</v>
       </c>
       <c r="C68" t="n">
-        <v>9665</v>
+        <v>9425</v>
       </c>
       <c r="D68" t="n">
-        <v>9665</v>
+        <v>9425</v>
       </c>
       <c r="E68" t="n">
-        <v>9665</v>
+        <v>9425</v>
       </c>
       <c r="F68" t="n">
-        <v>62.2009</v>
+        <v>22.3678</v>
       </c>
       <c r="G68" t="n">
-        <v>3821.90239622</v>
+        <v>2686.28097791</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3236,9 +3114,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3254,22 +3130,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9590</v>
+        <v>9420</v>
       </c>
       <c r="C69" t="n">
-        <v>9590</v>
+        <v>9420</v>
       </c>
       <c r="D69" t="n">
-        <v>9590</v>
+        <v>9420</v>
       </c>
       <c r="E69" t="n">
-        <v>9590</v>
+        <v>9420</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>4.8893</v>
       </c>
       <c r="G69" t="n">
-        <v>3820.90239622</v>
+        <v>2681.39167791</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3278,9 +3154,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3296,22 +3170,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9655</v>
+        <v>9420</v>
       </c>
       <c r="C70" t="n">
-        <v>9660</v>
+        <v>9420</v>
       </c>
       <c r="D70" t="n">
-        <v>9660</v>
+        <v>9420</v>
       </c>
       <c r="E70" t="n">
-        <v>9655</v>
+        <v>9420</v>
       </c>
       <c r="F70" t="n">
-        <v>6.22</v>
+        <v>220.1467</v>
       </c>
       <c r="G70" t="n">
-        <v>3827.12239622</v>
+        <v>2681.39167791</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3320,9 +3194,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3338,22 +3210,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9595</v>
+        <v>9480</v>
       </c>
       <c r="C71" t="n">
-        <v>9585</v>
+        <v>9480</v>
       </c>
       <c r="D71" t="n">
-        <v>9595</v>
+        <v>9480</v>
       </c>
       <c r="E71" t="n">
-        <v>9585</v>
+        <v>9480</v>
       </c>
       <c r="F71" t="n">
-        <v>41.9022</v>
+        <v>4.8893</v>
       </c>
       <c r="G71" t="n">
-        <v>3785.22019622</v>
+        <v>2686.28097791</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3362,9 +3234,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3380,22 +3250,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9625</v>
+        <v>9415</v>
       </c>
       <c r="C72" t="n">
-        <v>9700</v>
+        <v>9415</v>
       </c>
       <c r="D72" t="n">
-        <v>9700</v>
+        <v>9415</v>
       </c>
       <c r="E72" t="n">
-        <v>9625</v>
+        <v>9415</v>
       </c>
       <c r="F72" t="n">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="G72" t="n">
-        <v>3854.22019622</v>
+        <v>2681.28097791</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3404,9 +3274,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3422,22 +3290,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9640</v>
+        <v>9430</v>
       </c>
       <c r="C73" t="n">
-        <v>9615</v>
+        <v>9430</v>
       </c>
       <c r="D73" t="n">
-        <v>9685</v>
+        <v>9430</v>
       </c>
       <c r="E73" t="n">
-        <v>9615</v>
+        <v>9430</v>
       </c>
       <c r="F73" t="n">
-        <v>184.4201</v>
+        <v>4.2019</v>
       </c>
       <c r="G73" t="n">
-        <v>3669.80009622</v>
+        <v>2685.48287791</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3446,9 +3314,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3464,22 +3330,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9690</v>
+        <v>9425</v>
       </c>
       <c r="C74" t="n">
-        <v>9790</v>
+        <v>9425</v>
       </c>
       <c r="D74" t="n">
-        <v>9790</v>
+        <v>9425</v>
       </c>
       <c r="E74" t="n">
-        <v>9690</v>
+        <v>9425</v>
       </c>
       <c r="F74" t="n">
-        <v>414.98</v>
+        <v>16.7987</v>
       </c>
       <c r="G74" t="n">
-        <v>4084.78009622</v>
+        <v>2668.68417791</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3488,9 +3354,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3506,22 +3370,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9725</v>
+        <v>9455</v>
       </c>
       <c r="C75" t="n">
-        <v>9800</v>
+        <v>9415</v>
       </c>
       <c r="D75" t="n">
-        <v>9800</v>
+        <v>9455</v>
       </c>
       <c r="E75" t="n">
-        <v>9725</v>
+        <v>9415</v>
       </c>
       <c r="F75" t="n">
-        <v>85.6605</v>
+        <v>0.3231</v>
       </c>
       <c r="G75" t="n">
-        <v>4170.44059622</v>
+        <v>2668.36107791</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3530,9 +3394,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3548,22 +3410,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9830</v>
+        <v>9410</v>
       </c>
       <c r="C76" t="n">
-        <v>9835</v>
+        <v>9465</v>
       </c>
       <c r="D76" t="n">
-        <v>9835</v>
+        <v>9465</v>
       </c>
       <c r="E76" t="n">
-        <v>9830</v>
+        <v>9400</v>
       </c>
       <c r="F76" t="n">
-        <v>90.54142323000001</v>
+        <v>214.4752</v>
       </c>
       <c r="G76" t="n">
-        <v>4260.98201945</v>
+        <v>2882.83627791</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3572,9 +3434,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3590,22 +3450,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9745</v>
+        <v>9400</v>
       </c>
       <c r="C77" t="n">
-        <v>9745</v>
+        <v>9400</v>
       </c>
       <c r="D77" t="n">
-        <v>9745</v>
+        <v>9400</v>
       </c>
       <c r="E77" t="n">
-        <v>9745</v>
+        <v>9400</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1193</v>
+        <v>27.8</v>
       </c>
       <c r="G77" t="n">
-        <v>4260.86271945</v>
+        <v>2855.03627791</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3614,9 +3474,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3632,22 +3490,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9745</v>
+        <v>9400</v>
       </c>
       <c r="C78" t="n">
-        <v>9895</v>
+        <v>9480</v>
       </c>
       <c r="D78" t="n">
-        <v>9895</v>
+        <v>9480</v>
       </c>
       <c r="E78" t="n">
-        <v>9745</v>
+        <v>9400</v>
       </c>
       <c r="F78" t="n">
-        <v>110.0033</v>
+        <v>611.9446</v>
       </c>
       <c r="G78" t="n">
-        <v>4370.86601945</v>
+        <v>3466.980877909999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3656,9 +3514,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3674,22 +3530,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9895</v>
+        <v>9480</v>
       </c>
       <c r="C79" t="n">
-        <v>9895</v>
+        <v>9500</v>
       </c>
       <c r="D79" t="n">
-        <v>9895</v>
+        <v>9500</v>
       </c>
       <c r="E79" t="n">
-        <v>9810</v>
+        <v>9480</v>
       </c>
       <c r="F79" t="n">
-        <v>62.2084</v>
+        <v>1.3258</v>
       </c>
       <c r="G79" t="n">
-        <v>4370.86601945</v>
+        <v>3468.30667791</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3698,9 +3554,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3716,22 +3570,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9890</v>
+        <v>9510</v>
       </c>
       <c r="C80" t="n">
-        <v>9890</v>
+        <v>9510</v>
       </c>
       <c r="D80" t="n">
-        <v>9890</v>
+        <v>9510</v>
       </c>
       <c r="E80" t="n">
-        <v>9890</v>
+        <v>9510</v>
       </c>
       <c r="F80" t="n">
-        <v>19.4627</v>
+        <v>6.49</v>
       </c>
       <c r="G80" t="n">
-        <v>4351.40331945</v>
+        <v>3474.796677909999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3740,9 +3594,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3758,22 +3610,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9890</v>
+        <v>9510</v>
       </c>
       <c r="C81" t="n">
-        <v>9890</v>
+        <v>9510</v>
       </c>
       <c r="D81" t="n">
-        <v>9890</v>
+        <v>9510</v>
       </c>
       <c r="E81" t="n">
-        <v>9890</v>
+        <v>9510</v>
       </c>
       <c r="F81" t="n">
-        <v>250.8275</v>
+        <v>6.22</v>
       </c>
       <c r="G81" t="n">
-        <v>4351.40331945</v>
+        <v>3474.796677909999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3782,9 +3634,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3800,22 +3650,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9870</v>
+        <v>9525</v>
       </c>
       <c r="C82" t="n">
-        <v>9900</v>
+        <v>9525</v>
       </c>
       <c r="D82" t="n">
-        <v>9900</v>
+        <v>9525</v>
       </c>
       <c r="E82" t="n">
-        <v>9830</v>
+        <v>9525</v>
       </c>
       <c r="F82" t="n">
-        <v>193</v>
+        <v>6.39</v>
       </c>
       <c r="G82" t="n">
-        <v>4544.40331945</v>
+        <v>3481.186677909999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3824,9 +3674,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3842,22 +3690,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9900</v>
+        <v>9525</v>
       </c>
       <c r="C83" t="n">
-        <v>9900</v>
+        <v>9525</v>
       </c>
       <c r="D83" t="n">
-        <v>9900</v>
+        <v>9525</v>
       </c>
       <c r="E83" t="n">
-        <v>9900</v>
+        <v>9525</v>
       </c>
       <c r="F83" t="n">
-        <v>64.96680000000001</v>
+        <v>6.2</v>
       </c>
       <c r="G83" t="n">
-        <v>4544.40331945</v>
+        <v>3481.186677909999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3866,9 +3714,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3884,22 +3730,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9845</v>
+        <v>9500</v>
       </c>
       <c r="C84" t="n">
-        <v>9810</v>
+        <v>9500</v>
       </c>
       <c r="D84" t="n">
-        <v>9845</v>
+        <v>9500</v>
       </c>
       <c r="E84" t="n">
-        <v>9810</v>
+        <v>9500</v>
       </c>
       <c r="F84" t="n">
-        <v>3.9785</v>
+        <v>2</v>
       </c>
       <c r="G84" t="n">
-        <v>4540.42481945</v>
+        <v>3479.186677909999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3908,9 +3754,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3926,22 +3770,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9810</v>
+        <v>9490</v>
       </c>
       <c r="C85" t="n">
-        <v>9805</v>
+        <v>9500</v>
       </c>
       <c r="D85" t="n">
-        <v>9810</v>
+        <v>9500</v>
       </c>
       <c r="E85" t="n">
-        <v>9805</v>
+        <v>9490</v>
       </c>
       <c r="F85" t="n">
-        <v>11.1135</v>
+        <v>11</v>
       </c>
       <c r="G85" t="n">
-        <v>4529.311319449999</v>
+        <v>3479.186677909999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3950,9 +3794,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3968,22 +3810,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9800</v>
+        <v>9490</v>
       </c>
       <c r="C86" t="n">
-        <v>9885</v>
+        <v>9490</v>
       </c>
       <c r="D86" t="n">
-        <v>9900</v>
+        <v>9490</v>
       </c>
       <c r="E86" t="n">
-        <v>9770</v>
+        <v>9490</v>
       </c>
       <c r="F86" t="n">
-        <v>333.7241</v>
+        <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>4863.03541945</v>
+        <v>3469.186677909999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3992,9 +3834,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4010,22 +3850,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9820</v>
+        <v>9490</v>
       </c>
       <c r="C87" t="n">
-        <v>9815</v>
+        <v>9490</v>
       </c>
       <c r="D87" t="n">
-        <v>9820</v>
+        <v>9490</v>
       </c>
       <c r="E87" t="n">
-        <v>9810</v>
+        <v>9490</v>
       </c>
       <c r="F87" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="G87" t="n">
-        <v>4849.03541945</v>
+        <v>3469.186677909999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -4034,9 +3874,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4052,22 +3890,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9815</v>
+        <v>9490</v>
       </c>
       <c r="C88" t="n">
-        <v>9815</v>
+        <v>9500</v>
       </c>
       <c r="D88" t="n">
-        <v>9815</v>
+        <v>9500</v>
       </c>
       <c r="E88" t="n">
-        <v>9815</v>
+        <v>9490</v>
       </c>
       <c r="F88" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G88" t="n">
-        <v>4849.03541945</v>
+        <v>3503.186677909999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4076,9 +3914,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4094,22 +3930,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9895</v>
+        <v>9500</v>
       </c>
       <c r="C89" t="n">
-        <v>9895</v>
+        <v>9500</v>
       </c>
       <c r="D89" t="n">
-        <v>9895</v>
+        <v>9500</v>
       </c>
       <c r="E89" t="n">
-        <v>9895</v>
+        <v>9500</v>
       </c>
       <c r="F89" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="G89" t="n">
-        <v>4851.03541945</v>
+        <v>3503.186677909999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4118,9 +3954,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4136,22 +3970,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9895</v>
+        <v>9500</v>
       </c>
       <c r="C90" t="n">
-        <v>9890</v>
+        <v>9500</v>
       </c>
       <c r="D90" t="n">
-        <v>9900</v>
+        <v>9500</v>
       </c>
       <c r="E90" t="n">
-        <v>9890</v>
+        <v>9500</v>
       </c>
       <c r="F90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G90" t="n">
-        <v>4847.03541945</v>
+        <v>3503.186677909999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4160,9 +3994,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4178,22 +4010,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9875</v>
+        <v>9500</v>
       </c>
       <c r="C91" t="n">
-        <v>9875</v>
+        <v>9520</v>
       </c>
       <c r="D91" t="n">
-        <v>9875</v>
+        <v>9520</v>
       </c>
       <c r="E91" t="n">
-        <v>9875</v>
+        <v>9500</v>
       </c>
       <c r="F91" t="n">
-        <v>9.07</v>
+        <v>40</v>
       </c>
       <c r="G91" t="n">
-        <v>4837.96541945</v>
+        <v>3543.186677909999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4202,9 +4034,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4220,22 +4050,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9890</v>
+        <v>9520</v>
       </c>
       <c r="C92" t="n">
-        <v>9855</v>
+        <v>9520</v>
       </c>
       <c r="D92" t="n">
-        <v>9890</v>
+        <v>9520</v>
       </c>
       <c r="E92" t="n">
-        <v>9855</v>
+        <v>9520</v>
       </c>
       <c r="F92" t="n">
-        <v>70.327</v>
+        <v>6.52</v>
       </c>
       <c r="G92" t="n">
-        <v>4767.63841945</v>
+        <v>3543.186677909999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4244,9 +4074,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4262,22 +4090,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9815</v>
+        <v>9520</v>
       </c>
       <c r="C93" t="n">
-        <v>9880</v>
+        <v>9545</v>
       </c>
       <c r="D93" t="n">
-        <v>9885</v>
+        <v>9545</v>
       </c>
       <c r="E93" t="n">
-        <v>9800</v>
+        <v>9520</v>
       </c>
       <c r="F93" t="n">
-        <v>218.7908</v>
+        <v>186</v>
       </c>
       <c r="G93" t="n">
-        <v>4986.429219449999</v>
+        <v>3729.186677909999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4286,9 +4114,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4304,22 +4130,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9890</v>
+        <v>9545</v>
       </c>
       <c r="C94" t="n">
-        <v>9890</v>
+        <v>9545</v>
       </c>
       <c r="D94" t="n">
-        <v>9890</v>
+        <v>9545</v>
       </c>
       <c r="E94" t="n">
-        <v>9890</v>
+        <v>9545</v>
       </c>
       <c r="F94" t="n">
-        <v>6.23</v>
+        <v>6.41</v>
       </c>
       <c r="G94" t="n">
-        <v>4992.659219449999</v>
+        <v>3729.186677909999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4328,9 +4154,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4346,22 +4170,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9800</v>
+        <v>9545</v>
       </c>
       <c r="C95" t="n">
-        <v>9795</v>
+        <v>9545</v>
       </c>
       <c r="D95" t="n">
-        <v>9800</v>
+        <v>9545</v>
       </c>
       <c r="E95" t="n">
-        <v>9790</v>
+        <v>9545</v>
       </c>
       <c r="F95" t="n">
-        <v>41.0923</v>
+        <v>6.34</v>
       </c>
       <c r="G95" t="n">
-        <v>4951.566919449999</v>
+        <v>3729.186677909999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4370,9 +4194,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4388,22 +4210,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9785</v>
+        <v>9545</v>
       </c>
       <c r="C96" t="n">
-        <v>9880</v>
+        <v>9545</v>
       </c>
       <c r="D96" t="n">
-        <v>9880</v>
+        <v>9545</v>
       </c>
       <c r="E96" t="n">
-        <v>9785</v>
+        <v>9545</v>
       </c>
       <c r="F96" t="n">
-        <v>56.212</v>
+        <v>13.97</v>
       </c>
       <c r="G96" t="n">
-        <v>5007.778919449999</v>
+        <v>3729.186677909999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4412,9 +4234,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4430,22 +4250,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9880</v>
+        <v>9540</v>
       </c>
       <c r="C97" t="n">
-        <v>9810</v>
+        <v>9540</v>
       </c>
       <c r="D97" t="n">
-        <v>9915</v>
+        <v>9540</v>
       </c>
       <c r="E97" t="n">
-        <v>9790</v>
+        <v>9540</v>
       </c>
       <c r="F97" t="n">
-        <v>187.4873</v>
+        <v>13.24</v>
       </c>
       <c r="G97" t="n">
-        <v>4820.291619449999</v>
+        <v>3715.946677909999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4454,9 +4274,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4472,22 +4290,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9825</v>
+        <v>9540</v>
       </c>
       <c r="C98" t="n">
-        <v>9850</v>
+        <v>9540</v>
       </c>
       <c r="D98" t="n">
-        <v>9850</v>
+        <v>9540</v>
       </c>
       <c r="E98" t="n">
-        <v>9815</v>
+        <v>9540</v>
       </c>
       <c r="F98" t="n">
-        <v>54.9597</v>
+        <v>6.27</v>
       </c>
       <c r="G98" t="n">
-        <v>4875.25131945</v>
+        <v>3715.946677909999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4496,9 +4314,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4514,22 +4330,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9815</v>
+        <v>9540</v>
       </c>
       <c r="C99" t="n">
-        <v>9810</v>
+        <v>9540</v>
       </c>
       <c r="D99" t="n">
-        <v>9815</v>
+        <v>9540</v>
       </c>
       <c r="E99" t="n">
-        <v>9810</v>
+        <v>9540</v>
       </c>
       <c r="F99" t="n">
-        <v>58.7614</v>
+        <v>6.64</v>
       </c>
       <c r="G99" t="n">
-        <v>4816.489919449999</v>
+        <v>3715.946677909999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4538,9 +4354,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4556,22 +4370,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9810</v>
+        <v>9545</v>
       </c>
       <c r="C100" t="n">
-        <v>9810</v>
+        <v>9545</v>
       </c>
       <c r="D100" t="n">
-        <v>9810</v>
+        <v>9545</v>
       </c>
       <c r="E100" t="n">
-        <v>9810</v>
+        <v>9545</v>
       </c>
       <c r="F100" t="n">
-        <v>36.2618</v>
+        <v>3.31</v>
       </c>
       <c r="G100" t="n">
-        <v>4816.489919449999</v>
+        <v>3719.256677909999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4580,9 +4394,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4598,22 +4410,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9840</v>
+        <v>9545</v>
       </c>
       <c r="C101" t="n">
-        <v>9840</v>
+        <v>9545</v>
       </c>
       <c r="D101" t="n">
-        <v>9840</v>
+        <v>9545</v>
       </c>
       <c r="E101" t="n">
-        <v>9840</v>
+        <v>9545</v>
       </c>
       <c r="F101" t="n">
-        <v>4.7867</v>
+        <v>70.02679999999999</v>
       </c>
       <c r="G101" t="n">
-        <v>4821.276619449999</v>
+        <v>3719.256677909999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4622,9 +4434,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4640,22 +4450,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9810</v>
+        <v>9545</v>
       </c>
       <c r="C102" t="n">
-        <v>9810</v>
+        <v>9550</v>
       </c>
       <c r="D102" t="n">
-        <v>9810</v>
+        <v>9550</v>
       </c>
       <c r="E102" t="n">
-        <v>9810</v>
+        <v>9545</v>
       </c>
       <c r="F102" t="n">
-        <v>33.6515</v>
+        <v>62</v>
       </c>
       <c r="G102" t="n">
-        <v>4787.625119449999</v>
+        <v>3781.256677909999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4664,9 +4474,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4682,22 +4490,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9815</v>
+        <v>9550</v>
       </c>
       <c r="C103" t="n">
-        <v>9810</v>
+        <v>9550</v>
       </c>
       <c r="D103" t="n">
-        <v>9815</v>
+        <v>9550</v>
       </c>
       <c r="E103" t="n">
-        <v>9810</v>
+        <v>9550</v>
       </c>
       <c r="F103" t="n">
-        <v>51.6381</v>
+        <v>30</v>
       </c>
       <c r="G103" t="n">
-        <v>4787.625119449999</v>
+        <v>3781.256677909999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4706,9 +4514,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4724,22 +4530,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9810</v>
+        <v>9550</v>
       </c>
       <c r="C104" t="n">
-        <v>9810</v>
+        <v>9550</v>
       </c>
       <c r="D104" t="n">
-        <v>9810</v>
+        <v>9550</v>
       </c>
       <c r="E104" t="n">
-        <v>9810</v>
+        <v>9550</v>
       </c>
       <c r="F104" t="n">
-        <v>11</v>
+        <v>103.5</v>
       </c>
       <c r="G104" t="n">
-        <v>4787.625119449999</v>
+        <v>3781.256677909999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4748,9 +4554,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4766,22 +4570,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9775</v>
+        <v>9550</v>
       </c>
       <c r="C105" t="n">
-        <v>9740</v>
+        <v>9550</v>
       </c>
       <c r="D105" t="n">
-        <v>9775</v>
+        <v>9550</v>
       </c>
       <c r="E105" t="n">
-        <v>9740</v>
+        <v>9550</v>
       </c>
       <c r="F105" t="n">
-        <v>158.3999</v>
+        <v>34.5</v>
       </c>
       <c r="G105" t="n">
-        <v>4629.225219449999</v>
+        <v>3781.256677909999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4790,9 +4594,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4808,22 +4610,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9795</v>
+        <v>9550</v>
       </c>
       <c r="C106" t="n">
-        <v>9790</v>
+        <v>9550</v>
       </c>
       <c r="D106" t="n">
-        <v>9795</v>
+        <v>9550</v>
       </c>
       <c r="E106" t="n">
-        <v>9790</v>
+        <v>9550</v>
       </c>
       <c r="F106" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G106" t="n">
-        <v>4633.225219449999</v>
+        <v>3781.256677909999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4832,9 +4634,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4850,22 +4650,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9725</v>
+        <v>9550</v>
       </c>
       <c r="C107" t="n">
-        <v>9725</v>
+        <v>9550</v>
       </c>
       <c r="D107" t="n">
-        <v>9725</v>
+        <v>9550</v>
       </c>
       <c r="E107" t="n">
-        <v>9725</v>
+        <v>9550</v>
       </c>
       <c r="F107" t="n">
-        <v>8.539999999999999</v>
+        <v>62</v>
       </c>
       <c r="G107" t="n">
-        <v>4624.685219449999</v>
+        <v>3781.256677909999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4874,9 +4674,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4892,22 +4690,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9755</v>
+        <v>9550</v>
       </c>
       <c r="C108" t="n">
-        <v>9705</v>
+        <v>9550</v>
       </c>
       <c r="D108" t="n">
-        <v>9755</v>
+        <v>9550</v>
       </c>
       <c r="E108" t="n">
-        <v>9705</v>
+        <v>9550</v>
       </c>
       <c r="F108" t="n">
-        <v>81.5493</v>
+        <v>42</v>
       </c>
       <c r="G108" t="n">
-        <v>4543.135919449999</v>
+        <v>3781.256677909999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4916,9 +4714,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4934,22 +4730,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9785</v>
+        <v>9550</v>
       </c>
       <c r="C109" t="n">
-        <v>9785</v>
+        <v>9550</v>
       </c>
       <c r="D109" t="n">
-        <v>9785</v>
+        <v>9550</v>
       </c>
       <c r="E109" t="n">
-        <v>9785</v>
+        <v>9550</v>
       </c>
       <c r="F109" t="n">
-        <v>13.19</v>
+        <v>3</v>
       </c>
       <c r="G109" t="n">
-        <v>4556.325919449999</v>
+        <v>3781.256677909999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4958,9 +4754,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4976,22 +4770,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9745</v>
+        <v>9540</v>
       </c>
       <c r="C110" t="n">
-        <v>9745</v>
+        <v>9550</v>
       </c>
       <c r="D110" t="n">
-        <v>9745</v>
+        <v>9550</v>
       </c>
       <c r="E110" t="n">
-        <v>9745</v>
+        <v>9540</v>
       </c>
       <c r="F110" t="n">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="G110" t="n">
-        <v>4546.325919449999</v>
+        <v>3781.256677909999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -5000,9 +4794,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5018,22 +4810,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9795</v>
+        <v>9550</v>
       </c>
       <c r="C111" t="n">
-        <v>9795</v>
+        <v>9550</v>
       </c>
       <c r="D111" t="n">
-        <v>9795</v>
+        <v>9550</v>
       </c>
       <c r="E111" t="n">
-        <v>9795</v>
+        <v>9550</v>
       </c>
       <c r="F111" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G111" t="n">
-        <v>4560.325919449999</v>
+        <v>3781.256677909999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -5042,9 +4834,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5060,22 +4850,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9775</v>
+        <v>9550</v>
       </c>
       <c r="C112" t="n">
-        <v>9785</v>
+        <v>9550</v>
       </c>
       <c r="D112" t="n">
-        <v>9785</v>
+        <v>9550</v>
       </c>
       <c r="E112" t="n">
-        <v>9775</v>
+        <v>9550</v>
       </c>
       <c r="F112" t="n">
-        <v>40.1</v>
+        <v>33</v>
       </c>
       <c r="G112" t="n">
-        <v>4520.225919449998</v>
+        <v>3781.256677909999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -5084,9 +4874,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5102,22 +4890,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>9810</v>
+        <v>9550</v>
       </c>
       <c r="C113" t="n">
-        <v>9890</v>
+        <v>9550</v>
       </c>
       <c r="D113" t="n">
-        <v>9890</v>
+        <v>9550</v>
       </c>
       <c r="E113" t="n">
-        <v>9810</v>
+        <v>9550</v>
       </c>
       <c r="F113" t="n">
-        <v>68.5</v>
+        <v>131</v>
       </c>
       <c r="G113" t="n">
-        <v>4588.725919449998</v>
+        <v>3781.256677909999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5126,9 +4914,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5144,22 +4930,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>9885</v>
+        <v>9550</v>
       </c>
       <c r="C114" t="n">
-        <v>9895</v>
+        <v>9550</v>
       </c>
       <c r="D114" t="n">
-        <v>9895</v>
+        <v>9550</v>
       </c>
       <c r="E114" t="n">
-        <v>9885</v>
+        <v>9550</v>
       </c>
       <c r="F114" t="n">
-        <v>157.74</v>
+        <v>67.92400000000001</v>
       </c>
       <c r="G114" t="n">
-        <v>4746.465919449998</v>
+        <v>3781.256677909999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5168,9 +4954,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5186,40 +4970,38 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>9895</v>
+        <v>9550</v>
       </c>
       <c r="C115" t="n">
-        <v>9930</v>
+        <v>9585</v>
       </c>
       <c r="D115" t="n">
-        <v>9930</v>
+        <v>9585</v>
       </c>
       <c r="E115" t="n">
-        <v>9895</v>
+        <v>9550</v>
       </c>
       <c r="F115" t="n">
-        <v>40.5902</v>
+        <v>34.5</v>
       </c>
       <c r="G115" t="n">
-        <v>4787.056119449998</v>
+        <v>3815.756677909999</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>9430</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>1.048022269353128</v>
+        <v>1</v>
       </c>
       <c r="N115" t="inlineStr"/>
     </row>
@@ -5228,32 +5010,36 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>9840</v>
+        <v>9580</v>
       </c>
       <c r="C116" t="n">
-        <v>9840</v>
+        <v>9580</v>
       </c>
       <c r="D116" t="n">
-        <v>9840</v>
+        <v>9580</v>
       </c>
       <c r="E116" t="n">
-        <v>9840</v>
+        <v>9580</v>
       </c>
       <c r="F116" t="n">
-        <v>83.3954</v>
+        <v>3.6073</v>
       </c>
       <c r="G116" t="n">
-        <v>4703.660719449997</v>
+        <v>3812.149377909999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5264,32 +5050,36 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>9710</v>
+        <v>9590</v>
       </c>
       <c r="C117" t="n">
-        <v>9710</v>
+        <v>9590</v>
       </c>
       <c r="D117" t="n">
-        <v>9710</v>
+        <v>9590</v>
       </c>
       <c r="E117" t="n">
-        <v>9710</v>
+        <v>9590</v>
       </c>
       <c r="F117" t="n">
-        <v>9.7081</v>
+        <v>32</v>
       </c>
       <c r="G117" t="n">
-        <v>4693.952619449998</v>
+        <v>3844.149377909999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5300,32 +5090,36 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>9715</v>
+        <v>9590</v>
       </c>
       <c r="C118" t="n">
-        <v>9705</v>
+        <v>9590</v>
       </c>
       <c r="D118" t="n">
-        <v>9715</v>
+        <v>9590</v>
       </c>
       <c r="E118" t="n">
-        <v>9705</v>
+        <v>9590</v>
       </c>
       <c r="F118" t="n">
-        <v>364.1607</v>
+        <v>38.5</v>
       </c>
       <c r="G118" t="n">
-        <v>4329.791919449997</v>
+        <v>3844.149377909999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5336,32 +5130,36 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>9700</v>
+        <v>9560</v>
       </c>
       <c r="C119" t="n">
-        <v>9705</v>
+        <v>9560</v>
       </c>
       <c r="D119" t="n">
-        <v>9705</v>
+        <v>9560</v>
       </c>
       <c r="E119" t="n">
-        <v>9700</v>
+        <v>9560</v>
       </c>
       <c r="F119" t="n">
-        <v>32.44</v>
+        <v>5</v>
       </c>
       <c r="G119" t="n">
-        <v>4329.791919449997</v>
+        <v>3839.149377909999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5372,32 +5170,36 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9645</v>
+        <v>9560</v>
       </c>
       <c r="C120" t="n">
-        <v>9700</v>
+        <v>9560</v>
       </c>
       <c r="D120" t="n">
-        <v>9700</v>
+        <v>9560</v>
       </c>
       <c r="E120" t="n">
-        <v>9645</v>
+        <v>9560</v>
       </c>
       <c r="F120" t="n">
-        <v>132.8689</v>
+        <v>11.7954</v>
       </c>
       <c r="G120" t="n">
-        <v>4196.923019449997</v>
+        <v>3839.149377909999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5408,22 +5210,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>9630</v>
+        <v>9585</v>
       </c>
       <c r="C121" t="n">
-        <v>9620</v>
+        <v>9590</v>
       </c>
       <c r="D121" t="n">
-        <v>9630</v>
+        <v>9590</v>
       </c>
       <c r="E121" t="n">
-        <v>9620</v>
+        <v>9585</v>
       </c>
       <c r="F121" t="n">
-        <v>370</v>
+        <v>95</v>
       </c>
       <c r="G121" t="n">
-        <v>3826.923019449997</v>
+        <v>3934.149377909999</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5433,7 +5235,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5444,22 +5250,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>9620</v>
+        <v>9590</v>
       </c>
       <c r="C122" t="n">
-        <v>9620</v>
+        <v>9590</v>
       </c>
       <c r="D122" t="n">
-        <v>9620</v>
+        <v>9590</v>
       </c>
       <c r="E122" t="n">
-        <v>9620</v>
+        <v>9590</v>
       </c>
       <c r="F122" t="n">
-        <v>0.1</v>
+        <v>32</v>
       </c>
       <c r="G122" t="n">
-        <v>3826.923019449997</v>
+        <v>3934.149377909999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5469,7 +5275,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5480,22 +5290,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>9615</v>
+        <v>9590</v>
       </c>
       <c r="C123" t="n">
-        <v>9615</v>
+        <v>9600</v>
       </c>
       <c r="D123" t="n">
-        <v>9615</v>
+        <v>9600</v>
       </c>
       <c r="E123" t="n">
-        <v>9615</v>
+        <v>9590</v>
       </c>
       <c r="F123" t="n">
-        <v>11.11</v>
+        <v>34</v>
       </c>
       <c r="G123" t="n">
-        <v>3815.813019449997</v>
+        <v>3968.149377909999</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5505,7 +5315,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5516,22 +5330,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>9615</v>
+        <v>9555</v>
       </c>
       <c r="C124" t="n">
-        <v>9615</v>
+        <v>9555</v>
       </c>
       <c r="D124" t="n">
-        <v>9615</v>
+        <v>9555</v>
       </c>
       <c r="E124" t="n">
-        <v>9615</v>
+        <v>9555</v>
       </c>
       <c r="F124" t="n">
-        <v>59.7469</v>
+        <v>34.6288</v>
       </c>
       <c r="G124" t="n">
-        <v>3815.813019449997</v>
+        <v>3933.520577909999</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5541,7 +5355,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5552,22 +5370,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9615</v>
+        <v>9595</v>
       </c>
       <c r="C125" t="n">
-        <v>9615</v>
+        <v>9595</v>
       </c>
       <c r="D125" t="n">
-        <v>9615</v>
+        <v>9595</v>
       </c>
       <c r="E125" t="n">
-        <v>9615</v>
+        <v>9595</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9307</v>
+        <v>6</v>
       </c>
       <c r="G125" t="n">
-        <v>3815.813019449997</v>
+        <v>3939.520577909999</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5577,7 +5395,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5588,22 +5410,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>9645</v>
+        <v>9595</v>
       </c>
       <c r="C126" t="n">
-        <v>9620</v>
+        <v>9595</v>
       </c>
       <c r="D126" t="n">
-        <v>9645</v>
+        <v>9595</v>
       </c>
       <c r="E126" t="n">
-        <v>9620</v>
+        <v>9595</v>
       </c>
       <c r="F126" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G126" t="n">
-        <v>3865.813019449997</v>
+        <v>3939.520577909999</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5613,7 +5435,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5624,22 +5450,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>9640</v>
+        <v>9595</v>
       </c>
       <c r="C127" t="n">
-        <v>9640</v>
+        <v>9595</v>
       </c>
       <c r="D127" t="n">
-        <v>9640</v>
+        <v>9595</v>
       </c>
       <c r="E127" t="n">
-        <v>9640</v>
+        <v>9595</v>
       </c>
       <c r="F127" t="n">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="G127" t="n">
-        <v>3909.813019449997</v>
+        <v>3939.520577909999</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5649,7 +5475,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5660,22 +5490,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>9640</v>
+        <v>9595</v>
       </c>
       <c r="C128" t="n">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="D128" t="n">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="E128" t="n">
-        <v>9640</v>
+        <v>9595</v>
       </c>
       <c r="F128" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="G128" t="n">
-        <v>3949.813019449997</v>
+        <v>3945.520577909999</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5685,7 +5515,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5696,22 +5530,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>9720</v>
+        <v>9600</v>
       </c>
       <c r="C129" t="n">
-        <v>9720</v>
+        <v>9600</v>
       </c>
       <c r="D129" t="n">
-        <v>9720</v>
+        <v>9600</v>
       </c>
       <c r="E129" t="n">
-        <v>9720</v>
+        <v>9600</v>
       </c>
       <c r="F129" t="n">
-        <v>4.7219</v>
+        <v>190.3934</v>
       </c>
       <c r="G129" t="n">
-        <v>3954.534919449997</v>
+        <v>3945.520577909999</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5721,7 +5555,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5732,22 +5570,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>9655</v>
+        <v>9570</v>
       </c>
       <c r="C130" t="n">
-        <v>9655</v>
+        <v>9555</v>
       </c>
       <c r="D130" t="n">
-        <v>9655</v>
+        <v>9570</v>
       </c>
       <c r="E130" t="n">
-        <v>9655</v>
+        <v>9555</v>
       </c>
       <c r="F130" t="n">
-        <v>5.56</v>
+        <v>190.3934</v>
       </c>
       <c r="G130" t="n">
-        <v>3948.974919449997</v>
+        <v>3755.127177909999</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5757,7 +5595,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5768,22 +5610,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>9655</v>
+        <v>9635</v>
       </c>
       <c r="C131" t="n">
-        <v>9655</v>
+        <v>9635</v>
       </c>
       <c r="D131" t="n">
-        <v>9655</v>
+        <v>9635</v>
       </c>
       <c r="E131" t="n">
-        <v>9655</v>
+        <v>9635</v>
       </c>
       <c r="F131" t="n">
-        <v>346.88</v>
+        <v>20</v>
       </c>
       <c r="G131" t="n">
-        <v>3948.974919449997</v>
+        <v>3775.127177909999</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5793,7 +5635,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5804,22 +5650,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>9675</v>
+        <v>9635</v>
       </c>
       <c r="C132" t="n">
-        <v>9635</v>
+        <v>9640</v>
       </c>
       <c r="D132" t="n">
-        <v>9675</v>
+        <v>9640</v>
       </c>
       <c r="E132" t="n">
         <v>9635</v>
       </c>
       <c r="F132" t="n">
-        <v>18.5761</v>
+        <v>4</v>
       </c>
       <c r="G132" t="n">
-        <v>3930.398819449997</v>
+        <v>3779.127177909999</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5829,7 +5675,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5840,22 +5690,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>9635</v>
+        <v>9640</v>
       </c>
       <c r="C133" t="n">
-        <v>9630</v>
+        <v>9640</v>
       </c>
       <c r="D133" t="n">
-        <v>9635</v>
+        <v>9640</v>
       </c>
       <c r="E133" t="n">
-        <v>9630</v>
+        <v>9640</v>
       </c>
       <c r="F133" t="n">
-        <v>69.496</v>
+        <v>22</v>
       </c>
       <c r="G133" t="n">
-        <v>3860.902819449997</v>
+        <v>3779.127177909999</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5865,7 +5715,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5876,22 +5730,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>9635</v>
+        <v>9640</v>
       </c>
       <c r="C134" t="n">
-        <v>9635</v>
+        <v>9640</v>
       </c>
       <c r="D134" t="n">
-        <v>9635</v>
+        <v>9640</v>
       </c>
       <c r="E134" t="n">
-        <v>9635</v>
+        <v>9640</v>
       </c>
       <c r="F134" t="n">
-        <v>4.9012</v>
+        <v>11.5</v>
       </c>
       <c r="G134" t="n">
-        <v>3865.804019449996</v>
+        <v>3779.127177909999</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5901,7 +5755,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5912,22 +5770,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>9630</v>
+        <v>9640</v>
       </c>
       <c r="C135" t="n">
-        <v>9630</v>
+        <v>9650</v>
       </c>
       <c r="D135" t="n">
-        <v>9630</v>
+        <v>9650</v>
       </c>
       <c r="E135" t="n">
-        <v>9630</v>
+        <v>9640</v>
       </c>
       <c r="F135" t="n">
-        <v>33.6793</v>
+        <v>0.99899896</v>
       </c>
       <c r="G135" t="n">
-        <v>3832.124719449997</v>
+        <v>3780.126176869999</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5937,7 +5795,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5948,22 +5810,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>9620</v>
+        <v>9650</v>
       </c>
       <c r="C136" t="n">
-        <v>9680</v>
+        <v>9670</v>
       </c>
       <c r="D136" t="n">
-        <v>9680</v>
+        <v>9670</v>
       </c>
       <c r="E136" t="n">
-        <v>9620</v>
+        <v>9650</v>
       </c>
       <c r="F136" t="n">
-        <v>203.4293</v>
+        <v>103.50315532</v>
       </c>
       <c r="G136" t="n">
-        <v>4035.554019449996</v>
+        <v>3883.629332189999</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5973,7 +5835,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5984,22 +5850,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>9680</v>
+        <v>9625</v>
       </c>
       <c r="C137" t="n">
-        <v>9680</v>
+        <v>9625</v>
       </c>
       <c r="D137" t="n">
-        <v>9680</v>
+        <v>9625</v>
       </c>
       <c r="E137" t="n">
-        <v>9680</v>
+        <v>9625</v>
       </c>
       <c r="F137" t="n">
-        <v>33.0393</v>
+        <v>4.5253</v>
       </c>
       <c r="G137" t="n">
-        <v>4035.554019449996</v>
+        <v>3879.10403219</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -6009,7 +5875,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -6020,22 +5890,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>9690</v>
+        <v>9660</v>
       </c>
       <c r="C138" t="n">
-        <v>9690</v>
+        <v>9675</v>
       </c>
       <c r="D138" t="n">
-        <v>9690</v>
+        <v>9675</v>
       </c>
       <c r="E138" t="n">
-        <v>9690</v>
+        <v>9660</v>
       </c>
       <c r="F138" t="n">
-        <v>108.0756</v>
+        <v>4.99926403</v>
       </c>
       <c r="G138" t="n">
-        <v>4143.629619449996</v>
+        <v>3884.10329622</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -6045,7 +5915,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6056,22 +5930,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>9645</v>
+        <v>9665</v>
       </c>
       <c r="C139" t="n">
-        <v>9645</v>
+        <v>9665</v>
       </c>
       <c r="D139" t="n">
-        <v>9645</v>
+        <v>9665</v>
       </c>
       <c r="E139" t="n">
-        <v>9645</v>
+        <v>9665</v>
       </c>
       <c r="F139" t="n">
-        <v>7.8446</v>
+        <v>62.2009</v>
       </c>
       <c r="G139" t="n">
-        <v>4135.785019449996</v>
+        <v>3821.90239622</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -6081,7 +5955,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6092,22 +5970,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>9640</v>
+        <v>9590</v>
       </c>
       <c r="C140" t="n">
-        <v>9640</v>
+        <v>9590</v>
       </c>
       <c r="D140" t="n">
-        <v>9640</v>
+        <v>9590</v>
       </c>
       <c r="E140" t="n">
-        <v>9640</v>
+        <v>9590</v>
       </c>
       <c r="F140" t="n">
-        <v>18.6525</v>
+        <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>4117.132519449996</v>
+        <v>3820.90239622</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -6117,7 +5995,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6128,22 +6010,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>9640</v>
+        <v>9655</v>
       </c>
       <c r="C141" t="n">
-        <v>9695</v>
+        <v>9660</v>
       </c>
       <c r="D141" t="n">
-        <v>9695</v>
+        <v>9660</v>
       </c>
       <c r="E141" t="n">
-        <v>9640</v>
+        <v>9655</v>
       </c>
       <c r="F141" t="n">
-        <v>150.8901</v>
+        <v>6.22</v>
       </c>
       <c r="G141" t="n">
-        <v>4268.022619449996</v>
+        <v>3827.12239622</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -6153,7 +6035,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6164,22 +6050,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>9635</v>
+        <v>9595</v>
       </c>
       <c r="C142" t="n">
-        <v>9635</v>
+        <v>9585</v>
       </c>
       <c r="D142" t="n">
-        <v>9635</v>
+        <v>9595</v>
       </c>
       <c r="E142" t="n">
-        <v>9635</v>
+        <v>9585</v>
       </c>
       <c r="F142" t="n">
-        <v>1.0411</v>
+        <v>41.9022</v>
       </c>
       <c r="G142" t="n">
-        <v>4266.981519449995</v>
+        <v>3785.22019622</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -6189,7 +6075,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6200,22 +6090,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>9635</v>
+        <v>9625</v>
       </c>
       <c r="C143" t="n">
-        <v>9635</v>
+        <v>9700</v>
       </c>
       <c r="D143" t="n">
-        <v>9635</v>
+        <v>9700</v>
       </c>
       <c r="E143" t="n">
-        <v>9635</v>
+        <v>9625</v>
       </c>
       <c r="F143" t="n">
-        <v>3.9785</v>
+        <v>69</v>
       </c>
       <c r="G143" t="n">
-        <v>4266.981519449995</v>
+        <v>3854.22019622</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -6225,7 +6115,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6236,22 +6130,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>9630</v>
+        <v>9640</v>
       </c>
       <c r="C144" t="n">
-        <v>9630</v>
+        <v>9615</v>
       </c>
       <c r="D144" t="n">
-        <v>9630</v>
+        <v>9685</v>
       </c>
       <c r="E144" t="n">
-        <v>9630</v>
+        <v>9615</v>
       </c>
       <c r="F144" t="n">
-        <v>20.0058</v>
+        <v>184.4201</v>
       </c>
       <c r="G144" t="n">
-        <v>4246.975719449995</v>
+        <v>3669.80009622</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6261,7 +6155,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6272,22 +6170,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>9630</v>
+        <v>9690</v>
       </c>
       <c r="C145" t="n">
-        <v>9675</v>
+        <v>9790</v>
       </c>
       <c r="D145" t="n">
-        <v>9675</v>
+        <v>9790</v>
       </c>
       <c r="E145" t="n">
-        <v>9630</v>
+        <v>9690</v>
       </c>
       <c r="F145" t="n">
-        <v>49.4141</v>
+        <v>414.98</v>
       </c>
       <c r="G145" t="n">
-        <v>4296.389819449995</v>
+        <v>4084.78009622</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6297,7 +6195,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6308,22 +6210,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>9660</v>
+        <v>9725</v>
       </c>
       <c r="C146" t="n">
-        <v>9670</v>
+        <v>9800</v>
       </c>
       <c r="D146" t="n">
-        <v>9670</v>
+        <v>9800</v>
       </c>
       <c r="E146" t="n">
-        <v>9660</v>
+        <v>9725</v>
       </c>
       <c r="F146" t="n">
-        <v>34.5</v>
+        <v>85.6605</v>
       </c>
       <c r="G146" t="n">
-        <v>4261.889819449995</v>
+        <v>4170.44059622</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6333,7 +6235,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6344,22 +6250,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>9670</v>
+        <v>9830</v>
       </c>
       <c r="C147" t="n">
-        <v>9680</v>
+        <v>9835</v>
       </c>
       <c r="D147" t="n">
-        <v>9680</v>
+        <v>9835</v>
       </c>
       <c r="E147" t="n">
-        <v>9670</v>
+        <v>9830</v>
       </c>
       <c r="F147" t="n">
-        <v>39</v>
+        <v>90.54142323000001</v>
       </c>
       <c r="G147" t="n">
-        <v>4300.889819449995</v>
+        <v>4260.98201945</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6369,7 +6275,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6380,35 +6290,37 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>9620</v>
+        <v>9745</v>
       </c>
       <c r="C148" t="n">
-        <v>9600</v>
+        <v>9745</v>
       </c>
       <c r="D148" t="n">
-        <v>9620</v>
+        <v>9745</v>
       </c>
       <c r="E148" t="n">
-        <v>9600</v>
+        <v>9745</v>
       </c>
       <c r="F148" t="n">
-        <v>79.0686</v>
+        <v>0.1193</v>
       </c>
       <c r="G148" t="n">
-        <v>4221.821219449996</v>
+        <v>4260.86271945</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
@@ -6416,22 +6328,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>9680</v>
+        <v>9745</v>
       </c>
       <c r="C149" t="n">
-        <v>9680</v>
+        <v>9895</v>
       </c>
       <c r="D149" t="n">
-        <v>9680</v>
+        <v>9895</v>
       </c>
       <c r="E149" t="n">
-        <v>9680</v>
+        <v>9745</v>
       </c>
       <c r="F149" t="n">
-        <v>31.5</v>
+        <v>110.0033</v>
       </c>
       <c r="G149" t="n">
-        <v>4253.321219449996</v>
+        <v>4370.86601945</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6452,22 +6364,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>9670</v>
+        <v>9895</v>
       </c>
       <c r="C150" t="n">
-        <v>9675</v>
+        <v>9895</v>
       </c>
       <c r="D150" t="n">
-        <v>9675</v>
+        <v>9895</v>
       </c>
       <c r="E150" t="n">
-        <v>9670</v>
+        <v>9810</v>
       </c>
       <c r="F150" t="n">
-        <v>32.5</v>
+        <v>62.2084</v>
       </c>
       <c r="G150" t="n">
-        <v>4220.821219449996</v>
+        <v>4370.86601945</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6488,28 +6400,28 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>9675</v>
+        <v>9890</v>
       </c>
       <c r="C151" t="n">
-        <v>9675</v>
+        <v>9890</v>
       </c>
       <c r="D151" t="n">
-        <v>9675</v>
+        <v>9890</v>
       </c>
       <c r="E151" t="n">
-        <v>9675</v>
+        <v>9890</v>
       </c>
       <c r="F151" t="n">
-        <v>33.5</v>
+        <v>19.4627</v>
       </c>
       <c r="G151" t="n">
-        <v>4220.821219449996</v>
+        <v>4351.40331945</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
@@ -6524,28 +6436,28 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>9675</v>
+        <v>9890</v>
       </c>
       <c r="C152" t="n">
-        <v>9675</v>
+        <v>9890</v>
       </c>
       <c r="D152" t="n">
-        <v>9675</v>
+        <v>9890</v>
       </c>
       <c r="E152" t="n">
-        <v>9675</v>
+        <v>9890</v>
       </c>
       <c r="F152" t="n">
-        <v>29</v>
+        <v>250.8275</v>
       </c>
       <c r="G152" t="n">
-        <v>4220.821219449996</v>
+        <v>4351.40331945</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
@@ -6555,6 +6467,2562 @@
       </c>
       <c r="N152" t="inlineStr"/>
     </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>9870</v>
+      </c>
+      <c r="C153" t="n">
+        <v>9900</v>
+      </c>
+      <c r="D153" t="n">
+        <v>9900</v>
+      </c>
+      <c r="E153" t="n">
+        <v>9830</v>
+      </c>
+      <c r="F153" t="n">
+        <v>193</v>
+      </c>
+      <c r="G153" t="n">
+        <v>4544.40331945</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>9900</v>
+      </c>
+      <c r="C154" t="n">
+        <v>9900</v>
+      </c>
+      <c r="D154" t="n">
+        <v>9900</v>
+      </c>
+      <c r="E154" t="n">
+        <v>9900</v>
+      </c>
+      <c r="F154" t="n">
+        <v>64.96680000000001</v>
+      </c>
+      <c r="G154" t="n">
+        <v>4544.40331945</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>9845</v>
+      </c>
+      <c r="C155" t="n">
+        <v>9810</v>
+      </c>
+      <c r="D155" t="n">
+        <v>9845</v>
+      </c>
+      <c r="E155" t="n">
+        <v>9810</v>
+      </c>
+      <c r="F155" t="n">
+        <v>3.9785</v>
+      </c>
+      <c r="G155" t="n">
+        <v>4540.42481945</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>9810</v>
+      </c>
+      <c r="C156" t="n">
+        <v>9805</v>
+      </c>
+      <c r="D156" t="n">
+        <v>9810</v>
+      </c>
+      <c r="E156" t="n">
+        <v>9805</v>
+      </c>
+      <c r="F156" t="n">
+        <v>11.1135</v>
+      </c>
+      <c r="G156" t="n">
+        <v>4529.311319449999</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>9800</v>
+      </c>
+      <c r="C157" t="n">
+        <v>9885</v>
+      </c>
+      <c r="D157" t="n">
+        <v>9900</v>
+      </c>
+      <c r="E157" t="n">
+        <v>9770</v>
+      </c>
+      <c r="F157" t="n">
+        <v>333.7241</v>
+      </c>
+      <c r="G157" t="n">
+        <v>4863.03541945</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>9820</v>
+      </c>
+      <c r="C158" t="n">
+        <v>9815</v>
+      </c>
+      <c r="D158" t="n">
+        <v>9820</v>
+      </c>
+      <c r="E158" t="n">
+        <v>9810</v>
+      </c>
+      <c r="F158" t="n">
+        <v>14</v>
+      </c>
+      <c r="G158" t="n">
+        <v>4849.03541945</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>9815</v>
+      </c>
+      <c r="C159" t="n">
+        <v>9815</v>
+      </c>
+      <c r="D159" t="n">
+        <v>9815</v>
+      </c>
+      <c r="E159" t="n">
+        <v>9815</v>
+      </c>
+      <c r="F159" t="n">
+        <v>10</v>
+      </c>
+      <c r="G159" t="n">
+        <v>4849.03541945</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>9895</v>
+      </c>
+      <c r="C160" t="n">
+        <v>9895</v>
+      </c>
+      <c r="D160" t="n">
+        <v>9895</v>
+      </c>
+      <c r="E160" t="n">
+        <v>9895</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2</v>
+      </c>
+      <c r="G160" t="n">
+        <v>4851.03541945</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>9895</v>
+      </c>
+      <c r="C161" t="n">
+        <v>9890</v>
+      </c>
+      <c r="D161" t="n">
+        <v>9900</v>
+      </c>
+      <c r="E161" t="n">
+        <v>9890</v>
+      </c>
+      <c r="F161" t="n">
+        <v>4</v>
+      </c>
+      <c r="G161" t="n">
+        <v>4847.03541945</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>9875</v>
+      </c>
+      <c r="C162" t="n">
+        <v>9875</v>
+      </c>
+      <c r="D162" t="n">
+        <v>9875</v>
+      </c>
+      <c r="E162" t="n">
+        <v>9875</v>
+      </c>
+      <c r="F162" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="G162" t="n">
+        <v>4837.96541945</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>9890</v>
+      </c>
+      <c r="C163" t="n">
+        <v>9855</v>
+      </c>
+      <c r="D163" t="n">
+        <v>9890</v>
+      </c>
+      <c r="E163" t="n">
+        <v>9855</v>
+      </c>
+      <c r="F163" t="n">
+        <v>70.327</v>
+      </c>
+      <c r="G163" t="n">
+        <v>4767.63841945</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>9815</v>
+      </c>
+      <c r="C164" t="n">
+        <v>9880</v>
+      </c>
+      <c r="D164" t="n">
+        <v>9885</v>
+      </c>
+      <c r="E164" t="n">
+        <v>9800</v>
+      </c>
+      <c r="F164" t="n">
+        <v>218.7908</v>
+      </c>
+      <c r="G164" t="n">
+        <v>4986.429219449999</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>9890</v>
+      </c>
+      <c r="C165" t="n">
+        <v>9890</v>
+      </c>
+      <c r="D165" t="n">
+        <v>9890</v>
+      </c>
+      <c r="E165" t="n">
+        <v>9890</v>
+      </c>
+      <c r="F165" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="G165" t="n">
+        <v>4992.659219449999</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>9800</v>
+      </c>
+      <c r="C166" t="n">
+        <v>9795</v>
+      </c>
+      <c r="D166" t="n">
+        <v>9800</v>
+      </c>
+      <c r="E166" t="n">
+        <v>9790</v>
+      </c>
+      <c r="F166" t="n">
+        <v>41.0923</v>
+      </c>
+      <c r="G166" t="n">
+        <v>4951.566919449999</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>9785</v>
+      </c>
+      <c r="C167" t="n">
+        <v>9880</v>
+      </c>
+      <c r="D167" t="n">
+        <v>9880</v>
+      </c>
+      <c r="E167" t="n">
+        <v>9785</v>
+      </c>
+      <c r="F167" t="n">
+        <v>56.212</v>
+      </c>
+      <c r="G167" t="n">
+        <v>5007.778919449999</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>9880</v>
+      </c>
+      <c r="C168" t="n">
+        <v>9810</v>
+      </c>
+      <c r="D168" t="n">
+        <v>9915</v>
+      </c>
+      <c r="E168" t="n">
+        <v>9790</v>
+      </c>
+      <c r="F168" t="n">
+        <v>187.4873</v>
+      </c>
+      <c r="G168" t="n">
+        <v>4820.291619449999</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>9825</v>
+      </c>
+      <c r="C169" t="n">
+        <v>9850</v>
+      </c>
+      <c r="D169" t="n">
+        <v>9850</v>
+      </c>
+      <c r="E169" t="n">
+        <v>9815</v>
+      </c>
+      <c r="F169" t="n">
+        <v>54.9597</v>
+      </c>
+      <c r="G169" t="n">
+        <v>4875.25131945</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>9815</v>
+      </c>
+      <c r="C170" t="n">
+        <v>9810</v>
+      </c>
+      <c r="D170" t="n">
+        <v>9815</v>
+      </c>
+      <c r="E170" t="n">
+        <v>9810</v>
+      </c>
+      <c r="F170" t="n">
+        <v>58.7614</v>
+      </c>
+      <c r="G170" t="n">
+        <v>4816.489919449999</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>9810</v>
+      </c>
+      <c r="C171" t="n">
+        <v>9810</v>
+      </c>
+      <c r="D171" t="n">
+        <v>9810</v>
+      </c>
+      <c r="E171" t="n">
+        <v>9810</v>
+      </c>
+      <c r="F171" t="n">
+        <v>36.2618</v>
+      </c>
+      <c r="G171" t="n">
+        <v>4816.489919449999</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>9840</v>
+      </c>
+      <c r="C172" t="n">
+        <v>9840</v>
+      </c>
+      <c r="D172" t="n">
+        <v>9840</v>
+      </c>
+      <c r="E172" t="n">
+        <v>9840</v>
+      </c>
+      <c r="F172" t="n">
+        <v>4.7867</v>
+      </c>
+      <c r="G172" t="n">
+        <v>4821.276619449999</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>9810</v>
+      </c>
+      <c r="C173" t="n">
+        <v>9810</v>
+      </c>
+      <c r="D173" t="n">
+        <v>9810</v>
+      </c>
+      <c r="E173" t="n">
+        <v>9810</v>
+      </c>
+      <c r="F173" t="n">
+        <v>33.6515</v>
+      </c>
+      <c r="G173" t="n">
+        <v>4787.625119449999</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>9815</v>
+      </c>
+      <c r="C174" t="n">
+        <v>9810</v>
+      </c>
+      <c r="D174" t="n">
+        <v>9815</v>
+      </c>
+      <c r="E174" t="n">
+        <v>9810</v>
+      </c>
+      <c r="F174" t="n">
+        <v>51.6381</v>
+      </c>
+      <c r="G174" t="n">
+        <v>4787.625119449999</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>9810</v>
+      </c>
+      <c r="C175" t="n">
+        <v>9810</v>
+      </c>
+      <c r="D175" t="n">
+        <v>9810</v>
+      </c>
+      <c r="E175" t="n">
+        <v>9810</v>
+      </c>
+      <c r="F175" t="n">
+        <v>11</v>
+      </c>
+      <c r="G175" t="n">
+        <v>4787.625119449999</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>9775</v>
+      </c>
+      <c r="C176" t="n">
+        <v>9740</v>
+      </c>
+      <c r="D176" t="n">
+        <v>9775</v>
+      </c>
+      <c r="E176" t="n">
+        <v>9740</v>
+      </c>
+      <c r="F176" t="n">
+        <v>158.3999</v>
+      </c>
+      <c r="G176" t="n">
+        <v>4629.225219449999</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>9795</v>
+      </c>
+      <c r="C177" t="n">
+        <v>9790</v>
+      </c>
+      <c r="D177" t="n">
+        <v>9795</v>
+      </c>
+      <c r="E177" t="n">
+        <v>9790</v>
+      </c>
+      <c r="F177" t="n">
+        <v>4</v>
+      </c>
+      <c r="G177" t="n">
+        <v>4633.225219449999</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>9725</v>
+      </c>
+      <c r="C178" t="n">
+        <v>9725</v>
+      </c>
+      <c r="D178" t="n">
+        <v>9725</v>
+      </c>
+      <c r="E178" t="n">
+        <v>9725</v>
+      </c>
+      <c r="F178" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="G178" t="n">
+        <v>4624.685219449999</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>9755</v>
+      </c>
+      <c r="C179" t="n">
+        <v>9705</v>
+      </c>
+      <c r="D179" t="n">
+        <v>9755</v>
+      </c>
+      <c r="E179" t="n">
+        <v>9705</v>
+      </c>
+      <c r="F179" t="n">
+        <v>81.5493</v>
+      </c>
+      <c r="G179" t="n">
+        <v>4543.135919449999</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>9785</v>
+      </c>
+      <c r="C180" t="n">
+        <v>9785</v>
+      </c>
+      <c r="D180" t="n">
+        <v>9785</v>
+      </c>
+      <c r="E180" t="n">
+        <v>9785</v>
+      </c>
+      <c r="F180" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="G180" t="n">
+        <v>4556.325919449999</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>9745</v>
+      </c>
+      <c r="C181" t="n">
+        <v>9745</v>
+      </c>
+      <c r="D181" t="n">
+        <v>9745</v>
+      </c>
+      <c r="E181" t="n">
+        <v>9745</v>
+      </c>
+      <c r="F181" t="n">
+        <v>10</v>
+      </c>
+      <c r="G181" t="n">
+        <v>4546.325919449999</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>9795</v>
+      </c>
+      <c r="C182" t="n">
+        <v>9795</v>
+      </c>
+      <c r="D182" t="n">
+        <v>9795</v>
+      </c>
+      <c r="E182" t="n">
+        <v>9795</v>
+      </c>
+      <c r="F182" t="n">
+        <v>14</v>
+      </c>
+      <c r="G182" t="n">
+        <v>4560.325919449999</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>9775</v>
+      </c>
+      <c r="C183" t="n">
+        <v>9785</v>
+      </c>
+      <c r="D183" t="n">
+        <v>9785</v>
+      </c>
+      <c r="E183" t="n">
+        <v>9775</v>
+      </c>
+      <c r="F183" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="G183" t="n">
+        <v>4520.225919449998</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>9810</v>
+      </c>
+      <c r="C184" t="n">
+        <v>9890</v>
+      </c>
+      <c r="D184" t="n">
+        <v>9890</v>
+      </c>
+      <c r="E184" t="n">
+        <v>9810</v>
+      </c>
+      <c r="F184" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="G184" t="n">
+        <v>4588.725919449998</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>9885</v>
+      </c>
+      <c r="C185" t="n">
+        <v>9895</v>
+      </c>
+      <c r="D185" t="n">
+        <v>9895</v>
+      </c>
+      <c r="E185" t="n">
+        <v>9885</v>
+      </c>
+      <c r="F185" t="n">
+        <v>157.74</v>
+      </c>
+      <c r="G185" t="n">
+        <v>4746.465919449998</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>9895</v>
+      </c>
+      <c r="C186" t="n">
+        <v>9930</v>
+      </c>
+      <c r="D186" t="n">
+        <v>9930</v>
+      </c>
+      <c r="E186" t="n">
+        <v>9895</v>
+      </c>
+      <c r="F186" t="n">
+        <v>40.5902</v>
+      </c>
+      <c r="G186" t="n">
+        <v>4787.056119449998</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>9840</v>
+      </c>
+      <c r="C187" t="n">
+        <v>9840</v>
+      </c>
+      <c r="D187" t="n">
+        <v>9840</v>
+      </c>
+      <c r="E187" t="n">
+        <v>9840</v>
+      </c>
+      <c r="F187" t="n">
+        <v>83.3954</v>
+      </c>
+      <c r="G187" t="n">
+        <v>4703.660719449997</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>9710</v>
+      </c>
+      <c r="C188" t="n">
+        <v>9710</v>
+      </c>
+      <c r="D188" t="n">
+        <v>9710</v>
+      </c>
+      <c r="E188" t="n">
+        <v>9710</v>
+      </c>
+      <c r="F188" t="n">
+        <v>9.7081</v>
+      </c>
+      <c r="G188" t="n">
+        <v>4693.952619449998</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>9715</v>
+      </c>
+      <c r="C189" t="n">
+        <v>9705</v>
+      </c>
+      <c r="D189" t="n">
+        <v>9715</v>
+      </c>
+      <c r="E189" t="n">
+        <v>9705</v>
+      </c>
+      <c r="F189" t="n">
+        <v>364.1607</v>
+      </c>
+      <c r="G189" t="n">
+        <v>4329.791919449997</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C190" t="n">
+        <v>9705</v>
+      </c>
+      <c r="D190" t="n">
+        <v>9705</v>
+      </c>
+      <c r="E190" t="n">
+        <v>9700</v>
+      </c>
+      <c r="F190" t="n">
+        <v>32.44</v>
+      </c>
+      <c r="G190" t="n">
+        <v>4329.791919449997</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>9645</v>
+      </c>
+      <c r="C191" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D191" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E191" t="n">
+        <v>9645</v>
+      </c>
+      <c r="F191" t="n">
+        <v>132.8689</v>
+      </c>
+      <c r="G191" t="n">
+        <v>4196.923019449997</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>9630</v>
+      </c>
+      <c r="C192" t="n">
+        <v>9620</v>
+      </c>
+      <c r="D192" t="n">
+        <v>9630</v>
+      </c>
+      <c r="E192" t="n">
+        <v>9620</v>
+      </c>
+      <c r="F192" t="n">
+        <v>370</v>
+      </c>
+      <c r="G192" t="n">
+        <v>3826.923019449997</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>9620</v>
+      </c>
+      <c r="C193" t="n">
+        <v>9620</v>
+      </c>
+      <c r="D193" t="n">
+        <v>9620</v>
+      </c>
+      <c r="E193" t="n">
+        <v>9620</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G193" t="n">
+        <v>3826.923019449997</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>9615</v>
+      </c>
+      <c r="C194" t="n">
+        <v>9615</v>
+      </c>
+      <c r="D194" t="n">
+        <v>9615</v>
+      </c>
+      <c r="E194" t="n">
+        <v>9615</v>
+      </c>
+      <c r="F194" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="G194" t="n">
+        <v>3815.813019449997</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>9615</v>
+      </c>
+      <c r="C195" t="n">
+        <v>9615</v>
+      </c>
+      <c r="D195" t="n">
+        <v>9615</v>
+      </c>
+      <c r="E195" t="n">
+        <v>9615</v>
+      </c>
+      <c r="F195" t="n">
+        <v>59.7469</v>
+      </c>
+      <c r="G195" t="n">
+        <v>3815.813019449997</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>9615</v>
+      </c>
+      <c r="C196" t="n">
+        <v>9615</v>
+      </c>
+      <c r="D196" t="n">
+        <v>9615</v>
+      </c>
+      <c r="E196" t="n">
+        <v>9615</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.9307</v>
+      </c>
+      <c r="G196" t="n">
+        <v>3815.813019449997</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>9645</v>
+      </c>
+      <c r="C197" t="n">
+        <v>9620</v>
+      </c>
+      <c r="D197" t="n">
+        <v>9645</v>
+      </c>
+      <c r="E197" t="n">
+        <v>9620</v>
+      </c>
+      <c r="F197" t="n">
+        <v>50</v>
+      </c>
+      <c r="G197" t="n">
+        <v>3865.813019449997</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>9640</v>
+      </c>
+      <c r="C198" t="n">
+        <v>9640</v>
+      </c>
+      <c r="D198" t="n">
+        <v>9640</v>
+      </c>
+      <c r="E198" t="n">
+        <v>9640</v>
+      </c>
+      <c r="F198" t="n">
+        <v>44</v>
+      </c>
+      <c r="G198" t="n">
+        <v>3909.813019449997</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>9640</v>
+      </c>
+      <c r="C199" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D199" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E199" t="n">
+        <v>9640</v>
+      </c>
+      <c r="F199" t="n">
+        <v>40</v>
+      </c>
+      <c r="G199" t="n">
+        <v>3949.813019449997</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>9720</v>
+      </c>
+      <c r="C200" t="n">
+        <v>9720</v>
+      </c>
+      <c r="D200" t="n">
+        <v>9720</v>
+      </c>
+      <c r="E200" t="n">
+        <v>9720</v>
+      </c>
+      <c r="F200" t="n">
+        <v>4.7219</v>
+      </c>
+      <c r="G200" t="n">
+        <v>3954.534919449997</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>9655</v>
+      </c>
+      <c r="C201" t="n">
+        <v>9655</v>
+      </c>
+      <c r="D201" t="n">
+        <v>9655</v>
+      </c>
+      <c r="E201" t="n">
+        <v>9655</v>
+      </c>
+      <c r="F201" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="G201" t="n">
+        <v>3948.974919449997</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>9655</v>
+      </c>
+      <c r="C202" t="n">
+        <v>9655</v>
+      </c>
+      <c r="D202" t="n">
+        <v>9655</v>
+      </c>
+      <c r="E202" t="n">
+        <v>9655</v>
+      </c>
+      <c r="F202" t="n">
+        <v>346.88</v>
+      </c>
+      <c r="G202" t="n">
+        <v>3948.974919449997</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>9675</v>
+      </c>
+      <c r="C203" t="n">
+        <v>9635</v>
+      </c>
+      <c r="D203" t="n">
+        <v>9675</v>
+      </c>
+      <c r="E203" t="n">
+        <v>9635</v>
+      </c>
+      <c r="F203" t="n">
+        <v>18.5761</v>
+      </c>
+      <c r="G203" t="n">
+        <v>3930.398819449997</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>9635</v>
+      </c>
+      <c r="C204" t="n">
+        <v>9630</v>
+      </c>
+      <c r="D204" t="n">
+        <v>9635</v>
+      </c>
+      <c r="E204" t="n">
+        <v>9630</v>
+      </c>
+      <c r="F204" t="n">
+        <v>69.496</v>
+      </c>
+      <c r="G204" t="n">
+        <v>3860.902819449997</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>9635</v>
+      </c>
+      <c r="C205" t="n">
+        <v>9635</v>
+      </c>
+      <c r="D205" t="n">
+        <v>9635</v>
+      </c>
+      <c r="E205" t="n">
+        <v>9635</v>
+      </c>
+      <c r="F205" t="n">
+        <v>4.9012</v>
+      </c>
+      <c r="G205" t="n">
+        <v>3865.804019449996</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>9630</v>
+      </c>
+      <c r="C206" t="n">
+        <v>9630</v>
+      </c>
+      <c r="D206" t="n">
+        <v>9630</v>
+      </c>
+      <c r="E206" t="n">
+        <v>9630</v>
+      </c>
+      <c r="F206" t="n">
+        <v>33.6793</v>
+      </c>
+      <c r="G206" t="n">
+        <v>3832.124719449997</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>9620</v>
+      </c>
+      <c r="C207" t="n">
+        <v>9680</v>
+      </c>
+      <c r="D207" t="n">
+        <v>9680</v>
+      </c>
+      <c r="E207" t="n">
+        <v>9620</v>
+      </c>
+      <c r="F207" t="n">
+        <v>203.4293</v>
+      </c>
+      <c r="G207" t="n">
+        <v>4035.554019449996</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>9680</v>
+      </c>
+      <c r="C208" t="n">
+        <v>9680</v>
+      </c>
+      <c r="D208" t="n">
+        <v>9680</v>
+      </c>
+      <c r="E208" t="n">
+        <v>9680</v>
+      </c>
+      <c r="F208" t="n">
+        <v>33.0393</v>
+      </c>
+      <c r="G208" t="n">
+        <v>4035.554019449996</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>9690</v>
+      </c>
+      <c r="C209" t="n">
+        <v>9690</v>
+      </c>
+      <c r="D209" t="n">
+        <v>9690</v>
+      </c>
+      <c r="E209" t="n">
+        <v>9690</v>
+      </c>
+      <c r="F209" t="n">
+        <v>108.0756</v>
+      </c>
+      <c r="G209" t="n">
+        <v>4143.629619449996</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>9645</v>
+      </c>
+      <c r="C210" t="n">
+        <v>9645</v>
+      </c>
+      <c r="D210" t="n">
+        <v>9645</v>
+      </c>
+      <c r="E210" t="n">
+        <v>9645</v>
+      </c>
+      <c r="F210" t="n">
+        <v>7.8446</v>
+      </c>
+      <c r="G210" t="n">
+        <v>4135.785019449996</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>9640</v>
+      </c>
+      <c r="C211" t="n">
+        <v>9640</v>
+      </c>
+      <c r="D211" t="n">
+        <v>9640</v>
+      </c>
+      <c r="E211" t="n">
+        <v>9640</v>
+      </c>
+      <c r="F211" t="n">
+        <v>18.6525</v>
+      </c>
+      <c r="G211" t="n">
+        <v>4117.132519449996</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>9640</v>
+      </c>
+      <c r="C212" t="n">
+        <v>9695</v>
+      </c>
+      <c r="D212" t="n">
+        <v>9695</v>
+      </c>
+      <c r="E212" t="n">
+        <v>9640</v>
+      </c>
+      <c r="F212" t="n">
+        <v>150.8901</v>
+      </c>
+      <c r="G212" t="n">
+        <v>4268.022619449996</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>9635</v>
+      </c>
+      <c r="C213" t="n">
+        <v>9635</v>
+      </c>
+      <c r="D213" t="n">
+        <v>9635</v>
+      </c>
+      <c r="E213" t="n">
+        <v>9635</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1.0411</v>
+      </c>
+      <c r="G213" t="n">
+        <v>4266.981519449995</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>9635</v>
+      </c>
+      <c r="C214" t="n">
+        <v>9635</v>
+      </c>
+      <c r="D214" t="n">
+        <v>9635</v>
+      </c>
+      <c r="E214" t="n">
+        <v>9635</v>
+      </c>
+      <c r="F214" t="n">
+        <v>3.9785</v>
+      </c>
+      <c r="G214" t="n">
+        <v>4266.981519449995</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>9630</v>
+      </c>
+      <c r="C215" t="n">
+        <v>9630</v>
+      </c>
+      <c r="D215" t="n">
+        <v>9630</v>
+      </c>
+      <c r="E215" t="n">
+        <v>9630</v>
+      </c>
+      <c r="F215" t="n">
+        <v>20.0058</v>
+      </c>
+      <c r="G215" t="n">
+        <v>4246.975719449995</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>9630</v>
+      </c>
+      <c r="C216" t="n">
+        <v>9675</v>
+      </c>
+      <c r="D216" t="n">
+        <v>9675</v>
+      </c>
+      <c r="E216" t="n">
+        <v>9630</v>
+      </c>
+      <c r="F216" t="n">
+        <v>49.4141</v>
+      </c>
+      <c r="G216" t="n">
+        <v>4296.389819449995</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>9660</v>
+      </c>
+      <c r="C217" t="n">
+        <v>9670</v>
+      </c>
+      <c r="D217" t="n">
+        <v>9670</v>
+      </c>
+      <c r="E217" t="n">
+        <v>9660</v>
+      </c>
+      <c r="F217" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="G217" t="n">
+        <v>4261.889819449995</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>9670</v>
+      </c>
+      <c r="C218" t="n">
+        <v>9680</v>
+      </c>
+      <c r="D218" t="n">
+        <v>9680</v>
+      </c>
+      <c r="E218" t="n">
+        <v>9670</v>
+      </c>
+      <c r="F218" t="n">
+        <v>39</v>
+      </c>
+      <c r="G218" t="n">
+        <v>4300.889819449995</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>9620</v>
+      </c>
+      <c r="C219" t="n">
+        <v>9600</v>
+      </c>
+      <c r="D219" t="n">
+        <v>9620</v>
+      </c>
+      <c r="E219" t="n">
+        <v>9600</v>
+      </c>
+      <c r="F219" t="n">
+        <v>79.0686</v>
+      </c>
+      <c r="G219" t="n">
+        <v>4221.821219449996</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>9680</v>
+      </c>
+      <c r="C220" t="n">
+        <v>9680</v>
+      </c>
+      <c r="D220" t="n">
+        <v>9680</v>
+      </c>
+      <c r="E220" t="n">
+        <v>9680</v>
+      </c>
+      <c r="F220" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="G220" t="n">
+        <v>4253.321219449996</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>9670</v>
+      </c>
+      <c r="C221" t="n">
+        <v>9675</v>
+      </c>
+      <c r="D221" t="n">
+        <v>9675</v>
+      </c>
+      <c r="E221" t="n">
+        <v>9670</v>
+      </c>
+      <c r="F221" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="G221" t="n">
+        <v>4220.821219449996</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>9675</v>
+      </c>
+      <c r="C222" t="n">
+        <v>9675</v>
+      </c>
+      <c r="D222" t="n">
+        <v>9675</v>
+      </c>
+      <c r="E222" t="n">
+        <v>9675</v>
+      </c>
+      <c r="F222" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="G222" t="n">
+        <v>4220.821219449996</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>9675</v>
+      </c>
+      <c r="C223" t="n">
+        <v>9675</v>
+      </c>
+      <c r="D223" t="n">
+        <v>9675</v>
+      </c>
+      <c r="E223" t="n">
+        <v>9675</v>
+      </c>
+      <c r="F223" t="n">
+        <v>29</v>
+      </c>
+      <c r="G223" t="n">
+        <v>4220.821219449996</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-16 BackTest BTG.xlsx
+++ b/BackTest/2019-10-16 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N223"/>
+  <dimension ref="A1:M223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>1290.17847791</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,21 @@
         <v>1331.67847791</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
         <v>9520</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +523,21 @@
         <v>1296.76207791</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>9525</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +562,21 @@
         <v>1301.05597791</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
         <v>9485</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,24 +601,21 @@
         <v>1301.05597791</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
         <v>9525</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,24 +640,19 @@
         <v>1335.05597791</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>9525</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -702,24 +677,19 @@
         <v>1335.05597791</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>9530</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -744,24 +714,19 @@
         <v>1364.55597791</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>9530</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -788,20 +753,17 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -826,24 +788,19 @@
         <v>1371.27837791</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>9495</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -870,20 +827,17 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -910,20 +864,17 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -950,20 +901,17 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -990,20 +938,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1030,20 +975,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1070,20 +1012,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1110,20 +1049,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1150,20 +1086,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1190,20 +1123,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1230,20 +1160,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1270,20 +1197,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1310,20 +1234,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1350,20 +1271,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1390,20 +1308,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1430,20 +1345,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1470,20 +1382,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1510,20 +1419,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1550,20 +1456,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1590,20 +1493,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1630,20 +1530,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1670,20 +1567,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1710,20 +1604,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1750,20 +1641,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1790,20 +1678,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1830,20 +1715,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1870,20 +1752,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1910,20 +1789,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1950,20 +1826,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1990,20 +1863,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2030,20 +1900,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2070,20 +1937,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2110,20 +1974,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2150,20 +2011,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2190,20 +2048,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2230,20 +2085,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2270,20 +2122,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2310,20 +2159,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2350,20 +2196,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2390,20 +2233,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2430,20 +2270,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2470,20 +2307,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2510,20 +2344,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2550,20 +2381,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2590,20 +2418,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2630,20 +2455,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2670,20 +2492,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2710,20 +2529,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2750,20 +2566,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2790,20 +2603,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2830,20 +2640,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2870,20 +2677,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2910,20 +2714,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2950,20 +2751,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2990,20 +2788,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3030,20 +2825,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3070,20 +2862,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3110,20 +2899,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3150,20 +2936,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3190,20 +2973,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3230,20 +3010,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3270,20 +3047,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3310,20 +3084,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3350,20 +3121,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3390,20 +3158,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3430,20 +3195,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3470,20 +3232,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3510,20 +3269,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3550,20 +3306,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3590,20 +3343,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3630,20 +3380,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3670,20 +3417,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3710,20 +3454,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3750,20 +3491,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3790,20 +3528,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3830,20 +3565,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3870,20 +3602,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3910,20 +3639,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3950,20 +3676,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3990,20 +3713,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4030,20 +3750,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4070,20 +3787,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4110,20 +3824,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4150,20 +3861,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4190,20 +3898,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4230,20 +3935,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4270,20 +3972,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4310,20 +4009,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4350,20 +4046,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4390,20 +4083,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4430,20 +4120,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4470,20 +4157,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4510,20 +4194,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4550,20 +4231,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4590,20 +4268,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4630,20 +4305,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4670,20 +4342,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4710,20 +4379,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4750,20 +4416,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4790,20 +4453,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4830,20 +4490,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4870,20 +4527,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4910,20 +4564,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4950,20 +4601,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4990,20 +4638,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5030,20 +4675,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5070,20 +4712,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5110,20 +4749,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5150,20 +4786,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5190,20 +4823,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5230,20 +4860,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5270,20 +4897,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5310,20 +4934,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5350,20 +4971,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5390,20 +5008,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5430,20 +5045,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5470,20 +5082,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5510,20 +5119,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5550,20 +5156,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5590,20 +5193,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5630,20 +5230,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5670,20 +5267,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5710,20 +5304,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5750,20 +5341,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5790,20 +5378,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5830,20 +5415,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5870,20 +5452,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5910,20 +5489,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5950,20 +5526,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5990,20 +5563,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6028,22 +5598,17 @@
         <v>3827.12239622</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6068,22 +5633,15 @@
         <v>3785.22019622</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6108,22 +5666,15 @@
         <v>3854.22019622</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6148,22 +5699,15 @@
         <v>3669.80009622</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6188,22 +5732,15 @@
         <v>4084.78009622</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6228,22 +5765,15 @@
         <v>4170.44059622</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6268,22 +5798,15 @@
         <v>4260.98201945</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6308,20 +5831,15 @@
         <v>4260.86271945</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L148" t="n">
+        <v>1</v>
       </c>
       <c r="M148" t="inlineStr"/>
-      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6346,18 +5864,15 @@
         <v>4370.86601945</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6382,18 +5897,15 @@
         <v>4370.86601945</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6418,18 +5930,15 @@
         <v>4351.40331945</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6454,18 +5963,15 @@
         <v>4351.40331945</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6490,18 +5996,15 @@
         <v>4544.40331945</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6526,18 +6029,15 @@
         <v>4544.40331945</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6562,18 +6062,15 @@
         <v>4540.42481945</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6598,18 +6095,15 @@
         <v>4529.311319449999</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6634,18 +6128,15 @@
         <v>4863.03541945</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6672,16 +6163,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6708,16 +6196,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6744,16 +6229,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6778,18 +6260,15 @@
         <v>4847.03541945</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6814,18 +6293,15 @@
         <v>4837.96541945</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6850,18 +6326,15 @@
         <v>4767.63841945</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6886,18 +6359,15 @@
         <v>4986.429219449999</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6922,18 +6392,15 @@
         <v>4992.659219449999</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6960,16 +6427,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6994,18 +6458,15 @@
         <v>5007.778919449999</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7032,16 +6493,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7068,16 +6526,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7104,16 +6559,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7140,16 +6592,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7176,16 +6625,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7212,16 +6658,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7248,16 +6691,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7284,16 +6724,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7320,16 +6757,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7356,16 +6790,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7392,16 +6823,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7428,16 +6856,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7464,16 +6889,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7500,16 +6922,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7536,16 +6955,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7572,16 +6988,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7608,16 +7021,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7644,16 +7054,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>1</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7680,16 +7087,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>1</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7716,16 +7120,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7752,16 +7153,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7788,16 +7186,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7824,16 +7219,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7860,16 +7252,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7896,16 +7285,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7932,16 +7318,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7968,16 +7351,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8002,18 +7382,15 @@
         <v>3815.813019449997</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8038,18 +7415,15 @@
         <v>3815.813019449997</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8074,18 +7448,15 @@
         <v>3865.813019449997</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8112,16 +7483,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8146,18 +7514,15 @@
         <v>3949.813019449997</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8184,16 +7549,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8218,18 +7580,15 @@
         <v>3948.974919449997</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8254,18 +7613,15 @@
         <v>3948.974919449997</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8290,18 +7646,15 @@
         <v>3930.398819449997</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8326,18 +7679,15 @@
         <v>3860.902819449997</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8362,18 +7712,15 @@
         <v>3865.804019449996</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8400,16 +7747,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8434,18 +7778,15 @@
         <v>4035.554019449996</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8470,18 +7811,15 @@
         <v>4035.554019449996</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8506,18 +7844,15 @@
         <v>4143.629619449996</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8542,18 +7877,15 @@
         <v>4135.785019449996</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8578,18 +7910,15 @@
         <v>4117.132519449996</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8614,18 +7943,15 @@
         <v>4268.022619449996</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8650,18 +7976,15 @@
         <v>4266.981519449995</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8688,16 +8011,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8722,18 +8042,15 @@
         <v>4246.975719449995</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8758,18 +8075,15 @@
         <v>4296.389819449995</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8794,18 +8108,15 @@
         <v>4261.889819449995</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8830,18 +8141,15 @@
         <v>4300.889819449995</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8866,18 +8174,15 @@
         <v>4221.821219449996</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8902,18 +8207,15 @@
         <v>4253.321219449996</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8940,16 +8242,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8976,16 +8275,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9012,18 +8308,15 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest BTG.xlsx
+++ b/BackTest/2019-10-16 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1290.17847791</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1331.67847791</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>9520</v>
@@ -523,7 +523,7 @@
         <v>1296.76207791</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>9525</v>
@@ -562,7 +562,7 @@
         <v>1301.05597791</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>9485</v>
@@ -601,7 +601,7 @@
         <v>1301.05597791</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>9525</v>
@@ -640,9 +640,11 @@
         <v>1335.05597791</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9525</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -677,9 +679,11 @@
         <v>1335.05597791</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9530</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -751,9 +755,11 @@
         <v>1364.44837791</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9545</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -788,9 +794,11 @@
         <v>1371.27837791</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9495</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -825,9 +833,11 @@
         <v>1349.347577909999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9550</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -862,9 +872,11 @@
         <v>1349.347577909999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9495</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -899,9 +911,11 @@
         <v>1349.347577909999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>9495</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -936,9 +950,11 @@
         <v>1414.00297791</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9495</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -973,9 +989,11 @@
         <v>1410.54547791</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9545</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1010,9 +1028,11 @@
         <v>1410.54547791</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9485</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1047,9 +1067,11 @@
         <v>1392.91657791</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9485</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1084,9 +1106,11 @@
         <v>1461.41657791</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>9480</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1121,9 +1145,11 @@
         <v>1497.41657791</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9535</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1528,9 +1554,11 @@
         <v>1299.41657791</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>9550</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1565,9 +1593,11 @@
         <v>1299.41657791</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>9550</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1602,9 +1632,11 @@
         <v>1299.41657791</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>9550</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1676,9 +1708,11 @@
         <v>1299.41657791</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>9550</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1713,9 +1747,11 @@
         <v>1100.01187791</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9550</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1898,9 +1934,11 @@
         <v>837.6272779099995</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>9500</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -2046,9 +2084,11 @@
         <v>858.1955779099995</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>9550</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2083,9 +2123,11 @@
         <v>858.1955779099995</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>9500</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2120,9 +2162,11 @@
         <v>1850.24267791</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>9500</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2453,9 +2497,11 @@
         <v>2593.74747791</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>9415</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -3193,9 +3239,11 @@
         <v>2882.83627791</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>9415</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3230,9 +3278,11 @@
         <v>2855.03627791</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>9465</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3267,9 +3317,11 @@
         <v>3466.980877909999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>9400</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -5598,16 +5650,18 @@
         <v>3827.12239622</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L141" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
       <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
@@ -5633,11 +5687,15 @@
         <v>3785.22019622</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5666,11 +5724,15 @@
         <v>3854.22019622</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5699,11 +5761,15 @@
         <v>3669.80009622</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5732,11 +5798,15 @@
         <v>4084.78009622</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5765,11 +5835,15 @@
         <v>4170.44059622</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5798,11 +5872,15 @@
         <v>4260.98201945</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5831,11 +5909,15 @@
         <v>4260.86271945</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5864,11 +5946,15 @@
         <v>4370.86601945</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5897,11 +5983,15 @@
         <v>4370.86601945</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5930,11 +6020,15 @@
         <v>4351.40331945</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5963,11 +6057,15 @@
         <v>4351.40331945</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5996,11 +6094,15 @@
         <v>4544.40331945</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6029,11 +6131,15 @@
         <v>4544.40331945</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6062,11 +6168,15 @@
         <v>4540.42481945</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6095,11 +6205,15 @@
         <v>4529.311319449999</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6128,11 +6242,15 @@
         <v>4863.03541945</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6165,7 +6283,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6198,7 +6320,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6231,7 +6357,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6260,11 +6390,15 @@
         <v>4847.03541945</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6293,11 +6427,15 @@
         <v>4837.96541945</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6326,11 +6464,15 @@
         <v>4767.63841945</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6359,11 +6501,15 @@
         <v>4986.429219449999</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6392,14 +6538,16 @@
         <v>4992.659219449999</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
@@ -6425,7 +6573,7 @@
         <v>4951.566919449999</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6458,7 +6606,7 @@
         <v>5007.778919449999</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6491,7 +6639,7 @@
         <v>4820.291619449999</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6524,7 +6672,7 @@
         <v>4875.25131945</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6557,7 +6705,7 @@
         <v>4816.489919449999</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6590,7 +6738,7 @@
         <v>4816.489919449999</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6623,7 +6771,7 @@
         <v>4821.276619449999</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6656,7 +6804,7 @@
         <v>4787.625119449999</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6689,7 +6837,7 @@
         <v>4787.625119449999</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6722,7 +6870,7 @@
         <v>4787.625119449999</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6755,7 +6903,7 @@
         <v>4629.225219449999</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6788,7 +6936,7 @@
         <v>4633.225219449999</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6821,7 +6969,7 @@
         <v>4624.685219449999</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7349,7 +7497,7 @@
         <v>3815.813019449997</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7382,7 +7530,7 @@
         <v>3815.813019449997</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7415,7 +7563,7 @@
         <v>3815.813019449997</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7448,7 +7596,7 @@
         <v>3865.813019449997</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7481,7 +7629,7 @@
         <v>3909.813019449997</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7514,7 +7662,7 @@
         <v>3949.813019449997</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7547,7 +7695,7 @@
         <v>3954.534919449997</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7580,7 +7728,7 @@
         <v>3948.974919449997</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7613,7 +7761,7 @@
         <v>3948.974919449997</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7646,7 +7794,7 @@
         <v>3930.398819449997</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7679,7 +7827,7 @@
         <v>3860.902819449997</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7712,7 +7860,7 @@
         <v>3865.804019449996</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7745,7 +7893,7 @@
         <v>3832.124719449997</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7778,7 +7926,7 @@
         <v>4035.554019449996</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7811,7 +7959,7 @@
         <v>4035.554019449996</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7844,7 +7992,7 @@
         <v>4143.629619449996</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7877,7 +8025,7 @@
         <v>4135.785019449996</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7910,7 +8058,7 @@
         <v>4117.132519449996</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7943,7 +8091,7 @@
         <v>4268.022619449996</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7976,7 +8124,7 @@
         <v>4266.981519449995</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8042,7 +8190,7 @@
         <v>4246.975719449995</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8075,7 +8223,7 @@
         <v>4296.389819449995</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8108,7 +8256,7 @@
         <v>4261.889819449995</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8141,7 +8289,7 @@
         <v>4300.889819449995</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8174,7 +8322,7 @@
         <v>4221.821219449996</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8207,7 +8355,7 @@
         <v>4253.321219449996</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8317,6 +8465,6 @@
       <c r="M223" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest BTG.xlsx
+++ b/BackTest/2019-10-16 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -640,11 +640,9 @@
         <v>1335.05597791</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -718,9 +716,11 @@
         <v>1364.55597791</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9530</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -755,11 +755,9 @@
         <v>1364.44837791</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9545</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -833,11 +831,9 @@
         <v>1349.347577909999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -872,11 +868,9 @@
         <v>1349.347577909999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -1554,11 +1548,9 @@
         <v>1299.41657791</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>9550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1593,11 +1585,9 @@
         <v>1299.41657791</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>9550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1632,11 +1622,9 @@
         <v>1299.41657791</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>9550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1708,11 +1696,9 @@
         <v>1299.41657791</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>9550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1747,11 +1733,9 @@
         <v>1100.01187791</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -2047,9 +2031,11 @@
         <v>889.2867779099995</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>9505</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2084,11 +2070,9 @@
         <v>858.1955779099995</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>9550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2123,11 +2107,9 @@
         <v>858.1955779099995</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>9500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2497,11 +2479,9 @@
         <v>2593.74747791</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>9415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -3239,11 +3219,9 @@
         <v>2882.83627791</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>9415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3278,11 +3256,9 @@
         <v>2855.03627791</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>9465</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3317,11 +3293,9 @@
         <v>3466.980877909999</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>9400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -4762,18 +4736,16 @@
         <v>3844.149377909999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
@@ -4799,15 +4771,11 @@
         <v>3844.149377909999</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4836,15 +4804,11 @@
         <v>3839.149377909999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4873,15 +4837,11 @@
         <v>3839.149377909999</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4910,15 +4870,11 @@
         <v>3934.149377909999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4947,15 +4903,11 @@
         <v>3934.149377909999</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4984,15 +4936,11 @@
         <v>3968.149377909999</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5025,11 +4973,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5062,11 +5006,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5099,11 +5039,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5136,11 +5072,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5173,11 +5105,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5210,11 +5138,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5243,15 +5167,11 @@
         <v>3755.127177909999</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5284,11 +5204,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5317,15 +5233,11 @@
         <v>3779.127177909999</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5354,15 +5266,11 @@
         <v>3779.127177909999</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5391,15 +5299,11 @@
         <v>3779.127177909999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5428,15 +5332,11 @@
         <v>3780.126176869999</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5465,15 +5365,11 @@
         <v>3883.629332189999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5502,15 +5398,11 @@
         <v>3879.10403219</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5539,15 +5431,11 @@
         <v>3884.10329622</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5576,15 +5464,11 @@
         <v>3821.90239622</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5613,15 +5497,11 @@
         <v>3820.90239622</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5650,15 +5530,11 @@
         <v>3827.12239622</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5687,15 +5563,11 @@
         <v>3785.22019622</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5728,11 +5600,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5765,11 +5633,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5798,15 +5662,11 @@
         <v>4084.78009622</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5835,15 +5695,11 @@
         <v>4170.44059622</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5872,15 +5728,11 @@
         <v>4260.98201945</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5909,15 +5761,11 @@
         <v>4260.86271945</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5946,15 +5794,11 @@
         <v>4370.86601945</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5983,15 +5827,11 @@
         <v>4370.86601945</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6020,15 +5860,11 @@
         <v>4351.40331945</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6057,15 +5893,11 @@
         <v>4351.40331945</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6094,15 +5926,11 @@
         <v>4544.40331945</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6135,11 +5963,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6172,11 +5996,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6209,11 +6029,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6242,15 +6058,11 @@
         <v>4863.03541945</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6283,11 +6095,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6316,15 +6124,11 @@
         <v>4849.03541945</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6353,15 +6157,11 @@
         <v>4851.03541945</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6394,11 +6194,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6431,11 +6227,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6468,11 +6260,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6505,11 +6293,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6538,16 +6322,14 @@
         <v>4992.659219449999</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
       <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
@@ -6573,7 +6355,7 @@
         <v>4951.566919449999</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6606,7 +6388,7 @@
         <v>5007.778919449999</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6639,7 +6421,7 @@
         <v>4820.291619449999</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6672,7 +6454,7 @@
         <v>4875.25131945</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6705,7 +6487,7 @@
         <v>4816.489919449999</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6738,7 +6520,7 @@
         <v>4816.489919449999</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6771,7 +6553,7 @@
         <v>4821.276619449999</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6804,7 +6586,7 @@
         <v>4787.625119449999</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6837,7 +6619,7 @@
         <v>4787.625119449999</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6870,7 +6652,7 @@
         <v>4787.625119449999</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6903,7 +6685,7 @@
         <v>4629.225219449999</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7002,7 +6784,7 @@
         <v>4543.135919449999</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7035,7 +6817,7 @@
         <v>4556.325919449999</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7068,7 +6850,7 @@
         <v>4546.325919449999</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7497,7 +7279,7 @@
         <v>3815.813019449997</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7530,7 +7312,7 @@
         <v>3815.813019449997</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7563,7 +7345,7 @@
         <v>3815.813019449997</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7596,7 +7378,7 @@
         <v>3865.813019449997</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7629,7 +7411,7 @@
         <v>3909.813019449997</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7662,7 +7444,7 @@
         <v>3949.813019449997</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7695,7 +7477,7 @@
         <v>3954.534919449997</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7728,7 +7510,7 @@
         <v>3948.974919449997</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7761,7 +7543,7 @@
         <v>3948.974919449997</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7794,7 +7576,7 @@
         <v>3930.398819449997</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7827,7 +7609,7 @@
         <v>3860.902819449997</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7860,7 +7642,7 @@
         <v>3865.804019449996</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7893,7 +7675,7 @@
         <v>3832.124719449997</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7926,7 +7708,7 @@
         <v>4035.554019449996</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7959,7 +7741,7 @@
         <v>4035.554019449996</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7992,7 +7774,7 @@
         <v>4143.629619449996</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8025,7 +7807,7 @@
         <v>4135.785019449996</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8058,7 +7840,7 @@
         <v>4117.132519449996</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8091,7 +7873,7 @@
         <v>4268.022619449996</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8124,7 +7906,7 @@
         <v>4266.981519449995</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8465,6 +8247,6 @@
       <c r="M223" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest BTG.xlsx
+++ b/BackTest/2019-10-16 BackTest BTG.xlsx
@@ -640,9 +640,11 @@
         <v>1335.05597791</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9525</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -716,11 +718,9 @@
         <v>1364.55597791</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9530</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -792,11 +792,9 @@
         <v>1371.27837791</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -905,11 +903,9 @@
         <v>1349.347577909999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -944,11 +940,9 @@
         <v>1414.00297791</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -983,11 +977,9 @@
         <v>1410.54547791</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9545</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1022,11 +1014,9 @@
         <v>1410.54547791</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9485</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1061,11 +1051,9 @@
         <v>1392.91657791</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9485</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1100,11 +1088,9 @@
         <v>1461.41657791</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9480</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1139,11 +1125,9 @@
         <v>1497.41657791</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9535</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1918,11 +1902,9 @@
         <v>837.6272779099995</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>9500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -2031,11 +2013,9 @@
         <v>889.2867779099995</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>9505</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2144,11 +2124,9 @@
         <v>1850.24267791</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>9500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,16 +4714,18 @@
         <v>3844.149377909999</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
       <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
@@ -4771,11 +4751,15 @@
         <v>3844.149377909999</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4804,11 +4788,15 @@
         <v>3839.149377909999</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4837,11 +4825,15 @@
         <v>3839.149377909999</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4870,11 +4862,15 @@
         <v>3934.149377909999</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4903,11 +4899,15 @@
         <v>3934.149377909999</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4936,11 +4936,15 @@
         <v>3968.149377909999</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4973,7 +4977,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5006,7 +5014,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5039,7 +5051,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5072,7 +5088,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5105,7 +5125,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5138,7 +5162,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5167,11 +5195,15 @@
         <v>3755.127177909999</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5204,7 +5236,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5233,11 +5269,15 @@
         <v>3779.127177909999</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5266,11 +5306,15 @@
         <v>3779.127177909999</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5299,11 +5343,15 @@
         <v>3779.127177909999</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5332,11 +5380,15 @@
         <v>3780.126176869999</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5365,11 +5417,15 @@
         <v>3883.629332189999</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5398,11 +5454,15 @@
         <v>3879.10403219</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5431,11 +5491,15 @@
         <v>3884.10329622</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5464,11 +5528,15 @@
         <v>3821.90239622</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5497,11 +5565,15 @@
         <v>3820.90239622</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5530,11 +5602,15 @@
         <v>3827.12239622</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5563,11 +5639,15 @@
         <v>3785.22019622</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5600,7 +5680,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5633,7 +5717,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5662,11 +5750,15 @@
         <v>4084.78009622</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5695,11 +5787,15 @@
         <v>4170.44059622</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5728,11 +5824,15 @@
         <v>4260.98201945</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5761,11 +5861,15 @@
         <v>4260.86271945</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5794,11 +5898,15 @@
         <v>4370.86601945</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5827,11 +5935,15 @@
         <v>4370.86601945</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5860,11 +5972,15 @@
         <v>4351.40331945</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5897,10 +6013,12 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
@@ -5959,7 +6077,7 @@
         <v>4544.40331945</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5992,7 +6110,7 @@
         <v>4540.42481945</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6058,7 +6176,7 @@
         <v>4863.03541945</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6157,7 +6275,7 @@
         <v>4851.03541945</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6190,7 +6308,7 @@
         <v>4847.03541945</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6223,7 +6341,7 @@
         <v>4837.96541945</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6256,7 +6374,7 @@
         <v>4767.63841945</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6289,7 +6407,7 @@
         <v>4986.429219449999</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6322,7 +6440,7 @@
         <v>4992.659219449999</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6355,7 +6473,7 @@
         <v>4951.566919449999</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6388,7 +6506,7 @@
         <v>5007.778919449999</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6421,7 +6539,7 @@
         <v>4820.291619449999</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6454,7 +6572,7 @@
         <v>4875.25131945</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6487,7 +6605,7 @@
         <v>4816.489919449999</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6520,7 +6638,7 @@
         <v>4816.489919449999</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6553,7 +6671,7 @@
         <v>4821.276619449999</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6586,7 +6704,7 @@
         <v>4787.625119449999</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6619,7 +6737,7 @@
         <v>4787.625119449999</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6652,7 +6770,7 @@
         <v>4787.625119449999</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6685,7 +6803,7 @@
         <v>4629.225219449999</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6817,7 +6935,7 @@
         <v>4556.325919449999</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6883,7 +7001,7 @@
         <v>4560.325919449999</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6916,7 +7034,7 @@
         <v>4520.225919449998</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6949,7 +7067,7 @@
         <v>4588.725919449998</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6982,7 +7100,7 @@
         <v>4746.465919449998</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7015,7 +7133,7 @@
         <v>4787.056119449998</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7048,7 +7166,7 @@
         <v>4703.660719449997</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7081,7 +7199,7 @@
         <v>4693.952619449998</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7114,7 +7232,7 @@
         <v>4329.791919449997</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>

--- a/BackTest/2019-10-16 BackTest BTG.xlsx
+++ b/BackTest/2019-10-16 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M223"/>
+  <dimension ref="A1:L223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>1290.17847791</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,21 @@
         <v>41.5</v>
       </c>
       <c r="G3" t="n">
-        <v>1331.67847791</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
         <v>9520</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,24 +509,19 @@
         <v>34.9164</v>
       </c>
       <c r="G4" t="n">
-        <v>1296.76207791</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9525</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +543,19 @@
         <v>4.2939</v>
       </c>
       <c r="G5" t="n">
-        <v>1301.05597791</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9485</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,24 +577,21 @@
         <v>6.38</v>
       </c>
       <c r="G6" t="n">
-        <v>1301.05597791</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
         <v>9525</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,24 +613,19 @@
         <v>34</v>
       </c>
       <c r="G7" t="n">
-        <v>1335.05597791</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9525</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -676,24 +647,19 @@
         <v>33</v>
       </c>
       <c r="G8" t="n">
-        <v>1335.05597791</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9530</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -715,22 +681,21 @@
         <v>29.5</v>
       </c>
       <c r="G9" t="n">
-        <v>1364.55597791</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>9530</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -752,22 +717,19 @@
         <v>0.1076</v>
       </c>
       <c r="G10" t="n">
-        <v>1364.44837791</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -789,22 +751,19 @@
         <v>6.83</v>
       </c>
       <c r="G11" t="n">
-        <v>1371.27837791</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -826,22 +785,19 @@
         <v>21.9308</v>
       </c>
       <c r="G12" t="n">
-        <v>1349.347577909999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -863,22 +819,19 @@
         <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>1349.347577909999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -900,22 +853,21 @@
         <v>9.3888</v>
       </c>
       <c r="G14" t="n">
-        <v>1349.347577909999</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>9495</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -937,22 +889,21 @@
         <v>64.6554</v>
       </c>
       <c r="G15" t="n">
-        <v>1414.00297791</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>9495</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -974,22 +925,21 @@
         <v>3.4575</v>
       </c>
       <c r="G16" t="n">
-        <v>1410.54547791</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>9545</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1011,22 +961,21 @@
         <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>1410.54547791</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>9485</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1048,22 +997,19 @@
         <v>17.6289</v>
       </c>
       <c r="G18" t="n">
-        <v>1392.91657791</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1085,22 +1031,19 @@
         <v>68.5</v>
       </c>
       <c r="G19" t="n">
-        <v>1461.41657791</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1122,22 +1065,19 @@
         <v>36</v>
       </c>
       <c r="G20" t="n">
-        <v>1497.41657791</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1159,22 +1099,19 @@
         <v>30.5</v>
       </c>
       <c r="G21" t="n">
-        <v>1497.41657791</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1196,22 +1133,19 @@
         <v>369</v>
       </c>
       <c r="G22" t="n">
-        <v>1128.41657791</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1233,22 +1167,21 @@
         <v>12</v>
       </c>
       <c r="G23" t="n">
-        <v>1140.41657791</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>9450</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1270,22 +1203,19 @@
         <v>37.5</v>
       </c>
       <c r="G24" t="n">
-        <v>1177.91657791</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1307,22 +1237,19 @@
         <v>71.5</v>
       </c>
       <c r="G25" t="n">
-        <v>1249.41657791</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1344,22 +1271,19 @@
         <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>1249.41657791</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1381,22 +1305,19 @@
         <v>4</v>
       </c>
       <c r="G27" t="n">
-        <v>1245.41657791</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1418,22 +1339,19 @@
         <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>1245.41657791</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1455,22 +1373,19 @@
         <v>28</v>
       </c>
       <c r="G29" t="n">
-        <v>1273.41657791</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1492,22 +1407,19 @@
         <v>26</v>
       </c>
       <c r="G30" t="n">
-        <v>1299.41657791</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1529,22 +1441,19 @@
         <v>8.880000000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>1299.41657791</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1566,22 +1475,19 @@
         <v>6</v>
       </c>
       <c r="G32" t="n">
-        <v>1299.41657791</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1603,22 +1509,19 @@
         <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>1299.41657791</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1640,22 +1543,19 @@
         <v>22.7494</v>
       </c>
       <c r="G34" t="n">
-        <v>1299.41657791</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1677,22 +1577,19 @@
         <v>32</v>
       </c>
       <c r="G35" t="n">
-        <v>1299.41657791</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1714,22 +1611,19 @@
         <v>199.4047</v>
       </c>
       <c r="G36" t="n">
-        <v>1100.01187791</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1751,22 +1645,19 @@
         <v>50.2011</v>
       </c>
       <c r="G37" t="n">
-        <v>1049.81077791</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1788,22 +1679,19 @@
         <v>31.5</v>
       </c>
       <c r="G38" t="n">
-        <v>1081.31077791</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1825,22 +1713,19 @@
         <v>4</v>
       </c>
       <c r="G39" t="n">
-        <v>1077.31077791</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1862,22 +1747,19 @@
         <v>245.9735</v>
       </c>
       <c r="G40" t="n">
-        <v>831.3372779099996</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1899,22 +1781,19 @@
         <v>6.29</v>
       </c>
       <c r="G41" t="n">
-        <v>837.6272779099995</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1936,22 +1815,19 @@
         <v>9.6342</v>
       </c>
       <c r="G42" t="n">
-        <v>837.6272779099995</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1973,22 +1849,19 @@
         <v>23.4681</v>
       </c>
       <c r="G43" t="n">
-        <v>814.1591779099995</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2010,22 +1883,19 @@
         <v>75.1276</v>
       </c>
       <c r="G44" t="n">
-        <v>889.2867779099995</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2047,22 +1917,19 @@
         <v>31.0912</v>
       </c>
       <c r="G45" t="n">
-        <v>858.1955779099995</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2084,22 +1951,19 @@
         <v>0.9088000000000001</v>
       </c>
       <c r="G46" t="n">
-        <v>858.1955779099995</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2121,22 +1985,19 @@
         <v>992.0471</v>
       </c>
       <c r="G47" t="n">
-        <v>1850.24267791</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2158,22 +2019,19 @@
         <v>32.2283</v>
       </c>
       <c r="G48" t="n">
-        <v>1818.01437791</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2195,22 +2053,19 @@
         <v>871.4606</v>
       </c>
       <c r="G49" t="n">
-        <v>2689.47497791</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2232,22 +2087,19 @@
         <v>114.6687</v>
       </c>
       <c r="G50" t="n">
-        <v>2574.80627791</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2269,22 +2121,19 @@
         <v>20</v>
       </c>
       <c r="G51" t="n">
-        <v>2594.80627791</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2306,22 +2155,19 @@
         <v>11.1779</v>
       </c>
       <c r="G52" t="n">
-        <v>2605.98417791</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2343,22 +2189,19 @@
         <v>13.0967</v>
       </c>
       <c r="G53" t="n">
-        <v>2592.88747791</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2380,22 +2223,19 @@
         <v>38</v>
       </c>
       <c r="G54" t="n">
-        <v>2630.88747791</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2417,22 +2257,19 @@
         <v>50</v>
       </c>
       <c r="G55" t="n">
-        <v>2580.88747791</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2454,22 +2291,19 @@
         <v>12.86</v>
       </c>
       <c r="G56" t="n">
-        <v>2593.74747791</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2491,22 +2325,19 @@
         <v>536.3916</v>
       </c>
       <c r="G57" t="n">
-        <v>3130.13907791</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2528,22 +2359,19 @@
         <v>6</v>
       </c>
       <c r="G58" t="n">
-        <v>3124.13907791</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2565,22 +2393,19 @@
         <v>46</v>
       </c>
       <c r="G59" t="n">
-        <v>3170.13907791</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2602,22 +2427,19 @@
         <v>56</v>
       </c>
       <c r="G60" t="n">
-        <v>3114.13907791</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2639,22 +2461,19 @@
         <v>72.59439999999999</v>
       </c>
       <c r="G61" t="n">
-        <v>3186.73347791</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2676,22 +2495,19 @@
         <v>55.6342</v>
       </c>
       <c r="G62" t="n">
-        <v>3131.09927791</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2713,22 +2529,19 @@
         <v>94.41459999999999</v>
       </c>
       <c r="G63" t="n">
-        <v>3225.51387791</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2750,22 +2563,19 @@
         <v>6</v>
       </c>
       <c r="G64" t="n">
-        <v>3219.51387791</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2787,22 +2597,19 @@
         <v>682</v>
       </c>
       <c r="G65" t="n">
-        <v>2537.51387791</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2824,22 +2631,19 @@
         <v>187</v>
       </c>
       <c r="G66" t="n">
-        <v>2724.51387791</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2861,22 +2665,19 @@
         <v>15.8651</v>
       </c>
       <c r="G67" t="n">
-        <v>2708.64877791</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2898,22 +2699,19 @@
         <v>22.3678</v>
       </c>
       <c r="G68" t="n">
-        <v>2686.28097791</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2935,22 +2733,19 @@
         <v>4.8893</v>
       </c>
       <c r="G69" t="n">
-        <v>2681.39167791</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2972,22 +2767,19 @@
         <v>220.1467</v>
       </c>
       <c r="G70" t="n">
-        <v>2681.39167791</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3009,22 +2801,19 @@
         <v>4.8893</v>
       </c>
       <c r="G71" t="n">
-        <v>2686.28097791</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3046,22 +2835,19 @@
         <v>5</v>
       </c>
       <c r="G72" t="n">
-        <v>2681.28097791</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3083,22 +2869,19 @@
         <v>4.2019</v>
       </c>
       <c r="G73" t="n">
-        <v>2685.48287791</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3120,22 +2903,19 @@
         <v>16.7987</v>
       </c>
       <c r="G74" t="n">
-        <v>2668.68417791</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3157,22 +2937,19 @@
         <v>0.3231</v>
       </c>
       <c r="G75" t="n">
-        <v>2668.36107791</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3194,22 +2971,21 @@
         <v>214.4752</v>
       </c>
       <c r="G76" t="n">
-        <v>2882.83627791</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>9415</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3231,22 +3007,21 @@
         <v>27.8</v>
       </c>
       <c r="G77" t="n">
-        <v>2855.03627791</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>9465</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3268,22 +3043,21 @@
         <v>611.9446</v>
       </c>
       <c r="G78" t="n">
-        <v>3466.980877909999</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>9400</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3305,22 +3079,21 @@
         <v>1.3258</v>
       </c>
       <c r="G79" t="n">
-        <v>3468.30667791</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>9480</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3342,22 +3115,19 @@
         <v>6.49</v>
       </c>
       <c r="G80" t="n">
-        <v>3474.796677909999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3379,22 +3149,19 @@
         <v>6.22</v>
       </c>
       <c r="G81" t="n">
-        <v>3474.796677909999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3416,22 +3183,19 @@
         <v>6.39</v>
       </c>
       <c r="G82" t="n">
-        <v>3481.186677909999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3453,22 +3217,19 @@
         <v>6.2</v>
       </c>
       <c r="G83" t="n">
-        <v>3481.186677909999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3490,22 +3251,19 @@
         <v>2</v>
       </c>
       <c r="G84" t="n">
-        <v>3479.186677909999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3527,22 +3285,19 @@
         <v>11</v>
       </c>
       <c r="G85" t="n">
-        <v>3479.186677909999</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3564,22 +3319,19 @@
         <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>3469.186677909999</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3601,22 +3353,19 @@
         <v>42</v>
       </c>
       <c r="G87" t="n">
-        <v>3469.186677909999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3638,22 +3387,19 @@
         <v>34</v>
       </c>
       <c r="G88" t="n">
-        <v>3503.186677909999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3675,22 +3421,19 @@
         <v>32</v>
       </c>
       <c r="G89" t="n">
-        <v>3503.186677909999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3712,22 +3455,19 @@
         <v>2</v>
       </c>
       <c r="G90" t="n">
-        <v>3503.186677909999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3749,22 +3489,19 @@
         <v>40</v>
       </c>
       <c r="G91" t="n">
-        <v>3543.186677909999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3786,22 +3523,19 @@
         <v>6.52</v>
       </c>
       <c r="G92" t="n">
-        <v>3543.186677909999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3823,22 +3557,19 @@
         <v>186</v>
       </c>
       <c r="G93" t="n">
-        <v>3729.186677909999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3860,22 +3591,19 @@
         <v>6.41</v>
       </c>
       <c r="G94" t="n">
-        <v>3729.186677909999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3897,22 +3625,19 @@
         <v>6.34</v>
       </c>
       <c r="G95" t="n">
-        <v>3729.186677909999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3934,22 +3659,19 @@
         <v>13.97</v>
       </c>
       <c r="G96" t="n">
-        <v>3729.186677909999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3971,22 +3693,19 @@
         <v>13.24</v>
       </c>
       <c r="G97" t="n">
-        <v>3715.946677909999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4008,22 +3727,19 @@
         <v>6.27</v>
       </c>
       <c r="G98" t="n">
-        <v>3715.946677909999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4045,22 +3761,19 @@
         <v>6.64</v>
       </c>
       <c r="G99" t="n">
-        <v>3715.946677909999</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4082,22 +3795,19 @@
         <v>3.31</v>
       </c>
       <c r="G100" t="n">
-        <v>3719.256677909999</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4119,22 +3829,19 @@
         <v>70.02679999999999</v>
       </c>
       <c r="G101" t="n">
-        <v>3719.256677909999</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4156,22 +3863,19 @@
         <v>62</v>
       </c>
       <c r="G102" t="n">
-        <v>3781.256677909999</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4193,22 +3897,19 @@
         <v>30</v>
       </c>
       <c r="G103" t="n">
-        <v>3781.256677909999</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4230,22 +3931,19 @@
         <v>103.5</v>
       </c>
       <c r="G104" t="n">
-        <v>3781.256677909999</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4267,22 +3965,19 @@
         <v>34.5</v>
       </c>
       <c r="G105" t="n">
-        <v>3781.256677909999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4304,22 +3999,19 @@
         <v>6</v>
       </c>
       <c r="G106" t="n">
-        <v>3781.256677909999</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4341,22 +4033,19 @@
         <v>62</v>
       </c>
       <c r="G107" t="n">
-        <v>3781.256677909999</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4378,22 +4067,19 @@
         <v>42</v>
       </c>
       <c r="G108" t="n">
-        <v>3781.256677909999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4415,22 +4101,21 @@
         <v>3</v>
       </c>
       <c r="G109" t="n">
-        <v>3781.256677909999</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>9550</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4452,22 +4137,19 @@
         <v>53</v>
       </c>
       <c r="G110" t="n">
-        <v>3781.256677909999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4489,22 +4171,21 @@
         <v>32</v>
       </c>
       <c r="G111" t="n">
-        <v>3781.256677909999</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>9550</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4526,22 +4207,21 @@
         <v>33</v>
       </c>
       <c r="G112" t="n">
-        <v>3781.256677909999</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>9550</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4563,22 +4243,21 @@
         <v>131</v>
       </c>
       <c r="G113" t="n">
-        <v>3781.256677909999</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>9550</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4600,22 +4279,21 @@
         <v>67.92400000000001</v>
       </c>
       <c r="G114" t="n">
-        <v>3781.256677909999</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>9550</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4637,22 +4315,21 @@
         <v>34.5</v>
       </c>
       <c r="G115" t="n">
-        <v>3815.756677909999</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>9550</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4674,22 +4351,19 @@
         <v>3.6073</v>
       </c>
       <c r="G116" t="n">
-        <v>3812.149377909999</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4711,22 +4385,19 @@
         <v>32</v>
       </c>
       <c r="G117" t="n">
-        <v>3844.149377909999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4748,22 +4419,19 @@
         <v>38.5</v>
       </c>
       <c r="G118" t="n">
-        <v>3844.149377909999</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4785,22 +4453,19 @@
         <v>5</v>
       </c>
       <c r="G119" t="n">
-        <v>3839.149377909999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4822,22 +4487,21 @@
         <v>11.7954</v>
       </c>
       <c r="G120" t="n">
-        <v>3839.149377909999</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>9560</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4859,22 +4523,21 @@
         <v>95</v>
       </c>
       <c r="G121" t="n">
-        <v>3934.149377909999</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>9560</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4896,22 +4559,21 @@
         <v>32</v>
       </c>
       <c r="G122" t="n">
-        <v>3934.149377909999</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>9590</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4933,22 +4595,21 @@
         <v>34</v>
       </c>
       <c r="G123" t="n">
-        <v>3968.149377909999</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>9590</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4970,22 +4631,21 @@
         <v>34.6288</v>
       </c>
       <c r="G124" t="n">
-        <v>3933.520577909999</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>9600</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5007,22 +4667,21 @@
         <v>6</v>
       </c>
       <c r="G125" t="n">
-        <v>3939.520577909999</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>9555</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5044,22 +4703,21 @@
         <v>4</v>
       </c>
       <c r="G126" t="n">
-        <v>3939.520577909999</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>9595</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5081,22 +4739,21 @@
         <v>4</v>
       </c>
       <c r="G127" t="n">
-        <v>3939.520577909999</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>9595</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5118,22 +4775,21 @@
         <v>6</v>
       </c>
       <c r="G128" t="n">
-        <v>3945.520577909999</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>9595</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5155,22 +4811,21 @@
         <v>190.3934</v>
       </c>
       <c r="G129" t="n">
-        <v>3945.520577909999</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>9600</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5192,22 +4847,21 @@
         <v>190.3934</v>
       </c>
       <c r="G130" t="n">
-        <v>3755.127177909999</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>9600</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5229,22 +4883,21 @@
         <v>20</v>
       </c>
       <c r="G131" t="n">
-        <v>3775.127177909999</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>9555</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5266,22 +4919,21 @@
         <v>4</v>
       </c>
       <c r="G132" t="n">
-        <v>3779.127177909999</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>9635</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5303,22 +4955,21 @@
         <v>22</v>
       </c>
       <c r="G133" t="n">
-        <v>3779.127177909999</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>9640</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5340,22 +4991,19 @@
         <v>11.5</v>
       </c>
       <c r="G134" t="n">
-        <v>3779.127177909999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5377,22 +5025,19 @@
         <v>0.99899896</v>
       </c>
       <c r="G135" t="n">
-        <v>3780.126176869999</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5414,22 +5059,19 @@
         <v>103.50315532</v>
       </c>
       <c r="G136" t="n">
-        <v>3883.629332189999</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5451,22 +5093,19 @@
         <v>4.5253</v>
       </c>
       <c r="G137" t="n">
-        <v>3879.10403219</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5488,22 +5127,19 @@
         <v>4.99926403</v>
       </c>
       <c r="G138" t="n">
-        <v>3884.10329622</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5525,22 +5161,19 @@
         <v>62.2009</v>
       </c>
       <c r="G139" t="n">
-        <v>3821.90239622</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5562,22 +5195,19 @@
         <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>3820.90239622</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5599,22 +5229,19 @@
         <v>6.22</v>
       </c>
       <c r="G141" t="n">
-        <v>3827.12239622</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5636,22 +5263,19 @@
         <v>41.9022</v>
       </c>
       <c r="G142" t="n">
-        <v>3785.22019622</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5673,22 +5297,19 @@
         <v>69</v>
       </c>
       <c r="G143" t="n">
-        <v>3854.22019622</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5710,22 +5331,19 @@
         <v>184.4201</v>
       </c>
       <c r="G144" t="n">
-        <v>3669.80009622</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5747,22 +5365,19 @@
         <v>414.98</v>
       </c>
       <c r="G145" t="n">
-        <v>4084.78009622</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5784,22 +5399,19 @@
         <v>85.6605</v>
       </c>
       <c r="G146" t="n">
-        <v>4170.44059622</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5821,22 +5433,19 @@
         <v>90.54142323000001</v>
       </c>
       <c r="G147" t="n">
-        <v>4260.98201945</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5858,22 +5467,19 @@
         <v>0.1193</v>
       </c>
       <c r="G148" t="n">
-        <v>4260.86271945</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5895,22 +5501,19 @@
         <v>110.0033</v>
       </c>
       <c r="G149" t="n">
-        <v>4370.86601945</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5932,22 +5535,19 @@
         <v>62.2084</v>
       </c>
       <c r="G150" t="n">
-        <v>4370.86601945</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5969,22 +5569,19 @@
         <v>19.4627</v>
       </c>
       <c r="G151" t="n">
-        <v>4351.40331945</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6006,20 +5603,19 @@
         <v>250.8275</v>
       </c>
       <c r="G152" t="n">
-        <v>4351.40331945</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
       </c>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6041,18 +5637,19 @@
         <v>193</v>
       </c>
       <c r="G153" t="n">
-        <v>4544.40331945</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6074,18 +5671,17 @@
         <v>64.96680000000001</v>
       </c>
       <c r="G154" t="n">
-        <v>4544.40331945</v>
-      </c>
-      <c r="H154" t="n">
         <v>2</v>
       </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6107,18 +5703,15 @@
         <v>3.9785</v>
       </c>
       <c r="G155" t="n">
-        <v>4540.42481945</v>
-      </c>
-      <c r="H155" t="n">
         <v>2</v>
       </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6140,18 +5733,15 @@
         <v>11.1135</v>
       </c>
       <c r="G156" t="n">
-        <v>4529.311319449999</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6173,18 +5763,15 @@
         <v>333.7241</v>
       </c>
       <c r="G157" t="n">
-        <v>4863.03541945</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6206,18 +5793,15 @@
         <v>14</v>
       </c>
       <c r="G158" t="n">
-        <v>4849.03541945</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6239,18 +5823,15 @@
         <v>10</v>
       </c>
       <c r="G159" t="n">
-        <v>4849.03541945</v>
-      </c>
-      <c r="H159" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6272,18 +5853,15 @@
         <v>2</v>
       </c>
       <c r="G160" t="n">
-        <v>4851.03541945</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6305,18 +5883,15 @@
         <v>4</v>
       </c>
       <c r="G161" t="n">
-        <v>4847.03541945</v>
-      </c>
-      <c r="H161" t="n">
         <v>2</v>
       </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6338,18 +5913,15 @@
         <v>9.07</v>
       </c>
       <c r="G162" t="n">
-        <v>4837.96541945</v>
-      </c>
-      <c r="H162" t="n">
         <v>2</v>
       </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6371,18 +5943,15 @@
         <v>70.327</v>
       </c>
       <c r="G163" t="n">
-        <v>4767.63841945</v>
-      </c>
-      <c r="H163" t="n">
         <v>2</v>
       </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6404,18 +5973,15 @@
         <v>218.7908</v>
       </c>
       <c r="G164" t="n">
-        <v>4986.429219449999</v>
-      </c>
-      <c r="H164" t="n">
         <v>2</v>
       </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6437,18 +6003,15 @@
         <v>6.23</v>
       </c>
       <c r="G165" t="n">
-        <v>4992.659219449999</v>
-      </c>
-      <c r="H165" t="n">
         <v>2</v>
       </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6470,18 +6033,15 @@
         <v>41.0923</v>
       </c>
       <c r="G166" t="n">
-        <v>4951.566919449999</v>
-      </c>
-      <c r="H166" t="n">
         <v>2</v>
       </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6503,18 +6063,15 @@
         <v>56.212</v>
       </c>
       <c r="G167" t="n">
-        <v>5007.778919449999</v>
-      </c>
-      <c r="H167" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6536,18 +6093,15 @@
         <v>187.4873</v>
       </c>
       <c r="G168" t="n">
-        <v>4820.291619449999</v>
-      </c>
-      <c r="H168" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6569,18 +6123,15 @@
         <v>54.9597</v>
       </c>
       <c r="G169" t="n">
-        <v>4875.25131945</v>
-      </c>
-      <c r="H169" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6602,18 +6153,15 @@
         <v>58.7614</v>
       </c>
       <c r="G170" t="n">
-        <v>4816.489919449999</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6635,18 +6183,15 @@
         <v>36.2618</v>
       </c>
       <c r="G171" t="n">
-        <v>4816.489919449999</v>
-      </c>
-      <c r="H171" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6668,18 +6213,15 @@
         <v>4.7867</v>
       </c>
       <c r="G172" t="n">
-        <v>4821.276619449999</v>
-      </c>
-      <c r="H172" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6701,18 +6243,15 @@
         <v>33.6515</v>
       </c>
       <c r="G173" t="n">
-        <v>4787.625119449999</v>
-      </c>
-      <c r="H173" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6734,18 +6273,15 @@
         <v>51.6381</v>
       </c>
       <c r="G174" t="n">
-        <v>4787.625119449999</v>
-      </c>
-      <c r="H174" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6767,18 +6303,15 @@
         <v>11</v>
       </c>
       <c r="G175" t="n">
-        <v>4787.625119449999</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6800,18 +6333,15 @@
         <v>158.3999</v>
       </c>
       <c r="G176" t="n">
-        <v>4629.225219449999</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6833,18 +6363,15 @@
         <v>4</v>
       </c>
       <c r="G177" t="n">
-        <v>4633.225219449999</v>
-      </c>
-      <c r="H177" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6866,18 +6393,15 @@
         <v>8.539999999999999</v>
       </c>
       <c r="G178" t="n">
-        <v>4624.685219449999</v>
-      </c>
-      <c r="H178" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6899,18 +6423,15 @@
         <v>81.5493</v>
       </c>
       <c r="G179" t="n">
-        <v>4543.135919449999</v>
-      </c>
-      <c r="H179" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6932,18 +6453,15 @@
         <v>13.19</v>
       </c>
       <c r="G180" t="n">
-        <v>4556.325919449999</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6965,18 +6483,15 @@
         <v>10</v>
       </c>
       <c r="G181" t="n">
-        <v>4546.325919449999</v>
-      </c>
-      <c r="H181" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6998,18 +6513,15 @@
         <v>14</v>
       </c>
       <c r="G182" t="n">
-        <v>4560.325919449999</v>
-      </c>
-      <c r="H182" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7031,18 +6543,15 @@
         <v>40.1</v>
       </c>
       <c r="G183" t="n">
-        <v>4520.225919449998</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7064,18 +6573,15 @@
         <v>68.5</v>
       </c>
       <c r="G184" t="n">
-        <v>4588.725919449998</v>
-      </c>
-      <c r="H184" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7097,18 +6603,15 @@
         <v>157.74</v>
       </c>
       <c r="G185" t="n">
-        <v>4746.465919449998</v>
-      </c>
-      <c r="H185" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7130,18 +6633,15 @@
         <v>40.5902</v>
       </c>
       <c r="G186" t="n">
-        <v>4787.056119449998</v>
-      </c>
-      <c r="H186" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7163,18 +6663,15 @@
         <v>83.3954</v>
       </c>
       <c r="G187" t="n">
-        <v>4703.660719449997</v>
-      </c>
-      <c r="H187" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7196,18 +6693,15 @@
         <v>9.7081</v>
       </c>
       <c r="G188" t="n">
-        <v>4693.952619449998</v>
-      </c>
-      <c r="H188" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7229,18 +6723,15 @@
         <v>364.1607</v>
       </c>
       <c r="G189" t="n">
-        <v>4329.791919449997</v>
-      </c>
-      <c r="H189" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7262,18 +6753,15 @@
         <v>32.44</v>
       </c>
       <c r="G190" t="n">
-        <v>4329.791919449997</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7295,18 +6783,15 @@
         <v>132.8689</v>
       </c>
       <c r="G191" t="n">
-        <v>4196.923019449997</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7328,18 +6813,15 @@
         <v>370</v>
       </c>
       <c r="G192" t="n">
-        <v>3826.923019449997</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7361,18 +6843,15 @@
         <v>0.1</v>
       </c>
       <c r="G193" t="n">
-        <v>3826.923019449997</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7394,18 +6873,15 @@
         <v>11.11</v>
       </c>
       <c r="G194" t="n">
-        <v>3815.813019449997</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7427,18 +6903,15 @@
         <v>59.7469</v>
       </c>
       <c r="G195" t="n">
-        <v>3815.813019449997</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7460,18 +6933,15 @@
         <v>0.9307</v>
       </c>
       <c r="G196" t="n">
-        <v>3815.813019449997</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7493,18 +6963,15 @@
         <v>50</v>
       </c>
       <c r="G197" t="n">
-        <v>3865.813019449997</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7526,18 +6993,15 @@
         <v>44</v>
       </c>
       <c r="G198" t="n">
-        <v>3909.813019449997</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7559,18 +7023,15 @@
         <v>40</v>
       </c>
       <c r="G199" t="n">
-        <v>3949.813019449997</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7592,18 +7053,15 @@
         <v>4.7219</v>
       </c>
       <c r="G200" t="n">
-        <v>3954.534919449997</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7625,18 +7083,15 @@
         <v>5.56</v>
       </c>
       <c r="G201" t="n">
-        <v>3948.974919449997</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,18 +7113,15 @@
         <v>346.88</v>
       </c>
       <c r="G202" t="n">
-        <v>3948.974919449997</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7691,18 +7143,15 @@
         <v>18.5761</v>
       </c>
       <c r="G203" t="n">
-        <v>3930.398819449997</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7724,18 +7173,15 @@
         <v>69.496</v>
       </c>
       <c r="G204" t="n">
-        <v>3860.902819449997</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7757,18 +7203,15 @@
         <v>4.9012</v>
       </c>
       <c r="G205" t="n">
-        <v>3865.804019449996</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7790,18 +7233,15 @@
         <v>33.6793</v>
       </c>
       <c r="G206" t="n">
-        <v>3832.124719449997</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7823,18 +7263,15 @@
         <v>203.4293</v>
       </c>
       <c r="G207" t="n">
-        <v>4035.554019449996</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7856,18 +7293,15 @@
         <v>33.0393</v>
       </c>
       <c r="G208" t="n">
-        <v>4035.554019449996</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7889,18 +7323,15 @@
         <v>108.0756</v>
       </c>
       <c r="G209" t="n">
-        <v>4143.629619449996</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7922,18 +7353,15 @@
         <v>7.8446</v>
       </c>
       <c r="G210" t="n">
-        <v>4135.785019449996</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7955,18 +7383,15 @@
         <v>18.6525</v>
       </c>
       <c r="G211" t="n">
-        <v>4117.132519449996</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7988,18 +7413,15 @@
         <v>150.8901</v>
       </c>
       <c r="G212" t="n">
-        <v>4268.022619449996</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8021,18 +7443,15 @@
         <v>1.0411</v>
       </c>
       <c r="G213" t="n">
-        <v>4266.981519449995</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8054,18 +7473,15 @@
         <v>3.9785</v>
       </c>
       <c r="G214" t="n">
-        <v>4266.981519449995</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8087,18 +7503,15 @@
         <v>20.0058</v>
       </c>
       <c r="G215" t="n">
-        <v>4246.975719449995</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8120,18 +7533,15 @@
         <v>49.4141</v>
       </c>
       <c r="G216" t="n">
-        <v>4296.389819449995</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8153,18 +7563,15 @@
         <v>34.5</v>
       </c>
       <c r="G217" t="n">
-        <v>4261.889819449995</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8186,18 +7593,15 @@
         <v>39</v>
       </c>
       <c r="G218" t="n">
-        <v>4300.889819449995</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8219,18 +7623,15 @@
         <v>79.0686</v>
       </c>
       <c r="G219" t="n">
-        <v>4221.821219449996</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8252,18 +7653,15 @@
         <v>31.5</v>
       </c>
       <c r="G220" t="n">
-        <v>4253.321219449996</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8285,18 +7683,15 @@
         <v>32.5</v>
       </c>
       <c r="G221" t="n">
-        <v>4220.821219449996</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8318,18 +7713,15 @@
         <v>33.5</v>
       </c>
       <c r="G222" t="n">
-        <v>4220.821219449996</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8351,18 +7743,15 @@
         <v>29</v>
       </c>
       <c r="G223" t="n">
-        <v>4220.821219449996</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
